--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kopo\devcode\Session00 - codehk\03. 외부연동데이터 수집\apiScrapy\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynehwang/Documents/GitHub/python_automation/apiScrapy/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A4021-DE51-4FE8-A07D-545AEA738A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8870A-FF40-204D-A606-9FF9CBFAF9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Term">#REF!</definedName>
-    <definedName name="title">#REF!</definedName>
     <definedName name="공휴일">OFFSET([1]사업캘린더!$L$3,,,COUNTA([1]사업캘린더!$L:$L)-1)</definedName>
     <definedName name="산출물명">'[2]1.표지 '!$C$4</definedName>
     <definedName name="실적_측정_기준일">[3]진척율보고서!$L$3</definedName>
     <definedName name="프로젝트명">'[2]1.표지 '!$C$3</definedName>
     <definedName name="프로젝트약자">#REF!</definedName>
+    <definedName name="Term">#REF!</definedName>
+    <definedName name="title">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,11 +38,8 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="400">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,9 +181,6 @@
   <si>
     <t>품질계획 현황</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectQltPlnList.do</t>
   </si>
   <si>
     <t>serviceKey=test&amp;sptNo=&amp;sptTo=&amp;type=json</t>
@@ -1654,7 +1648,21 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCcwYn	number,searchOrcd,searchCwkNm</t>
+    <t>serviceKey,sptNo,rprtYm</t>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,rprtYm,type</t>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCcwYn,number,searchOrcd,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectQltPlnList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질계획 현황/selectQltPlnList.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1662,7 +1670,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1732,6 +1740,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1814,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1935,6 +1949,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1944,26 +1976,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2348,36 +2365,36 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="K3" sqref="K3"/>
+      <selection pane="topRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.796875" customWidth="1"/>
-    <col min="4" max="4" width="73.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.19921875" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.33203125" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="29.796875" style="33" customWidth="1"/>
-    <col min="13" max="13" width="25.09765625" customWidth="1"/>
-    <col min="14" max="14" width="19.59765625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.59765625" customWidth="1"/>
-    <col min="17" max="17" width="38.69921875" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.59765625" customWidth="1"/>
-    <col min="21" max="21" width="24.59765625" customWidth="1"/>
-    <col min="22" max="23" width="20.59765625" customWidth="1"/>
-    <col min="24" max="24" width="23.8984375" customWidth="1"/>
+    <col min="12" max="12" width="29.83203125" style="33" customWidth="1"/>
+    <col min="13" max="13" width="25.1640625" customWidth="1"/>
+    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.6640625" customWidth="1"/>
+    <col min="17" max="17" width="38.6640625" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.6640625" customWidth="1"/>
+    <col min="21" max="21" width="24.6640625" customWidth="1"/>
+    <col min="22" max="23" width="20.6640625" customWidth="1"/>
+    <col min="24" max="24" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2406,25 +2423,25 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O1" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -2451,7 +2468,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="72">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2465,10 +2482,10 @@
         <v>25</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>26</v>
@@ -2477,16 +2494,16 @@
         <v>29</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K2" s="39" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L2" s="38" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>27</v>
@@ -2498,13 +2515,13 @@
         <v>27</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S2" s="8" t="s">
         <v>20</v>
@@ -2513,10 +2530,10 @@
         <v>21</v>
       </c>
       <c r="U2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>27</v>
@@ -2525,7 +2542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="108">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2539,10 +2556,10 @@
         <v>30</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>26</v>
@@ -2551,17 +2568,17 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="36" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="L3" s="38" t="s">
         <v>393</v>
       </c>
-      <c r="K3" s="37" t="s">
-        <v>392</v>
-      </c>
-      <c r="L3" s="38" t="s">
-        <v>394</v>
-      </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2572,13 +2589,13 @@
         <v>27</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S3" s="8" t="s">
         <v>20</v>
@@ -2587,17 +2604,17 @@
         <v>21</v>
       </c>
       <c r="U3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V3" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="90">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2611,10 +2628,10 @@
         <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -2623,13 +2640,16 @@
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="32" t="str">
-        <f t="shared" ref="L4:L57" si="0">"../output/"&amp;B4&amp;"/"&amp;D4</f>
-        <v>../output/건설사업정보시스템 - 공사/품질계획 현황</v>
+        <v>38</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L4" s="38" t="s">
+        <v>399</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
@@ -2641,13 +2661,13 @@
         <v>27</v>
       </c>
       <c r="P4" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S4" s="8" t="s">
         <v>20</v>
@@ -2656,17 +2676,17 @@
         <v>21</v>
       </c>
       <c r="U4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V4" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="90">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2677,13 +2697,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>26</v>
@@ -2692,12 +2712,12 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J5" s="30"/>
       <c r="K5" s="34"/>
       <c r="L5" s="32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="L4:L57" si="0">"../output/"&amp;B5&amp;"/"&amp;D5</f>
         <v>../output/건설사업정보시스템 - 공사/안전관리비 현황</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -2710,13 +2730,13 @@
         <v>27</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="S5" s="8" t="s">
         <v>20</v>
@@ -2725,17 +2745,17 @@
         <v>21</v>
       </c>
       <c r="U5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="72">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2746,13 +2766,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>26</v>
@@ -2761,7 +2781,7 @@
         <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J6" s="30"/>
       <c r="K6" s="34"/>
@@ -2779,13 +2799,13 @@
         <v>27</v>
       </c>
       <c r="P6" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S6" s="8" t="s">
         <v>20</v>
@@ -2804,7 +2824,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="72">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2815,13 +2835,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>26</v>
@@ -2830,7 +2850,7 @@
         <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J7" s="30"/>
       <c r="K7" s="34"/>
@@ -2848,13 +2868,13 @@
         <v>27</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="S7" s="8" t="s">
         <v>20</v>
@@ -2863,17 +2883,17 @@
         <v>21</v>
       </c>
       <c r="U7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V7" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="162">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2884,13 +2904,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>26</v>
@@ -2899,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="30"/>
       <c r="K8" s="34"/>
@@ -2917,13 +2937,13 @@
         <v>27</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="S8" s="8" t="s">
         <v>20</v>
@@ -2932,17 +2952,17 @@
         <v>21</v>
       </c>
       <c r="U8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2953,13 +2973,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>26</v>
@@ -2968,7 +2988,7 @@
         <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J9" s="30"/>
       <c r="K9" s="34"/>
@@ -2986,13 +3006,13 @@
         <v>27</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="S9" s="8" t="s">
         <v>20</v>
@@ -3001,17 +3021,17 @@
         <v>21</v>
       </c>
       <c r="U9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V9" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="90">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3022,13 +3042,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>26</v>
@@ -3037,34 +3057,34 @@
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>388</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>390</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>394</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>391</v>
-      </c>
-      <c r="L10" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="R10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S10" s="8" t="s">
         <v>20</v>
@@ -3073,17 +3093,17 @@
         <v>21</v>
       </c>
       <c r="U10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V10" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W10" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="90">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3094,13 +3114,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>26</v>
@@ -3109,7 +3129,7 @@
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="30"/>
       <c r="K11" s="34"/>
@@ -3127,13 +3147,13 @@
         <v>27</v>
       </c>
       <c r="P11" s="25" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S11" s="8" t="s">
         <v>20</v>
@@ -3142,17 +3162,17 @@
         <v>21</v>
       </c>
       <c r="U11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V11" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="90">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3163,13 +3183,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>26</v>
@@ -3178,7 +3198,7 @@
         <v>29</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J12" s="30"/>
       <c r="K12" s="34"/>
@@ -3196,13 +3216,13 @@
         <v>27</v>
       </c>
       <c r="P12" s="25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S12" s="8" t="s">
         <v>20</v>
@@ -3211,17 +3231,17 @@
         <v>21</v>
       </c>
       <c r="U12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V12" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="90">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3232,13 +3252,13 @@
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>26</v>
@@ -3247,7 +3267,7 @@
         <v>29</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J13" s="30"/>
       <c r="K13" s="34"/>
@@ -3265,13 +3285,13 @@
         <v>27</v>
       </c>
       <c r="P13" s="25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S13" s="8" t="s">
         <v>20</v>
@@ -3280,17 +3300,17 @@
         <v>21</v>
       </c>
       <c r="U13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V13" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W13" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="72">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3301,13 +3321,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>26</v>
@@ -3316,7 +3336,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J14" s="30"/>
       <c r="K14" s="34"/>
@@ -3334,13 +3354,13 @@
         <v>27</v>
       </c>
       <c r="P14" s="25" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S14" s="8" t="s">
         <v>20</v>
@@ -3349,17 +3369,17 @@
         <v>21</v>
       </c>
       <c r="U14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V14" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="90">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3370,13 +3390,13 @@
         <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>26</v>
@@ -3385,7 +3405,7 @@
         <v>29</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="30"/>
       <c r="K15" s="34"/>
@@ -3403,13 +3423,13 @@
         <v>27</v>
       </c>
       <c r="P15" s="25" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S15" s="8" t="s">
         <v>20</v>
@@ -3418,17 +3438,17 @@
         <v>21</v>
       </c>
       <c r="U15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V15" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V15" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="90">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3439,13 +3459,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E16" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>26</v>
@@ -3454,7 +3474,7 @@
         <v>29</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="34"/>
@@ -3472,13 +3492,13 @@
         <v>27</v>
       </c>
       <c r="P16" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>20</v>
@@ -3487,17 +3507,17 @@
         <v>21</v>
       </c>
       <c r="U16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V16" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V16" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="108">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3508,13 +3528,13 @@
         <v>19</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>26</v>
@@ -3523,7 +3543,7 @@
         <v>29</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J17" s="30"/>
       <c r="K17" s="34"/>
@@ -3541,13 +3561,13 @@
         <v>27</v>
       </c>
       <c r="P17" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="R17" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>20</v>
@@ -3556,17 +3576,17 @@
         <v>21</v>
       </c>
       <c r="U17" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V17" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V17" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="90">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3577,13 +3597,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>26</v>
@@ -3592,7 +3612,7 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="34"/>
@@ -3610,13 +3630,13 @@
         <v>27</v>
       </c>
       <c r="P18" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="S18" s="8" t="s">
         <v>20</v>
@@ -3625,17 +3645,17 @@
         <v>21</v>
       </c>
       <c r="U18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V18" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V18" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W18" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="54">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3646,13 +3666,13 @@
         <v>19</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>26</v>
@@ -3661,7 +3681,7 @@
         <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J19" s="30"/>
       <c r="K19" s="34"/>
@@ -3679,13 +3699,13 @@
         <v>27</v>
       </c>
       <c r="P19" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S19" s="8" t="s">
         <v>20</v>
@@ -3694,34 +3714,34 @@
         <v>21</v>
       </c>
       <c r="U19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V19" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="V19" s="6" t="s">
-        <v>60</v>
       </c>
       <c r="W19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="54">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>26</v>
@@ -3730,7 +3750,7 @@
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J20" s="30"/>
       <c r="K20" s="34"/>
@@ -3748,13 +3768,13 @@
         <v>27</v>
       </c>
       <c r="P20" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>20</v>
@@ -3763,34 +3783,34 @@
         <v>21</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V20" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="261" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" ht="270">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>26</v>
@@ -3799,7 +3819,7 @@
         <v>29</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J21" s="30"/>
       <c r="K21" s="34"/>
@@ -3817,13 +3837,13 @@
         <v>27</v>
       </c>
       <c r="P21" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>20</v>
@@ -3832,34 +3852,34 @@
         <v>21</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V21" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="90">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>26</v>
@@ -3868,7 +3888,7 @@
         <v>29</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" s="30"/>
       <c r="K22" s="34"/>
@@ -3886,13 +3906,13 @@
         <v>27</v>
       </c>
       <c r="P22" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="R22" s="4" t="s">
         <v>104</v>
-      </c>
-      <c r="R22" s="4" t="s">
-        <v>105</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>20</v>
@@ -3901,34 +3921,34 @@
         <v>21</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" ht="72">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E23" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
@@ -3937,7 +3957,7 @@
         <v>29</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J23" s="30"/>
       <c r="K23" s="34"/>
@@ -3955,13 +3975,13 @@
         <v>27</v>
       </c>
       <c r="P23" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="R23" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>109</v>
       </c>
       <c r="S23" s="8" t="s">
         <v>20</v>
@@ -3970,34 +3990,34 @@
         <v>21</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="90">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>26</v>
@@ -4006,7 +4026,7 @@
         <v>29</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J24" s="30"/>
       <c r="K24" s="34"/>
@@ -4024,13 +4044,13 @@
         <v>27</v>
       </c>
       <c r="P24" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>20</v>
@@ -4039,34 +4059,34 @@
         <v>21</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V24" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W24" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" ht="54">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E25" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>26</v>
@@ -4075,7 +4095,7 @@
         <v>29</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="30"/>
       <c r="K25" s="34"/>
@@ -4093,13 +4113,13 @@
         <v>27</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S25" s="8" t="s">
         <v>20</v>
@@ -4108,34 +4128,34 @@
         <v>21</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V25" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W25" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" ht="54">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E26" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>26</v>
@@ -4144,7 +4164,7 @@
         <v>29</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J26" s="30"/>
       <c r="K26" s="34"/>
@@ -4162,13 +4182,13 @@
         <v>27</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S26" s="8" t="s">
         <v>20</v>
@@ -4177,34 +4197,34 @@
         <v>21</v>
       </c>
       <c r="U26" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="V26" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W26" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" ht="54">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>26</v>
@@ -4213,7 +4233,7 @@
         <v>29</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
@@ -4231,13 +4251,13 @@
         <v>27</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="Q27" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R27" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="R27" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="S27" s="8" t="s">
         <v>20</v>
@@ -4246,34 +4266,34 @@
         <v>21</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V27" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W27" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" ht="72">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>26</v>
@@ -4282,7 +4302,7 @@
         <v>29</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="34"/>
@@ -4300,13 +4320,13 @@
         <v>27</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S28" s="8" t="s">
         <v>20</v>
@@ -4315,34 +4335,34 @@
         <v>21</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V28" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" ht="72">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>26</v>
@@ -4351,7 +4371,7 @@
         <v>29</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J29" s="30"/>
       <c r="K29" s="34"/>
@@ -4369,13 +4389,13 @@
         <v>27</v>
       </c>
       <c r="P29" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R29" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="R29" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="S29" s="8" t="s">
         <v>20</v>
@@ -4384,34 +4404,34 @@
         <v>21</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W29" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" ht="54">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E30" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>26</v>
@@ -4420,7 +4440,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J30" s="30"/>
       <c r="K30" s="34"/>
@@ -4438,13 +4458,13 @@
         <v>27</v>
       </c>
       <c r="P30" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R30" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S30" s="8" t="s">
         <v>20</v>
@@ -4453,34 +4473,34 @@
         <v>21</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W30" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" ht="126">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>26</v>
@@ -4489,7 +4509,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J31" s="30"/>
       <c r="K31" s="34"/>
@@ -4507,13 +4527,13 @@
         <v>27</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R31" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S31" s="8" t="s">
         <v>20</v>
@@ -4522,34 +4542,34 @@
         <v>21</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="72">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
@@ -4558,7 +4578,7 @@
         <v>29</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J32" s="30"/>
       <c r="K32" s="34"/>
@@ -4576,13 +4596,13 @@
         <v>27</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R32" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S32" s="8" t="s">
         <v>20</v>
@@ -4591,34 +4611,34 @@
         <v>21</v>
       </c>
       <c r="U32" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="72">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E33" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>26</v>
@@ -4627,7 +4647,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J33" s="30"/>
       <c r="K33" s="34"/>
@@ -4645,13 +4665,13 @@
         <v>27</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R33" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S33" s="8" t="s">
         <v>20</v>
@@ -4660,34 +4680,34 @@
         <v>21</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V33" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" ht="54">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E34" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
@@ -4696,7 +4716,7 @@
         <v>29</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J34" s="30"/>
       <c r="K34" s="34"/>
@@ -4714,13 +4734,13 @@
         <v>27</v>
       </c>
       <c r="P34" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="Q34" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R34" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S34" s="8" t="s">
         <v>20</v>
@@ -4729,34 +4749,34 @@
         <v>21</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V34" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" ht="72">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>26</v>
@@ -4765,7 +4785,7 @@
         <v>29</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J35" s="30"/>
       <c r="K35" s="34"/>
@@ -4783,13 +4803,13 @@
         <v>27</v>
       </c>
       <c r="P35" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="Q35" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R35" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S35" s="8" t="s">
         <v>20</v>
@@ -4798,34 +4818,34 @@
         <v>21</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" ht="162">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>26</v>
@@ -4834,7 +4854,7 @@
         <v>29</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J36" s="30"/>
       <c r="K36" s="34"/>
@@ -4852,13 +4872,13 @@
         <v>27</v>
       </c>
       <c r="P36" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R36" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S36" s="8" t="s">
         <v>20</v>
@@ -4867,34 +4887,34 @@
         <v>21</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V36" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W36" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" ht="126">
       <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E37" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F37" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>26</v>
@@ -4903,7 +4923,7 @@
         <v>29</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="30"/>
       <c r="K37" s="34"/>
@@ -4921,13 +4941,13 @@
         <v>27</v>
       </c>
       <c r="P37" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R37" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S37" s="8" t="s">
         <v>20</v>
@@ -4936,34 +4956,34 @@
         <v>21</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V37" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W37" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="365.4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="394">
       <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E38" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>26</v>
@@ -4972,7 +4992,7 @@
         <v>29</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J38" s="30"/>
       <c r="K38" s="34"/>
@@ -4990,13 +5010,13 @@
         <v>27</v>
       </c>
       <c r="P38" s="26" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S38" s="8" t="s">
         <v>20</v>
@@ -5005,34 +5025,34 @@
         <v>21</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V38" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W38" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" ht="54">
       <c r="A39" s="1">
         <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>26</v>
@@ -5041,7 +5061,7 @@
         <v>29</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" s="30"/>
       <c r="K39" s="34"/>
@@ -5059,13 +5079,13 @@
         <v>27</v>
       </c>
       <c r="P39" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="R39" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S39" s="8" t="s">
         <v>20</v>
@@ -5074,34 +5094,34 @@
         <v>21</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V39" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W39" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" ht="72">
       <c r="A40" s="1">
         <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E40" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>26</v>
@@ -5110,7 +5130,7 @@
         <v>29</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J40" s="30"/>
       <c r="K40" s="34"/>
@@ -5128,13 +5148,13 @@
         <v>27</v>
       </c>
       <c r="P40" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="R40" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="S40" s="8" t="s">
         <v>20</v>
@@ -5143,34 +5163,34 @@
         <v>21</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V40" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W40" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" ht="90">
       <c r="A41" s="1">
         <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E41" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>26</v>
@@ -5179,7 +5199,7 @@
         <v>29</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J41" s="30"/>
       <c r="K41" s="34"/>
@@ -5197,13 +5217,13 @@
         <v>27</v>
       </c>
       <c r="P41" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Q41" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="R41" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="R41" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="S41" s="8" t="s">
         <v>20</v>
@@ -5212,34 +5232,34 @@
         <v>21</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V41" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W41" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" ht="72">
       <c r="A42" s="1">
         <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>26</v>
@@ -5248,7 +5268,7 @@
         <v>29</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J42" s="30"/>
       <c r="K42" s="34"/>
@@ -5266,13 +5286,13 @@
         <v>27</v>
       </c>
       <c r="P42" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q42" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="R42" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>171</v>
       </c>
       <c r="S42" s="8" t="s">
         <v>20</v>
@@ -5281,34 +5301,34 @@
         <v>21</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V42" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W42" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" ht="72">
       <c r="A43" s="1">
         <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E43" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>26</v>
@@ -5317,7 +5337,7 @@
         <v>29</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J43" s="30"/>
       <c r="K43" s="34"/>
@@ -5335,13 +5355,13 @@
         <v>27</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S43" s="8" t="s">
         <v>20</v>
@@ -5350,34 +5370,34 @@
         <v>21</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V43" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W43" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" ht="54">
       <c r="A44" s="1">
         <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E44" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>26</v>
@@ -5386,7 +5406,7 @@
         <v>29</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J44" s="30"/>
       <c r="K44" s="34"/>
@@ -5404,13 +5424,13 @@
         <v>27</v>
       </c>
       <c r="P44" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="Q44" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="R44" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>20</v>
@@ -5419,34 +5439,34 @@
         <v>21</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V44" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" ht="72">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>26</v>
@@ -5455,7 +5475,7 @@
         <v>29</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J45" s="30"/>
       <c r="K45" s="34"/>
@@ -5473,13 +5493,13 @@
         <v>27</v>
       </c>
       <c r="P45" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="Q45" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="R45" s="4" t="s">
         <v>178</v>
-      </c>
-      <c r="R45" s="4" t="s">
-        <v>179</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>20</v>
@@ -5488,34 +5508,34 @@
         <v>21</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V45" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W45" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" ht="54">
       <c r="A46" s="1">
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E46" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>26</v>
@@ -5524,7 +5544,7 @@
         <v>29</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J46" s="30"/>
       <c r="K46" s="34"/>
@@ -5542,49 +5562,49 @@
         <v>27</v>
       </c>
       <c r="P46" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="Q46" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="R46" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="R46" s="4" t="s">
-        <v>183</v>
-      </c>
       <c r="S46" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T46" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V46" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W46" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" ht="90">
       <c r="A47" s="1">
         <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F47" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>26</v>
@@ -5593,7 +5613,7 @@
         <v>29</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J47" s="30"/>
       <c r="K47" s="34"/>
@@ -5611,49 +5631,49 @@
         <v>27</v>
       </c>
       <c r="P47" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R47" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S47" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V47" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W47" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" ht="72">
       <c r="A48" s="1">
         <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E48" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>26</v>
@@ -5662,7 +5682,7 @@
         <v>29</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J48" s="30"/>
       <c r="K48" s="34"/>
@@ -5680,49 +5700,49 @@
         <v>27</v>
       </c>
       <c r="P48" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="R48" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S48" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T48" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V48" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" ht="108">
       <c r="A49" s="1">
         <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>26</v>
@@ -5731,7 +5751,7 @@
         <v>29</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="J49" s="30"/>
       <c r="K49" s="34"/>
@@ -5749,49 +5769,49 @@
         <v>27</v>
       </c>
       <c r="P49" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R49" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S49" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T49" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U49" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V49" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" ht="90">
       <c r="A50" s="1">
         <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E50" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>26</v>
@@ -5800,7 +5820,7 @@
         <v>29</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J50" s="30"/>
       <c r="K50" s="34"/>
@@ -5818,49 +5838,49 @@
         <v>27</v>
       </c>
       <c r="P50" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Q50" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="R50" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="R50" s="4" t="s">
-        <v>194</v>
-      </c>
       <c r="S50" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U50" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V50" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W50" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" ht="216">
       <c r="A51" s="1">
         <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F51" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>26</v>
@@ -5869,7 +5889,7 @@
         <v>29</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J51" s="30"/>
       <c r="K51" s="34"/>
@@ -5887,49 +5907,49 @@
         <v>27</v>
       </c>
       <c r="P51" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="R51" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S51" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U51" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V51" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W51" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="330.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" ht="342">
       <c r="A52" s="1">
         <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E52" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>26</v>
@@ -5938,7 +5958,7 @@
         <v>29</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J52" s="29"/>
       <c r="K52" s="35"/>
@@ -5956,49 +5976,49 @@
         <v>27</v>
       </c>
       <c r="P52" s="25" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S52" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T52" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U52" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V52" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W52" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" ht="72">
       <c r="A53" s="1">
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E53" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F53" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>26</v>
@@ -6007,7 +6027,7 @@
         <v>29</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J53" s="30"/>
       <c r="K53" s="34"/>
@@ -6025,49 +6045,49 @@
         <v>27</v>
       </c>
       <c r="P53" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R53" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S53" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T53" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U53" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W53" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" ht="90">
       <c r="A54" s="1">
         <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E54" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>26</v>
@@ -6076,7 +6096,7 @@
         <v>29</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J54" s="30"/>
       <c r="K54" s="34"/>
@@ -6094,49 +6114,49 @@
         <v>27</v>
       </c>
       <c r="P54" s="25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q54" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="R54" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="R54" s="4" t="s">
-        <v>203</v>
-      </c>
       <c r="S54" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V54" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" ht="72">
       <c r="A55" s="1">
         <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F55" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>26</v>
@@ -6145,7 +6165,7 @@
         <v>29</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J55" s="30"/>
       <c r="K55" s="34"/>
@@ -6163,49 +6183,49 @@
         <v>27</v>
       </c>
       <c r="P55" s="25" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R55" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S55" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T55" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W55" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" ht="72">
       <c r="A56" s="1">
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E56" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F56" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F56" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
@@ -6214,7 +6234,7 @@
         <v>29</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J56" s="30"/>
       <c r="K56" s="34"/>
@@ -6232,49 +6252,49 @@
         <v>27</v>
       </c>
       <c r="P56" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q56" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="R56" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="R56" s="4" t="s">
-        <v>208</v>
-      </c>
       <c r="S56" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T56" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U56" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V56" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W56" s="6" t="s">
         <v>27</v>
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" ht="72">
       <c r="A57" s="1">
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E57" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F57" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>26</v>
@@ -6283,7 +6303,7 @@
         <v>29</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J57" s="30"/>
       <c r="K57" s="34"/>
@@ -6301,25 +6321,25 @@
         <v>27</v>
       </c>
       <c r="P57" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="R57" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S57" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="T57" s="8" t="s">
         <v>21</v>
       </c>
       <c r="U57" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="V57" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W57" s="6" t="s">
         <v>27</v>
@@ -6411,30 +6431,30 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.69921875" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.59765625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.59765625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="75.83203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.6640625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="28" customWidth="1"/>
     <col min="14" max="14" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.3984375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="9.19921875" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.59765625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="28.33203125" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.6640625" style="14" customWidth="1"/>
     <col min="18" max="18" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="19.59765625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.6640625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6466,13 +6486,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="L1" s="20" t="s">
-        <v>232</v>
-      </c>
       <c r="M1" s="20" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>11</v>
@@ -6484,39 +6504,39 @@
         <v>13</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R1" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>236</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="U1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="174" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" ht="180">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>26</v>
@@ -6525,7 +6545,7 @@
         <v>29</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
@@ -6537,49 +6557,49 @@
         <v>27</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:21" ht="72">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E3" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>26</v>
@@ -6588,61 +6608,61 @@
         <v>29</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>368</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="O3" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="174" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" ht="180">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>26</v>
@@ -6651,61 +6671,61 @@
         <v>29</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>369</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" ht="162">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E5" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>26</v>
@@ -6714,61 +6734,61 @@
         <v>29</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="P5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:21" ht="72">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G6" s="13" t="s">
         <v>26</v>
@@ -6777,61 +6797,61 @@
         <v>29</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>371</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" ht="72">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E7" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>26</v>
@@ -6840,61 +6860,61 @@
         <v>29</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="O7" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" ht="72">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E8" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>26</v>
@@ -6903,61 +6923,61 @@
         <v>29</v>
       </c>
       <c r="I8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>265</v>
-      </c>
       <c r="O8" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="87" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" ht="90">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E9" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>26</v>
@@ -6966,61 +6986,61 @@
         <v>29</v>
       </c>
       <c r="I9" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>374</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" ht="72">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E10" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G10" s="13" t="s">
         <v>26</v>
@@ -7029,7 +7049,7 @@
         <v>29</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>27</v>
@@ -7041,49 +7061,49 @@
         <v>27</v>
       </c>
       <c r="M10" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P10" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" ht="72">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G11" s="13" t="s">
         <v>26</v>
@@ -7092,7 +7112,7 @@
         <v>29</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J11" s="13" t="s">
         <v>27</v>
@@ -7104,135 +7124,135 @@
         <v>27</v>
       </c>
       <c r="M11" s="25" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43">
+    <row r="12" spans="1:21" ht="409.5" customHeight="1">
+      <c r="A12" s="42">
         <v>11</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="J12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="40" t="s">
-        <v>378</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>285</v>
-      </c>
-      <c r="O12" s="49" t="s">
-        <v>279</v>
-      </c>
-      <c r="P12" s="48" t="s">
+      <c r="I12" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="J12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="N12" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="O12" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="P12" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="R12" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="S12" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="T12" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="43"/>
+      <c r="Q12" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="R12" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="S12" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="T12" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="42"/>
     </row>
-    <row r="13" spans="1:21" ht="226.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
+    <row r="13" spans="1:21" ht="226.5" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
     </row>
-    <row r="14" spans="1:21" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" ht="126">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E14" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G14" s="13" t="s">
         <v>26</v>
@@ -7241,7 +7261,7 @@
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J14" s="13" t="s">
         <v>27</v>
@@ -7253,49 +7273,49 @@
         <v>27</v>
       </c>
       <c r="M14" s="25" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="87" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" ht="90">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E15" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>26</v>
@@ -7304,147 +7324,147 @@
         <v>29</v>
       </c>
       <c r="I15" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="J15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>380</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>288</v>
-      </c>
       <c r="O15" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43">
+    <row r="16" spans="1:21" ht="409.5" customHeight="1">
+      <c r="A16" s="42">
         <v>14</v>
       </c>
-      <c r="B16" s="42" t="s">
-        <v>276</v>
-      </c>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="C16" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="E16" s="44" t="s">
-        <v>229</v>
-      </c>
-      <c r="F16" s="44" t="s">
-        <v>230</v>
-      </c>
-      <c r="G16" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="47" t="s">
+      <c r="J16" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="N16" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="J16" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="40" t="s">
-        <v>381</v>
-      </c>
-      <c r="N16" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="O16" s="49" t="s">
-        <v>278</v>
-      </c>
-      <c r="P16" s="48" t="s">
+      <c r="O16" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="P16" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="S16" s="43" t="s">
-        <v>240</v>
-      </c>
-      <c r="T16" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="43"/>
+      <c r="Q16" s="42" t="s">
+        <v>233</v>
+      </c>
+      <c r="R16" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="S16" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="T16" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="42"/>
     </row>
-    <row r="17" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="43"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="43"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
+    <row r="17" spans="1:21" ht="179.25" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
     </row>
-    <row r="18" spans="1:21" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:21" ht="216">
       <c r="A18" s="1">
         <v>15</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E18" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>26</v>
@@ -7453,61 +7473,61 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="N18" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N18" s="1" t="s">
+      <c r="O18" s="4" t="s">
         <v>298</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>299</v>
       </c>
       <c r="P18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" ht="144">
       <c r="A19" s="1">
         <v>16</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E19" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>26</v>
@@ -7516,61 +7536,61 @@
         <v>29</v>
       </c>
       <c r="I19" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" ht="180">
       <c r="A20" s="1">
         <v>17</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E20" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>229</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>26</v>
@@ -7579,37 +7599,37 @@
         <v>29</v>
       </c>
       <c r="I20" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>384</v>
-      </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>308</v>
       </c>
       <c r="P20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>27</v>
@@ -7618,11 +7638,27 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="P16:P17"/>
+    <mergeCell ref="O16:O17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="U12:U13"/>
     <mergeCell ref="I16:I17"/>
@@ -7639,27 +7675,11 @@
     <mergeCell ref="S12:S13"/>
     <mergeCell ref="L12:L13"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waynehwang/Documents/GitHub/python_automation/apiScrapy/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\(로컬)생기원실행\03. 데이터\새 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B8870A-FF40-204D-A606-9FF9CBFAF9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9604620C-626A-4EF8-A8AA-42E20DD85D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2925" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="Term">#REF!</definedName>
+    <definedName name="title">#REF!</definedName>
     <definedName name="공휴일">OFFSET([1]사업캘린더!$L$3,,,COUNTA([1]사업캘린더!$L:$L)-1)</definedName>
     <definedName name="산출물명">'[2]1.표지 '!$C$4</definedName>
     <definedName name="실적_측정_기준일">[3]진척율보고서!$L$3</definedName>
     <definedName name="프로젝트명">'[2]1.표지 '!$C$3</definedName>
     <definedName name="프로젝트약자">#REF!</definedName>
-    <definedName name="Term">#REF!</definedName>
-    <definedName name="title">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,8 +38,11 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="496">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1644,10 +1647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../output/건설사업정보시스템/연도별 공사계약 목록/selectIoCmProjConstYearContractList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>serviceKey,sptNo,rprtYm</t>
   </si>
   <si>
@@ -1664,13 +1663,334 @@
   <si>
     <t>../output/건설사업정보시스템/품질계획 현황/selectQltPlnList.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/안전관리비 현황/selectSftMctList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/업체 목록/selectIoCmProjCorpInfoList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/업체별 참여공사 목록/selectIoCmProjCorpPartList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/월간공정 현황/selectMlyPrpoList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(터널) 목록/selectIoCmProjFcl02List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/연도별 공사계약 목록/selectIoCmProjConstYearContractList.csv/selectIoCmProjConstYearContractList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(절개사면) 목록/selectIoCmProjFcl03List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(통로박스) 목록/selectIoCmProjFcl04List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(옹벽) 목록/selectIoCmProjFcl05List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(교량) 목록/selectIoCmProjFcl01List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(수문) 목록/selectIoCmProjFcl06List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(제방) 목록/selectIoCmProjFcl07List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계변경 내역서 현황/selectDgnChgRprtDetailList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계변경 현황/selectDgnChgRprtList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로, 하천 공사정보/selectIoCmCwkStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 목록/selectIoFmMngList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 기본제원/selectIoFmSpcfDtl.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 점검진단계획 목록/selectIoFmChckDinsPlnList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 점검진단이력 목록/selectIoFmChckDinsHstList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 보수보강이력 목록/selectIoFmMnrHstList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 유지보수대장 목록/selectIoFmCwkRegsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로시설물 관리현황 정보/selectIoFmFctStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-전체보상액 규모 기준 실적 현황/selectIoLcAlRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-사업별 면적 및 보상액 기준 실적 현황/selectIoLcBzByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-시도별 면적 및 보상액 기준 실적 현황/selectIoLcCnpByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(채권보상실적)/selectIoLcBndStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(잔여지 및 간접보상)/selectIoLcRldAndItcnStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(환매권 행사)/selectIoLcBrpAndEvnStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(부동산소유사실 확인서)/selectIoLcLndByStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(대토보상)/selectIoLcSlaRwStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcOrByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-취득방법별 면적 및 보상액 기준 실적 현황/selectIoLcAcqMtdByRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(지목별 실적 현황)/selectIoLcLnctStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-공공사업의 물건보상액 기준 실적 현황/selectIoLcPblBzByTngRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-소속 기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcBlnOrByRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로점용허가내용 목록/selectIoPmPermitList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사성적서 등록 목록/selectIoPmQtscList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사성적서 상세정보 현황/selectIoPmQtscView.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사전문기관 목록/selectIoApiPmQtscList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사전문기관 상세정보/selectIoApiPmQtsc.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설자재 품질검사 등록정보/selectIoPmQtlTsitStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세 검토조직 조회/selectIoPtVeReviewList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세 VE제안목록/selectIoPtVEProposalList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 목록 조회/selectIoPtVeBusinessList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세정보/selectIoPtVeBusiness.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 사후평가 목록 조회/selectIoPtCtwkPsevList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업수행성과 평가표/selectIoPtBzExtOtc.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업효율 및 파급효과 평가표/selectIoPtBzEffNdRlftEvsh.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계도서등록 사업목록 조회 /selectIoPtDgnBkInfYrdList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계도서등록 상세정보 조회 /selectIoPtDgnBkInfYrd.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 원가절감사례 목록 조회/selectIoPtCostDownCaseList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 원가절감사례 상세 조회/selectIoPtCostDownCase.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 계약정보/selectIoPtVeContractCorpList.csv</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno,type</t>
+  </si>
+  <si>
+    <t>serviceKey,ctrMetdCntlCdVl,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,ctrMetdCntlCdVl</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchIciDivCode,searchStrBcDivCodeList,searchSSourceNm,searchMainTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,orOgcd,bzSn,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,orOgcd,bzSn</t>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrOgcd,searchEtCd,searchBzNm,searchBztpCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,crsdYm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,crsdYm,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,brn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,brn,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo,rprtYm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo,rprtYm,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo</t>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,sptTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,sptTo,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrnm,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchFctNm,searchFctCfCd,searchFctKdCd,searchRutCd,searchCwkNm,searchOfcCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno,type,pageNo,numOfRows,sortField,sortOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCwkEdYr,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCmofNm,searchOfcNm,searchFctNm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
+  </si>
+  <si>
+    <t>serviceKey,searchEdBgDt,searchEdEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchActUserNm,searchOrgNm,searchPermitNo</t>
+  </si>
+  <si>
+    <t>serviceKey,searchEdBgDt,searchEdEdDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchClntNm,searchMtlNm</t>
+  </si>
+  <si>
+    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,tstRpcdSeq,type</t>
+  </si>
+  <si>
+    <t>serviceKey,tstRpcdSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
+  </si>
+  <si>
+    <t>serviceKey,rgsSeq,type</t>
+  </si>
+  <si>
+    <t>serviceKey,rgsSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,year,type,pageNo,numOfRows,sortField,sortOrder,searchMtlNm,searchPerNo,searchCwkNm</t>
+  </si>
+  <si>
+    <t>serviceKey,year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchProjNm,searchConstClass,searchBusinessType,searchReviewTeam,searchVeStep,searchConstYmdFrom,searchConstYmdTo,searchOrderOrg,searchOrderOrgNm,searchFacil,searchMinConstAmt,searchMaxConstAmt,searchConstLocation,type,pageNo,numOfRows,sortField,sortOrder</t>
+  </si>
+  <si>
+    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchOdinOrcd,searchBztpCd,searchCtco,searchBzNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1748,7 +2068,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1758,12 +2078,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,7 +2142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1916,38 +2230,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1979,7 +2266,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2020,15 +2316,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1.표지 "/>
-      <sheetName val="2.개정이력"/>
-      <sheetName val="3.과업대비표(플랫폼)"/>
-      <sheetName val="집계표"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2359,42 +2649,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="K4" sqref="K4"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="73.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="70.33203125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="70.375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="29.83203125" style="33" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="17" width="38.6640625" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.6640625" customWidth="1"/>
-    <col min="21" max="21" width="24.6640625" customWidth="1"/>
-    <col min="22" max="23" width="20.6640625" customWidth="1"/>
-    <col min="24" max="24" width="23.83203125" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
+    <col min="14" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="38.625" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.625" customWidth="1"/>
+    <col min="21" max="21" width="24.625" customWidth="1"/>
+    <col min="22" max="23" width="20.625" customWidth="1"/>
+    <col min="24" max="24" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +2716,7 @@
       <c r="K1" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="29" t="s">
         <v>386</v>
       </c>
       <c r="M1" s="19" t="s">
@@ -2468,7 +2756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="72">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2496,13 +2784,13 @@
       <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="41" t="s">
         <v>385</v>
       </c>
-      <c r="K2" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="L2" s="38" t="s">
+      <c r="K2" s="42" t="s">
+        <v>396</v>
+      </c>
+      <c r="L2" s="43" t="s">
         <v>387</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -2542,7 +2830,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="108">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2570,13 +2858,13 @@
       <c r="I3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="K3" s="41" t="s">
         <v>391</v>
       </c>
-      <c r="L3" s="38" t="s">
+      <c r="L3" s="43" t="s">
         <v>393</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -2614,7 +2902,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="90">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2642,14 +2930,14 @@
       <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="J4" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="K4" s="50" t="s">
-        <v>396</v>
-      </c>
-      <c r="L4" s="38" t="s">
-        <v>399</v>
+      <c r="L4" s="43" t="s">
+        <v>398</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
@@ -2664,7 +2952,7 @@
         <v>311</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -2686,7 +2974,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="90">
+    <row r="5" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2714,11 +3002,14 @@
       <c r="I5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="32" t="str">
-        <f t="shared" ref="L4:L57" si="0">"../output/"&amp;B5&amp;"/"&amp;D5</f>
-        <v>../output/건설사업정보시스템 - 공사/안전관리비 현황</v>
+      <c r="J5" s="18" t="s">
+        <v>462</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>399</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>27</v>
@@ -2755,7 +3046,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="72">
+    <row r="6" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2783,11 +3074,14 @@
       <c r="I6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/업체 목록</v>
+      <c r="J6" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>400</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>27</v>
@@ -2824,7 +3118,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="72">
+    <row r="7" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2852,11 +3146,14 @@
       <c r="I7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/업체별 참여공사 목록</v>
+      <c r="J7" s="18" t="s">
+        <v>465</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="L7" s="43" t="s">
+        <v>401</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>27</v>
@@ -2893,7 +3190,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="162">
+    <row r="8" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2921,11 +3218,14 @@
       <c r="I8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/월간공정 현황</v>
+      <c r="J8" s="18" t="s">
+        <v>467</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="L8" s="43" t="s">
+        <v>402</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>27</v>
@@ -2962,7 +3262,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="90">
+    <row r="9" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2990,11 +3290,14 @@
       <c r="I9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(터널) 목록</v>
+      <c r="J9" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L9" s="43" t="s">
+        <v>403</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>27</v>
@@ -3031,7 +3334,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="90">
+    <row r="10" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3059,14 +3362,14 @@
       <c r="I10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="K10" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="L10" s="38" t="s">
-        <v>394</v>
+      <c r="L10" s="43" t="s">
+        <v>404</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>27</v>
@@ -3103,7 +3406,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="90">
+    <row r="11" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3131,11 +3434,14 @@
       <c r="I11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(절개사면) 목록</v>
+      <c r="J11" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>405</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>27</v>
@@ -3172,7 +3478,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="90">
+    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3200,11 +3506,14 @@
       <c r="I12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(통로박스) 목록</v>
+      <c r="J12" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>406</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
@@ -3241,7 +3550,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="90">
+    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3269,11 +3578,14 @@
       <c r="I13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(옹벽) 목록</v>
+      <c r="J13" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L13" s="43" t="s">
+        <v>407</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>27</v>
@@ -3310,7 +3622,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="72">
+    <row r="14" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3338,11 +3650,14 @@
       <c r="I14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(교량) 목록</v>
+      <c r="J14" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L14" s="43" t="s">
+        <v>408</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>27</v>
@@ -3379,7 +3694,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="90">
+    <row r="15" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3407,11 +3722,14 @@
       <c r="I15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(수문) 목록</v>
+      <c r="J15" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L15" s="43" t="s">
+        <v>409</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>27</v>
@@ -3448,7 +3766,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="90">
+    <row r="16" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3476,11 +3794,14 @@
       <c r="I16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/공사중인 시설물(제방) 목록</v>
+      <c r="J16" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="L16" s="43" t="s">
+        <v>410</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>27</v>
@@ -3517,7 +3838,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="108">
+    <row r="17" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3545,11 +3866,14 @@
       <c r="I17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/설계변경 내역서 현황</v>
+      <c r="J17" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="L17" s="43" t="s">
+        <v>411</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
@@ -3586,7 +3910,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="90">
+    <row r="18" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3614,11 +3938,14 @@
       <c r="I18" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/설계변경 현황</v>
+      <c r="J18" s="18" t="s">
+        <v>470</v>
+      </c>
+      <c r="K18" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="L18" s="43" t="s">
+        <v>412</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
@@ -3655,7 +3982,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="54">
+    <row r="19" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3683,11 +4010,14 @@
       <c r="I19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 공사/도로, 하천 공사정보</v>
+      <c r="J19" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>413</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>27</v>
@@ -3724,7 +4054,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="54">
+    <row r="20" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3752,11 +4082,14 @@
       <c r="I20" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 목록</v>
+      <c r="J20" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>414</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>27</v>
@@ -3793,7 +4126,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="270">
+    <row r="21" spans="1:24" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3821,11 +4154,14 @@
       <c r="I21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 기본제원</v>
+      <c r="J21" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>415</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>27</v>
@@ -3862,7 +4198,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="90">
+    <row r="22" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3890,11 +4226,14 @@
       <c r="I22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 점검진단계획 목록</v>
+      <c r="J22" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>416</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>27</v>
@@ -3931,7 +4270,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="72">
+    <row r="23" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3959,11 +4298,14 @@
       <c r="I23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 점검진단이력 목록</v>
+      <c r="J23" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>417</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>27</v>
@@ -4000,7 +4342,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="90">
+    <row r="24" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4028,11 +4370,14 @@
       <c r="I24" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 보수보강이력 목록</v>
+      <c r="J24" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>418</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>27</v>
@@ -4069,7 +4414,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="54">
+    <row r="25" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4097,11 +4442,14 @@
       <c r="I25" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="J25" s="30"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/시설물 유지보수대장 목록</v>
+      <c r="J25" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>419</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>27</v>
@@ -4138,7 +4486,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="54">
+    <row r="26" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4166,11 +4514,14 @@
       <c r="I26" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 시설물/도로시설물 관리현황 정보</v>
+      <c r="J26" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="L26" s="43" t="s">
+        <v>420</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>27</v>
@@ -4207,7 +4558,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="54">
+    <row r="27" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4235,11 +4586,14 @@
       <c r="I27" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-전체보상액 규모 기준 실적 현황</v>
+      <c r="J27" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>421</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>27</v>
@@ -4276,7 +4630,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="72">
+    <row r="28" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4304,11 +4658,14 @@
       <c r="I28" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-사업별 면적 및 보상액 기준 실적 현황</v>
+      <c r="J28" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K28" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L28" s="43" t="s">
+        <v>422</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>27</v>
@@ -4345,7 +4702,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="72">
+    <row r="29" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4373,11 +4730,14 @@
       <c r="I29" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="J29" s="30"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-시도별 면적 및 보상액 기준 실적 현황</v>
+      <c r="J29" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L29" s="43" t="s">
+        <v>423</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>27</v>
@@ -4414,7 +4774,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="54">
+    <row r="30" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4442,11 +4802,14 @@
       <c r="I30" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(채권보상실적)</v>
+      <c r="J30" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>424</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>27</v>
@@ -4483,7 +4846,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="126">
+    <row r="31" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4511,11 +4874,14 @@
       <c r="I31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(잔여지 및 간접보상)</v>
+      <c r="J31" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L31" s="43" t="s">
+        <v>425</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -4552,7 +4918,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="72">
+    <row r="32" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4580,11 +4946,14 @@
       <c r="I32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="J32" s="30"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(환매권 행사)</v>
+      <c r="J32" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K32" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L32" s="43" t="s">
+        <v>426</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>27</v>
@@ -4621,7 +4990,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="72">
+    <row r="33" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4649,11 +5018,14 @@
       <c r="I33" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="J33" s="30"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(부동산소유사실 확인서)</v>
+      <c r="J33" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L33" s="43" t="s">
+        <v>427</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>27</v>
@@ -4690,7 +5062,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="54">
+    <row r="34" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4718,11 +5090,14 @@
       <c r="I34" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="J34" s="30"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(대토보상)</v>
+      <c r="J34" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K34" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L34" s="43" t="s">
+        <v>428</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>27</v>
@@ -4759,7 +5134,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="72">
+    <row r="35" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4787,11 +5162,14 @@
       <c r="I35" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="J35" s="30"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-기관별 취득면적 및 보상액 기준 실적 현황</v>
+      <c r="J35" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K35" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L35" s="43" t="s">
+        <v>429</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>27</v>
@@ -4828,7 +5206,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="162">
+    <row r="36" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4856,11 +5234,14 @@
       <c r="I36" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-취득방법별 면적 및 보상액 기준 실적 현황</v>
+      <c r="J36" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K36" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L36" s="43" t="s">
+        <v>430</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>27</v>
@@ -4897,7 +5278,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="126">
+    <row r="37" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4925,11 +5306,14 @@
       <c r="I37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적(지목별 실적 현황)</v>
+      <c r="J37" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K37" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="L37" s="43" t="s">
+        <v>431</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>27</v>
@@ -4966,7 +5350,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="394">
+    <row r="38" spans="1:24" ht="363" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4994,11 +5378,14 @@
       <c r="I38" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-공공사업의 물건보상액 기준 실적 현황</v>
+      <c r="J38" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="L38" s="43" t="s">
+        <v>432</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -5035,7 +5422,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="54">
+    <row r="39" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5063,11 +5450,14 @@
       <c r="I39" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="J39" s="30"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 보상/공공용지 취득실적-소속 기관별 취득면적 및 보상액 기준 실적 현황</v>
+      <c r="J39" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="K39" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="L39" s="43" t="s">
+        <v>433</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>27</v>
@@ -5104,7 +5494,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="72">
+    <row r="40" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5132,11 +5522,14 @@
       <c r="I40" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/도로점용허가내용 목록</v>
+      <c r="J40" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="L40" s="43" t="s">
+        <v>434</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>27</v>
@@ -5173,7 +5566,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="90">
+    <row r="41" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5201,11 +5594,14 @@
       <c r="I41" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="J41" s="30"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/품질검사성적서 등록 목록</v>
+      <c r="J41" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="L41" s="43" t="s">
+        <v>435</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>27</v>
@@ -5242,7 +5638,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="72">
+    <row r="42" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -5270,11 +5666,14 @@
       <c r="I42" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/품질검사성적서 상세정보 현황</v>
+      <c r="J42" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="L42" s="43" t="s">
+        <v>436</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>27</v>
@@ -5311,7 +5710,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="72">
+    <row r="43" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -5339,11 +5738,14 @@
       <c r="I43" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/품질검사전문기관 목록</v>
+      <c r="J43" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="L43" s="43" t="s">
+        <v>437</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>27</v>
@@ -5380,7 +5782,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="54">
+    <row r="44" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5408,11 +5810,14 @@
       <c r="I44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="J44" s="30"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/품질검사전문기관 상세정보</v>
+      <c r="J44" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="K44" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="L44" s="43" t="s">
+        <v>438</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>27</v>
@@ -5449,7 +5854,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="72">
+    <row r="45" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -5477,11 +5882,14 @@
       <c r="I45" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 인허가/건설자재 품질검사 등록정보</v>
+      <c r="J45" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="L45" s="43" t="s">
+        <v>439</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>27</v>
@@ -5518,7 +5926,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="54">
+    <row r="46" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -5546,11 +5954,14 @@
       <c r="I46" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J46" s="30"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/설계VE 상세 검토조직 조회</v>
+      <c r="J46" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K46" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L46" s="43" t="s">
+        <v>440</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>27</v>
@@ -5587,7 +5998,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="90">
+    <row r="47" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -5615,11 +6026,14 @@
       <c r="I47" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="J47" s="30"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/설계VE 상세 VE제안목록</v>
+      <c r="J47" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K47" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L47" s="43" t="s">
+        <v>441</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>27</v>
@@ -5656,7 +6070,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="72">
+    <row r="48" spans="1:24" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -5684,11 +6098,14 @@
       <c r="I48" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J48" s="30"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/설계VE 목록 조회</v>
+      <c r="J48" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="L48" s="43" t="s">
+        <v>442</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>27</v>
@@ -5725,7 +6142,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="108">
+    <row r="49" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -5753,11 +6170,14 @@
       <c r="I49" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/설계VE 상세정보</v>
+      <c r="J49" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K49" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L49" s="43" t="s">
+        <v>443</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>27</v>
@@ -5794,7 +6214,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="90">
+    <row r="50" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -5822,11 +6242,14 @@
       <c r="I50" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/건설공사 사후평가 목록 조회</v>
+      <c r="J50" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="K50" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="L50" s="43" t="s">
+        <v>444</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>27</v>
@@ -5863,7 +6286,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="216">
+    <row r="51" spans="1:24" ht="198" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -5891,11 +6314,14 @@
       <c r="I51" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/사후평가 수행실적표 - 사업수행성과 평가표</v>
+      <c r="J51" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="K51" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="L51" s="43" t="s">
+        <v>445</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>27</v>
@@ -5932,7 +6358,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="342">
+    <row r="52" spans="1:24" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -5960,11 +6386,14 @@
       <c r="I52" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="J52" s="29"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/사후평가 수행실적표 - 사업효율 및 파급효과 평가표</v>
+      <c r="J52" s="17" t="s">
+        <v>456</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L52" s="43" t="s">
+        <v>446</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>27</v>
@@ -6001,7 +6430,7 @@
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="72">
+    <row r="53" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -6029,11 +6458,14 @@
       <c r="I53" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="J53" s="30"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">../output/건설사업정보시스템 - 기타/설계도서등록 사업목록 조회 </v>
+      <c r="J53" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K53" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="L53" s="43" t="s">
+        <v>447</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>27</v>
@@ -6070,7 +6502,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="90">
+    <row r="54" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -6098,11 +6530,14 @@
       <c r="I54" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="J54" s="30"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">../output/건설사업정보시스템 - 기타/설계도서등록 상세정보 조회 </v>
+      <c r="J54" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="K54" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" s="43" t="s">
+        <v>448</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
@@ -6139,7 +6574,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="72">
+    <row r="55" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -6167,11 +6602,14 @@
       <c r="I55" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="J55" s="30"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/건설공사 원가절감사례 목록 조회</v>
+      <c r="J55" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>458</v>
+      </c>
+      <c r="L55" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>27</v>
@@ -6208,7 +6646,7 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="72">
+    <row r="56" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -6236,11 +6674,14 @@
       <c r="I56" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="J56" s="30"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/건설공사 원가절감사례 상세 조회</v>
+      <c r="J56" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="K56" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="L56" s="43" t="s">
+        <v>450</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>27</v>
@@ -6277,7 +6718,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="72">
+    <row r="57" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -6305,11 +6746,14 @@
       <c r="I57" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="J57" s="30"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="32" t="str">
-        <f t="shared" si="0"/>
-        <v>../output/건설사업정보시스템 - 기타/설계VE 계약정보</v>
+      <c r="J57" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K57" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="L57" s="43" t="s">
+        <v>451</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>27</v>
@@ -6349,62 +6793,62 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="P6" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="P7" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="P10" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="P12" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="P14" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="P16" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="P17" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="P18" r:id="rId16" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="P19" r:id="rId17" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="P20" r:id="rId18" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="P21" r:id="rId19" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
-    <hyperlink ref="P22" r:id="rId20" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
-    <hyperlink ref="P23" r:id="rId21" xr:uid="{00000000-0004-0000-0200-000014000000}"/>
-    <hyperlink ref="P24" r:id="rId22" xr:uid="{00000000-0004-0000-0200-000015000000}"/>
-    <hyperlink ref="P25" r:id="rId23" xr:uid="{00000000-0004-0000-0200-000016000000}"/>
-    <hyperlink ref="P26" r:id="rId24" xr:uid="{00000000-0004-0000-0200-000017000000}"/>
-    <hyperlink ref="P27" r:id="rId25" xr:uid="{00000000-0004-0000-0200-000018000000}"/>
-    <hyperlink ref="P28" r:id="rId26" xr:uid="{00000000-0004-0000-0200-000019000000}"/>
-    <hyperlink ref="P29" r:id="rId27" xr:uid="{00000000-0004-0000-0200-00001A000000}"/>
-    <hyperlink ref="P30" r:id="rId28" xr:uid="{00000000-0004-0000-0200-00001B000000}"/>
-    <hyperlink ref="P31" r:id="rId29" xr:uid="{00000000-0004-0000-0200-00001C000000}"/>
-    <hyperlink ref="P32" r:id="rId30" xr:uid="{00000000-0004-0000-0200-00001D000000}"/>
-    <hyperlink ref="P33" r:id="rId31" xr:uid="{00000000-0004-0000-0200-00001E000000}"/>
-    <hyperlink ref="P34" r:id="rId32" xr:uid="{00000000-0004-0000-0200-00001F000000}"/>
-    <hyperlink ref="P35" r:id="rId33" xr:uid="{00000000-0004-0000-0200-000020000000}"/>
-    <hyperlink ref="P36" r:id="rId34" xr:uid="{00000000-0004-0000-0200-000021000000}"/>
-    <hyperlink ref="P37" r:id="rId35" xr:uid="{00000000-0004-0000-0200-000022000000}"/>
-    <hyperlink ref="P38" r:id="rId36" xr:uid="{00000000-0004-0000-0200-000023000000}"/>
-    <hyperlink ref="P39" r:id="rId37" xr:uid="{00000000-0004-0000-0200-000024000000}"/>
-    <hyperlink ref="P40" r:id="rId38" xr:uid="{00000000-0004-0000-0200-000025000000}"/>
-    <hyperlink ref="P41" r:id="rId39" xr:uid="{00000000-0004-0000-0200-000026000000}"/>
-    <hyperlink ref="P42" r:id="rId40" xr:uid="{00000000-0004-0000-0200-000027000000}"/>
-    <hyperlink ref="P43" r:id="rId41" xr:uid="{00000000-0004-0000-0200-000028000000}"/>
-    <hyperlink ref="P44" r:id="rId42" xr:uid="{00000000-0004-0000-0200-000029000000}"/>
-    <hyperlink ref="P45" r:id="rId43" xr:uid="{00000000-0004-0000-0200-00002A000000}"/>
-    <hyperlink ref="P46" r:id="rId44" xr:uid="{00000000-0004-0000-0200-00002B000000}"/>
-    <hyperlink ref="P47" r:id="rId45" xr:uid="{00000000-0004-0000-0200-00002C000000}"/>
-    <hyperlink ref="P48" r:id="rId46" xr:uid="{00000000-0004-0000-0200-00002D000000}"/>
-    <hyperlink ref="P49" r:id="rId47" xr:uid="{00000000-0004-0000-0200-00002E000000}"/>
-    <hyperlink ref="P50" r:id="rId48" xr:uid="{00000000-0004-0000-0200-00002F000000}"/>
-    <hyperlink ref="P51" r:id="rId49" xr:uid="{00000000-0004-0000-0200-000030000000}"/>
-    <hyperlink ref="P52" r:id="rId50" xr:uid="{00000000-0004-0000-0200-000031000000}"/>
-    <hyperlink ref="P53" r:id="rId51" xr:uid="{00000000-0004-0000-0200-000032000000}"/>
-    <hyperlink ref="P54" r:id="rId52" xr:uid="{00000000-0004-0000-0200-000033000000}"/>
-    <hyperlink ref="P55" r:id="rId53" xr:uid="{00000000-0004-0000-0200-000034000000}"/>
-    <hyperlink ref="P56" r:id="rId54" xr:uid="{00000000-0004-0000-0200-000035000000}"/>
-    <hyperlink ref="P57" r:id="rId55" xr:uid="{00000000-0004-0000-0200-000036000000}"/>
-    <hyperlink ref="P2" r:id="rId56" xr:uid="{D0D47416-C06B-49F8-8B9F-C39CD099088B}"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="P14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="P17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="P19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="P24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="P26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="P27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="P28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="P29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="P30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="P31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="P32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="P33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="P34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="P35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="P37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="P38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="P39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="P40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="P41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="P42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="P43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="P44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="P46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="P48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="P50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="P51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="P52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="P53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="P54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="P56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="P57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="P2" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId57"/>
@@ -6422,7 +6866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -6431,30 +6875,30 @@
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.6640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.83203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.6640625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.6640625" style="28" customWidth="1"/>
+    <col min="9" max="9" width="75.875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.625" style="14" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="28" customWidth="1"/>
     <col min="14" max="14" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" style="11" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.6640625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="28.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="14" customWidth="1"/>
     <col min="18" max="18" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="19.6640625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="19.625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6519,7 +6963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="180">
+    <row r="2" spans="1:21" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6582,7 +7026,7 @@
       </c>
       <c r="U2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="72">
+    <row r="3" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -6645,7 +7089,7 @@
       </c>
       <c r="U3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="180">
+    <row r="4" spans="1:21" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -6708,7 +7152,7 @@
       </c>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="162">
+    <row r="5" spans="1:21" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -6771,7 +7215,7 @@
       </c>
       <c r="U5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="72">
+    <row r="6" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -6834,7 +7278,7 @@
       </c>
       <c r="U6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="72">
+    <row r="7" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -6897,7 +7341,7 @@
       </c>
       <c r="U7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="72">
+    <row r="8" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -6960,7 +7404,7 @@
       </c>
       <c r="U8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="90">
+    <row r="9" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7023,7 +7467,7 @@
       </c>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="72">
+    <row r="10" spans="1:21" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7086,7 +7530,7 @@
       </c>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="72">
+    <row r="11" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7149,93 +7593,93 @@
       </c>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="409.5" customHeight="1">
-      <c r="A12" s="42">
+    <row r="12" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>11</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="43" t="s">
+      <c r="I12" s="34" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="46" t="s">
+      <c r="J12" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="N12" s="42" t="s">
+      <c r="N12" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="O12" s="44" t="s">
+      <c r="O12" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="P12" s="45" t="s">
+      <c r="P12" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="42" t="s">
+      <c r="Q12" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="R12" s="42" t="s">
+      <c r="R12" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="S12" s="42" t="s">
+      <c r="S12" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="T12" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="42"/>
+      <c r="T12" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="33"/>
     </row>
-    <row r="13" spans="1:21" ht="226.5" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
+    <row r="13" spans="1:21" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
     </row>
-    <row r="14" spans="1:21" ht="126">
+    <row r="14" spans="1:21" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7298,7 +7742,7 @@
       </c>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="90">
+    <row r="15" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7361,93 +7805,93 @@
       </c>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="1:21" ht="409.5" customHeight="1">
-      <c r="A16" s="42">
+    <row r="16" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
         <v>14</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="31" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="40" t="s">
+      <c r="F16" s="31" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="43" t="s">
+      <c r="I16" s="34" t="s">
         <v>289</v>
       </c>
-      <c r="J16" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="46" t="s">
+      <c r="J16" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="O16" s="44" t="s">
+      <c r="O16" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="P16" s="45" t="s">
+      <c r="P16" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="42" t="s">
+      <c r="Q16" s="33" t="s">
         <v>233</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="S16" s="42" t="s">
+      <c r="S16" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="T16" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="42"/>
+      <c r="T16" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="U16" s="33"/>
     </row>
-    <row r="17" spans="1:21" ht="179.25" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
+    <row r="17" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
     </row>
-    <row r="18" spans="1:21" ht="216">
+    <row r="18" spans="1:21" ht="198" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -7510,7 +7954,7 @@
       </c>
       <c r="U18" s="2"/>
     </row>
-    <row r="19" spans="1:21" ht="144">
+    <row r="19" spans="1:21" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -7573,7 +8017,7 @@
       </c>
       <c r="U19" s="2"/>
     </row>
-    <row r="20" spans="1:21" ht="180">
+    <row r="20" spans="1:21" ht="165" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -7683,23 +8127,23 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
-    <hyperlink ref="M14" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
-    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
-    <hyperlink ref="M16" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="M18" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
-    <hyperlink ref="M19" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
-    <hyperlink ref="M20" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="M14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="M16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="M18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="M19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="M20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>

--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\(로컬)생기원실행\03. 데이터\새 폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9604620C-626A-4EF8-A8AA-42E20DD85D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6715DBCF-89B6-4CFE-A2EF-85EA67395BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2925" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="498">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1984,6 +1984,14 @@
   </si>
   <si>
     <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt</t>
+  </si>
+  <si>
+    <t>ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,numOfRows,pageNo,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2082,7 +2090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2118,19 +2126,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2142,7 +2137,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2239,32 +2234,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2276,6 +2247,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2655,34 +2656,34 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="70.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" customWidth="1"/>
+    <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="35.625" style="30" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" customWidth="1"/>
-    <col min="14" max="16" width="19.625" customWidth="1"/>
-    <col min="17" max="17" width="38.625" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.625" customWidth="1"/>
-    <col min="21" max="21" width="24.625" customWidth="1"/>
-    <col min="22" max="23" width="20.625" customWidth="1"/>
-    <col min="24" max="24" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="35.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.09765625" customWidth="1"/>
+    <col min="14" max="16" width="19.59765625" customWidth="1"/>
+    <col min="17" max="17" width="38.59765625" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.59765625" customWidth="1"/>
+    <col min="21" max="21" width="24.59765625" customWidth="1"/>
+    <col min="22" max="23" width="20.59765625" customWidth="1"/>
+    <col min="24" max="24" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2756,7 +2757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2784,13 +2785,13 @@
       <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="35" t="s">
         <v>387</v>
       </c>
       <c r="M2" s="5" t="s">
@@ -2830,7 +2831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2861,10 +2862,10 @@
       <c r="J3" s="18" t="s">
         <v>392</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="35" t="s">
         <v>393</v>
       </c>
       <c r="M3" s="5" t="s">
@@ -2902,7 +2903,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2930,13 +2931,13 @@
       <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="44" t="s">
+      <c r="J4" s="36" t="s">
         <v>394</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="36" t="s">
         <v>395</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="L4" s="35" t="s">
         <v>398</v>
       </c>
       <c r="M4" s="5" t="s">
@@ -2974,7 +2975,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3008,7 +3009,7 @@
       <c r="K5" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="35" t="s">
         <v>399</v>
       </c>
       <c r="M5" s="5" t="s">
@@ -3046,7 +3047,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3080,7 +3081,7 @@
       <c r="K6" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="L6" s="43" t="s">
+      <c r="L6" s="35" t="s">
         <v>400</v>
       </c>
       <c r="M6" s="5" t="s">
@@ -3118,7 +3119,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3152,7 +3153,7 @@
       <c r="K7" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="35" t="s">
         <v>401</v>
       </c>
       <c r="M7" s="5" t="s">
@@ -3190,7 +3191,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3224,7 +3225,7 @@
       <c r="K8" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="35" t="s">
         <v>402</v>
       </c>
       <c r="M8" s="5" t="s">
@@ -3262,7 +3263,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3296,7 +3297,7 @@
       <c r="K9" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L9" s="43" t="s">
+      <c r="L9" s="35" t="s">
         <v>403</v>
       </c>
       <c r="M9" s="5" t="s">
@@ -3334,7 +3335,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3365,10 +3366,10 @@
       <c r="J10" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="33" t="s">
         <v>390</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="35" t="s">
         <v>404</v>
       </c>
       <c r="M10" s="5" t="s">
@@ -3406,7 +3407,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3440,7 +3441,7 @@
       <c r="K11" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L11" s="43" t="s">
+      <c r="L11" s="35" t="s">
         <v>405</v>
       </c>
       <c r="M11" s="5" t="s">
@@ -3478,7 +3479,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3512,7 +3513,7 @@
       <c r="K12" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="35" t="s">
         <v>406</v>
       </c>
       <c r="M12" s="5" t="s">
@@ -3550,7 +3551,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="K13" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L13" s="43" t="s">
+      <c r="L13" s="35" t="s">
         <v>407</v>
       </c>
       <c r="M13" s="5" t="s">
@@ -3622,7 +3623,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3656,7 +3657,7 @@
       <c r="K14" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L14" s="43" t="s">
+      <c r="L14" s="35" t="s">
         <v>408</v>
       </c>
       <c r="M14" s="5" t="s">
@@ -3694,7 +3695,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3728,7 +3729,7 @@
       <c r="K15" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L15" s="43" t="s">
+      <c r="L15" s="35" t="s">
         <v>409</v>
       </c>
       <c r="M15" s="5" t="s">
@@ -3766,7 +3767,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3800,7 +3801,7 @@
       <c r="K16" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="L16" s="43" t="s">
+      <c r="L16" s="35" t="s">
         <v>410</v>
       </c>
       <c r="M16" s="5" t="s">
@@ -3838,7 +3839,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3872,7 +3873,7 @@
       <c r="K17" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="L17" s="43" t="s">
+      <c r="L17" s="35" t="s">
         <v>411</v>
       </c>
       <c r="M17" s="5" t="s">
@@ -3910,7 +3911,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3944,7 +3945,7 @@
       <c r="K18" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="L18" s="43" t="s">
+      <c r="L18" s="35" t="s">
         <v>412</v>
       </c>
       <c r="M18" s="5" t="s">
@@ -3982,7 +3983,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4016,7 +4017,7 @@
       <c r="K19" s="18" t="s">
         <v>472</v>
       </c>
-      <c r="L19" s="43" t="s">
+      <c r="L19" s="35" t="s">
         <v>413</v>
       </c>
       <c r="M19" s="5" t="s">
@@ -4054,7 +4055,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4088,7 +4089,7 @@
       <c r="K20" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="L20" s="43" t="s">
+      <c r="L20" s="35" t="s">
         <v>414</v>
       </c>
       <c r="M20" s="5" t="s">
@@ -4126,7 +4127,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="261" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4160,7 +4161,7 @@
       <c r="K21" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="L21" s="43" t="s">
+      <c r="L21" s="35" t="s">
         <v>415</v>
       </c>
       <c r="M21" s="5" t="s">
@@ -4198,7 +4199,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4232,7 +4233,7 @@
       <c r="K22" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="L22" s="43" t="s">
+      <c r="L22" s="35" t="s">
         <v>416</v>
       </c>
       <c r="M22" s="5" t="s">
@@ -4270,7 +4271,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4304,7 +4305,7 @@
       <c r="K23" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="L23" s="43" t="s">
+      <c r="L23" s="35" t="s">
         <v>417</v>
       </c>
       <c r="M23" s="5" t="s">
@@ -4342,7 +4343,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4376,7 +4377,7 @@
       <c r="K24" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="L24" s="43" t="s">
+      <c r="L24" s="35" t="s">
         <v>418</v>
       </c>
       <c r="M24" s="5" t="s">
@@ -4414,7 +4415,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4448,7 +4449,7 @@
       <c r="K25" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="L25" s="35" t="s">
         <v>419</v>
       </c>
       <c r="M25" s="5" t="s">
@@ -4486,7 +4487,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4520,7 +4521,7 @@
       <c r="K26" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="L26" s="43" t="s">
+      <c r="L26" s="35" t="s">
         <v>420</v>
       </c>
       <c r="M26" s="5" t="s">
@@ -4558,7 +4559,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4592,7 +4593,7 @@
       <c r="K27" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L27" s="43" t="s">
+      <c r="L27" s="35" t="s">
         <v>421</v>
       </c>
       <c r="M27" s="5" t="s">
@@ -4630,7 +4631,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4664,7 +4665,7 @@
       <c r="K28" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L28" s="43" t="s">
+      <c r="L28" s="35" t="s">
         <v>422</v>
       </c>
       <c r="M28" s="5" t="s">
@@ -4702,7 +4703,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4736,7 +4737,7 @@
       <c r="K29" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L29" s="43" t="s">
+      <c r="L29" s="35" t="s">
         <v>423</v>
       </c>
       <c r="M29" s="5" t="s">
@@ -4774,7 +4775,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4808,7 +4809,7 @@
       <c r="K30" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L30" s="43" t="s">
+      <c r="L30" s="35" t="s">
         <v>424</v>
       </c>
       <c r="M30" s="5" t="s">
@@ -4846,7 +4847,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4880,7 +4881,7 @@
       <c r="K31" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L31" s="43" t="s">
+      <c r="L31" s="35" t="s">
         <v>425</v>
       </c>
       <c r="M31" s="5" t="s">
@@ -4918,7 +4919,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4952,7 +4953,7 @@
       <c r="K32" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L32" s="43" t="s">
+      <c r="L32" s="35" t="s">
         <v>426</v>
       </c>
       <c r="M32" s="5" t="s">
@@ -4990,7 +4991,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5024,7 +5025,7 @@
       <c r="K33" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L33" s="43" t="s">
+      <c r="L33" s="35" t="s">
         <v>427</v>
       </c>
       <c r="M33" s="5" t="s">
@@ -5062,7 +5063,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5096,7 +5097,7 @@
       <c r="K34" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L34" s="43" t="s">
+      <c r="L34" s="35" t="s">
         <v>428</v>
       </c>
       <c r="M34" s="5" t="s">
@@ -5134,7 +5135,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5168,7 +5169,7 @@
       <c r="K35" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="35" t="s">
         <v>429</v>
       </c>
       <c r="M35" s="5" t="s">
@@ -5206,7 +5207,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5240,7 +5241,7 @@
       <c r="K36" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="35" t="s">
         <v>430</v>
       </c>
       <c r="M36" s="5" t="s">
@@ -5278,7 +5279,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5312,7 +5313,7 @@
       <c r="K37" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="L37" s="43" t="s">
+      <c r="L37" s="35" t="s">
         <v>431</v>
       </c>
       <c r="M37" s="5" t="s">
@@ -5350,7 +5351,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="363" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="365.4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5384,7 +5385,7 @@
       <c r="K38" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="L38" s="43" t="s">
+      <c r="L38" s="35" t="s">
         <v>432</v>
       </c>
       <c r="M38" s="1" t="s">
@@ -5422,7 +5423,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5456,7 +5457,7 @@
       <c r="K39" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="L39" s="43" t="s">
+      <c r="L39" s="35" t="s">
         <v>433</v>
       </c>
       <c r="M39" s="15" t="s">
@@ -5494,7 +5495,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5528,7 +5529,7 @@
       <c r="K40" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="L40" s="43" t="s">
+      <c r="L40" s="35" t="s">
         <v>434</v>
       </c>
       <c r="M40" s="5" t="s">
@@ -5566,7 +5567,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5600,7 +5601,7 @@
       <c r="K41" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="L41" s="43" t="s">
+      <c r="L41" s="35" t="s">
         <v>435</v>
       </c>
       <c r="M41" s="5" t="s">
@@ -5638,7 +5639,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -5672,7 +5673,7 @@
       <c r="K42" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="L42" s="43" t="s">
+      <c r="L42" s="35" t="s">
         <v>436</v>
       </c>
       <c r="M42" s="5" t="s">
@@ -5710,7 +5711,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -5744,7 +5745,7 @@
       <c r="K43" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="L43" s="43" t="s">
+      <c r="L43" s="35" t="s">
         <v>437</v>
       </c>
       <c r="M43" s="5" t="s">
@@ -5782,7 +5783,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5816,7 +5817,7 @@
       <c r="K44" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="L44" s="43" t="s">
+      <c r="L44" s="35" t="s">
         <v>438</v>
       </c>
       <c r="M44" s="5" t="s">
@@ -5854,7 +5855,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -5888,7 +5889,7 @@
       <c r="K45" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="L45" s="43" t="s">
+      <c r="L45" s="35" t="s">
         <v>439</v>
       </c>
       <c r="M45" s="5" t="s">
@@ -5926,7 +5927,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -5960,7 +5961,7 @@
       <c r="K46" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="L46" s="43" t="s">
+      <c r="L46" s="35" t="s">
         <v>440</v>
       </c>
       <c r="M46" s="5" t="s">
@@ -5998,7 +5999,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6032,7 +6033,7 @@
       <c r="K47" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="L47" s="43" t="s">
+      <c r="L47" s="35" t="s">
         <v>441</v>
       </c>
       <c r="M47" s="5" t="s">
@@ -6070,7 +6071,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6104,7 +6105,7 @@
       <c r="K48" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="L48" s="43" t="s">
+      <c r="L48" s="35" t="s">
         <v>442</v>
       </c>
       <c r="M48" s="5" t="s">
@@ -6142,7 +6143,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6176,7 +6177,7 @@
       <c r="K49" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="L49" s="43" t="s">
+      <c r="L49" s="35" t="s">
         <v>443</v>
       </c>
       <c r="M49" s="5" t="s">
@@ -6214,7 +6215,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6248,7 +6249,7 @@
       <c r="K50" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="L50" s="43" t="s">
+      <c r="L50" s="35" t="s">
         <v>444</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -6286,7 +6287,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="198" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6320,7 +6321,7 @@
       <c r="K51" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="L51" s="43" t="s">
+      <c r="L51" s="35" t="s">
         <v>445</v>
       </c>
       <c r="M51" s="5" t="s">
@@ -6358,7 +6359,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="330.6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6392,7 +6393,7 @@
       <c r="K52" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="L52" s="43" t="s">
+      <c r="L52" s="35" t="s">
         <v>446</v>
       </c>
       <c r="M52" s="5" t="s">
@@ -6430,7 +6431,7 @@
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -6464,7 +6465,7 @@
       <c r="K53" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="L53" s="43" t="s">
+      <c r="L53" s="35" t="s">
         <v>447</v>
       </c>
       <c r="M53" s="5" t="s">
@@ -6502,7 +6503,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -6536,7 +6537,7 @@
       <c r="K54" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="L54" s="43" t="s">
+      <c r="L54" s="35" t="s">
         <v>448</v>
       </c>
       <c r="M54" s="5" t="s">
@@ -6574,7 +6575,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -6608,7 +6609,7 @@
       <c r="K55" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="L55" s="43" t="s">
+      <c r="L55" s="35" t="s">
         <v>449</v>
       </c>
       <c r="M55" s="5" t="s">
@@ -6646,7 +6647,7 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -6680,7 +6681,7 @@
       <c r="K56" s="18" t="s">
         <v>453</v>
       </c>
-      <c r="L56" s="43" t="s">
+      <c r="L56" s="35" t="s">
         <v>450</v>
       </c>
       <c r="M56" s="5" t="s">
@@ -6718,7 +6719,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -6752,7 +6753,7 @@
       <c r="K57" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="L57" s="43" t="s">
+      <c r="L57" s="35" t="s">
         <v>451</v>
       </c>
       <c r="M57" s="5" t="s">
@@ -6867,38 +6868,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="J2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.625" style="14" customWidth="1"/>
-    <col min="13" max="13" width="19.625" style="28" customWidth="1"/>
-    <col min="14" max="14" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.375" style="11" customWidth="1"/>
-    <col min="16" max="16" width="9.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="14" customWidth="1"/>
-    <col min="18" max="18" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="19.625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
+    <col min="10" max="12" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.59765625" style="14" customWidth="1"/>
+    <col min="15" max="15" width="19.59765625" style="28" customWidth="1"/>
+    <col min="16" max="16" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.3984375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.59765625" style="14" customWidth="1"/>
+    <col min="20" max="20" width="34.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="19.59765625" style="14" customWidth="1"/>
+    <col min="23" max="23" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -6927,43 +6928,49 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="M1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -6991,42 +6998,44 @@
       <c r="I2" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
       <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="25" t="s">
         <v>367</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="Q2" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="2"/>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7054,42 +7063,44 @@
       <c r="I3" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="25" t="s">
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="Q3" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="R3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U3" s="2"/>
+      <c r="V3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="2"/>
     </row>
-    <row r="4" spans="1:21" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="174" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7117,42 +7128,44 @@
       <c r="I4" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="J4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="25" t="s">
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="25" t="s">
         <v>369</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="R4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="2"/>
+      <c r="V4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="2"/>
     </row>
-    <row r="5" spans="1:21" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7180,42 +7193,44 @@
       <c r="I5" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="25" t="s">
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="Q5" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U5" s="2"/>
+      <c r="V5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="2"/>
     </row>
-    <row r="6" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7243,42 +7258,44 @@
       <c r="I6" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="25" t="s">
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="2"/>
+      <c r="V6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7306,42 +7323,44 @@
       <c r="I7" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="25" t="s">
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="Q7" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="U7" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U7" s="2"/>
+      <c r="V7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="2"/>
     </row>
-    <row r="8" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7369,42 +7388,44 @@
       <c r="I8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="26" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P8" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="U8" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="2"/>
+      <c r="V8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="2"/>
     </row>
-    <row r="9" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="87" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7432,42 +7453,44 @@
       <c r="I9" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="25" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="25" t="s">
         <v>374</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="Q9" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="R9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="U9" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="2"/>
+      <c r="V9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="66" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7495,42 +7518,44 @@
       <c r="I10" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="25" t="s">
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="25" t="s">
         <v>375</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="O10" s="4" t="s">
+      <c r="Q10" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P10" s="8" t="s">
+      <c r="R10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="2"/>
+      <c r="V10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="2"/>
     </row>
-    <row r="11" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7558,130 +7583,180 @@
       <c r="I11" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="J11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="25" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="25" t="s">
         <v>376</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="O11" s="4" t="s">
+      <c r="Q11" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="R11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="U11" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U11" s="2"/>
+      <c r="V11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="2"/>
     </row>
-    <row r="12" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+    <row r="12" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="39">
         <v>11</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="31" t="s">
+      <c r="E12" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="31" t="s">
+      <c r="H12" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="43" t="s">
         <v>282</v>
       </c>
-      <c r="J12" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="37" t="s">
+      <c r="J12" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>497</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="N12" s="33" t="s">
+      <c r="P12" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="O12" s="35" t="s">
+      <c r="Q12" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="P12" s="36" t="s">
+      <c r="R12" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q12" s="33" t="s">
+      <c r="S12" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="R12" s="33" t="s">
+      <c r="T12" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="S12" s="33" t="s">
+      <c r="U12" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="T12" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U12" s="33"/>
+      <c r="V12" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="39"/>
     </row>
-    <row r="13" spans="1:21" ht="226.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="34"/>
+    <row r="13" spans="1:23" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="J13" s="31"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>378</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:21" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="87" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>275</v>
@@ -7690,7 +7765,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>228</v>
@@ -7705,195 +7780,243 @@
         <v>29</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>378</v>
+        <v>286</v>
+      </c>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="O14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q14" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="P14" s="8" t="s">
+      <c r="R14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="U14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U14" s="2"/>
+      <c r="V14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="21" t="s">
+    <row r="15" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>228</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="P15" s="8" t="s">
+      <c r="I15" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q15" s="45" t="s">
+        <v>277</v>
+      </c>
+      <c r="R15" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="S15" s="39" t="s">
         <v>233</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="39" t="s">
+        <v>292</v>
+      </c>
+      <c r="U15" s="39" t="s">
         <v>239</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="2"/>
+      <c r="V15" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="39"/>
     </row>
-    <row r="16" spans="1:21" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
-        <v>14</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="40" t="s">
+    <row r="16" spans="1:23" ht="208.8" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="G16" s="31" t="s">
+      <c r="G16" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="J16" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="N16" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="O16" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="P16" s="36" t="s">
+      <c r="I16" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="R16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="33" t="s">
+      <c r="S16" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R16" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="S16" s="33" t="s">
+      <c r="T16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="U16" s="33"/>
+      <c r="V16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:21" ht="179.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="34"/>
+    <row r="17" spans="1:23" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>301</v>
+      </c>
       <c r="J17" s="31"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="198" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B18" s="23" t="s">
         <v>293</v>
@@ -7901,8 +8024,8 @@
       <c r="C18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>294</v>
+      <c r="D18" s="21" t="s">
+        <v>304</v>
       </c>
       <c r="E18" s="13" t="s">
         <v>228</v>
@@ -7917,233 +8040,65 @@
         <v>29</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="25" t="s">
-        <v>381</v>
+        <v>305</v>
+      </c>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="P18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="R18" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" ht="132" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>16</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="2"/>
-    </row>
-    <row r="20" spans="1:21" ht="165" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="N20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="P20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" s="2"/>
+      <c r="V18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="P16:P17"/>
-    <mergeCell ref="O16:O17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="T12:T13"/>
-    <mergeCell ref="U12:U13"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="U16:U17"/>
-    <mergeCell ref="T16:T17"/>
-    <mergeCell ref="S16:S17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="S12:S13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="D12:D13"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="M6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="M7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="M8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="M9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="M10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="M11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="M12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="M14" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="M15" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="M16" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="M18" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="M19" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="M20" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="O8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="O10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="O12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="O13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="O14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="O15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="O16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="O17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="O18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>

--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6715DBCF-89B6-4CFE-A2EF-85EA67395BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057ADC8-5553-40C0-8B75-47719BC92A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="537">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,23 +1037,966 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>나라장터 계약정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 공사서비스정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 계약현황 공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 공사삭제이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달청 - 나라장터 낙찰정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰된 목록 현황 공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰결과 공사 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰결과 공사 예비가격상세 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 검색조건에 의한 낙찰된 목록 현황 공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 검색조건에 의한 개찰결과 공사 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 낙찰정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달청 - 나라장터 입찰공고정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 입찰공고정보서비스</t>
+  </si>
+  <si>
+    <t>나라장터 입찰공고정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 입찰공고정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조달청 - 나라장터 공공데이터개방표준서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 개방표준에 따른 입찰공고 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 공공데이터개방표준서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">데이터셋 개방표준에 따른 낙찰정보 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 개방표준에 따른 계약정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmConstructionList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectAcpsRprtList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectQltPlnList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectSftMctList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjCorpInfoList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjCorpPartList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectMlyPrpoList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl02List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjConstYearContractList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl03List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl04List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl05List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl01List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl06List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl07List.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectDgnChgRprtDetailList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectDgnChgRprtList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmCwkStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmMngList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmSpcfDtl.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmChckDinsPlnList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmChckDinsHstList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmMnrHstList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmCwkRegsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmFctStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcAlRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBzByAreAndRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcCnpByAreAndRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBndStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcRldAndItcnStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBrpAndEvnStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcLndByStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공공용지 취득실적(대토보상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcSlaRwStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcOrByAreAndRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcAcqMtdByRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcLnctStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcPblBzByTngRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBlnOrByRwList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmPermitList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtscList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtscView.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoApiPmQtscList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoApiPmQtsc.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtlTsitStsList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeReviewList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVEProposalList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeBusinessList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeBusiness.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCtwkPsevList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtBzExtOtc.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtBzEffNdRlftEvsh.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtDgnBkInfYrdList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtDgnBkInfYrd.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCostDownCaseList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCostDownCase.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeContractCorpList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저장폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사정보 목록/selectIoCmConstructionList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/기성보고 현황/selectAcpsRprtList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,rprtYm</t>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,rprtYm,type</t>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCcwYn,number,searchOrcd,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectQltPlnList.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질계획 현황/selectQltPlnList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/안전관리비 현황/selectSftMctList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/업체 목록/selectIoCmProjCorpInfoList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/업체별 참여공사 목록/selectIoCmProjCorpPartList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/월간공정 현황/selectMlyPrpoList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(터널) 목록/selectIoCmProjFcl02List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/연도별 공사계약 목록/selectIoCmProjConstYearContractList.csv/selectIoCmProjConstYearContractList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(절개사면) 목록/selectIoCmProjFcl03List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(통로박스) 목록/selectIoCmProjFcl04List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(옹벽) 목록/selectIoCmProjFcl05List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(교량) 목록/selectIoCmProjFcl01List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(수문) 목록/selectIoCmProjFcl06List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공사중인 시설물(제방) 목록/selectIoCmProjFcl07List.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계변경 내역서 현황/selectDgnChgRprtDetailList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계변경 현황/selectDgnChgRprtList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로, 하천 공사정보/selectIoCmCwkStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 목록/selectIoFmMngList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 기본제원/selectIoFmSpcfDtl.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 점검진단계획 목록/selectIoFmChckDinsPlnList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 점검진단이력 목록/selectIoFmChckDinsHstList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 보수보강이력 목록/selectIoFmMnrHstList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/시설물 유지보수대장 목록/selectIoFmCwkRegsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로시설물 관리현황 정보/selectIoFmFctStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-전체보상액 규모 기준 실적 현황/selectIoLcAlRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-사업별 면적 및 보상액 기준 실적 현황/selectIoLcBzByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-시도별 면적 및 보상액 기준 실적 현황/selectIoLcCnpByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(채권보상실적)/selectIoLcBndStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(잔여지 및 간접보상)/selectIoLcRldAndItcnStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(환매권 행사)/selectIoLcBrpAndEvnStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(부동산소유사실 확인서)/selectIoLcLndByStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(대토보상)/selectIoLcSlaRwStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcOrByAreAndRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-취득방법별 면적 및 보상액 기준 실적 현황/selectIoLcAcqMtdByRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적(지목별 실적 현황)/selectIoLcLnctStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-공공사업의 물건보상액 기준 실적 현황/selectIoLcPblBzByTngRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/공공용지 취득실적-소속 기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcBlnOrByRwList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/도로점용허가내용 목록/selectIoPmPermitList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사성적서 등록 목록/selectIoPmQtscList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사성적서 상세정보 현황/selectIoPmQtscView.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사전문기관 목록/selectIoApiPmQtscList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/품질검사전문기관 상세정보/selectIoApiPmQtsc.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설자재 품질검사 등록정보/selectIoPmQtlTsitStsList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세 검토조직 조회/selectIoPtVeReviewList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세 VE제안목록/selectIoPtVEProposalList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 목록 조회/selectIoPtVeBusinessList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 상세정보/selectIoPtVeBusiness.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 사후평가 목록 조회/selectIoPtCtwkPsevList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업수행성과 평가표/selectIoPtBzExtOtc.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업효율 및 파급효과 평가표/selectIoPtBzEffNdRlftEvsh.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계도서등록 사업목록 조회 /selectIoPtDgnBkInfYrdList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계도서등록 상세정보 조회 /selectIoPtDgnBkInfYrd.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 원가절감사례 목록 조회/selectIoPtCostDownCaseList.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/건설공사 원가절감사례 상세 조회/selectIoPtCostDownCase.csv</t>
+  </si>
+  <si>
+    <t>../output/건설사업정보시스템/설계VE 계약정보/selectIoPtVeContractCorpList.csv</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno,type</t>
+  </si>
+  <si>
+    <t>serviceKey,ctrMetdCntlCdVl,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,ctrMetdCntlCdVl</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno</t>
+  </si>
+  <si>
+    <t>serviceKey,ptlCmno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchIciDivCode,searchStrBcDivCodeList,searchSSourceNm,searchMainTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,orOgcd,bzSn,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,orOgcd,bzSn</t>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrOgcd,searchEtCd,searchBzNm,searchBztpCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,crsdYm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,crsdYm,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,brn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,brn,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo,rprtYm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,stpTo,rprtYm,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo</t>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,sptTo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,sptNo,sptTo,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrnm,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchFctNm,searchFctCfCd,searchFctKdCd,searchRutCd,searchCwkNm,searchOfcCd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,fcno,type,pageNo,numOfRows,sortField,sortOrder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCwkEdYr,searchCwkNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCmofNm,searchOfcNm,searchFctNm </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
+  </si>
+  <si>
+    <t>serviceKey,searchEdBgDt,searchEdEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchActUserNm,searchOrgNm,searchPermitNo</t>
+  </si>
+  <si>
+    <t>serviceKey,searchEdBgDt,searchEdEdDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchClntNm,searchMtlNm</t>
+  </si>
+  <si>
+    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,tstRpcdSeq,type</t>
+  </si>
+  <si>
+    <t>serviceKey,tstRpcdSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
+  </si>
+  <si>
+    <t>serviceKey,rgsSeq,type</t>
+  </si>
+  <si>
+    <t>serviceKey,rgsSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,year,type,pageNo,numOfRows,sortField,sortOrder,searchMtlNm,searchPerNo,searchCwkNm</t>
+  </si>
+  <si>
+    <t>serviceKey,year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchProjNm,searchConstClass,searchBusinessType,searchReviewTeam,searchVeStep,searchConstYmdFrom,searchConstYmdTo,searchOrderOrg,searchOrderOrgNm,searchFacil,searchMinConstAmt,searchMaxConstAmt,searchConstLocation,type,pageNo,numOfRows,sortField,sortOrder</t>
+  </si>
+  <si>
+    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchOdinOrcd,searchBztpCd,searchCtco,searchBzNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt</t>
+  </si>
+  <si>
+    <t>계약현황에 대한 용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 일반용역서비스정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 기술용역서비스정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 계약현황 용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 용역변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 용역삭제이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰된 목록 현황 용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰결과 용역 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰결과 용역 예비가격상세 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 검색조건에 의한 낙찰된 목록 현황 용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터 검색조건에 의한 개찰결과 용역 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,bidNtceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;bidNtceNo=20160335295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwkBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt,bidNtceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst,bidPrceCalclAYn,bssAmtPurcnstcst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;bidNtceNo=20020901436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServcBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,bidNtceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoChgHstryCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;bidNtceNo=20150309971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bsnsDivNm,chgDataDivNm,chgDt,bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,chgItemNm,bfchgVal,afchgVal,lcnsLmtCdRgstList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 용역변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 용역기초금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 공사변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 공사기초금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 입찰공고공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 입찰공고용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoChgHstryServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>getCntrctInfoListCnstwk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>inqryDiv=2&amp;untyCntrctNo=2016070055931&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 계약정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 공사서비스정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, untyCntrctNo, srvceSno, rprsntYn, indstrytyNm, cnstrtsiteRgnNm, cnstwkAmt, rltnCorpNm</t>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시</t>
+  </si>
+  <si>
+    <t>수시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cnstwkNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,prcesChangeAplBssCd,prcesChangeAplBssNm,rgstDt,chgDt,dfrcmpnstRt,cbgnDate,thtmCcmpltDate,ttalCcmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngCnstwkNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1061,497 +2004,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나라장터검색조건에 의한 계약현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, untyCntrctNo, bsnsDivNm, dcsnCntrctNo, cntrctRefNo, cnstwkNm, cmmnCntrctYn, lngtrmCtnuDivNm, cntrctCnclsDate, cntrctPrd, baseLawNm, totCntrctAmt, thtmCntrctAmt, grntymnyRate, cntrctInfoUrl, payDivNm, reqNo, ntceNo, cntrctInsttCd, cntrctInsttNm, cntrctInsttJrsdctnDivNm, cntrctInsttChrgDeptNm, cntrctInsttOfclNm, cntrctInsttOfclTelNo, cntrctInsttOfclFaxNo, dminsttList, corpList, cntrctDtlInfoUrl, crdtrNm, baseDtls, cntrctCnclsMthdNm, prcesChangeAplBssCd, prcesChangeAplBssNm, rgstDt, chgDt, dfrcmpnstRt, cbgnDate, thtmCcmpltDate, ttalCcmpltDate, linkInsttNm, d2bMngCntrctSttusNm, d2bMngPrearngAmt, d2bMngBidMthdNm, d2bMngCnstwkNo, pubPrcrmntLrgclsfcNm, pubPrcrmntMidclsfcNm, pubPrcrmntClsfcNo, pubPrcrmntClsfcNm</t>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,cnstwkAmt,rltnCorpNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2017120000010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getCntrctInfoListCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>inqryDiv=1&amp;inqryBgnDate=20160501&amp;inqryEndDate=20160505&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>계약현황에 대한 공사삭제이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, dltDt, chgDivNm, untyCntrctNo, dcsnCntrctNo, cntrctRefNo, rgstDt, chgDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=2016081387600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 공사변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getCntrctInfoListCnstwkDltHstry</t>
-  </si>
-  <si>
-    <t>inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t xml:space="preserve">계약현황에 대한 공사변경이력조회 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, untyCntrctNo, bsnsDivNm, dcsnCntrctNo, cntrctRefNo, cnstwkNm, cmmnCntrctYn, lngtrmCtnuDivNm, cntrctCnclsDate, cntrctPrd, baseLawNm, totCntrctAmt, thtmCntrctAmt, grntymnyRate, cntrctInfoUrl, payDivNm, reqNo, ntceNo, cntrctInsttCd, cntrctInsttNm, cntrctInsttJrsdctnDivNm, cntrctInsttChrgDeptNm, cntrctInsttOfclNm, cntrctInsttOfclTelNo, cntrctInsttOfclFaxNo, dminsttList, corpList, cntrctDtlInfoUrl, crdtrNm, baseDtls, cntrctCnclsMthdNm, prcesChangeAplBssCd, prcesChangeAplBssNm, rgstDt, chgDt, dfrcmpnstRt, cbgnDate, thtmCcmpltDate, ttalCcmpltDate, linkInsttNm, d2bMngCntrctSttusNm, d2bMngPrearngAmt, d2bMngBidMthdNm, d2bMngCnstwkNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkChgHstry</t>
-  </si>
-  <si>
-    <t>inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605022359&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>조달청 - 나라장터 낙찰정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰된 목록 현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, bidClsfcNo, rbidNo, ntceDivCd, bidNtceNm, prtcptCnum, bidwinnrNm, bidwinnrBizno, bidwinnrCeoNm, bidwinnrAdrs, bidwinnrTelNo, sucsfbidAmt, sucsfbidRate, rlOpengDt, dminsttCd, dminsttNm, rgstDt, fnlSucsfDate, fnlSucsfCorpOfcl, linkInsttNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusCnstwk</t>
-  </si>
-  <si>
-    <t>개찰결과 공사 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, bidClsfcNo, rbidNo, bidNtceNm, opengDt, prtcptCnum, opengCorpInfo, progrsDivCdNm, inptDt, rsrvtnPrceFileExistnceYn, ntceInsttCd, ntceInsttNm, dminsttCd, dminsttNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwk</t>
-  </si>
-  <si>
-    <t>개찰결과 공사 예비가격상세 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, bidClsfcNo, rbidNo, bidNtceNm, plnprc, bssamt, totRsrvtnPrceNum, compnoRsrvtnPrceSno, bsisPlnprc, drwtYn, drwtNum, bidwinrSlctnAplBssCntnts, rlOpengDt, bssamtBssUpNum, compnoRsrvtnPrceMkngDt, inptDt, PrearngPrcePurcnstcst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwkPreparPcDetail</t>
-  </si>
-  <si>
-    <t>inqryDiv=2&amp;bidNtceNo=20160320372&amp;pageNo=1&amp;numOfRows=15&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 낙찰된 목록 현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 개찰결과 공사 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <r>
-      <t>untyCntrctNo=2016050000052</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 낙찰정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조달청 - 나라장터 입찰공고정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inqryDiv=1&amp;inqryBgnDt=201705010000&amp;inqryEndDt=201705012359&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>inqryDiv=1&amp;inqryBgnDt=201705010000&amp;inqryEndDt=201705012359&amp;pageNo=1&amp;numOfRows=10&amp;ServiceKey=인증키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 입찰공고정보서비스</t>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사기초 금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, bidClsfcNo, bidNtceNm, bssamt, bssamtOpenDt, rsrvtnPrceRngBgnRate, rsrvtnPrceRngEndRate, evlBssAmt, dfcltydgrCfcnt, etcGnrlexpnsBssRate, gnrlMngcstBssRate, prftBssRate, lbrcstBssRate, sftyMngcst, rtrfundNon, envCnsrvcst, scontrctPayprcePayGrntyFee, mrfnHealthInsrprm, npnInsrprm, rmrk1, rmrk2, odsnLngtrmrcprInsrprm, usefulAmt, inptDt, sftyChckMngcst, bidPrceCalclAYn, bssAmtPurcnstcst, qltyMngcst, qltyMngcstAObjYn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, reNtceYn, rgstTyNm, ntceKindNm, intrbidYn, bidNtceDt, refNo, bidNtceNm, ntceInsttCd, ntceInsttNm, dminsttCd, dminsttNm, bidMethdNm, cntrctCnclsMthdNm, ntceInsttOfclNm, ntceInsttOfclTelNo, ntceInsttOfclEmailAdrs, exctvNm, bidQlfctRgstDt, cmmnSpldmdAgrmntRcptdocMethd, cmmnSpldmdAgrmntClseDt, cmmnSpldmd, CorpRgnLmtYn, bidBeginDt, bidClseDt, opengDt, ntceSpecDocUrl1, ntceSpecDocUrl2, ntceSpecDocUrl3, ntceSpecDocUrl4, ntceSpecDocUrl5, ntceSpecDocUrl6, ntceSpecDocUrl7, ntceSpecDocUrl8, ntceSpecDocUrl9, ntceSpecDocUrl10, ntceSpecFileNm1, ntceSpecFileNm2, ntceSpecFileNm3, ntceSpecFileNm4, ntceSpecFileNm5, ntceSpecFileNm6, ntceSpecFileNm7, ntceSpecFileNm8, ntceSpecFileNm9, ntceSpecFileNm10, rbidPermsnYn, pqApplDocRcptMthdNm, pqApplDocRcptDt, arsltApplDocRcptMthdNm, arsltApplDocRcptDt, jntcontrctDutyRgnNm1, jntcontrctDutyRgnNm2, jntcontrctDutyRgnNm3, rgnDutyJntcontrctRt, dtlsBidYn, bidPrtcptLmtYn, prearngPrceDcsnMthdNm, totPrdprcNum, drwtPrdprcNum, bdgtAmt, presmptPrce, govsplyAmt, aplBssCntnts, indstrytyEvlRt, mainCnsttyNm, mainCnsttyCnstwkPrearngAmt, incntvRgnNm1, incntvRgnNm2, incntvRgnNm3, incntvRgnNm4, opengPlce, dcmtgOprtnDt, dcmtgOprtnPlce, contrctrcnstrtnGovsplyMtrlAmt, govcnstrtnGovsplyMtrlAmt, bidNtceDtlUrl, bidNtceUrl, bidPrtcptFeePaymntYn, bidPrtcptFee, bidGrntymnyPaymntYn, crdtrNm, cmmnSpldmdCnum, untyNtceNo, sptDscrptDocUrl1, sptDscrptDocUrl2, sptDscrptDocUrl3, sptDscrptDocUrl4, sptDscrptDocUrl5, subsiCnsttyNm1, subsiCnsttyNm2, subsiCnsttyNm3, subsiCnsttyNm4, subsiCnsttyNm5, subsiCnsttyNm6, subsiCnsttyNm7, subsiCnsttyNm8, subsiCnsttyNm9, subsiCnsttyIndstrytyEvlRt1, subsiCnsttyIndstrytyEvlRt2, subsiCnsttyIndstrytyEvlRt3, subsiCnsttyIndstrytyEvlRt4, subsiCnsttyIndstrytyEvlRt5, subsiCnsttyIndstrytyEvlRt6, subsiCnsttyIndstrytyEvlRt7, subsiCnsttyIndstrytyEvlRt8, subsiCnsttyIndstrytyEvlRt9, cmmnSpldmdMethdCd, cmmnSpldmdMethdNm, stdNtceDocUrl, brffcBidprcPermsnYn, cnsttyAccotShreRateList, cnstrtnAbltyEvlAmtList, dsgntCmptYn, arsltCmptYn, pqEvalYn, ntceDscrptYn, rsrvtnPrceReMkngMthdNm, mainCnsttyPresmptPrce, orderPlanUntyNo, sucsfbidLwltRate, rgstDt, bfSpecRgstNo, sucsfbidMthdCd, sucsfbidMthdNm, chgDt, linkInsttNm, dminsttOfclEmailAdrs, indstrytyLmtYn, d2bMngRgnLmtYn, d2bMngPblctPlceNm, d2bMngCnstwkOutlnCntnts, d2bMngCnstwkDivNm, d2bMngCnstwkPrdCntnts, d2bMngCnstwkScleCntnts, d2bMngRsrvtnPrceBssAplYn, d2bMngBssamt, d2bMngRgstEvalExmpYn, d2bMngBfEvalObjYn, d2bMngBfEvalClseDt, d2bMngAssmntUplmtRt, d2bMngAssmntLwstlmtRt, d2bMngCnstwkLctNm, d2bMngProgrsSttusNm, d2bMngNgttnPlanDate, d2bMngNgttnStleNm, d2bMngDmndYear, d2bMngCnstwkNo, cnstrtsiteRgnNm, rgnDutyJntcontrctYn, chgNtceRsn, rbidOpengDt, ciblAplYn, mtltyAdvcPsblYn, mtltyAdvcPsblYnCnstwkNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoCnstwkBsisAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">getBidPblancListInfoCnstwk </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사변경 이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bsnsDivNm, chgDataDivNm, chgDt, bidNtceNo, bidNtceOrd, bidClsfcNo, rbidNo, chgItemNm, bfchgVal, afchgVal, lcnsLmtCdRgstList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoChgHstryCnst자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 입찰공고 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, reNtceYn, rgstTyNm, ntceKindNm, intrbidYn, bidNtceDt, refNo, bidNtceNm, ntceInsttCd, ntceInsttNm, dminsttCd, dminsttNm, bidMethdNm, cntrctCnclsMthdNm, ntceInsttOfclNm, ntceInsttOfclTelNo, ntceInsttOfclEmailAdrs, exctvNm, bidQlfctRgstDt, cmmnSpldmdAgrmntRcptdocMethd, cmmnSpldmdAgrmntClseDt, cmmnSpldmdCorpRgnLmtYn, bidBeginDt, bidClseDt, opengDt, ntceSpecDocUrl1, ntceSpecDocUrl2, ntceSpecDocUrl3, ntceSpecDocUrl4, ntceSpecDocUrl5, ntceSpecDocUrl6, ntceSpecDocUrl7, ntceSpecDocUrl8, ntceSpecDocUrl9, ntceSpecDocUrl10, ntceSpecFileNm1, ntceSpecFileNm2, ntceSpecFileNm3, ntceSpecFileNm4, ntceSpecFileNm5, ntceSpecFileNm6, ntceSpecFileNm7, ntceSpecFileNm8, ntceSpecFileNm9, ntceSpecFileNm10, rbidPermsnYn, pqApplDocRcptMthdNm, pqApplDocRcptDt, arsltApplDocRcptMthdNm, arsltApplDocRcptDt, jntcontrctDutyRgnNm1, jntcontrctDutyRgnNm2, jntcontrctDutyRgnNm3, rgnDutyJntcontrctRt, dtlsBidYn, bidPrtcptLmtYn, prearngPrceDcsnMthdNm, totPrdprcNum, drwtPrdprcNum, bdgtAmt, presmptPrce, govsplyAmt, aplBssCntnts, indstrytyEvlRt, mainCnsttyNm, mainCnsttyCnstwkPrearngAmt, incntvRgnNm1, incntvRgnNm2, incntvRgnNm3, incntvRgnNm4, opengPlce, dcmtgOprtnDt, dcmtgOprtnPlce, contrctrcnstrtnGovsplyMtrlAmt, govcnstrtnGovsplyMtrlAmt, bidNtceDtlUrl, bidNtceUrl, bidPrtcptFeePaymntYn, bidPrtcptFee, bidGrntymnyPaymntYn, crdtrNm, cmmnSpldmdCnum, untyNtceNo, sptDscrptDocUrl1, sptDscrptDocUrl2, sptDscrptDocUrl3, sptDscrptDocUrl4, sptDscrptDocUrl5, subsiCnsttyNm1, subsiCnsttyNm2, subsiCnsttyNm3, subsiCnsttyNm4, subsiCnsttyNm5, subsiCnsttyNm6, subsiCnsttyNm7, subsiCnsttyNm8, subsiCnsttyNm9, subsiCnsttyIndstrytyEvlRt1, subsiCnsttyIndstrytyEvlRt2, subsiCnsttyIndstrytyEvlRt3, subsiCnsttyIndstrytyEvlRt4, subsiCnsttyIndstrytyEvlRt5, subsiCnsttyIndstrytyEvlRt6, subsiCnsttyIndstrytyEvlRt7, subsiCnsttyIndstrytyEvlRt8, subsiCnsttyIndstrytyEvlRt9, cmmnSpldmdMethdCd, cmmnSpldmdMethdNm, stdNtceDocUrl, brffcBidprcPermsnYn, cnsttyAccotShreRateList, cnstrtnAbltyEvlAmtList, dsgntCmptYn, arsltCmptYn, pqEvalYn, ntceDscrptYn, rsrvtnPrceReMkngMthdNm, mainCnsttyPresmptPrce, orderPlanUntyNo, sucsfbidLwltRate, rgstDt, bfSpecRgstNo, sucsfbidMthdCd, sucsfbidMthdNm, chgDt, linkInsttNm, dminsttOfclEmailAdrs, indstrytyLmtYn, d2bMngRgnLmtYn, d2bMngPblctPlceNm, d2bMngCnstwkOutlnCntnts, d2bMngCnstwkDivNm, d2bMngCnstwkPrdCntnts, d2bMngCnstwkScleCntnts, d2bMngRsrvtnPrceBssAplYn, d2bMngBssamt, d2bMngRgstEvalExmpYn, d2bMngBfEvalObjYn, d2bMngBfEvalClseDt, d2bMngAssmntUplmtRt, d2bMngAssmntLwstlmtRt, d2bMngCnstwkLctNm, d2bMngProgrsSttusNm, d2bMngNgttnPlanDate, d2bMngNgttnStleNm, d2bMngDmndYear, d2bMngCnstwkNo, cnstrtsiteRgnNm, rgnDutyJntcontrctYn, chgNtceRsn, rbidOpengDt, ciblAplYn, mtltyAdvcPsblYn, mtltyAdvcPsblYnCnstwkNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 입찰공고정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 입찰공고정보서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>조달청 - 나라장터 공공데이터개방표준서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 개방표준에 따른 입찰공고 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, untyCntrctNo, bsnsDivNm, dcsnCntrctNo,cntrctRefNo, cnstwkNm, cmmnCntrctYn, lngtrmCtnuDivNm, cntrctCnclsDate, cntrctPrd, baseLawNm, totCntrctAmt, thtmCntrctAmt, grntymnyRate, cntrctInfoUrl, payDivNm, reqNo, ntceNo, cntrctInsttCd, cntrctInsttNm, cntrctInsttJrsdctnDivNm, cntrctInsttChrgDeptNm, cntrctInsttOfclNm, cntrctInsttOfclTelNo, cntrctInsttOfclFaxNo, dminsttList, corpList, cntrctDtlInfoUrl, crdtrNm, baseDtls, cntrctCnclsMthdNm, prcesChangeAplBssCd, prcesChangeAplBssNm, rgstDt, chgDt, dfrcmpnstRt, cbgnDate, thtmCcmpltDate, ttalCcmpltDate, linkInsttNm, d2bMngCntrctSttusNm, d2bMngPrearngAmt, d2bMngBidMthdNm, d2bMngCnstwkNo, pubPrcrmntLrgclsfcNm , pubPrcrmntMidclsfcNm, pubPrcrmntClsfcNo, pubPrcrmntClsfcNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, refNtceNo, refNtceOrd, ppsNtceYn, bidNtceNm, bidNtceSttusNm, bidNtceDate, bidNtceBgn, bsnsDivNm, intrntnlBidYn, cmmnCntrctYn, cmmnReciptMethdNm, elctrnBidYn, cntrctCnclsSttusNm, cntrctCnclsMthdNm, bidwinrDcsnMthdNm, ntceInsttNm, ntceInsttCd, ntceInsttOfclDeptNm, ntceInsttOfclNm, ntceInsttOfclTel, ntceInsttOfclEmailAdrs, dmndInsttNm, dmndInsttCd, dmndInsttOfclDeptNm, dmndInsttOfclNm, dmndInsttOfclTel, dmndInsttOfclEmailAdrs, presnatnOprtnYn, presnatnOprtnDate, presnatnOprtnTm, presnatnOprtnPlce, bidPrtcptQlfctRgstClseDate, bidPrtcptQlfctRgstClseTm, cmmnReciptAgrmntClseDate, cmmnReciptAgrmntClseTm, bidBeginDate, bidBeginTm, bidClseDate, bidClseTm, opengDate, opengTm, opengPlce, asignBdgtAmt, presmptPrce, rsrvtnPrceDcsnMthdNm, rgnLmtYn, prtcptPsblRgnNm, indstrytyLmtYn, bidprcPsblIndstrytyNm, bidNtceUrl, dataBssDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdBidPblancInfo</t>
-  </si>
-  <si>
-    <t>numOfRows=10&amp;pageNo=1&amp;bidNtceBgnDt=201701010000&amp;bidNtceEndDt=201701312359&amp;ServiceKey=인증키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 공공데이터개방표준서비스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">데이터셋 개방표준에 따른 낙찰정보 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, bidNtceNo, bidNtceOrd, bidNtceNm, bsnsDivNm, cntrctCnclsSttusNm, cntrctCnclsMthdNm, bidwinrDcsnMthdNm, ntceInsttNm, ntceInsttCd, dmndInsttNm, dmndInsttCd, sucsfLwstlmtRt, presmptPrce, rsrvtnPrce, bssAmt, opengDate, opengTm, opengRsltDivNm, opengRank, bidprcCorpBizrno, bidprcCorpNm, bidprcCorpCeoNm, bidprcAmt, bidprcRt, bidprcDate, bidprcTm, sucsfYn, dqlfctnRsn, fnlSucsfAmt, fnlSucsfRt, fnlSucsfDate, fnlSucsfCorpNm, fnlSucsfCorpCeoNm, fnlSucsfCorpOfclNm, fnlSucsfCorpBizrno, fnlSucsfCorpAdrs, fnlSucsfCorpContactTel, dataBssDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdScsbidInfo</t>
-  </si>
-  <si>
-    <t>numOfRows=10&amp;pageNo=1&amp;opengBgnDt=201701010000&amp;opengEndDt=201701062359&amp;bsnsDivCd=1&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>데이터셋 개방표준에 따른 계약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resultCode, resultMsg, numOfRows, pageNo, totalCount, cntrctNo, untyCntrctNo, cntrctOrd, cntrctNm, bsnsDivNm, cntrctCnclsSttusNm, cntrctCnclsMthdNm, lngtrmCtnuDivNm, cmmnCntrctYn, cntrctCnclsDate, cntrctPrd, cntrctAmt, ttalCntrctAmt, cntrctInfoUrl, bidNtceNo, bidNtceOrd, bidNtceNm, opengDate, opengTm, rsrvtnPrce, prvtcntrctRsn, bidNtceUrl, cntrctInsttDivNm, cntrctInsttNm, cntrctInsttCd, cntrctInsttChrgDeptNm, cntrctInsttOfclNm, cntrctInsttOfclTel, cntrctInsttOfcl, dmndInsttDivNm, dmndInsttNm, dmndInsttCd, dmndInsttOfclDeptNm, dmndInsttOfclNm, dmndInsttOfclTel, dmndInsttOfclEmailAdrs, rprsntCorpNm, dmstcCorpYn, rprsntCorpCeoNm, rprsntCorpOfclNm, rprsntCorpBizrno, rprsntCorpAdrs, rprsntCorpContactTel, dataBssDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdCntrctInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=10&amp;pageNo=1&amp;cntrctCnclsBgnDate=20170101&amp;cntrctCnclsEndDate=20170131&amp;ServiceKey=인증키</t>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmConstructionList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectAcpsRprtList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectQltPlnList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectSftMctList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjCorpInfoList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjCorpPartList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectMlyPrpoList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl02List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjConstYearContractList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl03List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl04List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl05List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl01List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl06List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmProjFcl07List.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectDgnChgRprtDetailList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectDgnChgRprtList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/cm/selectIoCmCwkStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmMngList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmSpcfDtl.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmChckDinsPlnList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmChckDinsHstList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmMnrHstList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmCwkRegsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/fm/selectIoFmFctStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcAlRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBzByAreAndRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcCnpByAreAndRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBndStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcRldAndItcnStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBrpAndEvnStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcLndByStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공공용지 취득실적(대토보상)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcSlaRwStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcOrByAreAndRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcAcqMtdByRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcLnctStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcPblBzByTngRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/lc/selectIoLcBlnOrByRwList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmPermitList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtscList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtscView.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoApiPmQtscList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoApiPmQtsc.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pm/selectIoPmQtlTsitStsList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeReviewList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVEProposalList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeBusinessList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeBusiness.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCtwkPsevList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtBzExtOtc.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtBzEffNdRlftEvsh.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtDgnBkInfYrdList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtDgnBkInfYrd.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCostDownCaseList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtCostDownCase.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.calspia.go.kr/io/openapi/pt/selectIoPtVeContractCorpList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1559,438 +2068,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwk </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPreparPcDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdBidPblancInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdScsbidInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdCntrctInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저장폴더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사정보 목록/selectIoCmConstructionList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청변수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,stpTo,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,stpTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/기성보고 현황/selectAcpsRprtList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,rprtYm</t>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,rprtYm,type</t>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCcwYn,number,searchOrcd,searchCwkNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selectQltPlnList.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/품질계획 현황/selectQltPlnList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/안전관리비 현황/selectSftMctList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/업체 목록/selectIoCmProjCorpInfoList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/업체별 참여공사 목록/selectIoCmProjCorpPartList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/월간공정 현황/selectMlyPrpoList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(터널) 목록/selectIoCmProjFcl02List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/연도별 공사계약 목록/selectIoCmProjConstYearContractList.csv/selectIoCmProjConstYearContractList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(절개사면) 목록/selectIoCmProjFcl03List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(통로박스) 목록/selectIoCmProjFcl04List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(옹벽) 목록/selectIoCmProjFcl05List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(교량) 목록/selectIoCmProjFcl01List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(수문) 목록/selectIoCmProjFcl06List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공사중인 시설물(제방) 목록/selectIoCmProjFcl07List.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계변경 내역서 현황/selectDgnChgRprtDetailList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계변경 현황/selectDgnChgRprtList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/도로, 하천 공사정보/selectIoCmCwkStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 목록/selectIoFmMngList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 기본제원/selectIoFmSpcfDtl.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 점검진단계획 목록/selectIoFmChckDinsPlnList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 점검진단이력 목록/selectIoFmChckDinsHstList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 보수보강이력 목록/selectIoFmMnrHstList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/시설물 유지보수대장 목록/selectIoFmCwkRegsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/도로시설물 관리현황 정보/selectIoFmFctStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-전체보상액 규모 기준 실적 현황/selectIoLcAlRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-사업별 면적 및 보상액 기준 실적 현황/selectIoLcBzByAreAndRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-시도별 면적 및 보상액 기준 실적 현황/selectIoLcCnpByAreAndRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(채권보상실적)/selectIoLcBndStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(잔여지 및 간접보상)/selectIoLcRldAndItcnStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(환매권 행사)/selectIoLcBrpAndEvnStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(부동산소유사실 확인서)/selectIoLcLndByStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(대토보상)/selectIoLcSlaRwStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcOrByAreAndRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-취득방법별 면적 및 보상액 기준 실적 현황/selectIoLcAcqMtdByRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적(지목별 실적 현황)/selectIoLcLnctStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-공공사업의 물건보상액 기준 실적 현황/selectIoLcPblBzByTngRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/공공용지 취득실적-소속 기관별 취득면적 및 보상액 기준 실적 현황/selectIoLcBlnOrByRwList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/도로점용허가내용 목록/selectIoPmPermitList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/품질검사성적서 등록 목록/selectIoPmQtscList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/품질검사성적서 상세정보 현황/selectIoPmQtscView.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/품질검사전문기관 목록/selectIoApiPmQtscList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/품질검사전문기관 상세정보/selectIoApiPmQtsc.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/건설자재 품질검사 등록정보/selectIoPmQtlTsitStsList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계VE 상세 검토조직 조회/selectIoPtVeReviewList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계VE 상세 VE제안목록/selectIoPtVEProposalList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계VE 목록 조회/selectIoPtVeBusinessList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계VE 상세정보/selectIoPtVeBusiness.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/건설공사 사후평가 목록 조회/selectIoPtCtwkPsevList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업수행성과 평가표/selectIoPtBzExtOtc.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/사후평가 수행실적표 - 사업효율 및 파급효과 평가표/selectIoPtBzEffNdRlftEvsh.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계도서등록 사업목록 조회 /selectIoPtDgnBkInfYrdList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계도서등록 상세정보 조회 /selectIoPtDgnBkInfYrd.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/건설공사 원가절감사례 목록 조회/selectIoPtCostDownCaseList.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/건설공사 원가절감사례 상세 조회/selectIoPtCostDownCase.csv</t>
-  </si>
-  <si>
-    <t>../output/건설사업정보시스템/설계VE 계약정보/selectIoPtVeContractCorpList.csv</t>
-  </si>
-  <si>
-    <t>serviceKey,ptlCmno,type</t>
-  </si>
-  <si>
-    <t>serviceKey,ctrMetdCntlCdVl,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,ctrMetdCntlCdVl</t>
-  </si>
-  <si>
-    <t>serviceKey,ptlCmno,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,ptlCmno</t>
-  </si>
-  <si>
-    <t>serviceKey,ptlCmno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchIciDivCode,searchStrBcDivCodeList,searchSSourceNm,searchMainTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,orOgcd,bzSn,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,orOgcd,bzSn</t>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrOgcd,searchEtCd,searchBzNm,searchBztpCd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,crsdYm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,crsdYm,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,brn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,brn,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,stpTo,rprtYm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,stpTo,rprtYm,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo</t>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,sptTo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,sptNo,sptTo,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchOrnm,searchCwkNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchFctNm,searchFctCfCd,searchFctKdCd,searchRutCd,searchCwkNm,searchOfcCd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,fcno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,fcno,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,fcno,type,pageNo,numOfRows,sortField,sortOrder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCwkEdYr,searchCwkNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">serviceKey,type,pageNo,numOfRows,sortField,sortOrder,searchCmofNm,searchOfcNm,searchFctNm </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchSrYr1,searchSrYr2,searchSrYr3,type</t>
-  </si>
-  <si>
-    <t>serviceKey,searchEdBgDt,searchEdEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchActUserNm,searchOrgNm,searchPermitNo</t>
-  </si>
-  <si>
-    <t>serviceKey,searchEdBgDt,searchEdEdDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchClntNm,searchMtlNm</t>
-  </si>
-  <si>
-    <t>serviceKey,searchCstrNm,searchRpcdIsBgDt,searchRpcdIsEdDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,tstRpcdSeq,type</t>
-  </si>
-  <si>
-    <t>serviceKey,tstRpcdSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,type,pageNo,numOfRows,sortField,sortOrder</t>
-  </si>
-  <si>
-    <t>serviceKey,rgsSeq,type</t>
-  </si>
-  <si>
-    <t>serviceKey,rgsSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,year,type,pageNo,numOfRows,sortField,sortOrder,searchMtlNm,searchPerNo,searchCwkNm</t>
-  </si>
-  <si>
-    <t>serviceKey,year</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchProjNm,searchConstClass,searchBusinessType,searchReviewTeam,searchVeStep,searchConstYmdFrom,searchConstYmdTo,searchOrderOrg,searchOrderOrgNm,searchFacil,searchMinConstAmt,searchMaxConstAmt,searchConstLocation,type,pageNo,numOfRows,sortField,sortOrder</t>
-  </si>
-  <si>
-    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt,type,pageNo,numOfRows,sortField,sortOrder,searchOdinOrcd,searchBztpCd,searchCtco,searchBzNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt</t>
-  </si>
-  <si>
-    <t>ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,numOfRows,pageNo,type</t>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D\&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dltDt,chgDivNm,untyCntrctNo,dcsnCntrctNo,cntrctRefNo,rgstDt,chgDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359&amp;untyCntrctNo=2016070113289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cntrctNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,rgstDt,chgDt,dfrcmpnstRt,wbgnDate,thtmScmpltDate,ttalScmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngDcsnNo,d2bMngCnstwkNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListGnrlServcServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListGnrlServcServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=&amp;type=json&amp;untyCntrctNo=2015010000230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,prdctClsfcNoNmNdSpec,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListTechServcServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListTechServcServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2016010000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=4&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=20160800245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2137,7 +2295,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2201,13 +2359,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2231,12 +2383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2249,34 +2395,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2656,10 +2799,10 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="40" zoomScaleNormal="40" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2672,7 +2815,7 @@
     <col min="8" max="8" width="21.59765625" customWidth="1"/>
     <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="35.59765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.59765625" style="28" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.09765625" customWidth="1"/>
     <col min="14" max="16" width="19.59765625" customWidth="1"/>
     <col min="17" max="17" width="38.59765625" customWidth="1"/>
@@ -2712,13 +2855,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="L1" s="29" t="s">
-        <v>386</v>
+        <v>325</v>
+      </c>
+      <c r="L1" s="27" t="s">
+        <v>322</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
@@ -2730,7 +2873,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>308</v>
+        <v>261</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -2785,14 +2928,14 @@
       <c r="I2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>396</v>
-      </c>
-      <c r="L2" s="35" t="s">
-        <v>387</v>
+      <c r="J2" s="29" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>323</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>27</v>
@@ -2803,8 +2946,8 @@
       <c r="O2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="25" t="s">
-        <v>309</v>
+      <c r="P2" s="23" t="s">
+        <v>262</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -2860,13 +3003,13 @@
         <v>43</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>392</v>
-      </c>
-      <c r="K3" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="L3" s="35" t="s">
-        <v>393</v>
+        <v>328</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="L3" s="31" t="s">
+        <v>329</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
@@ -2877,8 +3020,8 @@
       <c r="O3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P3" s="25" t="s">
-        <v>310</v>
+      <c r="P3" s="23" t="s">
+        <v>263</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
@@ -2931,14 +3074,14 @@
       <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>394</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="L4" s="35" t="s">
-        <v>398</v>
+      <c r="J4" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>334</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
@@ -2949,11 +3092,11 @@
       <c r="O4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="25" t="s">
-        <v>311</v>
+      <c r="P4" s="23" t="s">
+        <v>264</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>397</v>
+        <v>333</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3004,14 +3147,14 @@
         <v>39</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>462</v>
+        <v>398</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="L5" s="35" t="s">
         <v>399</v>
       </c>
+      <c r="L5" s="31" t="s">
+        <v>335</v>
+      </c>
       <c r="M5" s="5" t="s">
         <v>27</v>
       </c>
@@ -3021,8 +3164,8 @@
       <c r="O5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="25" t="s">
-        <v>312</v>
+      <c r="P5" s="23" t="s">
+        <v>265</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>40</v>
@@ -3076,14 +3219,14 @@
         <v>45</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>464</v>
-      </c>
-      <c r="L6" s="35" t="s">
         <v>400</v>
       </c>
+      <c r="L6" s="31" t="s">
+        <v>336</v>
+      </c>
       <c r="M6" s="5" t="s">
         <v>27</v>
       </c>
@@ -3093,8 +3236,8 @@
       <c r="O6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P6" s="25" t="s">
-        <v>313</v>
+      <c r="P6" s="23" t="s">
+        <v>266</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>48</v>
@@ -3148,13 +3291,13 @@
         <v>47</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="L7" s="35" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="L7" s="31" t="s">
+        <v>337</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>27</v>
@@ -3165,8 +3308,8 @@
       <c r="O7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="25" t="s">
-        <v>314</v>
+      <c r="P7" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>49</v>
@@ -3220,13 +3363,13 @@
         <v>52</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>468</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>402</v>
+        <v>404</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>338</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>27</v>
@@ -3237,8 +3380,8 @@
       <c r="O8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="25" t="s">
-        <v>315</v>
+      <c r="P8" s="23" t="s">
+        <v>268</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>53</v>
@@ -3292,13 +3435,13 @@
         <v>61</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L9" s="35" t="s">
-        <v>403</v>
+        <v>326</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>339</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>27</v>
@@ -3309,8 +3452,8 @@
       <c r="O9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>316</v>
+      <c r="P9" s="23" t="s">
+        <v>269</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>56</v>
@@ -3364,13 +3507,13 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>388</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="L10" s="35" t="s">
-        <v>404</v>
+        <v>324</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>340</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>27</v>
@@ -3381,8 +3524,8 @@
       <c r="O10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="25" t="s">
-        <v>317</v>
+      <c r="P10" s="23" t="s">
+        <v>270</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>63</v>
@@ -3436,13 +3579,13 @@
         <v>67</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L11" s="35" t="s">
-        <v>405</v>
+        <v>326</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>341</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>27</v>
@@ -3453,8 +3596,8 @@
       <c r="O11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>318</v>
+      <c r="P11" s="23" t="s">
+        <v>271</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>65</v>
@@ -3508,13 +3651,13 @@
         <v>70</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L12" s="35" t="s">
-        <v>406</v>
+        <v>326</v>
+      </c>
+      <c r="L12" s="31" t="s">
+        <v>342</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
@@ -3525,8 +3668,8 @@
       <c r="O12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P12" s="25" t="s">
-        <v>319</v>
+      <c r="P12" s="23" t="s">
+        <v>272</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>68</v>
@@ -3580,13 +3723,13 @@
         <v>71</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>407</v>
+        <v>326</v>
+      </c>
+      <c r="L13" s="31" t="s">
+        <v>343</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>27</v>
@@ -3597,8 +3740,8 @@
       <c r="O13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P13" s="25" t="s">
-        <v>320</v>
+      <c r="P13" s="23" t="s">
+        <v>273</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>72</v>
@@ -3652,13 +3795,13 @@
         <v>74</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L14" s="35" t="s">
-        <v>408</v>
+        <v>326</v>
+      </c>
+      <c r="L14" s="31" t="s">
+        <v>344</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>27</v>
@@ -3669,8 +3812,8 @@
       <c r="O14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="25" t="s">
-        <v>321</v>
+      <c r="P14" s="23" t="s">
+        <v>274</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>75</v>
@@ -3724,13 +3867,13 @@
         <v>79</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L15" s="35" t="s">
-        <v>409</v>
+        <v>326</v>
+      </c>
+      <c r="L15" s="31" t="s">
+        <v>345</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>27</v>
@@ -3741,8 +3884,8 @@
       <c r="O15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P15" s="25" t="s">
-        <v>322</v>
+      <c r="P15" s="23" t="s">
+        <v>275</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>77</v>
@@ -3796,13 +3939,13 @@
         <v>82</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>469</v>
+        <v>405</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>410</v>
+        <v>326</v>
+      </c>
+      <c r="L16" s="31" t="s">
+        <v>346</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>27</v>
@@ -3813,8 +3956,8 @@
       <c r="O16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="25" t="s">
-        <v>323</v>
+      <c r="P16" s="23" t="s">
+        <v>276</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>80</v>
@@ -3868,13 +4011,13 @@
         <v>86</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="L17" s="35" t="s">
-        <v>411</v>
+        <v>407</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>347</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
@@ -3885,8 +4028,8 @@
       <c r="O17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="25" t="s">
-        <v>324</v>
+      <c r="P17" s="23" t="s">
+        <v>277</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>83</v>
@@ -3940,13 +4083,13 @@
         <v>87</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>412</v>
+        <v>407</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>348</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
@@ -3957,8 +4100,8 @@
       <c r="O18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P18" s="25" t="s">
-        <v>325</v>
+      <c r="P18" s="23" t="s">
+        <v>278</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>88</v>
@@ -4012,13 +4155,13 @@
         <v>90</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="L19" s="35" t="s">
-        <v>413</v>
+        <v>408</v>
+      </c>
+      <c r="L19" s="31" t="s">
+        <v>349</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>27</v>
@@ -4029,8 +4172,8 @@
       <c r="O19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P19" s="25" t="s">
-        <v>326</v>
+      <c r="P19" s="23" t="s">
+        <v>279</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>91</v>
@@ -4084,13 +4227,13 @@
         <v>94</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>473</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>414</v>
+        <v>409</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>350</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>27</v>
@@ -4101,8 +4244,8 @@
       <c r="O20" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P20" s="25" t="s">
-        <v>327</v>
+      <c r="P20" s="23" t="s">
+        <v>280</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>97</v>
@@ -4156,13 +4299,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="L21" s="35" t="s">
-        <v>415</v>
+        <v>411</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>351</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>27</v>
@@ -4173,8 +4316,8 @@
       <c r="O21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P21" s="25" t="s">
-        <v>328</v>
+      <c r="P21" s="23" t="s">
+        <v>281</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>98</v>
@@ -4228,13 +4371,13 @@
         <v>102</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>416</v>
+        <v>411</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>352</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>27</v>
@@ -4245,8 +4388,8 @@
       <c r="O22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P22" s="25" t="s">
-        <v>329</v>
+      <c r="P22" s="23" t="s">
+        <v>282</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>103</v>
@@ -4300,13 +4443,13 @@
         <v>106</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>476</v>
-      </c>
-      <c r="L23" s="35" t="s">
-        <v>417</v>
+        <v>412</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>353</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>27</v>
@@ -4317,8 +4460,8 @@
       <c r="O23" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="25" t="s">
-        <v>330</v>
+      <c r="P23" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>107</v>
@@ -4372,13 +4515,13 @@
         <v>110</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>474</v>
+        <v>410</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>418</v>
+        <v>411</v>
+      </c>
+      <c r="L24" s="31" t="s">
+        <v>354</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>27</v>
@@ -4389,8 +4532,8 @@
       <c r="O24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P24" s="25" t="s">
-        <v>331</v>
+      <c r="P24" s="23" t="s">
+        <v>284</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>111</v>
@@ -4444,13 +4587,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>477</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>419</v>
+        <v>413</v>
+      </c>
+      <c r="L25" s="31" t="s">
+        <v>355</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>27</v>
@@ -4461,8 +4604,8 @@
       <c r="O25" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P25" s="25" t="s">
-        <v>332</v>
+      <c r="P25" s="23" t="s">
+        <v>285</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>114</v>
@@ -4516,13 +4659,13 @@
         <v>116</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>420</v>
+        <v>414</v>
+      </c>
+      <c r="L26" s="31" t="s">
+        <v>356</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>27</v>
@@ -4533,8 +4676,8 @@
       <c r="O26" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P26" s="25" t="s">
-        <v>333</v>
+      <c r="P26" s="23" t="s">
+        <v>286</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>117</v>
@@ -4588,13 +4731,13 @@
         <v>120</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>421</v>
+        <v>416</v>
+      </c>
+      <c r="L27" s="31" t="s">
+        <v>357</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>27</v>
@@ -4605,8 +4748,8 @@
       <c r="O27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P27" s="25" t="s">
-        <v>334</v>
+      <c r="P27" s="23" t="s">
+        <v>287</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>121</v>
@@ -4660,13 +4803,13 @@
         <v>125</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>422</v>
+        <v>416</v>
+      </c>
+      <c r="L28" s="31" t="s">
+        <v>358</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>27</v>
@@ -4677,8 +4820,8 @@
       <c r="O28" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P28" s="25" t="s">
-        <v>335</v>
+      <c r="P28" s="23" t="s">
+        <v>288</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>126</v>
@@ -4732,13 +4875,13 @@
         <v>128</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>423</v>
+        <v>416</v>
+      </c>
+      <c r="L29" s="31" t="s">
+        <v>359</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>27</v>
@@ -4749,8 +4892,8 @@
       <c r="O29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P29" s="25" t="s">
-        <v>336</v>
+      <c r="P29" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>129</v>
@@ -4804,13 +4947,13 @@
         <v>132</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>424</v>
+        <v>416</v>
+      </c>
+      <c r="L30" s="31" t="s">
+        <v>360</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>27</v>
@@ -4821,8 +4964,8 @@
       <c r="O30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P30" s="25" t="s">
-        <v>337</v>
+      <c r="P30" s="23" t="s">
+        <v>290</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>133</v>
@@ -4876,13 +5019,13 @@
         <v>135</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L31" s="35" t="s">
-        <v>425</v>
+        <v>416</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>361</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -4893,8 +5036,8 @@
       <c r="O31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="25" t="s">
-        <v>338</v>
+      <c r="P31" s="23" t="s">
+        <v>291</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>136</v>
@@ -4948,13 +5091,13 @@
         <v>138</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>426</v>
+        <v>416</v>
+      </c>
+      <c r="L32" s="31" t="s">
+        <v>362</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>27</v>
@@ -4965,8 +5108,8 @@
       <c r="O32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P32" s="25" t="s">
-        <v>339</v>
+      <c r="P32" s="23" t="s">
+        <v>292</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>139</v>
@@ -5020,13 +5163,13 @@
         <v>141</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>427</v>
+        <v>416</v>
+      </c>
+      <c r="L33" s="31" t="s">
+        <v>363</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>27</v>
@@ -5037,8 +5180,8 @@
       <c r="O33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P33" s="25" t="s">
-        <v>340</v>
+      <c r="P33" s="23" t="s">
+        <v>293</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>142</v>
@@ -5074,7 +5217,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>228</v>
@@ -5092,13 +5235,13 @@
         <v>143</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L34" s="35" t="s">
-        <v>428</v>
+        <v>416</v>
+      </c>
+      <c r="L34" s="31" t="s">
+        <v>364</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>27</v>
@@ -5109,8 +5252,8 @@
       <c r="O34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P34" s="25" t="s">
-        <v>342</v>
+      <c r="P34" s="23" t="s">
+        <v>295</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>144</v>
@@ -5164,13 +5307,13 @@
         <v>146</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>429</v>
+        <v>416</v>
+      </c>
+      <c r="L35" s="31" t="s">
+        <v>365</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>27</v>
@@ -5181,8 +5324,8 @@
       <c r="O35" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P35" s="25" t="s">
-        <v>343</v>
+      <c r="P35" s="23" t="s">
+        <v>296</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>147</v>
@@ -5236,13 +5379,13 @@
         <v>149</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>430</v>
+        <v>416</v>
+      </c>
+      <c r="L36" s="31" t="s">
+        <v>366</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>27</v>
@@ -5253,8 +5396,8 @@
       <c r="O36" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>344</v>
+      <c r="P36" s="23" t="s">
+        <v>297</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>150</v>
@@ -5308,13 +5451,13 @@
         <v>152</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>480</v>
-      </c>
-      <c r="L37" s="35" t="s">
-        <v>431</v>
+        <v>416</v>
+      </c>
+      <c r="L37" s="31" t="s">
+        <v>367</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>27</v>
@@ -5325,8 +5468,8 @@
       <c r="O37" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P37" s="25" t="s">
-        <v>345</v>
+      <c r="P37" s="23" t="s">
+        <v>298</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>153</v>
@@ -5380,13 +5523,13 @@
         <v>156</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>432</v>
+        <v>417</v>
+      </c>
+      <c r="L38" s="31" t="s">
+        <v>368</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -5394,11 +5537,11 @@
       <c r="N38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P38" s="26" t="s">
-        <v>346</v>
+      <c r="O38" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P38" s="24" t="s">
+        <v>299</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>155</v>
@@ -5452,13 +5595,13 @@
         <v>158</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>479</v>
+        <v>415</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="L39" s="35" t="s">
-        <v>433</v>
+        <v>417</v>
+      </c>
+      <c r="L39" s="31" t="s">
+        <v>369</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>27</v>
@@ -5469,8 +5612,8 @@
       <c r="O39" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="P39" s="27" t="s">
-        <v>347</v>
+      <c r="P39" s="25" t="s">
+        <v>300</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>159</v>
@@ -5524,13 +5667,13 @@
         <v>210</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>483</v>
+        <v>419</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="L40" s="35" t="s">
-        <v>434</v>
+        <v>418</v>
+      </c>
+      <c r="L40" s="31" t="s">
+        <v>370</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>27</v>
@@ -5541,8 +5684,8 @@
       <c r="O40" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P40" s="25" t="s">
-        <v>348</v>
+      <c r="P40" s="23" t="s">
+        <v>301</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>165</v>
@@ -5596,13 +5739,13 @@
         <v>211</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>485</v>
+        <v>421</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="L41" s="35" t="s">
-        <v>435</v>
+        <v>420</v>
+      </c>
+      <c r="L41" s="31" t="s">
+        <v>371</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>27</v>
@@ -5613,8 +5756,8 @@
       <c r="O41" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P41" s="25" t="s">
-        <v>349</v>
+      <c r="P41" s="23" t="s">
+        <v>302</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>166</v>
@@ -5668,13 +5811,13 @@
         <v>212</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>487</v>
+        <v>423</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>486</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>436</v>
+        <v>422</v>
+      </c>
+      <c r="L42" s="31" t="s">
+        <v>372</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>27</v>
@@ -5685,8 +5828,8 @@
       <c r="O42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P42" s="25" t="s">
-        <v>350</v>
+      <c r="P42" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>169</v>
@@ -5740,13 +5883,13 @@
         <v>213</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="L43" s="35" t="s">
-        <v>437</v>
+        <v>424</v>
+      </c>
+      <c r="L43" s="31" t="s">
+        <v>373</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>27</v>
@@ -5757,8 +5900,8 @@
       <c r="O43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P43" s="25" t="s">
-        <v>351</v>
+      <c r="P43" s="23" t="s">
+        <v>304</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>172</v>
@@ -5812,13 +5955,13 @@
         <v>214</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>490</v>
+        <v>426</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>489</v>
-      </c>
-      <c r="L44" s="35" t="s">
-        <v>438</v>
+        <v>425</v>
+      </c>
+      <c r="L44" s="31" t="s">
+        <v>374</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>27</v>
@@ -5829,8 +5972,8 @@
       <c r="O44" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P44" s="25" t="s">
-        <v>352</v>
+      <c r="P44" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>174</v>
@@ -5884,13 +6027,13 @@
         <v>215</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>492</v>
+        <v>428</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>439</v>
+        <v>427</v>
+      </c>
+      <c r="L45" s="31" t="s">
+        <v>375</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>27</v>
@@ -5901,8 +6044,8 @@
       <c r="O45" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P45" s="25" t="s">
-        <v>353</v>
+      <c r="P45" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>177</v>
@@ -5956,13 +6099,13 @@
         <v>216</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>440</v>
+        <v>388</v>
+      </c>
+      <c r="L46" s="31" t="s">
+        <v>376</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>27</v>
@@ -5973,8 +6116,8 @@
       <c r="O46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P46" s="25" t="s">
-        <v>354</v>
+      <c r="P46" s="23" t="s">
+        <v>307</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>181</v>
@@ -6028,13 +6171,13 @@
         <v>217</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="L47" s="35" t="s">
-        <v>441</v>
+        <v>388</v>
+      </c>
+      <c r="L47" s="31" t="s">
+        <v>377</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>27</v>
@@ -6045,8 +6188,8 @@
       <c r="O47" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P47" s="25" t="s">
-        <v>355</v>
+      <c r="P47" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>185</v>
@@ -6100,13 +6243,13 @@
         <v>218</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="L48" s="35" t="s">
-        <v>442</v>
+        <v>429</v>
+      </c>
+      <c r="L48" s="31" t="s">
+        <v>378</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>27</v>
@@ -6117,8 +6260,8 @@
       <c r="O48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P48" s="25" t="s">
-        <v>356</v>
+      <c r="P48" s="23" t="s">
+        <v>309</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>187</v>
@@ -6172,13 +6315,13 @@
         <v>219</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="L49" s="35" t="s">
-        <v>443</v>
+        <v>388</v>
+      </c>
+      <c r="L49" s="31" t="s">
+        <v>379</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>27</v>
@@ -6189,8 +6332,8 @@
       <c r="O49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P49" s="25" t="s">
-        <v>357</v>
+      <c r="P49" s="23" t="s">
+        <v>310</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>190</v>
@@ -6244,13 +6387,13 @@
         <v>220</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>495</v>
+        <v>431</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>494</v>
-      </c>
-      <c r="L50" s="35" t="s">
-        <v>444</v>
+        <v>430</v>
+      </c>
+      <c r="L50" s="31" t="s">
+        <v>380</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>27</v>
@@ -6261,8 +6404,8 @@
       <c r="O50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P50" s="25" t="s">
-        <v>358</v>
+      <c r="P50" s="23" t="s">
+        <v>311</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>192</v>
@@ -6316,13 +6459,13 @@
         <v>221</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>445</v>
+        <v>388</v>
+      </c>
+      <c r="L51" s="31" t="s">
+        <v>381</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>27</v>
@@ -6333,8 +6476,8 @@
       <c r="O51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P51" s="25" t="s">
-        <v>359</v>
+      <c r="P51" s="23" t="s">
+        <v>312</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>195</v>
@@ -6388,13 +6531,13 @@
         <v>222</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="L52" s="35" t="s">
-        <v>446</v>
+        <v>391</v>
+      </c>
+      <c r="L52" s="31" t="s">
+        <v>382</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>27</v>
@@ -6405,8 +6548,8 @@
       <c r="O52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="25" t="s">
-        <v>360</v>
+      <c r="P52" s="23" t="s">
+        <v>313</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>197</v>
@@ -6460,13 +6603,13 @@
         <v>223</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>447</v>
+        <v>397</v>
+      </c>
+      <c r="L53" s="31" t="s">
+        <v>383</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>27</v>
@@ -6477,8 +6620,8 @@
       <c r="O53" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P53" s="25" t="s">
-        <v>361</v>
+      <c r="P53" s="23" t="s">
+        <v>314</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>199</v>
@@ -6532,13 +6675,13 @@
         <v>224</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>460</v>
+        <v>396</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>448</v>
+        <v>395</v>
+      </c>
+      <c r="L54" s="31" t="s">
+        <v>384</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
@@ -6549,8 +6692,8 @@
       <c r="O54" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P54" s="25" t="s">
-        <v>362</v>
+      <c r="P54" s="23" t="s">
+        <v>315</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>201</v>
@@ -6604,14 +6747,14 @@
         <v>225</v>
       </c>
       <c r="J55" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="K55" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="L55" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="K55" s="18" t="s">
-        <v>458</v>
-      </c>
-      <c r="L55" s="35" t="s">
-        <v>449</v>
-      </c>
       <c r="M55" s="5" t="s">
         <v>27</v>
       </c>
@@ -6621,8 +6764,8 @@
       <c r="O55" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P55" s="25" t="s">
-        <v>363</v>
+      <c r="P55" s="23" t="s">
+        <v>316</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>204</v>
@@ -6676,13 +6819,13 @@
         <v>226</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>454</v>
+        <v>390</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>453</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>450</v>
+        <v>389</v>
+      </c>
+      <c r="L56" s="31" t="s">
+        <v>386</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>27</v>
@@ -6693,8 +6836,8 @@
       <c r="O56" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P56" s="25" t="s">
-        <v>364</v>
+      <c r="P56" s="23" t="s">
+        <v>317</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>206</v>
@@ -6748,13 +6891,13 @@
         <v>227</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>451</v>
+        <v>391</v>
+      </c>
+      <c r="L57" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>27</v>
@@ -6765,8 +6908,8 @@
       <c r="O57" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="P57" s="25" t="s">
-        <v>365</v>
+      <c r="P57" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>209</v>
@@ -6868,20 +7011,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="J2:K2"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
@@ -6889,7 +7032,7 @@
     <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
     <col min="10" max="12" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="19.59765625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="19.59765625" style="28" customWidth="1"/>
+    <col min="15" max="15" width="19.59765625" style="26" customWidth="1"/>
     <col min="16" max="16" width="38.5" style="14" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28.3984375" style="11" customWidth="1"/>
     <col min="18" max="18" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
@@ -6928,10 +7071,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>384</v>
+        <v>320</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>389</v>
+        <v>325</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>9</v>
@@ -6943,7 +7086,7 @@
         <v>231</v>
       </c>
       <c r="O1" s="20" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>11</v>
@@ -6970,1137 +7113,2013 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="174" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
+    <row r="2" spans="1:23" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>27</v>
+      <c r="I2" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>468</v>
       </c>
       <c r="O2" s="25" t="s">
-        <v>367</v>
-      </c>
-      <c r="P2" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="R2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T2" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="U2" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="34"/>
+    </row>
+    <row r="3" spans="1:23" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>241</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="E3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>500</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="Q3" s="38" t="s">
+        <v>504</v>
+      </c>
+      <c r="R3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S3" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T3" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="34"/>
+    </row>
+    <row r="4" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="E4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>507</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="Q4" s="18" t="s">
+        <v>509</v>
+      </c>
+      <c r="R4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U4" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="2"/>
+      <c r="V4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="34"/>
     </row>
-    <row r="3" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+    <row r="5" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>237</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D5" s="33" t="s">
+        <v>510</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>512</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W5" s="34"/>
+    </row>
+    <row r="6" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="16">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E6" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F6" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H6" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I6" s="18" t="s">
+        <v>518</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>515</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q6" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W6" s="34"/>
+    </row>
+    <row r="7" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A7" s="16">
+        <v>6</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>521</v>
+      </c>
+      <c r="R7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W7" s="34"/>
+    </row>
+    <row r="8" spans="1:23" s="35" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>526</v>
+      </c>
+      <c r="J8" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="P8" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W8" s="34"/>
+    </row>
+    <row r="9" spans="1:23" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="L9" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q9" s="37" t="s">
+        <v>529</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="34"/>
+    </row>
+    <row r="10" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="P10" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q10" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="34"/>
+    </row>
+    <row r="11" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="16">
+        <v>10</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>522</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="L11" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>536</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q11" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="R11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="34"/>
+    </row>
+    <row r="12" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="16">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>435</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="18"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" s="34"/>
+    </row>
+    <row r="13" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16">
+        <v>12</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>244</v>
       </c>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="C13" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="Q3" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="E13" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S13" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U3" s="1" t="s">
+      <c r="T13" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U13" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="2"/>
+      <c r="V13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W13" s="34"/>
     </row>
-    <row r="4" spans="1:23" ht="174" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="14" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
+        <v>13</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D14" s="33" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N14" s="16"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T14" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W14" s="34"/>
+    </row>
+    <row r="15" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="16">
+        <v>14</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="33" t="s">
         <v>246</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E15" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F15" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N15" s="16"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W15" s="34"/>
+    </row>
+    <row r="16" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="18"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N16" s="16"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T16" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W16" s="34"/>
+    </row>
+    <row r="17" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="16">
+        <v>16</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>369</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="E17" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N17" s="16"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W17" s="34"/>
+    </row>
+    <row r="18" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="16">
+        <v>17</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>441</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="18"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N18" s="16"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W18" s="34"/>
+    </row>
+    <row r="19" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="16">
+        <v>18</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="E19" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="18"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N19" s="16"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W19" s="34"/>
+    </row>
+    <row r="20" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="16">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="18"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N20" s="16"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="34"/>
+    </row>
+    <row r="21" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="16">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="E21" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="18"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N21" s="16"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S21" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="T21" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U21" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="2"/>
+      <c r="V21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="34"/>
     </row>
-    <row r="5" spans="1:23" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="22" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="16">
+        <v>21</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D22" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="E22" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N22" s="16"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T22" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="34"/>
+    </row>
+    <row r="23" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="16">
+        <v>22</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="L23" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N23" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="P23" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T23" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="U23" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="16"/>
+    </row>
+    <row r="24" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="16">
+        <v>23</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="E24" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F24" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H24" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I24" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>453</v>
+      </c>
+      <c r="L24" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="O24" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="R24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="16"/>
+    </row>
+    <row r="25" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A25" s="16">
+        <v>24</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="J25" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="K25" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="L25" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>464</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U25" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="34"/>
+    </row>
+    <row r="26" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A26" s="16">
+        <v>25</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J26" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="K26" s="37" t="s">
+        <v>461</v>
+      </c>
+      <c r="L26" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U26" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="34"/>
+    </row>
+    <row r="27" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="16">
+        <v>26</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G27" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="J27" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="L27" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>470</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q27" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T27" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U27" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="34"/>
+    </row>
+    <row r="28" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A28" s="16">
+        <v>27</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G28" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>467</v>
+      </c>
+      <c r="K28" s="38" t="s">
+        <v>461</v>
+      </c>
+      <c r="L28" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N28" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="P28" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q28" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U28" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="34"/>
+    </row>
+    <row r="29" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A29" s="16">
+        <v>28</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="J29" s="38" t="s">
+        <v>482</v>
+      </c>
+      <c r="K29" s="38" t="s">
+        <v>483</v>
+      </c>
+      <c r="L29" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O29" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T29" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>370</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="U29" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W29" s="16"/>
+    </row>
+    <row r="30" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A30" s="16">
+        <v>29</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>479</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G30" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H30" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>482</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>462</v>
+      </c>
+      <c r="L30" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="Q30" s="17" t="s">
+        <v>491</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="U30" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="V30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W30" s="16"/>
+    </row>
+    <row r="31" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="16">
+        <v>30</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>256</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="C31" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="E31" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" s="18"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N31" s="16"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S31" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="U5" s="1" t="s">
+      <c r="T31" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="U31" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="2"/>
+      <c r="V31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W31" s="34"/>
     </row>
-    <row r="6" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="32" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="16">
+        <v>31</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="D32" s="33" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>228</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G6" s="13" t="s">
+      <c r="F32" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G32" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>371</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R6" s="8" t="s">
+      <c r="I32" s="18"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N32" s="16"/>
+      <c r="O32" s="25"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S32" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U6" s="1" t="s">
+      <c r="T32" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="U32" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="2"/>
+      <c r="V32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W32" s="34"/>
     </row>
-    <row r="7" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
+    <row r="33" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="16">
+        <v>32</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="G33" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="18"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="N33" s="16"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="T33" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="U33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="26" t="s">
-        <v>373</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" ht="87" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>374</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>375</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" ht="69.599999999999994" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>376</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="39">
-        <v>11</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="J12" s="32" t="s">
-        <v>496</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>497</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="P12" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q12" s="45" t="s">
-        <v>278</v>
-      </c>
-      <c r="R12" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="T12" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="U12" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="39"/>
-    </row>
-    <row r="13" spans="1:23" ht="121.8" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13" s="25" t="s">
-        <v>378</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R13" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" ht="87" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O14" s="25" t="s">
-        <v>379</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q14" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" ht="409.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="39">
-        <v>14</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q15" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="R15" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="39" t="s">
-        <v>233</v>
-      </c>
-      <c r="T15" s="39" t="s">
-        <v>292</v>
-      </c>
-      <c r="U15" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="39"/>
-    </row>
-    <row r="16" spans="1:23" ht="208.8" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O16" s="25" t="s">
-        <v>381</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" ht="139.19999999999999" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O17" s="25" t="s">
-        <v>382</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" ht="156.6" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="25" t="s">
-        <v>383</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q18" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="2"/>
+      <c r="V33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W33" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="O3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="O6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="O7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="O8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="O10" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="O11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="O12" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="O13" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="O14" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="O15" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="O16" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="O17" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="O18" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="O23" r:id="rId1" xr:uid="{F7E8928E-81B0-49C5-8245-CDF23AF90257}"/>
+    <hyperlink ref="O24" r:id="rId2" xr:uid="{D5E4018E-6875-43FF-853D-6B7A68DA0B85}"/>
+    <hyperlink ref="O25" r:id="rId3" xr:uid="{DCBD7A87-15FD-4463-9908-2913F6231540}"/>
+    <hyperlink ref="O26" r:id="rId4" xr:uid="{B5E42B40-D7DF-43BA-B0A2-702A0E54EB21}"/>
+    <hyperlink ref="O27" r:id="rId5" xr:uid="{DCDD7095-7D20-47CB-92FF-06CBCEEC1641}"/>
+    <hyperlink ref="O28" r:id="rId6" xr:uid="{4CCB9280-DE9C-4A03-9EB8-E3662ABBEB83}"/>
+    <hyperlink ref="O29" r:id="rId7" xr:uid="{36E62935-83A0-4D42-9CE2-F3ED7465884A}"/>
+    <hyperlink ref="O30" r:id="rId8" xr:uid="{FC893D3A-4C84-484A-8374-AD52C506DFA5}"/>
+    <hyperlink ref="O2" r:id="rId9" xr:uid="{F9D279C6-B255-45AF-94F5-0482D78A76DE}"/>
+    <hyperlink ref="O3" r:id="rId10" xr:uid="{715660BD-1E62-4BE5-8399-74FB08FD0FF7}"/>
+    <hyperlink ref="O4" r:id="rId11" xr:uid="{5C34E4E8-2125-4702-BBA2-8252D81649B4}"/>
+    <hyperlink ref="O5" r:id="rId12" xr:uid="{18D941C2-F1C4-4DE9-913D-4ADDBBB5376F}"/>
+    <hyperlink ref="O6" r:id="rId13" xr:uid="{ED8241E2-1E98-4D77-98D6-71587EDA58FB}"/>
+    <hyperlink ref="O7" r:id="rId14" xr:uid="{08BBDB19-EACD-4126-AE9C-BE1D8DE3F0AB}"/>
+    <hyperlink ref="O8" r:id="rId15" xr:uid="{D4FB31D9-CBB4-47C8-A3C2-43DF99E77CCB}"/>
+    <hyperlink ref="O9" r:id="rId16" xr:uid="{05FAD1F4-0FE5-4FE9-8006-4BF4241F61B0}"/>
+    <hyperlink ref="O10" r:id="rId17" xr:uid="{D7FD25B6-164A-492C-9CCD-E78678E2A0B0}"/>
+    <hyperlink ref="O11" r:id="rId18" xr:uid="{4675742E-5E18-4CA9-AE53-47DC44864CD1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B057ADC8-5553-40C0-8B75-47719BC92A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230893A2-F117-4DBA-93C1-902E78C1FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="542">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,10 +1818,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,bidNtceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;bidNtceNo=20160335295</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1849,10 +1845,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt,bidNtceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows,pageNo,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1861,10 +1853,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;bidNtceNo=20020901436</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getBidPblancListInfoServcBsisAmount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1873,10 +1861,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,bidNtceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2149,6 +2133,42 @@
   </si>
   <si>
     <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=&amp;inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 공사조회/getCntrctInfoListCnstwk.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2799,10 +2819,10 @@
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="R4" sqref="R4"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7011,12 +7031,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7030,19 +7050,19 @@
     <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
-    <col min="10" max="12" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.59765625" style="14" customWidth="1"/>
-    <col min="15" max="15" width="19.59765625" style="26" customWidth="1"/>
-    <col min="16" max="16" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.3984375" style="11" customWidth="1"/>
-    <col min="18" max="18" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.59765625" style="14" customWidth="1"/>
-    <col min="20" max="20" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="19.59765625" style="14" customWidth="1"/>
-    <col min="23" max="23" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7077,43 +7097,46 @@
         <v>325</v>
       </c>
       <c r="L1" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="N1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -7139,50 +7162,53 @@
         <v>29</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>483</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>468</v>
+        <v>479</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>541</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="N2" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O2" s="25" t="s">
+        <v>491</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q2" s="18" t="s">
-        <v>497</v>
-      </c>
-      <c r="R2" s="16" t="s">
+      <c r="S2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T2" s="16" t="s">
+      <c r="U2" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="V2" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="34"/>
+      <c r="W2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="34"/>
     </row>
-    <row r="3" spans="1:23" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -7208,50 +7234,51 @@
         <v>29</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M3" s="16" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O3" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="R3" s="38" t="s">
         <v>500</v>
       </c>
-      <c r="P3" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q3" s="38" t="s">
-        <v>504</v>
-      </c>
-      <c r="R3" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="T3" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" s="34"/>
+      <c r="W3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="34"/>
     </row>
-    <row r="4" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -7277,50 +7304,51 @@
         <v>29</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="K4" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>494</v>
+        <v>504</v>
+      </c>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N4" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="P4" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="R4" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="Q4" s="18" t="s">
-        <v>509</v>
-      </c>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="T4" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="U4" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="16" t="s">
+      <c r="V4" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="34"/>
+      <c r="W4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="34"/>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -7331,7 +7359,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>228</v>
@@ -7346,50 +7374,51 @@
         <v>29</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M5" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O5" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="R5" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q5" s="18" t="s">
-        <v>516</v>
-      </c>
-      <c r="R5" s="37" t="s">
+      <c r="S5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="T5" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T5" s="16" t="s">
+      <c r="U5" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="V5" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W5" s="34"/>
+      <c r="W5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="34"/>
     </row>
-    <row r="6" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -7415,50 +7444,51 @@
         <v>29</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="J6" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>492</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36" t="s">
+        <v>464</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="L6" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M6" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>515</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q6" s="37" t="s">
-        <v>517</v>
-      </c>
-      <c r="R6" s="37" t="s">
+      <c r="S6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="16" t="s">
+      <c r="T6" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T6" s="16" t="s">
+      <c r="U6" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="V6" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W6" s="34"/>
+      <c r="W6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="34"/>
     </row>
-    <row r="7" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -7484,50 +7514,51 @@
         <v>29</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>513</v>
+        <v>456</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>496</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>468</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="16" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q7" s="18" t="s">
-        <v>521</v>
-      </c>
-      <c r="R7" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="S7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="T7" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T7" s="16" t="s">
+      <c r="U7" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W7" s="34"/>
+      <c r="W7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="34"/>
     </row>
-    <row r="8" spans="1:23" s="35" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -7553,50 +7584,51 @@
         <v>29</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M8" s="16" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="P8" s="17" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>525</v>
+        <v>490</v>
+      </c>
+      <c r="O8" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>519</v>
       </c>
       <c r="R8" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="S8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="16" t="s">
+      <c r="T8" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="U8" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W8" s="34"/>
+      <c r="W8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="1:23" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -7622,50 +7654,51 @@
         <v>29</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>494</v>
+        <v>497</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O9" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="P9" s="17" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>529</v>
+        <v>490</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>523</v>
       </c>
       <c r="R9" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="S9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="16" t="s">
+      <c r="T9" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="U9" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="V9" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="34"/>
+      <c r="W9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -7691,50 +7724,51 @@
         <v>29</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>508</v>
-      </c>
-      <c r="L10" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M10" s="16" t="s">
-        <v>494</v>
+        <v>504</v>
+      </c>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O10" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="P10" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>534</v>
+        <v>490</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>527</v>
       </c>
       <c r="R10" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="S10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="34"/>
+      <c r="W10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -7760,50 +7794,51 @@
         <v>29</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="J11" s="37" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="K11" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="L11" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M11" s="16" t="s">
-        <v>494</v>
+        <v>492</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N11" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O11" s="25" t="s">
-        <v>536</v>
-      </c>
-      <c r="P11" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>521</v>
+        <v>490</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q11" s="16" t="s">
+        <v>531</v>
       </c>
       <c r="R11" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="S11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="T11" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="U11" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="V11" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="34"/>
+      <c r="W11" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -7832,31 +7867,32 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="36"/>
-      <c r="M12" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="37" t="s">
+      <c r="M12" s="36"/>
+      <c r="N12" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="T12" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="U12" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="V12" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W12" s="34"/>
+      <c r="W12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -7882,34 +7918,45 @@
         <v>29</v>
       </c>
       <c r="I13" s="18"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="J13" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>536</v>
+      </c>
       <c r="L13" s="36"/>
-      <c r="M13" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="18"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="25" t="s">
+        <v>535</v>
+      </c>
+      <c r="Q13" s="16" t="s">
+        <v>534</v>
+      </c>
       <c r="R13" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="S13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="T13" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="U13" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="V13" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="34"/>
+      <c r="W13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -7938,31 +7985,32 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="36"/>
-      <c r="M14" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N14" s="16"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="37" t="s">
+      <c r="M14" s="36"/>
+      <c r="N14" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="16" t="s">
+      <c r="T14" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="U14" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U14" s="16" t="s">
+      <c r="V14" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W14" s="34"/>
+      <c r="W14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -7991,31 +8039,32 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="36"/>
-      <c r="M15" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="37" t="s">
+      <c r="M15" s="36"/>
+      <c r="N15" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="39"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="T15" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T15" s="16" t="s">
+      <c r="U15" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="V15" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W15" s="34"/>
+      <c r="W15" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -8044,31 +8093,32 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="36"/>
-      <c r="M16" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="37" t="s">
+      <c r="M16" s="36"/>
+      <c r="N16" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O16" s="16"/>
+      <c r="P16" s="39"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="T16" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T16" s="16" t="s">
+      <c r="U16" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U16" s="16" t="s">
+      <c r="V16" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W16" s="34"/>
+      <c r="W16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -8097,31 +8147,32 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="36"/>
-      <c r="M17" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="37" t="s">
+      <c r="M17" s="36"/>
+      <c r="N17" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O17" s="16"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="16" t="s">
+      <c r="T17" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T17" s="16" t="s">
+      <c r="U17" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U17" s="16" t="s">
+      <c r="V17" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W17" s="34"/>
+      <c r="W17" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -8150,31 +8201,32 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
-      <c r="M18" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N18" s="16"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="37" t="s">
+      <c r="M18" s="36"/>
+      <c r="N18" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O18" s="16"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="T18" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T18" s="16" t="s">
+      <c r="U18" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U18" s="16" t="s">
+      <c r="V18" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W18" s="34"/>
+      <c r="W18" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -8203,31 +8255,32 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
-      <c r="M19" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="37" t="s">
+      <c r="M19" s="36"/>
+      <c r="N19" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O19" s="16"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="T19" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T19" s="16" t="s">
+      <c r="U19" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="V19" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W19" s="34"/>
+      <c r="W19" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -8256,31 +8309,32 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
-      <c r="M20" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="37" t="s">
+      <c r="M20" s="36"/>
+      <c r="N20" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O20" s="16"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="T20" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T20" s="16" t="s">
+      <c r="U20" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="V20" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W20" s="34"/>
+      <c r="W20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -8309,31 +8363,32 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
-      <c r="M21" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N21" s="16"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="37" t="s">
+      <c r="M21" s="36"/>
+      <c r="N21" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O21" s="16"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="16" t="s">
+      <c r="T21" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T21" s="16" t="s">
+      <c r="U21" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="V21" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W21" s="34"/>
+      <c r="W21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -8362,31 +8417,32 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
-      <c r="M22" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="37" t="s">
+      <c r="M22" s="36"/>
+      <c r="N22" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O22" s="16"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="16" t="s">
+      <c r="T22" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T22" s="16" t="s">
+      <c r="U22" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="V22" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W22" s="34"/>
+      <c r="W22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -8415,47 +8471,48 @@
         <v>446</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K23" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="L23" s="36" t="s">
+      <c r="L23" s="36"/>
+      <c r="M23" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="M23" s="16" t="s">
-        <v>494</v>
-      </c>
       <c r="N23" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O23" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="O23" s="40" t="s">
+      <c r="P23" s="40" t="s">
         <v>449</v>
       </c>
-      <c r="P23" s="16" t="s">
+      <c r="Q23" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="R23" s="17" t="s">
         <v>450</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="S23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="T23" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T23" s="16" t="s">
+      <c r="U23" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="U23" s="16" t="s">
+      <c r="V23" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W23" s="16"/>
+      <c r="W23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -8481,50 +8538,51 @@
         <v>29</v>
       </c>
       <c r="I24" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="J24" s="18" t="s">
         <v>456</v>
       </c>
-      <c r="J24" s="18" t="s">
-        <v>457</v>
-      </c>
       <c r="K24" s="18" t="s">
+        <v>533</v>
+      </c>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36" t="s">
+        <v>448</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="P24" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="R24" s="17" t="s">
         <v>453</v>
       </c>
-      <c r="L24" s="36" t="s">
-        <v>448</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>448</v>
-      </c>
-      <c r="O24" s="40" t="s">
-        <v>455</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="R24" s="37" t="s">
+      <c r="S24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="T24" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="U24" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="V24" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W24" s="16"/>
+      <c r="W24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -8535,7 +8593,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>228</v>
@@ -8550,50 +8608,51 @@
         <v>29</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="L25" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>494</v>
+        <v>447</v>
+      </c>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O25" s="25" t="s">
+        <v>490</v>
+      </c>
+      <c r="O25" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="P25" s="16" t="s">
+      <c r="P25" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="Q25" s="37" t="s">
-        <v>464</v>
+      <c r="Q25" s="16" t="s">
+        <v>457</v>
       </c>
       <c r="R25" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="S25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="16" t="s">
+      <c r="T25" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T25" s="16" t="s">
+      <c r="U25" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="V25" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W25" s="34"/>
+      <c r="W25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -8604,7 +8663,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>228</v>
@@ -8619,50 +8678,51 @@
         <v>29</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>461</v>
-      </c>
-      <c r="L26" s="36" t="s">
-        <v>468</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>494</v>
+        <v>447</v>
+      </c>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36" t="s">
+        <v>464</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="O26" s="25" t="s">
-        <v>466</v>
-      </c>
-      <c r="P26" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q26" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="O26" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="P26" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q26" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="R26" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="S26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="T26" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T26" s="16" t="s">
+      <c r="U26" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="U26" s="16" t="s">
+      <c r="V26" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W26" s="34"/>
+      <c r="W26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -8673,7 +8733,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>228</v>
@@ -8688,50 +8748,51 @@
         <v>29</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J27" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="K27" s="38" t="s">
+        <v>540</v>
+      </c>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="P27" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q27" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="R27" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="K27" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="L27" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M27" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O27" s="25" t="s">
-        <v>470</v>
-      </c>
-      <c r="P27" s="16" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="R27" s="37" t="s">
+      <c r="S27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="16" t="s">
+      <c r="T27" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T27" s="16" t="s">
+      <c r="U27" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="U27" s="16" t="s">
+      <c r="V27" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W27" s="34"/>
+      <c r="W27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="1:23" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -8742,7 +8803,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>228</v>
@@ -8757,50 +8818,51 @@
         <v>29</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>461</v>
-      </c>
-      <c r="L28" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M28" s="16" t="s">
-        <v>494</v>
+        <v>447</v>
+      </c>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36" t="s">
+        <v>459</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O28" s="25" t="s">
-        <v>481</v>
-      </c>
-      <c r="P28" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>471</v>
-      </c>
-      <c r="R28" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="P28" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q28" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="R28" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="S28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="T28" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T28" s="16" t="s">
+      <c r="U28" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="U28" s="16" t="s">
+      <c r="V28" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W28" s="34"/>
+      <c r="W28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -8811,7 +8873,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>228</v>
@@ -8826,50 +8888,51 @@
         <v>29</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K29" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O29" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="P29" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="Q29" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="R29" s="17" t="s">
         <v>483</v>
       </c>
-      <c r="L29" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M29" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O29" s="40" t="s">
-        <v>485</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>487</v>
-      </c>
-      <c r="R29" s="37" t="s">
+      <c r="S29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="16" t="s">
+      <c r="T29" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="U29" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="U29" s="16" t="s">
+      <c r="V29" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W29" s="16"/>
+      <c r="W29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:23" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -8880,7 +8943,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>228</v>
@@ -8895,50 +8958,51 @@
         <v>29</v>
       </c>
       <c r="I30" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>478</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="N30" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="J30" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="K30" s="38" t="s">
-        <v>462</v>
-      </c>
-      <c r="L30" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="M30" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>489</v>
-      </c>
-      <c r="P30" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="R30" s="37" t="s">
+      <c r="O30" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="P30" s="40" t="s">
+        <v>485</v>
+      </c>
+      <c r="Q30" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="R30" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="S30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="T30" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="U30" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="V30" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W30" s="16"/>
+      <c r="W30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -8967,31 +9031,32 @@
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
-      <c r="M31" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="25"/>
-      <c r="P31" s="16"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="37" t="s">
+      <c r="M31" s="36"/>
+      <c r="N31" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O31" s="16"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="16" t="s">
+      <c r="T31" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="U31" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="U31" s="16" t="s">
+      <c r="V31" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W31" s="34"/>
+      <c r="W31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -9020,31 +9085,32 @@
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
-      <c r="M32" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="25"/>
-      <c r="P32" s="16"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="37" t="s">
+      <c r="M32" s="36"/>
+      <c r="N32" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O32" s="16"/>
+      <c r="P32" s="25"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="16" t="s">
+      <c r="T32" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="U32" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="U32" s="16" t="s">
+      <c r="V32" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W32" s="34"/>
+      <c r="W32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="1:23" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -9073,53 +9139,55 @@
       <c r="J33" s="36"/>
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
-      <c r="M33" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="25"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="37" t="s">
+      <c r="M33" s="36"/>
+      <c r="N33" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="O33" s="16"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="16" t="s">
+      <c r="T33" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="U33" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="U33" s="16" t="s">
+      <c r="V33" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="W33" s="34"/>
+      <c r="W33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X33" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="O23" r:id="rId1" xr:uid="{F7E8928E-81B0-49C5-8245-CDF23AF90257}"/>
-    <hyperlink ref="O24" r:id="rId2" xr:uid="{D5E4018E-6875-43FF-853D-6B7A68DA0B85}"/>
-    <hyperlink ref="O25" r:id="rId3" xr:uid="{DCBD7A87-15FD-4463-9908-2913F6231540}"/>
-    <hyperlink ref="O26" r:id="rId4" xr:uid="{B5E42B40-D7DF-43BA-B0A2-702A0E54EB21}"/>
-    <hyperlink ref="O27" r:id="rId5" xr:uid="{DCDD7095-7D20-47CB-92FF-06CBCEEC1641}"/>
-    <hyperlink ref="O28" r:id="rId6" xr:uid="{4CCB9280-DE9C-4A03-9EB8-E3662ABBEB83}"/>
-    <hyperlink ref="O29" r:id="rId7" xr:uid="{36E62935-83A0-4D42-9CE2-F3ED7465884A}"/>
-    <hyperlink ref="O30" r:id="rId8" xr:uid="{FC893D3A-4C84-484A-8374-AD52C506DFA5}"/>
-    <hyperlink ref="O2" r:id="rId9" xr:uid="{F9D279C6-B255-45AF-94F5-0482D78A76DE}"/>
-    <hyperlink ref="O3" r:id="rId10" xr:uid="{715660BD-1E62-4BE5-8399-74FB08FD0FF7}"/>
-    <hyperlink ref="O4" r:id="rId11" xr:uid="{5C34E4E8-2125-4702-BBA2-8252D81649B4}"/>
-    <hyperlink ref="O5" r:id="rId12" xr:uid="{18D941C2-F1C4-4DE9-913D-4ADDBBB5376F}"/>
-    <hyperlink ref="O6" r:id="rId13" xr:uid="{ED8241E2-1E98-4D77-98D6-71587EDA58FB}"/>
-    <hyperlink ref="O7" r:id="rId14" xr:uid="{08BBDB19-EACD-4126-AE9C-BE1D8DE3F0AB}"/>
-    <hyperlink ref="O8" r:id="rId15" xr:uid="{D4FB31D9-CBB4-47C8-A3C2-43DF99E77CCB}"/>
-    <hyperlink ref="O9" r:id="rId16" xr:uid="{05FAD1F4-0FE5-4FE9-8006-4BF4241F61B0}"/>
-    <hyperlink ref="O10" r:id="rId17" xr:uid="{D7FD25B6-164A-492C-9CCD-E78678E2A0B0}"/>
-    <hyperlink ref="O11" r:id="rId18" xr:uid="{4675742E-5E18-4CA9-AE53-47DC44864CD1}"/>
+    <hyperlink ref="P23" r:id="rId1" xr:uid="{F7E8928E-81B0-49C5-8245-CDF23AF90257}"/>
+    <hyperlink ref="P24" r:id="rId2" xr:uid="{D5E4018E-6875-43FF-853D-6B7A68DA0B85}"/>
+    <hyperlink ref="P25" r:id="rId3" xr:uid="{DCBD7A87-15FD-4463-9908-2913F6231540}"/>
+    <hyperlink ref="P26" r:id="rId4" xr:uid="{B5E42B40-D7DF-43BA-B0A2-702A0E54EB21}"/>
+    <hyperlink ref="P27" r:id="rId5" xr:uid="{DCDD7095-7D20-47CB-92FF-06CBCEEC1641}"/>
+    <hyperlink ref="P28" r:id="rId6" xr:uid="{4CCB9280-DE9C-4A03-9EB8-E3662ABBEB83}"/>
+    <hyperlink ref="P29" r:id="rId7" xr:uid="{36E62935-83A0-4D42-9CE2-F3ED7465884A}"/>
+    <hyperlink ref="P30" r:id="rId8" xr:uid="{FC893D3A-4C84-484A-8374-AD52C506DFA5}"/>
+    <hyperlink ref="P2" r:id="rId9" xr:uid="{F9D279C6-B255-45AF-94F5-0482D78A76DE}"/>
+    <hyperlink ref="P3" r:id="rId10" xr:uid="{715660BD-1E62-4BE5-8399-74FB08FD0FF7}"/>
+    <hyperlink ref="P4" r:id="rId11" xr:uid="{5C34E4E8-2125-4702-BBA2-8252D81649B4}"/>
+    <hyperlink ref="P5" r:id="rId12" xr:uid="{18D941C2-F1C4-4DE9-913D-4ADDBBB5376F}"/>
+    <hyperlink ref="P6" r:id="rId13" xr:uid="{ED8241E2-1E98-4D77-98D6-71587EDA58FB}"/>
+    <hyperlink ref="P7" r:id="rId14" xr:uid="{08BBDB19-EACD-4126-AE9C-BE1D8DE3F0AB}"/>
+    <hyperlink ref="P8" r:id="rId15" xr:uid="{D4FB31D9-CBB4-47C8-A3C2-43DF99E77CCB}"/>
+    <hyperlink ref="P9" r:id="rId16" xr:uid="{05FAD1F4-0FE5-4FE9-8006-4BF4241F61B0}"/>
+    <hyperlink ref="P10" r:id="rId17" xr:uid="{D7FD25B6-164A-492C-9CCD-E78678E2A0B0}"/>
+    <hyperlink ref="P11" r:id="rId18" xr:uid="{4675742E-5E18-4CA9-AE53-47DC44864CD1}"/>
+    <hyperlink ref="P13" r:id="rId19" xr:uid="{06CA0394-2150-45FE-8D59-00C55B8A2CE7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\생산기술연구원\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230893A2-F117-4DBA-93C1-902E78C1FAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1847" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="615">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,18 +1103,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터셋 개방표준에 따른 입찰공고 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나라장터 공공데이터개방표준서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">데이터셋 개방표준에 따른 낙찰정보 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터셋 개방표준에 따른 계약정보</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1787,50 +1778,522 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상민</t>
+  </si>
+  <si>
+    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;bidNtceNo=20160335295</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;bidNtceNo=20150309971</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 용역변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 용역기초금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 공사변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입찰공고목록 정보에 대한 공사기초금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 입찰공고공사조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라장터검색조건에 의한 입찰공고용역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수시</t>
+  </si>
+  <si>
+    <t>수시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2017120000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=2016081387600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에 대한 공사변경이력조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D\&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359&amp;untyCntrctNo=2016070113289</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=&amp;type=json&amp;untyCntrctNo=2015010000230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2016010000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=4&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=20160800245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 공사조회/getCntrctInfoListCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 공사서비스정보조회/getCntrctInfoListCnstwkServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터검색조건에 의한 계약현황 공사조회/getCntrctInfoListCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 공사변경이력조회/getCntrctInfoListCnstwkChgHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 공사삭제이력조회/getCntrctInfoListCnstwkDltHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 용역조회/getCntrctInfoListServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 일반용역서비스정보조회/getCntrctInfoListGnrlServcServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 기술용역서비스정보조회/getCntrctInfoListTechServcServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터검색조건에 의한 계약현황 용역조회/getCntrctInfoListServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 용역변경이력조회/getCntrctInfoListServcChgHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/계약현황에 대한 용역삭제이력조회/getCntrctInfoListServcDltHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwk</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkChgHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkDltHstry</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkDltHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServc</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListGnrlServcServcInfo</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListGnrlServcServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListTechServcServcInfo</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListTechServcServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcPPSSrch</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcChgHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcDltHstry</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcDltHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPreparPcDetail</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPreparPcDetail</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcBsisAmount</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdBidPblancInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdScsbidInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdCntrctInfo</t>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,bidNtceBgnDt,bidNtceEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,bidNtceBgnDt,bidNtceEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,bsnsDivCd,opengBgnDt,opengEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,bsnsDivCd,opengBgnDt,opengEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,prdctClsfcNoNmNdSpec,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cntrctNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,rgstDt,chgDt,dfrcmpnstRt,wbgnDate,thtmScmpltDate,ttalScmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngDcsnNo,d2bMngCnstwkNo</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,ntceDivCd,bidNtceNm,prtcptCnum,bidwinnrNm,bidwinnrBizno,bidwinnrCeoNm,bidwinnrAdrs,bidwinnrTelNo,sucsfbidAmt,sucsfbidRate,rlOpengDt,dminsttCd,dminsttNm,rgstDt,fnlSucsfDate,fnlSucsfCorpOfcl,linkInsttNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,opengDt,prtcptCnum,opengCorpInfo,progrsDivCdNm,inptDt,rsrvtnPrceFileExistnceYn,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,plnprc,bssamt,totRsrvtnPrceNum,compnoRsrvtnPrceSno,bsisPlnprc,drwtYn,drwtNum,bidwinrSlctnAplBssCntnts,rlOpengDt,bssamtBssUpNum,compnoRsrvtnPrceMkngDt,inptDt,PrearngPrcePurcnstcst</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst,bidPrceCalclAYn,bssAmtPurcnstcst,qltyMngcst,qltyMngcstAObjYn</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst</t>
+  </si>
+  <si>
+    <t>bsnsDivNm,chgDataDivNm,chgDt,bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,chgItemNm,bfchgVal,afchgVal,lcnsLmtCdRgstList</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,refNtceNo,refNtceOrd,ppsNtceYn,bidNtceNm,bidNtceSttusNm,bidNtceDate,bidNtceBgn,bsnsDivNm,intrntnlBidYn,cmmnCntrctYn,cmmnReciptMethdNm,elctrnBidYn,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,ntceInsttOfclDeptNm,ntceInsttOfclNm,ntceInsttOfclTel,ntceInsttOfclEmailAdrs,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,presnatnOprtnYn,presnatnOprtnDate,presnatnOprtnTm,presnatnOprtnPlce,bidPrtcptQlfctRgstClseDate,bidPrtcptQlfctRgstClseTm,cmmnReciptAgrmntClseDate,cmmnReciptAgrmntClseTm,bidBeginDate,bidBeginTm,bidClseDate,bidClseTm,opengDate,opengTm,opengPlce,asignBdgtAmt,presmptPrce,rsrvtnPrceDcsnMthdNm,rgnLmtYn,prtcptPsblRgnNm,indstrytyLmtYn,bidprcPsblIndstrytyNm,bidNtceUrl,dataBssDate</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidNtceNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,dmndInsttNm,dmndInsttCd,sucsfLwstlmtRt,presmptPrce,rsrvtnPrce,bssAmt,opengDate,opengTm,opengRsltDivNm,opengRank,bidprcCorpBizrno,bidprcCorpNm,bidprcCorpCeoNm,bidprcAmt,bidprcRt,bidprcDate,bidprcTm,sucsfYn,dqlfctnRsn,fnlSucsfAmt,fnlSucsfRt,fnlSucsfDate,fnlSucsfCorpNm,fnlSucsfCorpCeoNm,fnlSucsfCorpOfclNm,fnlSucsfCorpBizrno,fnlSucsfCorpAdrs,fnlSucsfCorpContactTel,dataBssDate</t>
+  </si>
+  <si>
+    <t>cntrctNo,untyCntrctNo,cntrctOrd,cntrctNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,lngtrmCtnuDivNm,cmmnCntrctYn,cntrctCnclsDate,cntrctPrd,cntrctAmt,ttalCntrctAmt,cntrctInfoUrl,bidNtceNo,bidNtceOrd,bidNtceNm,opengDate,opengTm,rsrvtnPrce,prvtcntrctRsn,bidNtceUrl,cntrctInsttDivNm,cntrctInsttNm,cntrctInsttCd,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTel,cntrctInsttOfcl,dmndInsttDivNm,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,rprsntCorpNm,dmstcCorpYn,rprsntCorpCeoNm,rprsntCorpOfclNm,rprsntCorpBizrno,rprsntCorpAdrs,rprsntCorpContactTel,dataBssDate</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cnstwkNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,prcesChangeAplBssCd,prcesChangeAplBssNm,rgstDt,chgDt,dfrcmpnstRt,cbgnDate,thtmCcmpltDate,ttalCcmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngCnstwkNo</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,cnstwkAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>dltDt,chgDivNm,untyCntrctNo,dcsnCntrctNo,cntrctRefNo,rgstDt,chgDt</t>
+  </si>
+  <si>
+    <t>../../output/조달청/낙찰된 목록 현황 공사조회/getScsbidListSttusCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/낙찰된 목록 현황 용역조회/getScsbidListSttusServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/개찰결과 공사 목록 조회/getOpengResultListInfoCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/개찰결과 용역 목록 조회/getOpengResultListInfoServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwkPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/개찰결과 공사 예비가격상세 목록 조회/getOpengResultListInfoCnstwkPreparPcDetail.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServcPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/개찰결과 용역 예비가격상세 목록 조회/getOpengResultListInfoServcPreparPcDetail.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터 검색조건에 의한 낙찰된 목록 현황 공사조회/getScsbidListSttusCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터 검색조건에 의한 낙찰된 목록 현황 용역조회/getScsbidListSttusServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터 검색조건에 의한 개찰결과 공사 목록 조회/getOpengResultListInfoCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터 검색조건에 의한 개찰결과 용역 목록 조회/getOpengResultListInfoServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>getBidPblancListInfoCnstwk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이상민</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 공사조회/getBidPblancListInfoCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getBidPblancListInfoServc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>numOfRows=10&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;bidNtceNo=20160335295</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 용역조회/getBidPblancListInfoServc.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1838,18 +2301,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst,bidPrceCalclAYn,bssAmtPurcnstcst</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 공사기초금액조회/getBidPblancListInfoCnstwkBsisAmount.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1857,11 +2309,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcBsisAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 용역기초금액조회/getBidPblancListInfoServcBsisAmount.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1869,43 +2317,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359&amp;bidNtceNo=20150309971</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bsnsDivNm,chgDataDivNm,chgDt,bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,chgItemNm,bfchgVal,afchgVal,lcnsLmtCdRgstList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 용역변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 용역기초금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사기초금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 입찰공고공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 입찰공고용역조회</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 공사변경이력조회/getBidPblancListInfoChgHstryCnstwk.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1913,15 +2325,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
+    <t>../../output/조달청/입찰공고목록 정보에 대한 용역변경이력조회/getBidPblancListInfoChgHstryServc.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1929,11 +2333,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt</t>
+    <t>../../output/조달청/나라장터검색조건에 의한 입찰공고공사조회/getBidPblancListInfoCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/나라장터검색조건에 의한 입찰공고용역조회/getBidPblancListInfoServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdBidPblancInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 개방표준에 따른 입찰공고정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/데이터셋 개방표준에 따른 입찰공고정보/getDataSetOpnStdBidPblancInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdScsbidInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터셋 개방표준에 따른 낙찰정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/데이터셋 개방표준에 따른 낙찰정보/getDataSetOpnStdScsbidInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdCntrctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/조달청/데이터셋 개방표준에 따른 계약정보/getDataSetOpnStdCntrctInfo.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1941,241 +2381,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getBidPblancListInfoServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수시</t>
-  </si>
-  <si>
-    <t>수시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cnstwkNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,prcesChangeAplBssCd,prcesChangeAplBssNm,rgstDt,chgDt,dfrcmpnstRt,cbgnDate,thtmCcmpltDate,ttalCcmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngCnstwkNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,untyCntrctNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,untyCntrctNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,cnstwkAmt,rltnCorpNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2017120000010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,,ntceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=2016081387600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 공사변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkChgHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkDltHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkDltHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D\&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608310000&amp;inqryEndDt=201608312359&amp;untyCntrctNo=2016090131914</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dltDt,chgDivNm,untyCntrctNo,dcsnCntrctNo,cntrctRefNo,rgstDt,chgDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201608030000&amp;inqryEndDt=201608032359&amp;untyCntrctNo=2016070113289</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cntrctNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,rgstDt,chgDt,dfrcmpnstRt,wbgnDate,thtmScmpltDate,ttalScmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngDcsnNo,d2bMngCnstwkNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListGnrlServcServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListGnrlServcServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=&amp;type=json&amp;untyCntrctNo=2015010000230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,prdctClsfcNoNmNdSpec,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListTechServcServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListTechServcServcInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;untyCntrctNo=2016010000002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDate,inqryEndDate,ntceNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=4&amp;inqryBgnDate=20160831&amp;inqryEndDate=20160831&amp;ntceNo=20160800245</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getCntrctInfoListServcChgHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=&amp;inqryEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=2&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 공사조회/getCntrctInfoListCnstwk.csv</t>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=&amp;inqryDiv=&amp;inqryBgnDt=&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bidNtceBgnDt=201712010000&amp;bidNtceEndDt=201712312359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bsnsDivCd=3&amp;opengBgnDt=201712010000&amp;opengEndDt=201712312359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;cntrctCnclsBgnDate=20171201&amp;cntrctCnclsEndDate=20171231</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2445,8 +2678,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="표준 2 67" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="표준 2 10 2" xfId="1"/>
+    <cellStyle name="표준 2 67" xfId="2"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2813,40 +3046,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" customWidth="1"/>
-    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.09765625" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" customWidth="1"/>
-    <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="70.375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="35.59765625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.09765625" customWidth="1"/>
-    <col min="14" max="16" width="19.59765625" customWidth="1"/>
-    <col min="17" max="17" width="38.59765625" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.59765625" customWidth="1"/>
-    <col min="21" max="21" width="24.59765625" customWidth="1"/>
-    <col min="22" max="23" width="20.59765625" customWidth="1"/>
-    <col min="24" max="24" width="23.8984375" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
+    <col min="14" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="38.625" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.625" customWidth="1"/>
+    <col min="21" max="21" width="24.625" customWidth="1"/>
+    <col min="22" max="23" width="20.625" customWidth="1"/>
+    <col min="24" max="24" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -2875,13 +3108,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>320</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="27" t="s">
-        <v>322</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
@@ -2893,7 +3126,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -2920,7 +3153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2949,14 +3182,14 @@
         <v>44</v>
       </c>
       <c r="J2" s="29" t="s">
+        <v>319</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="31" t="s">
         <v>321</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>323</v>
-      </c>
       <c r="M2" s="5" t="s">
         <v>27</v>
       </c>
@@ -2967,7 +3200,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -2994,7 +3227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3023,14 +3256,14 @@
         <v>43</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K3" s="29" t="s">
+        <v>325</v>
+      </c>
+      <c r="L3" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="L3" s="31" t="s">
-        <v>329</v>
-      </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
       </c>
@@ -3041,7 +3274,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
@@ -3066,7 +3299,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3095,28 +3328,28 @@
         <v>38</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K4" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="23" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q4" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3138,7 +3371,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3167,13 +3400,13 @@
         <v>39</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>27</v>
@@ -3185,7 +3418,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>40</v>
@@ -3210,7 +3443,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3239,13 +3472,13 @@
         <v>45</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>27</v>
@@ -3257,7 +3490,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>48</v>
@@ -3282,7 +3515,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3311,13 +3544,13 @@
         <v>47</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>27</v>
@@ -3329,7 +3562,7 @@
         <v>27</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>49</v>
@@ -3354,7 +3587,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3383,13 +3616,13 @@
         <v>52</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>27</v>
@@ -3401,7 +3634,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>53</v>
@@ -3426,7 +3659,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3455,13 +3688,13 @@
         <v>61</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>27</v>
@@ -3473,7 +3706,7 @@
         <v>27</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>56</v>
@@ -3498,7 +3731,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3527,13 +3760,13 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="29" t="s">
         <v>324</v>
       </c>
-      <c r="K10" s="29" t="s">
-        <v>326</v>
-      </c>
       <c r="L10" s="31" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>27</v>
@@ -3545,7 +3778,7 @@
         <v>27</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>63</v>
@@ -3570,7 +3803,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3599,13 +3832,13 @@
         <v>67</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>27</v>
@@ -3617,7 +3850,7 @@
         <v>27</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>65</v>
@@ -3642,7 +3875,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3671,13 +3904,13 @@
         <v>70</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
@@ -3689,7 +3922,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>68</v>
@@ -3714,7 +3947,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3743,13 +3976,13 @@
         <v>71</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>27</v>
@@ -3761,7 +3994,7 @@
         <v>27</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>72</v>
@@ -3786,7 +4019,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3815,13 +4048,13 @@
         <v>74</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>27</v>
@@ -3833,7 +4066,7 @@
         <v>27</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>75</v>
@@ -3858,7 +4091,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3887,13 +4120,13 @@
         <v>79</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>27</v>
@@ -3905,7 +4138,7 @@
         <v>27</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>77</v>
@@ -3930,7 +4163,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3959,13 +4192,13 @@
         <v>82</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>27</v>
@@ -3977,7 +4210,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>80</v>
@@ -4002,7 +4235,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4031,13 +4264,13 @@
         <v>86</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
@@ -4049,7 +4282,7 @@
         <v>27</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>83</v>
@@ -4074,7 +4307,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4103,13 +4336,13 @@
         <v>87</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
@@ -4121,7 +4354,7 @@
         <v>27</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>88</v>
@@ -4146,7 +4379,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4175,13 +4408,13 @@
         <v>90</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>27</v>
@@ -4193,7 +4426,7 @@
         <v>27</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>91</v>
@@ -4218,7 +4451,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4247,13 +4480,13 @@
         <v>94</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>27</v>
@@ -4265,7 +4498,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>97</v>
@@ -4290,7 +4523,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="261" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4319,13 +4552,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>27</v>
@@ -4337,7 +4570,7 @@
         <v>27</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>98</v>
@@ -4362,7 +4595,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4391,13 +4624,13 @@
         <v>102</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>27</v>
@@ -4409,7 +4642,7 @@
         <v>27</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>103</v>
@@ -4434,7 +4667,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4463,13 +4696,13 @@
         <v>106</v>
       </c>
       <c r="J23" s="18" t="s">
+        <v>408</v>
+      </c>
+      <c r="K23" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="K23" s="18" t="s">
-        <v>412</v>
-      </c>
       <c r="L23" s="31" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>27</v>
@@ -4481,7 +4714,7 @@
         <v>27</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>107</v>
@@ -4506,7 +4739,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4535,13 +4768,13 @@
         <v>110</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>27</v>
@@ -4553,7 +4786,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>111</v>
@@ -4578,7 +4811,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4607,13 +4840,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>27</v>
@@ -4625,7 +4858,7 @@
         <v>27</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>114</v>
@@ -4650,7 +4883,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4679,13 +4912,13 @@
         <v>116</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>27</v>
@@ -4697,7 +4930,7 @@
         <v>27</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>117</v>
@@ -4722,7 +4955,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4751,13 +4984,13 @@
         <v>120</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>27</v>
@@ -4769,7 +5002,7 @@
         <v>27</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>121</v>
@@ -4794,7 +5027,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4823,13 +5056,13 @@
         <v>125</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>27</v>
@@ -4841,7 +5074,7 @@
         <v>27</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>126</v>
@@ -4866,7 +5099,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4895,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>27</v>
@@ -4913,7 +5146,7 @@
         <v>27</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>129</v>
@@ -4938,7 +5171,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4967,13 +5200,13 @@
         <v>132</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>27</v>
@@ -4985,7 +5218,7 @@
         <v>27</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>133</v>
@@ -5010,7 +5243,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5039,13 +5272,13 @@
         <v>135</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -5057,7 +5290,7 @@
         <v>27</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>136</v>
@@ -5082,7 +5315,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5111,13 +5344,13 @@
         <v>138</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>27</v>
@@ -5129,7 +5362,7 @@
         <v>27</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>139</v>
@@ -5154,7 +5387,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5183,13 +5416,13 @@
         <v>141</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>27</v>
@@ -5201,7 +5434,7 @@
         <v>27</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>142</v>
@@ -5226,7 +5459,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5237,7 +5470,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>228</v>
@@ -5255,13 +5488,13 @@
         <v>143</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>27</v>
@@ -5273,7 +5506,7 @@
         <v>27</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>144</v>
@@ -5298,7 +5531,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5327,13 +5560,13 @@
         <v>146</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>27</v>
@@ -5345,7 +5578,7 @@
         <v>27</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>147</v>
@@ -5370,7 +5603,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5399,13 +5632,13 @@
         <v>149</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>27</v>
@@ -5417,7 +5650,7 @@
         <v>27</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>150</v>
@@ -5442,7 +5675,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5471,13 +5704,13 @@
         <v>152</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>27</v>
@@ -5489,7 +5722,7 @@
         <v>27</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>153</v>
@@ -5514,7 +5747,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="365.4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="363" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5543,13 +5776,13 @@
         <v>156</v>
       </c>
       <c r="J38" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="K38" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="K38" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="L38" s="31" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -5561,7 +5794,7 @@
         <v>27</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>155</v>
@@ -5586,7 +5819,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5615,13 +5848,13 @@
         <v>158</v>
       </c>
       <c r="J39" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="K39" s="18" t="s">
         <v>415</v>
       </c>
-      <c r="K39" s="18" t="s">
-        <v>417</v>
-      </c>
       <c r="L39" s="31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>27</v>
@@ -5633,7 +5866,7 @@
         <v>27</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>159</v>
@@ -5658,7 +5891,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5687,13 +5920,13 @@
         <v>210</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>27</v>
@@ -5705,7 +5938,7 @@
         <v>27</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>165</v>
@@ -5730,7 +5963,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5759,13 +5992,13 @@
         <v>211</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>27</v>
@@ -5777,7 +6010,7 @@
         <v>27</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>166</v>
@@ -5802,7 +6035,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -5831,13 +6064,13 @@
         <v>212</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>27</v>
@@ -5849,7 +6082,7 @@
         <v>27</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>169</v>
@@ -5874,7 +6107,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -5903,13 +6136,13 @@
         <v>213</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>27</v>
@@ -5921,7 +6154,7 @@
         <v>27</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>172</v>
@@ -5946,7 +6179,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -5975,13 +6208,13 @@
         <v>214</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>27</v>
@@ -5993,7 +6226,7 @@
         <v>27</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>174</v>
@@ -6018,7 +6251,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -6047,13 +6280,13 @@
         <v>215</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>27</v>
@@ -6065,7 +6298,7 @@
         <v>27</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>177</v>
@@ -6090,7 +6323,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6119,13 +6352,13 @@
         <v>216</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>27</v>
@@ -6137,7 +6370,7 @@
         <v>27</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>181</v>
@@ -6162,7 +6395,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6191,13 +6424,13 @@
         <v>217</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>27</v>
@@ -6209,7 +6442,7 @@
         <v>27</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>185</v>
@@ -6234,7 +6467,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6263,13 +6496,13 @@
         <v>218</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>27</v>
@@ -6281,7 +6514,7 @@
         <v>27</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>187</v>
@@ -6306,7 +6539,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6335,13 +6568,13 @@
         <v>219</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>27</v>
@@ -6353,7 +6586,7 @@
         <v>27</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>190</v>
@@ -6378,7 +6611,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6407,13 +6640,13 @@
         <v>220</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>27</v>
@@ -6425,7 +6658,7 @@
         <v>27</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>192</v>
@@ -6450,7 +6683,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" ht="198" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6479,13 +6712,13 @@
         <v>221</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>27</v>
@@ -6497,7 +6730,7 @@
         <v>27</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>195</v>
@@ -6522,7 +6755,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="330.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6551,13 +6784,13 @@
         <v>222</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>27</v>
@@ -6569,7 +6802,7 @@
         <v>27</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>197</v>
@@ -6594,7 +6827,7 @@
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -6623,13 +6856,13 @@
         <v>223</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>27</v>
@@ -6641,7 +6874,7 @@
         <v>27</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>199</v>
@@ -6666,7 +6899,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -6695,13 +6928,13 @@
         <v>224</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
@@ -6713,7 +6946,7 @@
         <v>27</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>201</v>
@@ -6738,7 +6971,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -6767,13 +7000,13 @@
         <v>225</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>27</v>
@@ -6785,7 +7018,7 @@
         <v>27</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>204</v>
@@ -6810,7 +7043,7 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -6839,13 +7072,13 @@
         <v>226</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>27</v>
@@ -6857,7 +7090,7 @@
         <v>27</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>206</v>
@@ -6882,7 +7115,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -6911,13 +7144,13 @@
         <v>227</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>27</v>
@@ -6929,7 +7162,7 @@
         <v>27</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>209</v>
@@ -6957,62 +7190,62 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="P6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="P7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="P10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="P12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="P14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="P16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="P17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="P18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="P19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="P20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="P21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="P22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="P23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="P24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="P25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="P26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="P27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="P28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="P29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="P30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="P31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="P32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="P33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="P34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="P35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="P36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="P37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="P38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="P39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="P40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="P41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="P42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="P43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="P44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="P45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="P46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="P47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="P48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="P49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="P50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="P51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="P52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="P53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="P54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="P55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="P56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="P57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="P2" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="P3" r:id="rId1"/>
+    <hyperlink ref="P4" r:id="rId2"/>
+    <hyperlink ref="P5" r:id="rId3"/>
+    <hyperlink ref="P6" r:id="rId4"/>
+    <hyperlink ref="P7" r:id="rId5"/>
+    <hyperlink ref="P8" r:id="rId6"/>
+    <hyperlink ref="P9" r:id="rId7"/>
+    <hyperlink ref="P10" r:id="rId8"/>
+    <hyperlink ref="P11" r:id="rId9"/>
+    <hyperlink ref="P12" r:id="rId10"/>
+    <hyperlink ref="P13" r:id="rId11"/>
+    <hyperlink ref="P14" r:id="rId12"/>
+    <hyperlink ref="P15" r:id="rId13"/>
+    <hyperlink ref="P16" r:id="rId14"/>
+    <hyperlink ref="P17" r:id="rId15"/>
+    <hyperlink ref="P18" r:id="rId16"/>
+    <hyperlink ref="P19" r:id="rId17"/>
+    <hyperlink ref="P20" r:id="rId18"/>
+    <hyperlink ref="P21" r:id="rId19"/>
+    <hyperlink ref="P22" r:id="rId20"/>
+    <hyperlink ref="P23" r:id="rId21"/>
+    <hyperlink ref="P24" r:id="rId22"/>
+    <hyperlink ref="P25" r:id="rId23"/>
+    <hyperlink ref="P26" r:id="rId24"/>
+    <hyperlink ref="P27" r:id="rId25"/>
+    <hyperlink ref="P28" r:id="rId26"/>
+    <hyperlink ref="P29" r:id="rId27"/>
+    <hyperlink ref="P30" r:id="rId28"/>
+    <hyperlink ref="P31" r:id="rId29"/>
+    <hyperlink ref="P32" r:id="rId30"/>
+    <hyperlink ref="P33" r:id="rId31"/>
+    <hyperlink ref="P34" r:id="rId32"/>
+    <hyperlink ref="P35" r:id="rId33"/>
+    <hyperlink ref="P36" r:id="rId34"/>
+    <hyperlink ref="P37" r:id="rId35"/>
+    <hyperlink ref="P38" r:id="rId36"/>
+    <hyperlink ref="P39" r:id="rId37"/>
+    <hyperlink ref="P40" r:id="rId38"/>
+    <hyperlink ref="P41" r:id="rId39"/>
+    <hyperlink ref="P42" r:id="rId40"/>
+    <hyperlink ref="P43" r:id="rId41"/>
+    <hyperlink ref="P44" r:id="rId42"/>
+    <hyperlink ref="P45" r:id="rId43"/>
+    <hyperlink ref="P46" r:id="rId44"/>
+    <hyperlink ref="P47" r:id="rId45"/>
+    <hyperlink ref="P48" r:id="rId46"/>
+    <hyperlink ref="P49" r:id="rId47"/>
+    <hyperlink ref="P50" r:id="rId48"/>
+    <hyperlink ref="P51" r:id="rId49"/>
+    <hyperlink ref="P52" r:id="rId50"/>
+    <hyperlink ref="P53" r:id="rId51"/>
+    <hyperlink ref="P54" r:id="rId52"/>
+    <hyperlink ref="P55" r:id="rId53"/>
+    <hyperlink ref="P56" r:id="rId54"/>
+    <hyperlink ref="P57" r:id="rId55"/>
+    <hyperlink ref="P2" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId57"/>
@@ -7030,39 +7263,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="J1" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="75.875" style="11" customWidth="1"/>
+    <col min="10" max="13" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="26" customWidth="1"/>
     <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="28.375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="14" customWidth="1"/>
     <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7091,13 +7322,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="L1" s="19" t="s">
         <v>320</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>322</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
@@ -7109,7 +7340,7 @@
         <v>231</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -7136,7 +7367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -7153,7 +7384,7 @@
         <v>228</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>26</v>
@@ -7162,34 +7393,34 @@
         <v>29</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>541</v>
+        <v>486</v>
       </c>
       <c r="M2" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="N2" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>491</v>
-      </c>
       <c r="O2" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P2" s="25" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>488</v>
+        <v>501</v>
       </c>
       <c r="R2" s="18" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="S2" s="16" t="s">
         <v>20</v>
@@ -7208,7 +7439,7 @@
       </c>
       <c r="X2" s="34"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -7225,7 +7456,7 @@
         <v>228</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>26</v>
@@ -7234,32 +7465,34 @@
         <v>29</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="L3" s="36"/>
+        <v>467</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>487</v>
+      </c>
       <c r="M3" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="S3" s="37" t="s">
         <v>20</v>
@@ -7278,7 +7511,7 @@
       </c>
       <c r="X3" s="34"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -7295,7 +7528,7 @@
         <v>228</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>26</v>
@@ -7304,32 +7537,34 @@
         <v>29</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="K4" s="37" t="s">
+        <v>471</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>488</v>
+      </c>
+      <c r="M4" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="P4" s="25" t="s">
         <v>504</v>
       </c>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>502</v>
-      </c>
       <c r="Q4" s="16" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="R4" s="18" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="S4" s="37" t="s">
         <v>20</v>
@@ -7348,7 +7583,7 @@
       </c>
       <c r="X4" s="34"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -7359,13 +7594,13 @@
         <v>19</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>506</v>
+        <v>473</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>26</v>
@@ -7374,32 +7609,34 @@
         <v>29</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>509</v>
+        <v>448</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="L5" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>489</v>
+      </c>
       <c r="M5" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N5" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O5" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P5" s="25" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="16" t="s">
         <v>507</v>
       </c>
       <c r="R5" s="18" t="s">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="S5" s="37" t="s">
         <v>20</v>
@@ -7418,7 +7655,7 @@
       </c>
       <c r="X5" s="34"/>
     </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -7435,7 +7672,7 @@
         <v>228</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>26</v>
@@ -7444,32 +7681,34 @@
         <v>29</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>514</v>
+        <v>567</v>
       </c>
       <c r="J6" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>490</v>
+      </c>
+      <c r="M6" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q6" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="K6" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>510</v>
-      </c>
       <c r="R6" s="37" t="s">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="S6" s="37" t="s">
         <v>20</v>
@@ -7488,7 +7727,7 @@
       </c>
       <c r="X6" s="34"/>
     </row>
-    <row r="7" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -7499,13 +7738,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>228</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>26</v>
@@ -7514,32 +7753,34 @@
         <v>29</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="L7" s="16"/>
+        <v>443</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>491</v>
+      </c>
       <c r="M7" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N7" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O7" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P7" s="25" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="Q7" s="16" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>493</v>
+        <v>466</v>
       </c>
       <c r="S7" s="16" t="s">
         <v>20</v>
@@ -7558,7 +7799,7 @@
       </c>
       <c r="X7" s="34"/>
     </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -7569,13 +7810,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>26</v>
@@ -7584,32 +7825,34 @@
         <v>29</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="L8" s="36"/>
+        <v>467</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>492</v>
+      </c>
       <c r="M8" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>521</v>
+        <v>478</v>
       </c>
       <c r="S8" s="37" t="s">
         <v>20</v>
@@ -7628,7 +7871,7 @@
       </c>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -7639,13 +7882,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>26</v>
@@ -7654,32 +7897,34 @@
         <v>29</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="L9" s="36"/>
+        <v>467</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>493</v>
+      </c>
       <c r="M9" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N9" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O9" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P9" s="25" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>525</v>
+        <v>479</v>
       </c>
       <c r="S9" s="37" t="s">
         <v>20</v>
@@ -7698,7 +7943,7 @@
       </c>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -7709,13 +7954,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>26</v>
@@ -7724,32 +7969,34 @@
         <v>29</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>504</v>
-      </c>
-      <c r="L10" s="36"/>
+        <v>471</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>494</v>
+      </c>
       <c r="M10" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P10" s="25" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="Q10" s="16" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="R10" s="37" t="s">
-        <v>530</v>
+        <v>481</v>
       </c>
       <c r="S10" s="37" t="s">
         <v>20</v>
@@ -7768,7 +8015,7 @@
       </c>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -7779,13 +8026,13 @@
         <v>19</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F11" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>26</v>
@@ -7794,32 +8041,34 @@
         <v>29</v>
       </c>
       <c r="I11" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="M11" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P11" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="J11" s="37" t="s">
-        <v>509</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36" t="s">
-        <v>464</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>532</v>
-      </c>
       <c r="Q11" s="16" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="R11" s="37" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="S11" s="37" t="s">
         <v>20</v>
@@ -7838,7 +8087,7 @@
       </c>
       <c r="X11" s="34"/>
     </row>
-    <row r="12" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -7849,13 +8098,13 @@
         <v>19</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E12" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F12" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>26</v>
@@ -7863,18 +8112,36 @@
       <c r="H12" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="I12" s="18" t="s">
+        <v>567</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>496</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>497</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N12" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O12" s="16"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O12" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="Q12" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>498</v>
+      </c>
       <c r="S12" s="37" t="s">
         <v>20</v>
       </c>
@@ -7892,7 +8159,7 @@
       </c>
       <c r="X12" s="34"/>
     </row>
-    <row r="13" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -7909,7 +8176,7 @@
         <v>228</v>
       </c>
       <c r="F13" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>26</v>
@@ -7917,27 +8184,35 @@
       <c r="H13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="18" t="s">
+        <v>553</v>
+      </c>
       <c r="J13" s="37" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>568</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N13" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O13" s="16"/>
+        <v>463</v>
+      </c>
+      <c r="O13" s="16" t="s">
+        <v>449</v>
+      </c>
       <c r="P13" s="25" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>538</v>
+        <v>609</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>20</v>
@@ -7956,7 +8231,7 @@
       </c>
       <c r="X13" s="34"/>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -7967,13 +8242,13 @@
         <v>19</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E14" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F14" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>26</v>
@@ -7981,18 +8256,36 @@
       <c r="H14" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="I14" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O14" s="16"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P14" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q14" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>608</v>
+      </c>
       <c r="S14" s="37" t="s">
         <v>20</v>
       </c>
@@ -8010,7 +8303,7 @@
       </c>
       <c r="X14" s="34"/>
     </row>
-    <row r="15" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -8027,7 +8320,7 @@
         <v>228</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>26</v>
@@ -8035,18 +8328,36 @@
       <c r="H15" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="I15" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="M15" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N15" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>610</v>
+      </c>
       <c r="S15" s="37" t="s">
         <v>20</v>
       </c>
@@ -8064,7 +8375,7 @@
       </c>
       <c r="X15" s="34"/>
     </row>
-    <row r="16" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -8075,13 +8386,13 @@
         <v>19</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F16" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>26</v>
@@ -8089,18 +8400,36 @@
       <c r="H16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
+      <c r="I16" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N16" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="S16" s="37" t="s">
         <v>20</v>
       </c>
@@ -8118,7 +8447,7 @@
       </c>
       <c r="X16" s="34"/>
     </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16">
         <v>16</v>
       </c>
@@ -8135,7 +8464,7 @@
         <v>228</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>26</v>
@@ -8143,18 +8472,36 @@
       <c r="H17" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
+      <c r="I17" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N17" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O17" s="16"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="16"/>
-      <c r="R17" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P17" s="25" t="s">
+        <v>526</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>572</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="S17" s="37" t="s">
         <v>20</v>
       </c>
@@ -8172,7 +8519,7 @@
       </c>
       <c r="X17" s="34"/>
     </row>
-    <row r="18" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>17</v>
       </c>
@@ -8183,13 +8530,13 @@
         <v>19</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E18" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>26</v>
@@ -8197,18 +8544,36 @@
       <c r="H18" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="I18" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L18" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="M18" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N18" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O18" s="16"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="16"/>
-      <c r="R18" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>574</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="S18" s="37" t="s">
         <v>20</v>
       </c>
@@ -8226,7 +8591,7 @@
       </c>
       <c r="X18" s="34"/>
     </row>
-    <row r="19" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>18</v>
       </c>
@@ -8243,7 +8608,7 @@
         <v>228</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>26</v>
@@ -8251,18 +8616,36 @@
       <c r="H19" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="I19" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L19" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="M19" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N19" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="16"/>
-      <c r="R19" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="S19" s="37" t="s">
         <v>20</v>
       </c>
@@ -8280,7 +8663,7 @@
       </c>
       <c r="X19" s="34"/>
     </row>
-    <row r="20" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>19</v>
       </c>
@@ -8291,13 +8674,13 @@
         <v>19</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E20" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>26</v>
@@ -8305,18 +8688,36 @@
       <c r="H20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
+      <c r="I20" s="18" t="s">
+        <v>553</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>579</v>
+      </c>
+      <c r="M20" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N20" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O20" s="16"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P20" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>611</v>
+      </c>
       <c r="S20" s="37" t="s">
         <v>20</v>
       </c>
@@ -8334,7 +8735,7 @@
       </c>
       <c r="X20" s="34"/>
     </row>
-    <row r="21" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>20</v>
       </c>
@@ -8351,7 +8752,7 @@
         <v>228</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>26</v>
@@ -8359,18 +8760,36 @@
       <c r="H21" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
+      <c r="I21" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="M21" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N21" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P21" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>580</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="S21" s="37" t="s">
         <v>20</v>
       </c>
@@ -8388,7 +8807,7 @@
       </c>
       <c r="X21" s="34"/>
     </row>
-    <row r="22" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>21</v>
       </c>
@@ -8399,13 +8818,13 @@
         <v>19</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>26</v>
@@ -8413,18 +8832,36 @@
       <c r="H22" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
+      <c r="I22" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>583</v>
+      </c>
+      <c r="M22" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N22" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P22" s="25" t="s">
+        <v>525</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>609</v>
+      </c>
       <c r="S22" s="37" t="s">
         <v>20</v>
       </c>
@@ -8442,7 +8879,7 @@
       </c>
       <c r="X22" s="34"/>
     </row>
-    <row r="23" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>22</v>
       </c>
@@ -8459,7 +8896,7 @@
         <v>228</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>26</v>
@@ -8468,32 +8905,34 @@
         <v>29</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>447</v>
-      </c>
-      <c r="L23" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L23" s="37" t="s">
+        <v>585</v>
+      </c>
       <c r="M23" s="36" t="s">
-        <v>448</v>
+        <v>27</v>
       </c>
       <c r="N23" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P23" s="40" t="s">
-        <v>449</v>
+        <v>529</v>
       </c>
       <c r="Q23" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="R23" s="17" t="s">
         <v>445</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>450</v>
       </c>
       <c r="S23" s="37" t="s">
         <v>20</v>
@@ -8512,7 +8951,7 @@
       </c>
       <c r="X23" s="16"/>
     </row>
-    <row r="24" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16">
         <v>23</v>
       </c>
@@ -8523,13 +8962,13 @@
         <v>19</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E24" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>26</v>
@@ -8538,32 +8977,34 @@
         <v>29</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>533</v>
-      </c>
-      <c r="L24" s="36"/>
+        <v>482</v>
+      </c>
+      <c r="L24" s="37" t="s">
+        <v>587</v>
+      </c>
       <c r="M24" s="36" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O24" s="16" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="P24" s="40" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="Q24" s="16" t="s">
-        <v>452</v>
+        <v>586</v>
       </c>
       <c r="R24" s="17" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="S24" s="37" t="s">
         <v>20</v>
@@ -8582,7 +9023,7 @@
       </c>
       <c r="X24" s="16"/>
     </row>
-    <row r="25" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>24</v>
       </c>
@@ -8593,13 +9034,13 @@
         <v>19</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="E25" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>26</v>
@@ -8608,32 +9049,34 @@
         <v>29</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K25" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="L25" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L25" s="37" t="s">
+        <v>589</v>
+      </c>
       <c r="M25" s="36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N25" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="16" t="s">
-        <v>457</v>
+        <v>588</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="S25" s="37" t="s">
         <v>20</v>
@@ -8652,7 +9095,7 @@
       </c>
       <c r="X25" s="34"/>
     </row>
-    <row r="26" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16">
         <v>25</v>
       </c>
@@ -8663,13 +9106,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E26" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>26</v>
@@ -8678,32 +9121,34 @@
         <v>29</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>469</v>
+        <v>559</v>
       </c>
       <c r="J26" s="37" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K26" s="37" t="s">
-        <v>447</v>
-      </c>
-      <c r="L26" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L26" s="37" t="s">
+        <v>591</v>
+      </c>
       <c r="M26" s="36" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="N26" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O26" s="16" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="P26" s="25" t="s">
-        <v>463</v>
+        <v>532</v>
       </c>
       <c r="Q26" s="16" t="s">
-        <v>462</v>
+        <v>590</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="S26" s="37" t="s">
         <v>20</v>
@@ -8722,7 +9167,7 @@
       </c>
       <c r="X26" s="34"/>
     </row>
-    <row r="27" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>26</v>
       </c>
@@ -8733,13 +9178,13 @@
         <v>19</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E27" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>26</v>
@@ -8748,32 +9193,34 @@
         <v>29</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="J27" s="38" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K27" s="38" t="s">
-        <v>540</v>
-      </c>
-      <c r="L27" s="36"/>
+        <v>485</v>
+      </c>
+      <c r="L27" s="37" t="s">
+        <v>593</v>
+      </c>
       <c r="M27" s="36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N27" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O27" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P27" s="25" t="s">
-        <v>466</v>
+        <v>533</v>
       </c>
       <c r="Q27" s="16" t="s">
-        <v>465</v>
+        <v>592</v>
       </c>
       <c r="R27" s="18" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="S27" s="37" t="s">
         <v>20</v>
@@ -8792,7 +9239,7 @@
       </c>
       <c r="X27" s="34"/>
     </row>
-    <row r="28" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>27</v>
       </c>
@@ -8803,13 +9250,13 @@
         <v>19</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E28" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>26</v>
@@ -8818,32 +9265,34 @@
         <v>29</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>468</v>
+        <v>560</v>
       </c>
       <c r="J28" s="38" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="K28" s="38" t="s">
-        <v>447</v>
-      </c>
-      <c r="L28" s="36"/>
+        <v>443</v>
+      </c>
+      <c r="L28" s="37" t="s">
+        <v>595</v>
+      </c>
       <c r="M28" s="36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P28" s="25" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="16" t="s">
-        <v>476</v>
+        <v>594</v>
       </c>
       <c r="R28" s="18" t="s">
-        <v>539</v>
+        <v>484</v>
       </c>
       <c r="S28" s="37" t="s">
         <v>20</v>
@@ -8862,7 +9311,7 @@
       </c>
       <c r="X28" s="34"/>
     </row>
-    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -8873,13 +9322,13 @@
         <v>19</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>26</v>
@@ -8888,32 +9337,34 @@
         <v>29</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>479</v>
-      </c>
-      <c r="L29" s="36"/>
+        <v>460</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>597</v>
+      </c>
       <c r="M29" s="36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P29" s="40" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>480</v>
+        <v>596</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="S29" s="37" t="s">
         <v>20</v>
@@ -8932,7 +9383,7 @@
       </c>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -8943,13 +9394,13 @@
         <v>19</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>26</v>
@@ -8958,32 +9409,34 @@
         <v>29</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>486</v>
+        <v>561</v>
       </c>
       <c r="J30" s="41" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="L30" s="36"/>
+        <v>450</v>
+      </c>
+      <c r="L30" s="37" t="s">
+        <v>599</v>
+      </c>
       <c r="M30" s="36" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="P30" s="40" t="s">
-        <v>485</v>
+        <v>536</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>484</v>
+        <v>598</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>487</v>
+        <v>462</v>
       </c>
       <c r="S30" s="37" t="s">
         <v>20</v>
@@ -9002,7 +9455,7 @@
       </c>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -9013,13 +9466,13 @@
         <v>19</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>257</v>
+        <v>601</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>26</v>
@@ -9027,18 +9480,36 @@
       <c r="H31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="36"/>
+      <c r="I31" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="L31" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="M31" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N31" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O31" s="16"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O31" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P31" s="25" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q31" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>612</v>
+      </c>
       <c r="S31" s="37" t="s">
         <v>20</v>
       </c>
@@ -9046,7 +9517,7 @@
         <v>233</v>
       </c>
       <c r="U31" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V31" s="16" t="s">
         <v>239</v>
@@ -9056,7 +9527,7 @@
       </c>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -9067,13 +9538,13 @@
         <v>19</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>259</v>
+        <v>604</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>26</v>
@@ -9081,18 +9552,36 @@
       <c r="H32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="36"/>
+      <c r="I32" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="L32" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="M32" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N32" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O32" s="16"/>
-      <c r="P32" s="25"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O32" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P32" s="25" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q32" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>613</v>
+      </c>
       <c r="S32" s="37" t="s">
         <v>20</v>
       </c>
@@ -9100,7 +9589,7 @@
         <v>233</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V32" s="16" t="s">
         <v>239</v>
@@ -9110,7 +9599,7 @@
       </c>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -9121,13 +9610,13 @@
         <v>19</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>26</v>
@@ -9135,18 +9624,36 @@
       <c r="H33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="36"/>
+      <c r="I33" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="L33" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="M33" s="36" t="s">
+        <v>27</v>
+      </c>
       <c r="N33" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="18"/>
+        <v>463</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>449</v>
+      </c>
+      <c r="P33" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q33" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>614</v>
+      </c>
       <c r="S33" s="37" t="s">
         <v>20</v>
       </c>
@@ -9154,7 +9661,7 @@
         <v>233</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="V33" s="16" t="s">
         <v>239</v>
@@ -9167,27 +9674,28 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P23" r:id="rId1" xr:uid="{F7E8928E-81B0-49C5-8245-CDF23AF90257}"/>
-    <hyperlink ref="P24" r:id="rId2" xr:uid="{D5E4018E-6875-43FF-853D-6B7A68DA0B85}"/>
-    <hyperlink ref="P25" r:id="rId3" xr:uid="{DCBD7A87-15FD-4463-9908-2913F6231540}"/>
-    <hyperlink ref="P26" r:id="rId4" xr:uid="{B5E42B40-D7DF-43BA-B0A2-702A0E54EB21}"/>
-    <hyperlink ref="P27" r:id="rId5" xr:uid="{DCDD7095-7D20-47CB-92FF-06CBCEEC1641}"/>
-    <hyperlink ref="P28" r:id="rId6" xr:uid="{4CCB9280-DE9C-4A03-9EB8-E3662ABBEB83}"/>
-    <hyperlink ref="P29" r:id="rId7" xr:uid="{36E62935-83A0-4D42-9CE2-F3ED7465884A}"/>
-    <hyperlink ref="P30" r:id="rId8" xr:uid="{FC893D3A-4C84-484A-8374-AD52C506DFA5}"/>
-    <hyperlink ref="P2" r:id="rId9" xr:uid="{F9D279C6-B255-45AF-94F5-0482D78A76DE}"/>
-    <hyperlink ref="P3" r:id="rId10" xr:uid="{715660BD-1E62-4BE5-8399-74FB08FD0FF7}"/>
-    <hyperlink ref="P4" r:id="rId11" xr:uid="{5C34E4E8-2125-4702-BBA2-8252D81649B4}"/>
-    <hyperlink ref="P5" r:id="rId12" xr:uid="{18D941C2-F1C4-4DE9-913D-4ADDBBB5376F}"/>
-    <hyperlink ref="P6" r:id="rId13" xr:uid="{ED8241E2-1E98-4D77-98D6-71587EDA58FB}"/>
-    <hyperlink ref="P7" r:id="rId14" xr:uid="{08BBDB19-EACD-4126-AE9C-BE1D8DE3F0AB}"/>
-    <hyperlink ref="P8" r:id="rId15" xr:uid="{D4FB31D9-CBB4-47C8-A3C2-43DF99E77CCB}"/>
-    <hyperlink ref="P9" r:id="rId16" xr:uid="{05FAD1F4-0FE5-4FE9-8006-4BF4241F61B0}"/>
-    <hyperlink ref="P10" r:id="rId17" xr:uid="{D7FD25B6-164A-492C-9CCD-E78678E2A0B0}"/>
-    <hyperlink ref="P11" r:id="rId18" xr:uid="{4675742E-5E18-4CA9-AE53-47DC44864CD1}"/>
-    <hyperlink ref="P13" r:id="rId19" xr:uid="{06CA0394-2150-45FE-8D59-00C55B8A2CE7}"/>
+    <hyperlink ref="P12" r:id="rId1"/>
+    <hyperlink ref="P13" r:id="rId2" display="http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk"/>
+    <hyperlink ref="P11" r:id="rId3"/>
+    <hyperlink ref="P10" r:id="rId4"/>
+    <hyperlink ref="P9" r:id="rId5"/>
+    <hyperlink ref="P8" r:id="rId6"/>
+    <hyperlink ref="P7" r:id="rId7"/>
+    <hyperlink ref="P6" r:id="rId8"/>
+    <hyperlink ref="P5" r:id="rId9"/>
+    <hyperlink ref="P4" r:id="rId10"/>
+    <hyperlink ref="P3" r:id="rId11"/>
+    <hyperlink ref="P2" r:id="rId12"/>
+    <hyperlink ref="P30" r:id="rId13"/>
+    <hyperlink ref="P29" r:id="rId14"/>
+    <hyperlink ref="P28" r:id="rId15"/>
+    <hyperlink ref="P27" r:id="rId16"/>
+    <hyperlink ref="P26" r:id="rId17"/>
+    <hyperlink ref="P25" r:id="rId18"/>
+    <hyperlink ref="P24" r:id="rId19"/>
+    <hyperlink ref="P23" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\생산기술연구원\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A6A3D-7730-4A07-AB3B-7B545FBFC248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
     <sheet name="2. 조달청-조달정보개방포털" sheetId="10" r:id="rId2"/>
+    <sheet name="3. 통계청" sheetId="11" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. 조달청-조달정보개방포털'!$A$1:$X$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 통계청'!$A$1:$X$5</definedName>
     <definedName name="Term">#REF!</definedName>
     <definedName name="title">#REF!</definedName>
     <definedName name="공휴일">OFFSET([1]사업캘린더!$L$3,,,COUNTA([1]사업캘린더!$L:$L)-1)</definedName>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1985" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="640">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1028,10 +1032,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약현황에 대한 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>word</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1040,42 +1040,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약현황에 대한 공사서비스정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 계약현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 공사삭제이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조달청 - 나라장터 낙찰정보서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낙찰된 목록 현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개찰결과 공사 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개찰결과 공사 예비가격상세 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 낙찰된 목록 현황 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 개찰결과 공사 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나라장터 낙찰정보서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1084,10 +1052,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입찰공고목록 정보에 대한 공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>나라장터 입찰공고정보서비스</t>
   </si>
   <si>
@@ -1107,10 +1071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>데이터셋 개방표준에 따른 계약정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1726,58 +1686,10 @@
     <t>serviceKey,searchCcwDtInqBgDt,searchCcwDtInqEdDt</t>
   </si>
   <si>
-    <t>계약현황에 대한 용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 일반용역서비스정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 기술용역서비스정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이상민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>나라장터검색조건에 의한 계약현황 용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 용역변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계약현황에 대한 용역삭제이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>낙찰된 목록 현황 용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개찰결과 용역 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개찰결과 용역 예비가격상세 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 낙찰된 목록 현황 용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터 검색조건에 의한 개찰결과 용역 목록 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows,pageNo,ServiceKey,type,inqryDiv,inqryBgnDt,inqryEndDt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1816,30 +1728,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>입찰공고목록 정보에 대한 용역변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 용역기초금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입찰공고목록 정보에 대한 공사기초금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 입찰공고공사조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라장터검색조건에 의한 입찰공고용역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1895,10 +1783,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>계약현황에 대한 공사변경이력조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt,untyCntrctNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1947,46 +1831,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../../output/조달청/계약현황에 대한 공사조회/getCntrctInfoListCnstwk.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 공사서비스정보조회/getCntrctInfoListCnstwkServcInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터검색조건에 의한 계약현황 공사조회/getCntrctInfoListCnstwkPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 공사변경이력조회/getCntrctInfoListCnstwkChgHstry.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 공사삭제이력조회/getCntrctInfoListCnstwkDltHstry.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 용역조회/getCntrctInfoListServc.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 일반용역서비스정보조회/getCntrctInfoListGnrlServcServcInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 기술용역서비스정보조회/getCntrctInfoListTechServcServcInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터검색조건에 의한 계약현황 용역조회/getCntrctInfoListServcPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/계약현황에 대한 용역변경이력조회/getCntrctInfoListServcChgHstry.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>numOfRows,ServiceKey,inqryDiv,inqryBgnDt,inqryEndDt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1999,416 +1843,657 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../../output/조달청/계약현황에 대한 용역삭제이력조회/getCntrctInfoListServcDltHstry.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwk</t>
   </si>
   <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkDltHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListGnrlServcServcInfo</t>
+  </si>
+  <si>
+    <t>getCntrctInfoListGnrlServcServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListTechServcServcInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcDltHstry</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcBsisAmount</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryServc</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcPPSSrch</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdBidPblancInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdScsbidInfo</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdCntrctInfo</t>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,bidNtceBgnDt,bidNtceEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,bidNtceBgnDt,bidNtceEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,bsnsDivCd,opengBgnDt,opengEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,bsnsDivCd,opengBgnDt,opengEndDt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,ServiceKey,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows,pageNo,ServiceKey,type,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,prdctClsfcNoNmNdSpec,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cntrctNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,rgstDt,chgDt,dfrcmpnstRt,wbgnDate,thtmScmpltDate,ttalScmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngDcsnNo,d2bMngCnstwkNo</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,ntceDivCd,bidNtceNm,prtcptCnum,bidwinnrNm,bidwinnrBizno,bidwinnrCeoNm,bidwinnrAdrs,bidwinnrTelNo,sucsfbidAmt,sucsfbidRate,rlOpengDt,dminsttCd,dminsttNm,rgstDt,fnlSucsfDate,fnlSucsfCorpOfcl,linkInsttNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,opengDt,prtcptCnum,opengCorpInfo,progrsDivCdNm,inptDt,rsrvtnPrceFileExistnceYn,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,plnprc,bssamt,totRsrvtnPrceNum,compnoRsrvtnPrceSno,bsisPlnprc,drwtYn,drwtNum,bidwinrSlctnAplBssCntnts,rlOpengDt,bssamtBssUpNum,compnoRsrvtnPrceMkngDt,inptDt,PrearngPrcePurcnstcst</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst,bidPrceCalclAYn,bssAmtPurcnstcst,qltyMngcst,qltyMngcstAObjYn</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst</t>
+  </si>
+  <si>
+    <t>bsnsDivNm,chgDataDivNm,chgDt,bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,chgItemNm,bfchgVal,afchgVal,lcnsLmtCdRgstList</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,refNtceNo,refNtceOrd,ppsNtceYn,bidNtceNm,bidNtceSttusNm,bidNtceDate,bidNtceBgn,bsnsDivNm,intrntnlBidYn,cmmnCntrctYn,cmmnReciptMethdNm,elctrnBidYn,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,ntceInsttOfclDeptNm,ntceInsttOfclNm,ntceInsttOfclTel,ntceInsttOfclEmailAdrs,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,presnatnOprtnYn,presnatnOprtnDate,presnatnOprtnTm,presnatnOprtnPlce,bidPrtcptQlfctRgstClseDate,bidPrtcptQlfctRgstClseTm,cmmnReciptAgrmntClseDate,cmmnReciptAgrmntClseTm,bidBeginDate,bidBeginTm,bidClseDate,bidClseTm,opengDate,opengTm,opengPlce,asignBdgtAmt,presmptPrce,rsrvtnPrceDcsnMthdNm,rgnLmtYn,prtcptPsblRgnNm,indstrytyLmtYn,bidprcPsblIndstrytyNm,bidNtceUrl,dataBssDate</t>
+  </si>
+  <si>
+    <t>bidNtceNo,bidNtceOrd,bidNtceNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,dmndInsttNm,dmndInsttCd,sucsfLwstlmtRt,presmptPrce,rsrvtnPrce,bssAmt,opengDate,opengTm,opengRsltDivNm,opengRank,bidprcCorpBizrno,bidprcCorpNm,bidprcCorpCeoNm,bidprcAmt,bidprcRt,bidprcDate,bidprcTm,sucsfYn,dqlfctnRsn,fnlSucsfAmt,fnlSucsfRt,fnlSucsfDate,fnlSucsfCorpNm,fnlSucsfCorpCeoNm,fnlSucsfCorpOfclNm,fnlSucsfCorpBizrno,fnlSucsfCorpAdrs,fnlSucsfCorpContactTel,dataBssDate</t>
+  </si>
+  <si>
+    <t>cntrctNo,untyCntrctNo,cntrctOrd,cntrctNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,lngtrmCtnuDivNm,cmmnCntrctYn,cntrctCnclsDate,cntrctPrd,cntrctAmt,ttalCntrctAmt,cntrctInfoUrl,bidNtceNo,bidNtceOrd,bidNtceNm,opengDate,opengTm,rsrvtnPrce,prvtcntrctRsn,bidNtceUrl,cntrctInsttDivNm,cntrctInsttNm,cntrctInsttCd,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTel,cntrctInsttOfcl,dmndInsttDivNm,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,rprsntCorpNm,dmstcCorpYn,rprsntCorpCeoNm,rprsntCorpOfclNm,rprsntCorpBizrno,rprsntCorpAdrs,rprsntCorpContactTel,dataBssDate</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cnstwkNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,prcesChangeAplBssCd,prcesChangeAplBssNm,rgstDt,chgDt,dfrcmpnstRt,cbgnDate,thtmCcmpltDate,ttalCcmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngCnstwkNo</t>
+  </si>
+  <si>
+    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,cnstwkAmt,rltnCorpNm</t>
+  </si>
+  <si>
+    <t>dltDt,chgDivNm,untyCntrctNo,dcsnCntrctNo,cntrctRefNo,rgstDt,chgDt</t>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwkPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServcPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getScsbidListSttusServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getOpengResultListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwkBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServcBsisAmount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoChgHstryCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoChgHstryServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBidPblancListInfoServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdBidPblancInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdScsbidInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDataSetOpnStdCntrctInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=&amp;inqryDiv=&amp;inqryBgnDt=&amp;inqryEndDt=201605052359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bidNtceBgnDt=201712010000&amp;bidNtceEndDt=201712312359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bsnsDivCd=3&amp;opengBgnDt=201712010000&amp;opengEndDt=201712312359</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;cntrctCnclsBgnDate=20171201&amp;cntrctCnclsEndDate=20171231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPreparPcDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkDltHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>getCntrctInfoListCnstwk</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListCnstwkChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListTechServcServcInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcPPSSrch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcDltHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServcChgHstry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getCntrctInfoListServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>getCntrctInfoListCnstwkServcInfo</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkChgHstry</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkChgHstry</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListCnstwkDltHstry</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListCnstwkDltHstry</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServc</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListServc</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListGnrlServcServcInfo</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListGnrlServcServcInfo</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListTechServcServcInfo</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListTechServcServcInfo</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcPPSSrch</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListServcPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcChgHstry</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListServcChgHstry</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/CntrctInfoService/getCntrctInfoListServcDltHstry</t>
-  </si>
-  <si>
-    <t>getCntrctInfoListServcDltHstry</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwk</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusServcPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoCnstwkPreparPcDetail</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getOpengResultListInfoServcPreparPcDetail</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwk</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServc</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkBsisAmount</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcBsisAmount</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryCnstwk</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoChgHstryServc</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoCnstwkPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/BidPublicInfoService02/getBidPblancListInfoServcPPSSrch</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdBidPblancInfo</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdScsbidInfo</t>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1230000/PubDataOpnStdService/getDataSetOpnStdCntrctInfo</t>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,bidNtceBgnDt,bidNtceEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,bidNtceBgnDt,bidNtceEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,bsnsDivCd,opengBgnDt,opengEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,bsnsDivCd,opengBgnDt,opengEndDt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,ServiceKey,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows,pageNo,ServiceKey,type,cntrctCnclsBgnDate,cntrctCnclsEndDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,prdctClsfcNoNmNdSpec,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,srvceAmt,rltnCorpNm</t>
-  </si>
-  <si>
-    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cntrctNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,rgstDt,chgDt,dfrcmpnstRt,wbgnDate,thtmScmpltDate,ttalScmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngDcsnNo,d2bMngCnstwkNo</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,ntceDivCd,bidNtceNm,prtcptCnum,bidwinnrNm,bidwinnrBizno,bidwinnrCeoNm,bidwinnrAdrs,bidwinnrTelNo,sucsfbidAmt,sucsfbidRate,rlOpengDt,dminsttCd,dminsttNm,rgstDt,fnlSucsfDate,fnlSucsfCorpOfcl,linkInsttNm</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,opengDt,prtcptCnum,opengCorpInfo,progrsDivCdNm,inptDt,rsrvtnPrceFileExistnceYn,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,bidNtceNm,plnprc,bssamt,totRsrvtnPrceNum,compnoRsrvtnPrceSno,bsisPlnprc,drwtYn,drwtNum,bidwinrSlctnAplBssCntnts,rlOpengDt,bssamtBssUpNum,compnoRsrvtnPrceMkngDt,inptDt,PrearngPrcePurcnstcst</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,arsltApplDocRcptMthdNm,arsltApplDocRcptDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,bdgtAmt,presmptPrce,govsplyAmt,aplBssCntnts,indstrytyEvlRt,mainCnsttyNm,mainCnsttyCnstwkPrearngAmt,incntvRgnNm1,incntvRgnNm2,incntvRgnNm3,incntvRgnNm4,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,contrctrcnstrtnGovsplyMtrlAmt,govcnstrtnGovsplyMtrlAmt,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,cmmnSpldmdCnum,untyNtceNo,sptDscrptDocUrl1,sptDscrptDocUrl2,sptDscrptDocUrl3,sptDscrptDocUrl4,sptDscrptDocUrl5,subsiCnsttyNm1,subsiCnsttyNm2,subsiCnsttyNm3,subsiCnsttyNm4,subsiCnsttyNm5,subsiCnsttyNm6,subsiCnsttyNm7,subsiCnsttyNm8,subsiCnsttyNm9,subsiCnsttyIndstrytyEvlRt1,subsiCnsttyIndstrytyEvlRt2,subsiCnsttyIndstrytyEvlRt3,subsiCnsttyIndstrytyEvlRt4,subsiCnsttyIndstrytyEvlRt5,subsiCnsttyIndstrytyEvlRt6,subsiCnsttyIndstrytyEvlRt7,subsiCnsttyIndstrytyEvlRt8,subsiCnsttyIndstrytyEvlRt9,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,cnsttyAccotShreRateList,cnstrtnAbltyEvlAmtList,dsgntCmptYn,arsltCmptYn,pqEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,mainCnsttyPresmptPrce,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkDivNm,d2bMngCnstwkPrdCntnts,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt,d2bMngBssamt,d2bMngRgstEvalExmpYn,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngNgttnPlanDate,d2bMngNgttnStleNm,d2bMngDmndYear,d2bMngCnstwkNo,cnstrtsiteRgnNm,rgnDutyJntcontrctYn,chgNtceRsn,rbidOpengDt,ciblAplYn,mtltyAdvcPsblYn,mtltyAdvcPsblYnCnstwkNm</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst,bidPrceCalclAYn,bssAmtPurcnstcst,qltyMngcst,qltyMngcstAObjYn</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidClsfcNo,bidNtceNm,bssamt,bssamtOpenDt,rsrvtnPrceRngBgnRate,rsrvtnPrceRngEndRate,evlBssAmt,dfcltydgrCfcnt,etcGnrlexpnsBssRate,gnrlMngcstBssRate,prftBssRate,lbrcstBssRate,sftyMngcst,rtrfundNon,envCnsrvcst,scontrctPayprcePayGrntyFee,mrfnHealthInsrprm,npnInsrprm,rmrk1,rmrk2,odsnLngtrmrcprInsrprm,usefulAmt,inptDt,sftyChckMngcst</t>
-  </si>
-  <si>
-    <t>bsnsDivNm,chgDataDivNm,chgDt,bidNtceNo,bidNtceOrd,bidClsfcNo,rbidNo,chgItemNm,bfchgVal,afchgVal,lcnsLmtCdRgstList</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,reNtceYn,rgstTyNm,ntceKindNm,intrbidYn,bidNtceDt,refNo,bidNtceNm,ntceInsttCd,ntceInsttNm,dminsttCd,dminsttNm,bidMethdNm,cntrctCnclsMthdNm,ntceInsttOfclNm,ntceInsttOfclTelNo,ntceInsttOfclEmailAdrs,exctvNm,bidQlfctRgstDt,cmmnSpldmdAgrmntRcptdocMethd,cmmnSpldmdAgrmntClseDt,cmmnSpldmdCorpRgnLmtYn,bidBeginDt,bidClseDt,opengDt,ntceSpecDocUrl1,ntceSpecDocUrl2,ntceSpecDocUrl3,ntceSpecDocUrl4,ntceSpecDocUrl5,ntceSpecDocUrl6,ntceSpecDocUrl7,ntceSpecDocUrl8,ntceSpecDocUrl9,ntceSpecDocUrl10,ntceSpecFileNm1,ntceSpecFileNm2,ntceSpecFileNm3,ntceSpecFileNm4,ntceSpecFileNm5,ntceSpecFileNm6,ntceSpecFileNm7,ntceSpecFileNm8,ntceSpecFileNm9,ntceSpecFileNm10,rbidPermsnYn,pqApplDocRcptMthdNm,pqApplDocRcptDt,tpEvalApplMthdNm,tpEvalApplClseDt,jntcontrctDutyRgnNm1,jntcontrctDutyRgnNm2,jntcontrctDutyRgnNm3,rgnDutyJntcontrctRt,dtlsBidYn,bidPrtcptLmtYn,prearngPrceDcsnMthdNm,totPrdprcNum,drwtPrdprcNum,asignBdgtAmt,presmptPrce,opengPlce,dcmtgOprtnDt,dcmtgOprtnPlce,bidNtceDtlUrl,bidNtceUrl,bidPrtcptFeePaymntYn,bidPrtcptFee,bidGrntymnyPaymntYn,crdtrNm,ppswGnrlSrvceYn,srvceDivNm,prdctClsfcLmtYn,mnfctYn,purchsObjPrdctList,untyNtceNo,cmmnSpldmdMethdCd,cmmnSpldmdMethdNm,stdNtceDocUrl,brffcBidprcPermsnYn,dsgntCmptYn,arsltCmptYn,pqEvalYn,tpEvalYn,ntceDscrptYn,rsrvtnPrceReMkngMthdNm,arsltApplDocRcptMthdNm,arsltReqstdocRcptDt,orderPlanUntyNo,sucsfbidLwltRate,rgstDt,bfSpecRgstNo,infoBizYn,sucsfbidMthdCd,sucsfbidMthdNm,chgDt,linkInsttNm,dminsttOfclEmailAdrs,indstrytyLmtYn,d2bMngRgnLmtYn,d2bMngPblctPlceNm,d2bMngCntrctKindNm,d2bMngCnstwkOutlnCntnts,d2bMngCnstwkPrdCntnts,d2bMngCntrybndDedtBgnDate,d2bMngCntrybndDedtEndDate,d2bMngCnstwkScleCntnts,d2bMngRsrvtnPrceBssOpenYn,d2bMngRsrvtnPrceBssAplYn,d2bMngBssamt,d2bMngUprcSstmTyNm,d2bMngRgstEvalExmpYn,d2bMngCompCorpRsrchObjYn,d2bMngOrgnlbdgtDedtBgnDate,d2bMngOrgnlbdgtDedtEndDate,d2bMngBfEvalObjYn,d2bMngBfEvalClseDt,d2bMngAssmntUplmtRt,d2bMngAssmntLwstlmtRt,d2bMngStdIndstryClsfcCdList,d2bMngPrdctnAbltySbmsnClseDt,d2bMngCnstwkLctNm,d2bMngProgrsSttusNm,d2bMngExetTyNm,d2bMngExetTyCd,d2bMngPrdlstNm,d2bMngPrdlstCd,d2bMngItemNo,d2bMngNgttnStleNm,d2bMngNgttnPlanDate,d2bMngDmndYear,d2bMngDcsnNo,d2bMngCnstwkNo,chgNtceRsn,rbidOpengDt</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,refNtceNo,refNtceOrd,ppsNtceYn,bidNtceNm,bidNtceSttusNm,bidNtceDate,bidNtceBgn,bsnsDivNm,intrntnlBidYn,cmmnCntrctYn,cmmnReciptMethdNm,elctrnBidYn,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,ntceInsttOfclDeptNm,ntceInsttOfclNm,ntceInsttOfclTel,ntceInsttOfclEmailAdrs,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,presnatnOprtnYn,presnatnOprtnDate,presnatnOprtnTm,presnatnOprtnPlce,bidPrtcptQlfctRgstClseDate,bidPrtcptQlfctRgstClseTm,cmmnReciptAgrmntClseDate,cmmnReciptAgrmntClseTm,bidBeginDate,bidBeginTm,bidClseDate,bidClseTm,opengDate,opengTm,opengPlce,asignBdgtAmt,presmptPrce,rsrvtnPrceDcsnMthdNm,rgnLmtYn,prtcptPsblRgnNm,indstrytyLmtYn,bidprcPsblIndstrytyNm,bidNtceUrl,dataBssDate</t>
-  </si>
-  <si>
-    <t>bidNtceNo,bidNtceOrd,bidNtceNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,bidwinrDcsnMthdNm,ntceInsttNm,ntceInsttCd,dmndInsttNm,dmndInsttCd,sucsfLwstlmtRt,presmptPrce,rsrvtnPrce,bssAmt,opengDate,opengTm,opengRsltDivNm,opengRank,bidprcCorpBizrno,bidprcCorpNm,bidprcCorpCeoNm,bidprcAmt,bidprcRt,bidprcDate,bidprcTm,sucsfYn,dqlfctnRsn,fnlSucsfAmt,fnlSucsfRt,fnlSucsfDate,fnlSucsfCorpNm,fnlSucsfCorpCeoNm,fnlSucsfCorpOfclNm,fnlSucsfCorpBizrno,fnlSucsfCorpAdrs,fnlSucsfCorpContactTel,dataBssDate</t>
-  </si>
-  <si>
-    <t>cntrctNo,untyCntrctNo,cntrctOrd,cntrctNm,bsnsDivNm,cntrctCnclsSttusNm,cntrctCnclsMthdNm,lngtrmCtnuDivNm,cmmnCntrctYn,cntrctCnclsDate,cntrctPrd,cntrctAmt,ttalCntrctAmt,cntrctInfoUrl,bidNtceNo,bidNtceOrd,bidNtceNm,opengDate,opengTm,rsrvtnPrce,prvtcntrctRsn,bidNtceUrl,cntrctInsttDivNm,cntrctInsttNm,cntrctInsttCd,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTel,cntrctInsttOfcl,dmndInsttDivNm,dmndInsttNm,dmndInsttCd,dmndInsttOfclDeptNm,dmndInsttOfclNm,dmndInsttOfclTel,dmndInsttOfclEmailAdrs,rprsntCorpNm,dmstcCorpYn,rprsntCorpCeoNm,rprsntCorpOfclNm,rprsntCorpBizrno,rprsntCorpAdrs,rprsntCorpContactTel,dataBssDate</t>
-  </si>
-  <si>
-    <t>untyCntrctNo,bsnsDivNm,dcsnCntrctNo,cntrctRefNo,cnstwkNm,cmmnCntrctYn,lngtrmCtnuDivNm,cntrctCnclsDate,cntrctPrd,baseLawNm,totCntrctAmt,thtmCntrctAmt,grntymnyRate,cntrctInfoUrl,payDivNm,reqNo,ntceNo,cntrctInsttCd,cntrctInsttNm,cntrctInsttJrsdctnDivNm,cntrctInsttChrgDeptNm,cntrctInsttOfclNm,cntrctInsttOfclTelNo,cntrctInsttOfclFaxNo,dminsttList,corpList,cntrctDtlInfoUrl,crdtrNm,baseDtls,cntrctCnclsMthdNm,prcesChangeAplBssCd,prcesChangeAplBssNm,rgstDt,chgDt,dfrcmpnstRt,cbgnDate,thtmCcmpltDate,ttalCcmpltDate,linkInsttNm,d2bMngCntrctSttusNm,d2bMngPrearngAmt,d2bMngBidMthdNm,d2bMngCnstwkNo</t>
-  </si>
-  <si>
-    <t>untyCntrctNo,srvceSno,rprsntYn,indstrytyNm,cnstrtsiteRgnNm,cnstwkAmt,rltnCorpNm</t>
-  </si>
-  <si>
-    <t>dltDt,chgDivNm,untyCntrctNo,dcsnCntrctNo,cntrctRefNo,rgstDt,chgDt</t>
-  </si>
-  <si>
-    <t>../../output/조달청/낙찰된 목록 현황 공사조회/getScsbidListSttusCnstwk.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/낙찰된 목록 현황 용역조회/getScsbidListSttusServc.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/개찰결과 공사 목록 조회/getOpengResultListInfoCnstwk.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/개찰결과 용역 목록 조회/getOpengResultListInfoServc.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwkPreparPcDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/개찰결과 공사 예비가격상세 목록 조회/getOpengResultListInfoCnstwkPreparPcDetail.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoServcPreparPcDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/개찰결과 용역 예비가격상세 목록 조회/getOpengResultListInfoServcPreparPcDetail.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터 검색조건에 의한 낙찰된 목록 현황 공사조회/getScsbidListSttusCnstwkPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getScsbidListSttusServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터 검색조건에 의한 낙찰된 목록 현황 용역조회/getScsbidListSttusServcPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터 검색조건에 의한 개찰결과 공사 목록 조회/getOpengResultListInfoCnstwkPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getOpengResultListInfoServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터 검색조건에 의한 개찰결과 용역 목록 조회/getOpengResultListInfoServcPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 공사조회/getBidPblancListInfoCnstwk.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 용역조회/getBidPblancListInfoServc.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoCnstwkBsisAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 공사기초금액조회/getBidPblancListInfoCnstwkBsisAmount.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoServcBsisAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 용역기초금액조회/getBidPblancListInfoServcBsisAmount.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoChgHstryCnstwk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 공사변경이력조회/getBidPblancListInfoChgHstryCnstwk.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoChgHstryServc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/입찰공고목록 정보에 대한 용역변경이력조회/getBidPblancListInfoChgHstryServc.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoCnstwkPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터검색조건에 의한 입찰공고공사조회/getBidPblancListInfoCnstwkPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBidPblancListInfoServcPPSSrch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/나라장터검색조건에 의한 입찰공고용역조회/getBidPblancListInfoServcPPSSrch.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdBidPblancInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 개방표준에 따른 입찰공고정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/데이터셋 개방표준에 따른 입찰공고정보/getDataSetOpnStdBidPblancInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdScsbidInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터셋 개방표준에 따른 낙찰정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/데이터셋 개방표준에 따른 낙찰정보/getDataSetOpnStdScsbidInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDataSetOpnStdCntrctInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/조달청/데이터셋 개방표준에 따른 계약정보/getDataSetOpnStdCntrctInfo.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=201605010000&amp;inqryEndDt=201605052359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=&amp;inqryDiv=&amp;inqryBgnDt=&amp;inqryEndDt=201605052359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=&amp;pageNo=&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;inqryDiv=1&amp;inqryBgnDt=200201010000&amp;inqryEndDt=200201012359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bidNtceBgnDt=201712010000&amp;bidNtceEndDt=201712312359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;bsnsDivCd=3&amp;opengBgnDt=201712010000&amp;opengEndDt=201712312359</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numOfRows=999&amp;pageNo=1&amp;ServiceKey=t1howSPLxqyKOseR6gxDm7IGYVVLGc%2Bw3wF7N4e9ufwr2g9sttHbYCQTR4dBbiVc16v1tnmTEkn%2FbaD6et%2FL6g%3D%3D&amp;type=json&amp;cntrctCnclsBgnDate=20171201&amp;cntrctCnclsEndDate=20171231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusServc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 - 기상관측일자료목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 - 토지임야목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 - 토지특성속성조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통계청 - 표준지공시지가속성조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상관측일자료목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지임야목록조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지특성속성조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준지공시지가속성조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,numOfRows,pageNo,dataType,dataCd,dateCd,startDt,endDt,stnIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,numOfRows,dataCd,dateCd,startDt,endDt,stnIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/통계청/기상관측일자료목록조회/getWthrDataList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWthrDataList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;numOfRows=999&amp;pageNo=1&amp;dataType=JSON&amp;dataCd=ASOS&amp;dateCd=DAY&amp;startDt=20120101&amp;endDt=20220401&amp;stnIds=108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1360000/AsosDalyInfoService/getWthrDataList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상청02_지상(종관ASOS)일자료_조회서비스_오픈API활용가이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stnId,stnNm,tm,avgTa,minTa,minTaHrmt,maxTa,maxTaHrmt,sumRnDur,mi10MaxRn,mi10MaxRnHrmt,hr1MaxRn,hr1MaxRnHrmt,sumRn,maxInsWs,maxInsWsWd,maxInsWsHrmt,maxWs,maxWsWd,maxWsHrmt,avgWs,hr24SumRws,maxWd,avgTd ,minRhm,minRhmHrmt,avgRhm,avgPv,avgPa,maxPs,maxPsHrmt,minPs,minPsHrmt,avgPs,ssDur,sumSsHr,hr1MaxIcsrHrmt,hr1MaxIcsr,sumGsr,ddMefs,ddMefsHrmt,ddMes,ddMesHrmt,sumDpthFhsc,avgTca,avgLmac,avgTs,minTg,avgCm5Te,avgCm10Te,avgCm20Te,avgCm30Te,avgM05Te,avgM10Te,avgM15Te,avgM30Te,avgM50Te,sumLrgEv,sumSmlEv,n99Rn,iscs,sumFogDur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1611000/nsdi/eios/LadfrlService/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ladfrlList.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,pnu,numOfRows,pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,pnu,numOfRows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/통계청/토지임야목록조회/ladfrlList.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;pnu=&amp;numOfRows=&amp;pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약현황에대한공사조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한공사서비스정보조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한계약현황공사조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한공사변경이력조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한공사삭제이력조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한용역조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한일반용역서비스정보조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한기술용역서비스정보조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한계약현황용역조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한용역변경이력조회</t>
+  </si>
+  <si>
+    <t>계약현황에대한용역삭제이력조회</t>
+  </si>
+  <si>
+    <t>낙찰된목록현황공사조회</t>
+  </si>
+  <si>
+    <t>낙찰된목록현황용역조회</t>
+  </si>
+  <si>
+    <t>개찰결과공사목록조회</t>
+  </si>
+  <si>
+    <t>개찰결과용역목록조회</t>
+  </si>
+  <si>
+    <t>개찰결과공사예비가격상세목록조회</t>
+  </si>
+  <si>
+    <t>개찰결과용역예비가격상세목록조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한낙찰된목록현황공사조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한낙찰된목록현황용역조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한개찰결과공사목록조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한개찰결과용역목록조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한공사조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한용역조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한공사기초금액조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한용역기초금액조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한공사변경이력조회</t>
+  </si>
+  <si>
+    <t>입찰공고목록정보에대한용역변경이력조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한입찰공고공사조회</t>
+  </si>
+  <si>
+    <t>나라장터검색조건에의한입찰공고용역조회</t>
+  </si>
+  <si>
+    <t>데이터셋개방표준에따른입찰공고정보</t>
+  </si>
+  <si>
+    <t>데이터셋개방표준에따른낙찰정보</t>
+  </si>
+  <si>
+    <t>데이터셋개방표준에따른계약정보</t>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListCnstwkServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListCnstwkChgHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListCnstwkDltHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListGnrlServcServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListTechServcServcInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListServcChgHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getCntrctInfoListServcDltHstry.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getScsbidListSttusCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getScsbidListSttusServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoCnstwkPreparPcDetail.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoServcPreparPcDetail.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getScsbidListSttusCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getScsbidListSttusServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getOpengResultListInfoServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoCnstwkBsisAmount.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoServcBsisAmount.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoChgHstryCnstwk.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoChgHstryServc.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoCnstwkPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getBidPblancListInfoServcPPSSrch.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getDataSetOpnStdBidPblancInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getDataSetOpnStdScsbidInfo.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/pps/getDataSetOpnStdCntrctInfo.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2487,7 +2572,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2497,6 +2582,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,7 +2639,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2666,20 +2757,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2 10 2" xfId="1"/>
-    <cellStyle name="표준 2 67" xfId="2"/>
+    <cellStyle name="표준 2 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2 67" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3046,7 +3173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3058,28 +3185,28 @@
       <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="70.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" customWidth="1"/>
+    <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="35.625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" customWidth="1"/>
-    <col min="14" max="16" width="19.625" customWidth="1"/>
-    <col min="17" max="17" width="38.625" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.625" customWidth="1"/>
-    <col min="21" max="21" width="24.625" customWidth="1"/>
-    <col min="22" max="23" width="20.625" customWidth="1"/>
-    <col min="24" max="24" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="35.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.09765625" customWidth="1"/>
+    <col min="14" max="16" width="19.59765625" customWidth="1"/>
+    <col min="17" max="17" width="38.59765625" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.59765625" customWidth="1"/>
+    <col min="21" max="21" width="24.59765625" customWidth="1"/>
+    <col min="22" max="23" width="20.59765625" customWidth="1"/>
+    <col min="24" max="24" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3108,13 +3235,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
@@ -3126,7 +3253,7 @@
         <v>10</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -3153,7 +3280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3182,13 +3309,13 @@
         <v>44</v>
       </c>
       <c r="J2" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="K2" s="30" t="s">
-        <v>330</v>
-      </c>
       <c r="L2" s="31" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>27</v>
@@ -3200,7 +3327,7 @@
         <v>27</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="Q2" s="6" t="s">
         <v>28</v>
@@ -3227,7 +3354,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3256,13 +3383,13 @@
         <v>43</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L3" s="31" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>27</v>
@@ -3274,7 +3401,7 @@
         <v>27</v>
       </c>
       <c r="P3" s="23" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>31</v>
@@ -3299,7 +3426,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3328,13 +3455,13 @@
         <v>38</v>
       </c>
       <c r="J4" s="32" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="K4" s="32" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>27</v>
@@ -3346,10 +3473,10 @@
         <v>27</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="R4" s="4" t="s">
         <v>35</v>
@@ -3371,7 +3498,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3400,13 +3527,13 @@
         <v>39</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="L5" s="31" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M5" s="5" t="s">
         <v>27</v>
@@ -3418,7 +3545,7 @@
         <v>27</v>
       </c>
       <c r="P5" s="23" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>40</v>
@@ -3443,7 +3570,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3472,13 +3599,13 @@
         <v>45</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="L6" s="31" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="M6" s="5" t="s">
         <v>27</v>
@@ -3490,7 +3617,7 @@
         <v>27</v>
       </c>
       <c r="P6" s="23" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>48</v>
@@ -3515,7 +3642,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3544,13 +3671,13 @@
         <v>47</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="L7" s="31" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>27</v>
@@ -3562,7 +3689,7 @@
         <v>27</v>
       </c>
       <c r="P7" s="23" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>49</v>
@@ -3587,7 +3714,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3616,13 +3743,13 @@
         <v>52</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="L8" s="31" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>27</v>
@@ -3634,7 +3761,7 @@
         <v>27</v>
       </c>
       <c r="P8" s="23" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>53</v>
@@ -3659,7 +3786,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3688,13 +3815,13 @@
         <v>61</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L9" s="31" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="M9" s="5" t="s">
         <v>27</v>
@@ -3706,7 +3833,7 @@
         <v>27</v>
       </c>
       <c r="P9" s="23" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>56</v>
@@ -3731,7 +3858,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3760,13 +3887,13 @@
         <v>62</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="K10" s="29" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L10" s="31" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="M10" s="5" t="s">
         <v>27</v>
@@ -3778,7 +3905,7 @@
         <v>27</v>
       </c>
       <c r="P10" s="23" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>63</v>
@@ -3803,7 +3930,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3832,13 +3959,13 @@
         <v>67</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L11" s="31" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M11" s="5" t="s">
         <v>27</v>
@@ -3850,7 +3977,7 @@
         <v>27</v>
       </c>
       <c r="P11" s="23" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>65</v>
@@ -3875,7 +4002,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3904,13 +4031,13 @@
         <v>70</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L12" s="31" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>27</v>
@@ -3922,7 +4049,7 @@
         <v>27</v>
       </c>
       <c r="P12" s="23" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>68</v>
@@ -3947,7 +4074,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3976,13 +4103,13 @@
         <v>71</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L13" s="31" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="M13" s="5" t="s">
         <v>27</v>
@@ -3994,7 +4121,7 @@
         <v>27</v>
       </c>
       <c r="P13" s="23" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>72</v>
@@ -4019,7 +4146,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4048,13 +4175,13 @@
         <v>74</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L14" s="31" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="M14" s="5" t="s">
         <v>27</v>
@@ -4066,7 +4193,7 @@
         <v>27</v>
       </c>
       <c r="P14" s="23" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>75</v>
@@ -4091,7 +4218,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4120,13 +4247,13 @@
         <v>79</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L15" s="31" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="M15" s="5" t="s">
         <v>27</v>
@@ -4138,7 +4265,7 @@
         <v>27</v>
       </c>
       <c r="P15" s="23" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>77</v>
@@ -4163,7 +4290,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4192,13 +4319,13 @@
         <v>82</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="L16" s="31" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>27</v>
@@ -4210,7 +4337,7 @@
         <v>27</v>
       </c>
       <c r="P16" s="23" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>80</v>
@@ -4235,7 +4362,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4264,13 +4391,13 @@
         <v>86</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="L17" s="31" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>27</v>
@@ -4282,7 +4409,7 @@
         <v>27</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>83</v>
@@ -4307,7 +4434,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4336,13 +4463,13 @@
         <v>87</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="M18" s="5" t="s">
         <v>27</v>
@@ -4354,7 +4481,7 @@
         <v>27</v>
       </c>
       <c r="P18" s="23" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>88</v>
@@ -4379,7 +4506,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4408,13 +4535,13 @@
         <v>90</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="L19" s="31" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="M19" s="5" t="s">
         <v>27</v>
@@ -4426,7 +4553,7 @@
         <v>27</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>91</v>
@@ -4451,7 +4578,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4480,13 +4607,13 @@
         <v>94</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="L20" s="31" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>27</v>
@@ -4498,7 +4625,7 @@
         <v>27</v>
       </c>
       <c r="P20" s="23" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="Q20" s="6" t="s">
         <v>97</v>
@@ -4523,7 +4650,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="247.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="261" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4552,13 +4679,13 @@
         <v>100</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="L21" s="31" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M21" s="5" t="s">
         <v>27</v>
@@ -4570,7 +4697,7 @@
         <v>27</v>
       </c>
       <c r="P21" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>98</v>
@@ -4595,7 +4722,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4624,13 +4751,13 @@
         <v>102</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="L22" s="31" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="M22" s="5" t="s">
         <v>27</v>
@@ -4642,7 +4769,7 @@
         <v>27</v>
       </c>
       <c r="P22" s="23" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>103</v>
@@ -4667,7 +4794,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4696,13 +4823,13 @@
         <v>106</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="L23" s="31" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>27</v>
@@ -4714,7 +4841,7 @@
         <v>27</v>
       </c>
       <c r="P23" s="23" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>107</v>
@@ -4739,7 +4866,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4768,13 +4895,13 @@
         <v>110</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="L24" s="31" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>27</v>
@@ -4786,7 +4913,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="23" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>111</v>
@@ -4811,7 +4938,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4840,13 +4967,13 @@
         <v>113</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="L25" s="31" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="M25" s="5" t="s">
         <v>27</v>
@@ -4858,7 +4985,7 @@
         <v>27</v>
       </c>
       <c r="P25" s="23" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="Q25" s="6" t="s">
         <v>114</v>
@@ -4883,7 +5010,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4912,13 +5039,13 @@
         <v>116</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M26" s="5" t="s">
         <v>27</v>
@@ -4930,7 +5057,7 @@
         <v>27</v>
       </c>
       <c r="P26" s="23" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="Q26" s="6" t="s">
         <v>117</v>
@@ -4955,7 +5082,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4984,13 +5111,13 @@
         <v>120</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L27" s="31" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="M27" s="5" t="s">
         <v>27</v>
@@ -5002,7 +5129,7 @@
         <v>27</v>
       </c>
       <c r="P27" s="23" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="Q27" s="6" t="s">
         <v>121</v>
@@ -5027,7 +5154,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5056,13 +5183,13 @@
         <v>125</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L28" s="31" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>27</v>
@@ -5074,7 +5201,7 @@
         <v>27</v>
       </c>
       <c r="P28" s="23" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="Q28" s="6" t="s">
         <v>126</v>
@@ -5099,7 +5226,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5128,13 +5255,13 @@
         <v>128</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L29" s="31" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M29" s="5" t="s">
         <v>27</v>
@@ -5146,7 +5273,7 @@
         <v>27</v>
       </c>
       <c r="P29" s="23" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>129</v>
@@ -5171,7 +5298,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5200,13 +5327,13 @@
         <v>132</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L30" s="31" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="M30" s="5" t="s">
         <v>27</v>
@@ -5218,7 +5345,7 @@
         <v>27</v>
       </c>
       <c r="P30" s="23" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>133</v>
@@ -5243,7 +5370,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5272,13 +5399,13 @@
         <v>135</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L31" s="31" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>27</v>
@@ -5290,7 +5417,7 @@
         <v>27</v>
       </c>
       <c r="P31" s="23" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>136</v>
@@ -5315,7 +5442,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5344,13 +5471,13 @@
         <v>138</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L32" s="31" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>27</v>
@@ -5362,7 +5489,7 @@
         <v>27</v>
       </c>
       <c r="P32" s="23" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="Q32" s="6" t="s">
         <v>139</v>
@@ -5387,7 +5514,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5416,13 +5543,13 @@
         <v>141</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L33" s="31" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>27</v>
@@ -5434,7 +5561,7 @@
         <v>27</v>
       </c>
       <c r="P33" s="23" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="Q33" s="6" t="s">
         <v>142</v>
@@ -5459,7 +5586,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5470,7 +5597,7 @@
         <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>228</v>
@@ -5488,13 +5615,13 @@
         <v>143</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L34" s="31" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="M34" s="5" t="s">
         <v>27</v>
@@ -5506,7 +5633,7 @@
         <v>27</v>
       </c>
       <c r="P34" s="23" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Q34" s="6" t="s">
         <v>144</v>
@@ -5531,7 +5658,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5560,13 +5687,13 @@
         <v>146</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L35" s="31" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="M35" s="5" t="s">
         <v>27</v>
@@ -5578,7 +5705,7 @@
         <v>27</v>
       </c>
       <c r="P35" s="23" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="Q35" s="6" t="s">
         <v>147</v>
@@ -5603,7 +5730,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5632,13 +5759,13 @@
         <v>149</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L36" s="31" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>27</v>
@@ -5650,7 +5777,7 @@
         <v>27</v>
       </c>
       <c r="P36" s="23" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="Q36" s="6" t="s">
         <v>150</v>
@@ -5675,7 +5802,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5704,13 +5831,13 @@
         <v>152</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="L37" s="31" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="M37" s="5" t="s">
         <v>27</v>
@@ -5722,7 +5849,7 @@
         <v>27</v>
       </c>
       <c r="P37" s="23" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Q37" s="6" t="s">
         <v>153</v>
@@ -5747,7 +5874,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="363" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="365.4" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5776,13 +5903,13 @@
         <v>156</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L38" s="31" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>27</v>
@@ -5794,7 +5921,7 @@
         <v>27</v>
       </c>
       <c r="P38" s="24" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="Q38" s="6" t="s">
         <v>155</v>
@@ -5819,7 +5946,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5848,13 +5975,13 @@
         <v>158</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L39" s="31" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="M39" s="15" t="s">
         <v>27</v>
@@ -5866,7 +5993,7 @@
         <v>27</v>
       </c>
       <c r="P39" s="25" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="Q39" s="6" t="s">
         <v>159</v>
@@ -5891,7 +6018,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5920,13 +6047,13 @@
         <v>210</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="L40" s="31" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>27</v>
@@ -5938,7 +6065,7 @@
         <v>27</v>
       </c>
       <c r="P40" s="23" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Q40" s="6" t="s">
         <v>165</v>
@@ -5963,7 +6090,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5992,13 +6119,13 @@
         <v>211</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="L41" s="31" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M41" s="5" t="s">
         <v>27</v>
@@ -6010,7 +6137,7 @@
         <v>27</v>
       </c>
       <c r="P41" s="23" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>166</v>
@@ -6035,7 +6162,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6064,13 +6191,13 @@
         <v>212</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="L42" s="31" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="M42" s="5" t="s">
         <v>27</v>
@@ -6082,7 +6209,7 @@
         <v>27</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Q42" s="6" t="s">
         <v>169</v>
@@ -6107,7 +6234,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6136,13 +6263,13 @@
         <v>213</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="L43" s="31" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M43" s="5" t="s">
         <v>27</v>
@@ -6154,7 +6281,7 @@
         <v>27</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="Q43" s="6" t="s">
         <v>172</v>
@@ -6179,7 +6306,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6208,13 +6335,13 @@
         <v>214</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="L44" s="31" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>27</v>
@@ -6226,7 +6353,7 @@
         <v>27</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="Q44" s="6" t="s">
         <v>174</v>
@@ -6251,7 +6378,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -6280,13 +6407,13 @@
         <v>215</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="L45" s="31" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M45" s="5" t="s">
         <v>27</v>
@@ -6298,7 +6425,7 @@
         <v>27</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="Q45" s="6" t="s">
         <v>177</v>
@@ -6323,7 +6450,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6352,13 +6479,13 @@
         <v>216</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L46" s="31" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="M46" s="5" t="s">
         <v>27</v>
@@ -6370,7 +6497,7 @@
         <v>27</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="Q46" s="6" t="s">
         <v>181</v>
@@ -6395,7 +6522,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6424,13 +6551,13 @@
         <v>217</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L47" s="31" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>27</v>
@@ -6442,7 +6569,7 @@
         <v>27</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="Q47" s="6" t="s">
         <v>185</v>
@@ -6467,7 +6594,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6496,13 +6623,13 @@
         <v>218</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="L48" s="31" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>27</v>
@@ -6514,7 +6641,7 @@
         <v>27</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="Q48" s="6" t="s">
         <v>187</v>
@@ -6539,7 +6666,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6568,13 +6695,13 @@
         <v>219</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L49" s="31" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>27</v>
@@ -6586,7 +6713,7 @@
         <v>27</v>
       </c>
       <c r="P49" s="23" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="Q49" s="6" t="s">
         <v>190</v>
@@ -6611,7 +6738,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="99" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6640,13 +6767,13 @@
         <v>220</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="L50" s="31" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>27</v>
@@ -6658,7 +6785,7 @@
         <v>27</v>
       </c>
       <c r="P50" s="23" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="Q50" s="6" t="s">
         <v>192</v>
@@ -6683,7 +6810,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="198" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:24" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6712,13 +6839,13 @@
         <v>221</v>
       </c>
       <c r="J51" s="17" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="L51" s="31" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="M51" s="5" t="s">
         <v>27</v>
@@ -6730,7 +6857,7 @@
         <v>27</v>
       </c>
       <c r="P51" s="23" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="Q51" s="6" t="s">
         <v>195</v>
@@ -6755,7 +6882,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:24" ht="330.6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6784,13 +6911,13 @@
         <v>222</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L52" s="31" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="M52" s="5" t="s">
         <v>27</v>
@@ -6802,7 +6929,7 @@
         <v>27</v>
       </c>
       <c r="P52" s="23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q52" s="6" t="s">
         <v>197</v>
@@ -6827,7 +6954,7 @@
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -6856,13 +6983,13 @@
         <v>223</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="L53" s="31" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M53" s="5" t="s">
         <v>27</v>
@@ -6874,7 +7001,7 @@
         <v>27</v>
       </c>
       <c r="P53" s="23" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="Q53" s="6" t="s">
         <v>199</v>
@@ -6899,7 +7026,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -6928,13 +7055,13 @@
         <v>224</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="L54" s="31" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="M54" s="5" t="s">
         <v>27</v>
@@ -6946,7 +7073,7 @@
         <v>27</v>
       </c>
       <c r="P54" s="23" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="Q54" s="6" t="s">
         <v>201</v>
@@ -6971,7 +7098,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:24" ht="87" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -7000,13 +7127,13 @@
         <v>225</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="L55" s="31" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="M55" s="5" t="s">
         <v>27</v>
@@ -7018,7 +7145,7 @@
         <v>27</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="Q55" s="6" t="s">
         <v>204</v>
@@ -7043,7 +7170,7 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -7072,13 +7199,13 @@
         <v>226</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L56" s="31" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="M56" s="5" t="s">
         <v>27</v>
@@ -7090,7 +7217,7 @@
         <v>27</v>
       </c>
       <c r="P56" s="23" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="Q56" s="6" t="s">
         <v>206</v>
@@ -7115,7 +7242,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="66" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -7144,13 +7271,13 @@
         <v>227</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="L57" s="31" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M57" s="5" t="s">
         <v>27</v>
@@ -7162,7 +7289,7 @@
         <v>27</v>
       </c>
       <c r="P57" s="23" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="Q57" s="6" t="s">
         <v>209</v>
@@ -7190,62 +7317,62 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P3" r:id="rId1"/>
-    <hyperlink ref="P4" r:id="rId2"/>
-    <hyperlink ref="P5" r:id="rId3"/>
-    <hyperlink ref="P6" r:id="rId4"/>
-    <hyperlink ref="P7" r:id="rId5"/>
-    <hyperlink ref="P8" r:id="rId6"/>
-    <hyperlink ref="P9" r:id="rId7"/>
-    <hyperlink ref="P10" r:id="rId8"/>
-    <hyperlink ref="P11" r:id="rId9"/>
-    <hyperlink ref="P12" r:id="rId10"/>
-    <hyperlink ref="P13" r:id="rId11"/>
-    <hyperlink ref="P14" r:id="rId12"/>
-    <hyperlink ref="P15" r:id="rId13"/>
-    <hyperlink ref="P16" r:id="rId14"/>
-    <hyperlink ref="P17" r:id="rId15"/>
-    <hyperlink ref="P18" r:id="rId16"/>
-    <hyperlink ref="P19" r:id="rId17"/>
-    <hyperlink ref="P20" r:id="rId18"/>
-    <hyperlink ref="P21" r:id="rId19"/>
-    <hyperlink ref="P22" r:id="rId20"/>
-    <hyperlink ref="P23" r:id="rId21"/>
-    <hyperlink ref="P24" r:id="rId22"/>
-    <hyperlink ref="P25" r:id="rId23"/>
-    <hyperlink ref="P26" r:id="rId24"/>
-    <hyperlink ref="P27" r:id="rId25"/>
-    <hyperlink ref="P28" r:id="rId26"/>
-    <hyperlink ref="P29" r:id="rId27"/>
-    <hyperlink ref="P30" r:id="rId28"/>
-    <hyperlink ref="P31" r:id="rId29"/>
-    <hyperlink ref="P32" r:id="rId30"/>
-    <hyperlink ref="P33" r:id="rId31"/>
-    <hyperlink ref="P34" r:id="rId32"/>
-    <hyperlink ref="P35" r:id="rId33"/>
-    <hyperlink ref="P36" r:id="rId34"/>
-    <hyperlink ref="P37" r:id="rId35"/>
-    <hyperlink ref="P38" r:id="rId36"/>
-    <hyperlink ref="P39" r:id="rId37"/>
-    <hyperlink ref="P40" r:id="rId38"/>
-    <hyperlink ref="P41" r:id="rId39"/>
-    <hyperlink ref="P42" r:id="rId40"/>
-    <hyperlink ref="P43" r:id="rId41"/>
-    <hyperlink ref="P44" r:id="rId42"/>
-    <hyperlink ref="P45" r:id="rId43"/>
-    <hyperlink ref="P46" r:id="rId44"/>
-    <hyperlink ref="P47" r:id="rId45"/>
-    <hyperlink ref="P48" r:id="rId46"/>
-    <hyperlink ref="P49" r:id="rId47"/>
-    <hyperlink ref="P50" r:id="rId48"/>
-    <hyperlink ref="P51" r:id="rId49"/>
-    <hyperlink ref="P52" r:id="rId50"/>
-    <hyperlink ref="P53" r:id="rId51"/>
-    <hyperlink ref="P54" r:id="rId52"/>
-    <hyperlink ref="P55" r:id="rId53"/>
-    <hyperlink ref="P56" r:id="rId54"/>
-    <hyperlink ref="P57" r:id="rId55"/>
-    <hyperlink ref="P2" r:id="rId56"/>
+    <hyperlink ref="P3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="P4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="P5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="P6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="P7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="P9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="P10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="P11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="P12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="P13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="P14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="P15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="P16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="P17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="P18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="P19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="P20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="P21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="P22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="P23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="P24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="P25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="P26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="P27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="P28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="P29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="P30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="P31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="P32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="P33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="P34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="P35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="P36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="P37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="P38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="P39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="P40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="P41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="P42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="P43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="P44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="P45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="P46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="P47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="P48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="P49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="P50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="P51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="P52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="P53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="P54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="P55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="P56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="P57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="P2" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId57"/>
@@ -7263,37 +7390,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.875" style="11" customWidth="1"/>
-    <col min="10" max="13" width="11.875" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
+    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
     <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
     <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7322,13 +7449,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="L1" s="19" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>9</v>
@@ -7340,7 +7467,7 @@
         <v>231</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="Q1" s="20" t="s">
         <v>11</v>
@@ -7367,79 +7494,79 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    <row r="2" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="K2" s="44" t="s">
+        <v>431</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>608</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="N2" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="O2" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q2" s="41" t="s">
+        <v>543</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="S2" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>459</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>486</v>
-      </c>
-      <c r="M2" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="N2" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="O2" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P2" s="25" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q2" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="R2" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="S2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U2" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V2" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W2" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="34"/>
+      <c r="W2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="43"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -7450,13 +7577,13 @@
         <v>19</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>241</v>
+        <v>577</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>26</v>
@@ -7465,34 +7592,34 @@
         <v>29</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>566</v>
+        <v>512</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="L3" s="37" t="s">
-        <v>487</v>
+        <v>609</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="N3" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O3" s="16" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="P3" s="25" t="s">
-        <v>502</v>
+        <v>460</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>503</v>
+        <v>552</v>
       </c>
       <c r="R3" s="38" t="s">
-        <v>469</v>
+        <v>440</v>
       </c>
       <c r="S3" s="37" t="s">
         <v>20</v>
@@ -7501,305 +7628,305 @@
         <v>233</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X3" s="34"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+    <row r="4" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="42" t="s">
+        <v>578</v>
+      </c>
+      <c r="E4" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N4" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O4" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q4" s="41" t="s">
+        <v>544</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="S4" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V4" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="43"/>
+    </row>
+    <row r="5" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>511</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N5" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O5" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q5" s="41" t="s">
+        <v>545</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>445</v>
+      </c>
+      <c r="S5" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V5" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="43"/>
+    </row>
+    <row r="6" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F6" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="J6" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="M6" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N6" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O6" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>542</v>
+      </c>
+      <c r="R6" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="S6" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U6" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V6" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="43"/>
+    </row>
+    <row r="7" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>581</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>423</v>
+      </c>
+      <c r="G7" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="J4" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="K4" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="L4" s="37" t="s">
-        <v>488</v>
-      </c>
-      <c r="M4" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>505</v>
-      </c>
-      <c r="R4" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="S4" s="37" t="s">
+      <c r="I7" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="L7" s="45" t="s">
+        <v>613</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="N7" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q7" s="41" t="s">
+        <v>551</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>437</v>
+      </c>
+      <c r="S7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T7" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V4" s="16" t="s">
+      <c r="U7" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="W4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="34"/>
+      <c r="V7" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X7" s="43"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F5" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>565</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>489</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O5" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P5" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q5" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="R5" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="S5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V5" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="34"/>
-    </row>
-    <row r="6" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
-        <v>5</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="K6" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="L6" s="37" t="s">
-        <v>490</v>
-      </c>
-      <c r="M6" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N6" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O6" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P6" s="25" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q6" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="R6" s="37" t="s">
-        <v>476</v>
-      </c>
-      <c r="S6" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V6" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="34"/>
-    </row>
-    <row r="7" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
-        <v>6</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>430</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>446</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="L7" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="M7" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="N7" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O7" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="R7" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="S7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V7" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="34"/>
-    </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.4">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -7810,13 +7937,13 @@
         <v>19</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>431</v>
+        <v>582</v>
       </c>
       <c r="E8" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>26</v>
@@ -7825,34 +7952,34 @@
         <v>29</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>550</v>
+        <v>496</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>492</v>
+        <v>614</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="N8" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O8" s="16" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="P8" s="25" t="s">
-        <v>512</v>
+        <v>465</v>
       </c>
       <c r="Q8" s="17" t="s">
-        <v>513</v>
+        <v>466</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="S8" s="37" t="s">
         <v>20</v>
@@ -7861,17 +7988,17 @@
         <v>233</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W8" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X8" s="34"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -7882,13 +8009,13 @@
         <v>19</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>432</v>
+        <v>583</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>26</v>
@@ -7897,34 +8024,34 @@
         <v>29</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>551</v>
+        <v>497</v>
       </c>
       <c r="J9" s="37" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
       <c r="K9" s="37" t="s">
+        <v>438</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="M9" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O9" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P9" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="L9" s="37" t="s">
-        <v>493</v>
-      </c>
-      <c r="M9" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N9" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O9" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P9" s="25" t="s">
-        <v>514</v>
-      </c>
       <c r="Q9" s="17" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="R9" s="37" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="S9" s="37" t="s">
         <v>20</v>
@@ -7933,17 +8060,17 @@
         <v>233</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X9" s="34"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -7954,13 +8081,13 @@
         <v>19</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>434</v>
+        <v>584</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F10" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>26</v>
@@ -7969,34 +8096,34 @@
         <v>29</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>552</v>
+        <v>498</v>
       </c>
       <c r="J10" s="37" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>471</v>
+        <v>442</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>494</v>
+        <v>616</v>
       </c>
       <c r="M10" s="36" t="s">
+        <v>428</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q10" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="R10" s="37" t="s">
         <v>451</v>
-      </c>
-      <c r="N10" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P10" s="25" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q10" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="R10" s="37" t="s">
-        <v>481</v>
       </c>
       <c r="S10" s="37" t="s">
         <v>20</v>
@@ -8005,1330 +8132,1330 @@
         <v>233</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="V10" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X10" s="34"/>
     </row>
-    <row r="11" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+    <row r="11" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A11" s="41">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>435</v>
-      </c>
-      <c r="E11" s="36" t="s">
+      <c r="D11" s="42" t="s">
+        <v>585</v>
+      </c>
+      <c r="E11" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="36" t="s">
+      <c r="F11" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="18" t="s">
-        <v>552</v>
-      </c>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="J11" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="K11" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="L11" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="M11" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N11" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O11" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P11" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q11" s="41" t="s">
+        <v>549</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="S11" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U11" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V11" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="43"/>
+    </row>
+    <row r="12" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A12" s="41">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>586</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="J12" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="K12" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>618</v>
+      </c>
+      <c r="M12" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O12" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P12" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q12" s="41" t="s">
+        <v>548</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="S12" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U12" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="V12" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="43"/>
+    </row>
+    <row r="13" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A13" s="41">
+        <v>12</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="K13" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L13" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="M13" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q13" s="41" t="s">
+        <v>492</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S13" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T13" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U13" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X13" s="43"/>
+    </row>
+    <row r="14" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A14" s="41">
+        <v>13</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>588</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K14" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L14" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="M14" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O14" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P14" s="46" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q14" s="41" t="s">
+        <v>493</v>
+      </c>
+      <c r="R14" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="S14" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U14" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V14" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X14" s="43"/>
+    </row>
+    <row r="15" spans="1:24" s="47" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+      <c r="A15" s="41">
+        <v>14</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>589</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="J15" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K15" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="M15" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P15" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q15" s="41" t="s">
+        <v>494</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="S15" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U15" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V15" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X15" s="43"/>
+    </row>
+    <row r="16" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="41">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="J16" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K16" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>622</v>
+      </c>
+      <c r="M16" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O16" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P16" s="51" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q16" s="41" t="s">
+        <v>495</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U16" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V16" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X16" s="43"/>
+    </row>
+    <row r="17" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A17" s="41">
+        <v>16</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>591</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="J17" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K17" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L17" s="50" t="s">
+        <v>623</v>
+      </c>
+      <c r="M17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O17" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q17" s="41" t="s">
+        <v>514</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S17" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U17" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V17" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X17" s="43"/>
+    </row>
+    <row r="18" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A18" s="41">
+        <v>17</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>592</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="44" t="s">
+        <v>501</v>
+      </c>
+      <c r="J18" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K18" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L18" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="M18" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O18" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P18" s="46" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q18" s="41" t="s">
+        <v>515</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S18" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T18" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U18" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V18" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X18" s="43"/>
+    </row>
+    <row r="19" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A19" s="41">
+        <v>18</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>593</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="J19" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L19" s="50" t="s">
+        <v>625</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P19" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="K11" s="37" t="s">
-        <v>465</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>495</v>
-      </c>
-      <c r="M11" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O11" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P11" s="25" t="s">
+      <c r="Q19" s="41" t="s">
+        <v>516</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="S19" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X19" s="43"/>
+    </row>
+    <row r="20" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A20" s="41">
+        <v>19</v>
+      </c>
+      <c r="B20" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="44" t="s">
+        <v>499</v>
+      </c>
+      <c r="J20" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K20" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L20" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="M20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P20" s="46" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="R20" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="S20" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T20" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U20" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V20" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="43"/>
+    </row>
+    <row r="21" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A21" s="41">
+        <v>20</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="J21" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K21" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L21" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="M21" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q21" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="R21" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U21" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V21" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="43"/>
+    </row>
+    <row r="22" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A22" s="41">
+        <v>21</v>
+      </c>
+      <c r="B22" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="44" t="s">
+        <v>500</v>
+      </c>
+      <c r="J22" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K22" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L22" s="50" t="s">
+        <v>628</v>
+      </c>
+      <c r="M22" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P22" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q22" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="R22" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="S22" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U22" s="41" t="s">
+        <v>241</v>
+      </c>
+      <c r="V22" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="43"/>
+    </row>
+    <row r="23" spans="1:24" s="47" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="41">
+        <v>22</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>597</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G23" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="44" t="s">
+        <v>502</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K23" s="44" t="s">
+        <v>420</v>
+      </c>
+      <c r="L23" s="50" t="s">
+        <v>629</v>
+      </c>
+      <c r="M23" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="P23" s="52" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q23" s="41" t="s">
+        <v>520</v>
+      </c>
+      <c r="R23" s="45" t="s">
+        <v>422</v>
+      </c>
+      <c r="S23" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T23" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U23" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="V23" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="41"/>
+    </row>
+    <row r="24" spans="1:24" s="47" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="41">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>598</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" s="44" t="s">
+        <v>503</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>425</v>
+      </c>
+      <c r="K24" s="44" t="s">
+        <v>452</v>
+      </c>
+      <c r="L24" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="M24" s="49" t="s">
+        <v>421</v>
+      </c>
+      <c r="N24" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O24" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="P24" s="52" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>521</v>
+      </c>
+      <c r="R24" s="45" t="s">
+        <v>424</v>
+      </c>
+      <c r="S24" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24" s="41" t="s">
+        <v>233</v>
+      </c>
+      <c r="U24" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="V24" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="41"/>
+    </row>
+    <row r="25" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A25" s="41">
+        <v>24</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>599</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>228</v>
+      </c>
+      <c r="F25" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G25" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>504</v>
+      </c>
+      <c r="J25" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K25" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L25" s="50" t="s">
+        <v>631</v>
+      </c>
+      <c r="M25" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="N25" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O25" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P25" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="Q25" s="41" t="s">
+        <v>522</v>
+      </c>
+      <c r="R25" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="S25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="16" t="s">
+      <c r="T25" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U11" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V11" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W11" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="34"/>
+      <c r="U25" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="V25" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W25" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="43"/>
     </row>
-    <row r="12" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
-        <v>11</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="15" t="s">
+    <row r="26" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A26" s="41">
+        <v>25</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C26" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>436</v>
-      </c>
-      <c r="E12" s="36" t="s">
+      <c r="D26" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="E26" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="36" t="s">
-        <v>433</v>
-      </c>
-      <c r="G12" s="36" t="s">
+      <c r="F26" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>567</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>496</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="L12" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="M12" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O12" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P12" s="25" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q12" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="S12" s="37" t="s">
+      <c r="I26" s="44" t="s">
+        <v>505</v>
+      </c>
+      <c r="J26" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="K26" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="L26" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="M26" s="49" t="s">
+        <v>428</v>
+      </c>
+      <c r="N26" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O26" s="41" t="s">
+        <v>428</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q26" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="R26" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="S26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T26" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="V12" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W12" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="34"/>
+      <c r="U26" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="V26" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="43"/>
     </row>
-    <row r="13" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>12</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="15" t="s">
+    <row r="27" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A27" s="41">
+        <v>26</v>
+      </c>
+      <c r="B27" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="E13" s="36" t="s">
+      <c r="D27" s="42" t="s">
+        <v>601</v>
+      </c>
+      <c r="E27" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F13" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G13" s="36" t="s">
+      <c r="F27" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>568</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O13" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P13" s="25" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="R13" s="37" t="s">
-        <v>609</v>
-      </c>
-      <c r="S13" s="37" t="s">
+      <c r="I27" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="J27" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K27" s="53" t="s">
+        <v>455</v>
+      </c>
+      <c r="L27" s="50" t="s">
+        <v>633</v>
+      </c>
+      <c r="M27" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="N27" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O27" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P27" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="Q27" s="41" t="s">
+        <v>524</v>
+      </c>
+      <c r="R27" s="44" t="s">
+        <v>429</v>
+      </c>
+      <c r="S27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="16" t="s">
+      <c r="T27" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V13" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W13" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="34"/>
+      <c r="U27" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="V27" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W27" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="43"/>
     </row>
-    <row r="14" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>13</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="15" t="s">
+    <row r="28" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A28" s="41">
+        <v>27</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>437</v>
-      </c>
-      <c r="E14" s="36" t="s">
+      <c r="D28" s="42" t="s">
+        <v>602</v>
+      </c>
+      <c r="E28" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G14" s="36" t="s">
+      <c r="F28" s="49" t="s">
+        <v>423</v>
+      </c>
+      <c r="G28" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="36" t="s">
+      <c r="H28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L14" s="37" t="s">
-        <v>569</v>
-      </c>
-      <c r="M14" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q14" s="16" t="s">
-        <v>547</v>
-      </c>
-      <c r="R14" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="S14" s="37" t="s">
+      <c r="I28" s="44" t="s">
+        <v>506</v>
+      </c>
+      <c r="J28" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="K28" s="53" t="s">
+        <v>420</v>
+      </c>
+      <c r="L28" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="M28" s="49" t="s">
+        <v>426</v>
+      </c>
+      <c r="N28" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="O28" s="41" t="s">
+        <v>426</v>
+      </c>
+      <c r="P28" s="46" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q28" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="R28" s="44" t="s">
+        <v>454</v>
+      </c>
+      <c r="S28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="16" t="s">
+      <c r="T28" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V14" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" s="34"/>
+      <c r="U28" s="41" t="s">
+        <v>243</v>
+      </c>
+      <c r="V28" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="W28" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="43"/>
     </row>
-    <row r="15" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L15" s="37" t="s">
-        <v>570</v>
-      </c>
-      <c r="M15" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P15" s="39" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q15" s="16" t="s">
-        <v>548</v>
-      </c>
-      <c r="R15" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="S15" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T15" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V15" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="34"/>
-    </row>
-    <row r="16" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L16" s="37" t="s">
-        <v>571</v>
-      </c>
-      <c r="M16" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P16" s="39" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q16" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="R16" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="S16" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T16" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V16" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W16" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" s="34"/>
-    </row>
-    <row r="17" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L17" s="37" t="s">
-        <v>573</v>
-      </c>
-      <c r="M17" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q17" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="R17" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="S17" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T17" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V17" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" s="34"/>
-    </row>
-    <row r="18" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="E18" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L18" s="37" t="s">
-        <v>575</v>
-      </c>
-      <c r="M18" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P18" s="25" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q18" s="16" t="s">
-        <v>574</v>
-      </c>
-      <c r="R18" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="S18" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T18" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V18" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W18" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="34"/>
-    </row>
-    <row r="19" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>18</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L19" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="M19" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>576</v>
-      </c>
-      <c r="R19" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="S19" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V19" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W19" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" s="34"/>
-    </row>
-    <row r="20" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>19</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>440</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>553</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L20" s="37" t="s">
-        <v>579</v>
-      </c>
-      <c r="M20" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O20" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q20" s="16" t="s">
-        <v>578</v>
-      </c>
-      <c r="R20" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="S20" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V20" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W20" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" s="34"/>
-    </row>
-    <row r="21" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>20</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E21" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L21" s="37" t="s">
-        <v>581</v>
-      </c>
-      <c r="M21" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P21" s="25" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q21" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="R21" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="S21" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T21" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U21" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V21" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X21" s="34"/>
-    </row>
-    <row r="22" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>21</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="33" t="s">
-        <v>441</v>
-      </c>
-      <c r="E22" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="L22" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="M22" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P22" s="25" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q22" s="16" t="s">
-        <v>582</v>
-      </c>
-      <c r="R22" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="S22" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T22" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U22" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="V22" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W22" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" s="34"/>
-    </row>
-    <row r="23" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>22</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="J23" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="K23" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="L23" s="37" t="s">
-        <v>585</v>
-      </c>
-      <c r="M23" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="P23" s="40" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q23" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="S23" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" s="16"/>
-    </row>
-    <row r="24" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="16">
-        <v>23</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>442</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="J24" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="K24" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="L24" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="M24" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="N24" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="P24" s="40" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="S24" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T24" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U24" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="V24" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="16"/>
-    </row>
-    <row r="25" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="16">
-        <v>24</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="E25" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I25" s="18" t="s">
-        <v>558</v>
-      </c>
-      <c r="J25" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K25" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="L25" s="37" t="s">
-        <v>589</v>
-      </c>
-      <c r="M25" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="N25" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="R25" s="37" t="s">
-        <v>484</v>
-      </c>
-      <c r="S25" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X25" s="34"/>
-    </row>
-    <row r="26" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="16">
-        <v>25</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I26" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="J26" s="37" t="s">
-        <v>448</v>
-      </c>
-      <c r="K26" s="37" t="s">
-        <v>443</v>
-      </c>
-      <c r="L26" s="37" t="s">
-        <v>591</v>
-      </c>
-      <c r="M26" s="36" t="s">
-        <v>451</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O26" s="16" t="s">
-        <v>451</v>
-      </c>
-      <c r="P26" s="25" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q26" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="R26" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="S26" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T26" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U26" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="V26" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W26" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" s="34"/>
-    </row>
-    <row r="27" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
-        <v>26</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E27" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H27" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I27" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="J27" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K27" s="38" t="s">
-        <v>485</v>
-      </c>
-      <c r="L27" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="M27" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="N27" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O27" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P27" s="25" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q27" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>452</v>
-      </c>
-      <c r="S27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T27" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U27" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="V27" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W27" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="34"/>
-    </row>
-    <row r="28" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="16">
-        <v>27</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>446</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>560</v>
-      </c>
-      <c r="J28" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="K28" s="38" t="s">
-        <v>443</v>
-      </c>
-      <c r="L28" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="M28" s="36" t="s">
-        <v>449</v>
-      </c>
-      <c r="N28" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="O28" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q28" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="S28" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="T28" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="U28" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="V28" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="W28" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" s="34"/>
-    </row>
-    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>28</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>457</v>
+        <v>603</v>
       </c>
       <c r="E29" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>26</v>
@@ -9337,34 +9464,34 @@
         <v>29</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>556</v>
+        <v>502</v>
       </c>
       <c r="J29" s="38" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="K29" s="38" t="s">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>597</v>
+        <v>635</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N29" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O29" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P29" s="40" t="s">
-        <v>535</v>
+        <v>426</v>
+      </c>
+      <c r="P29" s="39" t="s">
+        <v>481</v>
       </c>
       <c r="Q29" s="16" t="s">
-        <v>596</v>
+        <v>526</v>
       </c>
       <c r="R29" s="17" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="S29" s="37" t="s">
         <v>20</v>
@@ -9373,34 +9500,34 @@
         <v>233</v>
       </c>
       <c r="U29" s="16" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="V29" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X29" s="16"/>
     </row>
-    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>29</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>458</v>
+        <v>604</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F30" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>26</v>
@@ -9409,34 +9536,34 @@
         <v>29</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>561</v>
-      </c>
-      <c r="J30" s="41" t="s">
-        <v>459</v>
+        <v>507</v>
+      </c>
+      <c r="J30" s="40" t="s">
+        <v>430</v>
       </c>
       <c r="K30" s="38" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>599</v>
+        <v>636</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="N30" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O30" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="P30" s="40" t="s">
-        <v>536</v>
+        <v>426</v>
+      </c>
+      <c r="P30" s="39" t="s">
+        <v>482</v>
       </c>
       <c r="Q30" s="16" t="s">
-        <v>598</v>
+        <v>527</v>
       </c>
       <c r="R30" s="17" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="S30" s="37" t="s">
         <v>20</v>
@@ -9445,34 +9572,34 @@
         <v>233</v>
       </c>
       <c r="U30" s="16" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="V30" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W30" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X30" s="16"/>
     </row>
-    <row r="31" spans="1:24" s="35" customFormat="1" ht="165" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" s="35" customFormat="1" ht="174" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
         <v>30</v>
       </c>
       <c r="B31" s="33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="33" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F31" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>26</v>
@@ -9481,34 +9608,34 @@
         <v>29</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>562</v>
+        <v>508</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>540</v>
+        <v>486</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="M31" s="36" t="s">
         <v>27</v>
       </c>
       <c r="N31" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O31" s="16" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="P31" s="25" t="s">
-        <v>537</v>
+        <v>483</v>
       </c>
       <c r="Q31" s="16" t="s">
-        <v>600</v>
+        <v>528</v>
       </c>
       <c r="R31" s="8" t="s">
-        <v>612</v>
+        <v>535</v>
       </c>
       <c r="S31" s="37" t="s">
         <v>20</v>
@@ -9517,34 +9644,34 @@
         <v>233</v>
       </c>
       <c r="U31" s="16" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="V31" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W31" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X31" s="34"/>
     </row>
-    <row r="32" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
         <v>31</v>
       </c>
       <c r="B32" s="33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>26</v>
@@ -9553,34 +9680,34 @@
         <v>29</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>563</v>
+        <v>509</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="M32" s="36" t="s">
         <v>27</v>
       </c>
       <c r="N32" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O32" s="16" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="P32" s="25" t="s">
-        <v>538</v>
+        <v>484</v>
       </c>
       <c r="Q32" s="16" t="s">
-        <v>603</v>
+        <v>529</v>
       </c>
       <c r="R32" s="8" t="s">
-        <v>613</v>
+        <v>536</v>
       </c>
       <c r="S32" s="37" t="s">
         <v>20</v>
@@ -9589,34 +9716,34 @@
         <v>233</v>
       </c>
       <c r="U32" s="16" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="V32" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W32" s="16" t="s">
         <v>27</v>
       </c>
       <c r="X32" s="34"/>
     </row>
-    <row r="33" spans="1:24" s="35" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>32</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>19</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>258</v>
+        <v>607</v>
       </c>
       <c r="E33" s="36" t="s">
         <v>228</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>26</v>
@@ -9625,34 +9752,34 @@
         <v>29</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="M33" s="36" t="s">
         <v>27</v>
       </c>
       <c r="N33" s="16" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="P33" s="25" t="s">
-        <v>539</v>
+        <v>485</v>
       </c>
       <c r="Q33" s="16" t="s">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="R33" s="8" t="s">
-        <v>614</v>
+        <v>537</v>
       </c>
       <c r="S33" s="37" t="s">
         <v>20</v>
@@ -9661,10 +9788,10 @@
         <v>233</v>
       </c>
       <c r="U33" s="16" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="V33" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="W33" s="16" t="s">
         <v>27</v>
@@ -9672,30 +9799,405 @@
       <c r="X33" s="34"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X33" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P12" r:id="rId1"/>
-    <hyperlink ref="P13" r:id="rId2" display="http://apis.data.go.kr/1230000/ScsbidInfoService/getScsbidListSttusCnstwk"/>
-    <hyperlink ref="P11" r:id="rId3"/>
-    <hyperlink ref="P10" r:id="rId4"/>
-    <hyperlink ref="P9" r:id="rId5"/>
-    <hyperlink ref="P8" r:id="rId6"/>
-    <hyperlink ref="P7" r:id="rId7"/>
-    <hyperlink ref="P6" r:id="rId8"/>
-    <hyperlink ref="P5" r:id="rId9"/>
-    <hyperlink ref="P4" r:id="rId10"/>
-    <hyperlink ref="P3" r:id="rId11"/>
-    <hyperlink ref="P2" r:id="rId12"/>
-    <hyperlink ref="P30" r:id="rId13"/>
-    <hyperlink ref="P29" r:id="rId14"/>
-    <hyperlink ref="P28" r:id="rId15"/>
-    <hyperlink ref="P27" r:id="rId16"/>
-    <hyperlink ref="P26" r:id="rId17"/>
-    <hyperlink ref="P25" r:id="rId18"/>
-    <hyperlink ref="P24" r:id="rId19"/>
-    <hyperlink ref="P23" r:id="rId20"/>
+    <hyperlink ref="P12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="P13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="P9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="P7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="P6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="P5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="P4" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="P3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="P2" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="P30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="P29" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="P28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="P27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="P26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="P25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="P24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="P23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="P15" r:id="rId21" xr:uid="{25F8AEB9-D92E-4299-833A-FF93AEC7C1F8}"/>
+    <hyperlink ref="P16" r:id="rId22" xr:uid="{E03A8BE2-FE7C-435E-A029-2A020E0E4C55}"/>
+    <hyperlink ref="P17" r:id="rId23" xr:uid="{B1E513E8-4C6A-4F48-85C7-B4D145659151}"/>
+    <hyperlink ref="P18" r:id="rId24" xr:uid="{B70A9FB3-E357-425D-A455-89D51232F60E}"/>
+    <hyperlink ref="P14" r:id="rId25" xr:uid="{0A64C49A-4212-4032-9A93-40E279FBF622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF92F8A4-D86A-41D7-A58E-B38A4BAC9307}">
+  <dimension ref="A1:X5"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
+    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
+    <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
+    <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>558</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>562</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="O2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q2" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>566</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="U2" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="W2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" s="34"/>
+    </row>
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="16">
+        <v>2</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>559</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>570</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>571</v>
+      </c>
+      <c r="R3" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="S3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="W3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="34"/>
+    </row>
+    <row r="4" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="16">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X4" s="34"/>
+    </row>
+    <row r="5" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>557</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>434</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X5" s="34"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:X5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{812F620C-C60B-4CCE-B588-1C302A77B45D}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{25538EAA-B3DC-4ED2-981C-889E9BB4D156}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61A6A3D-7730-4A07-AB3B-7B545FBFC248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B589A5-3E9F-4BD7-A27A-3A91AFA8FA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10320" yWindow="-10380" windowWidth="11595" windowHeight="7455" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. 조달청-조달정보개방포털'!$A$1:$X$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. 조달청-조달정보개방포털'!$A$1:$Y$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 통계청'!$A$1:$X$5</definedName>
     <definedName name="Term">#REF!</definedName>
     <definedName name="title">#REF!</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2079" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="659">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2488,6 +2488,64 @@
   <si>
     <t>../../output/pps/getDataSetOpnStdCntrctInfo.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글컬럼명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합계약번호,업무구분명,확정계약번호,계약참조번호,공사명,공동계약여부,장기계속구분명,계약체결일자,계약기간,근거법률명,총계약금액,금차계약금액,보증금률,계약정보URL,지급구분명,요청번호,공고번호,계약기관코드,계약기관명,계약기관소관구분명,계약기관담당부서명,계약기관담당자명,계약기관담당자전화번호,계약기관담당자팩스번호,수요기관목록,업체목록,계약상세정보URL,채권자명,근거내역,계약체결방법명,물가변동적용기준코드,물가변동적용기준명,등록일시,변경일시,지체상금율,착공일자,금차준공일자,총준공일자,연계기관명,방사청관리계약상태명,방사청관리예정금액,방사청관리입찰방법명,방사청관리공사번호</t>
+  </si>
+  <si>
+    <t>통합계약번호,서비스순번,대표여부,업종명,공사현장지역명,공사금액,관련업체명</t>
+  </si>
+  <si>
+    <t>삭제일시,변경구분명,통합계약번호,확정계약번호,계약참조번호,등록일시,변경일시</t>
+  </si>
+  <si>
+    <t>통합계약번호,업무구분명,확정계약번호,계약참조번호,계약명,공동계약여부,장기계속구분명,계약체결일자,계약기간,근거법률명,총계약금액,금차계약금액,보증금률,계약정보URL,지급구분명,요청번호,공고번호,계약기관코드,계약기관명,계약기관소관구분명,계약기관담당부서명,계약기관담당자명,계약기관담당자전화번호,계약기관담당자팩스번호,수요기관목록,업체목록,계약상세정보URL,채권자명,근거내역,계약체결방법명,등록일시,변경일시,지체상금율,착수일자,금차완수일자,총완수일자,연계기관명,방사청관리계약상태명,방사청관리예정금액,방사청관리입찰방법명,방사청관리판단번호,방사청관리공사번호</t>
+  </si>
+  <si>
+    <t>통합계약번호,서비스순번,대표여부,품명및규격,공사현장지역명,용역금액,관련업체명</t>
+  </si>
+  <si>
+    <t>통합계약번호,서비스순번,대표여부,업종명,공사현장지역명,용역금액,관련업체명</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰분류번호,재입찰번호,공고구분코드,입찰공고명,참가업체수,최종낙찰업체명,최종낙찰업체사업자등록번호,최종낙찰업체대표자명,최종낙찰업체주소,최종낙찰업체전화번호,최종낙찰금액,최종낙찰률,실개찰일시,수요기관코드,수요기관명,등록일시,최종낙찰일자,최종낙찰업체담당자,연계기관명</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰분류번호,재입찰번호,입찰공고명,개찰일시,참가업체수,개찰업체정보,진행구분코드명,입력일시,예비가격파일존재여부,공고기관코드,공고기관명,수요기관코드,수요기관명</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰분류번호,재입찰번호,입찰공고명,예정가격,기초금액,총예가건수,복수예가순번,기초예정가격,추첨여부,추첨횟수,최종낙찰자선정적용기준내용,실개찰일시,기초금액기준상위건수,복수예비가격작성일시,입력일시,예정가격순공사비</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,재공고여부,등록유형명,공고종류명,국제입찰여부,입찰공고일시,참조번호,입찰공고명,공고기관코드,공고기관명,수요기관코드,수요기관명,입찰방식명,계약체결방법명,공고기관담당자명,공고기관담당자전화번호,공고기관담당자이메일주소,집행관명,입찰참가자격등록마감일시,공동수급협정서접수방식,공동수급협정마감일시,공동수급업체지역제한여부,입찰개시일시,입찰마감일시,개찰일시,공고규격서URL1,공고규격서URL2,공고규격서URL3,공고규격서URL4,공고규격서URL5,공고규격서URL6,공고규격서URL7,공고규격서URL8,공고규격서URL9,공고규격서URL10,공고규격파일명1,공고규격파일명2,공고규격파일명3,공고규격파일명4,공고규격파일명5,공고규격파일명6,공고규격파일명7,공고규격파일명8,공고규격파일명9,공고규격파일명10,재입찰허용여부,PQ신청서접수방법명,PQ신청서접수일시,실적신청서접수방법명,실적신청서접수일시,공동도급의무지역명1,공동도급의무지역명2,공동도급의무지역명3,지역의무공동도급비율,내역입찰여부,입찰참가제한여부,예정가격결정방법명,총예가건수,추첨예가건수,예산금액,추정가격,관급금액,적용기준내용,업종평가비율,주공종명,주공종공사예정금액,가산지역명1,가산지역명2,가산지역명3,가산지역명4,개찰장소,설명회실시일시,설명회실시장소,도급자설치관급자재금액,관급자설치관급자재금액,입찰공고상세URL,입찰공고URL,입찰참가수수료납부여부,입찰참가수수료,입찰보증금납부여부,채권자명,공동수급업체수,통합공고번호,현장설명서URL1,현장설명서URL2,현장설명서URL3,현장설명서URL4,현장설명서URL5,부대공종명1,부대공종명2,부대공종명3,부대공종명4,부대공종명5,부대공종명6,부대공종명7,부대공종명8,부대공종명9,부공종업종평가비율1,부공종업종평가비율2,부공종업종평가비율3,부공종업종평가비율4,부공종업종평가비율5,부공종업종평가비율6,부공종업종평가비율7,부공종업종평가비율8,부공종업종평가비율9,공동수급방식코드,공동수급방식명,표준공고서URL,지사투찰허용여부,공종별지분율목록,시공능력평가금액목록,지명경쟁여부,실적경쟁여부,PQ심사여부,공고설명여부,예비가격재작성방법명,주공종추정가격,발주계획통합번호,낙찰하한율,등록일시,사전규격등록번호,낙찰방법코드,낙찰방법명,변경일시,연계기관명,수요기관담당자이메일주소,업종제한여부,방사청관리지역제한여부,방사청관리게재장소명,방사청관리공사개요내용,방사청관리공사구분명,방사청관리공사기간내용,방사청관리공사규모내용,방사청관리예비가격기초적용여부,방사청관리기초금액,방사청관리등록심사면제여부,방사청관리사전심사대상여부,방사청관리사전심사마감일시,방사청관리사정상한율,방사청관리사정하한율,방사청관리공사위치명,방사청관리진행상태명,방사청관리협상계획일자,방사청관리협상형태명,방사청관리요구년도,방사청관리공사번호,공사현장지역명,지역의무공동도급여부,변경공고사유,재입찰개찰일시,건설산업법적용대상여부,상호시장진출허용여부,상호시장진출허용공사명</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,재공고여부,등록유형명,공고종류명,국제입찰여부,입찰공고일시,참조번호,입찰공고명,공고기관코드,공고기관명,수요기관코드,수요기관명,입찰방식명,계약체결방법명,공고기관담당자명,공고기관담당자전화번호,공고기관담당자이메일주소,집행관명,입찰참가자격등록마감일시,공동수급협정서접수방식,공동수급협정마감일시,공동수급업체지역제한여부,입찰개시일시,입찰마감일시,개찰일시,공고규격서URL1,공고규격서URL2,공고규격서URL3,공고규격서URL4,공고규격서URL5,공고규격서URL6,공고규격서URL7,공고규격서URL8,공고규격서URL9,공고규격서URL10,공고규격파일명1,공고규격파일명2,공고규격파일명3,공고규격파일명4,공고규격파일명5,공고규격파일명6,공고규격파일명7,공고규격파일명8,공고규격파일명9,공고규격파일명10,재입찰허용여부,PQ신청서접수방법명,PQ신청서접수일시,TP심사신청방법명,TP심사신청마감일시,공동도급의무지역명1,공동도급의무지역명2,공동도급의무지역명3,지역의무공동도급비율,내역입찰여부,입찰참가제한여부,예정가격결정방법명,총예가건수,추첨예가건수,배정예산금액,추정가격,개찰장소,설명회실시일시,설명회실시장소,입찰공고상세URL,입찰공고URL,입찰참가수수료납부여부,입찰참가수수료,입찰보증금납부여부,채권자명,조달청일반용역여부,용역구분명,물품분류제한여부,제조여부,구매대상물품목록,통합공고번호,공동수급방식코드,공동수급구성방식명,표준공고서URL,지사투찰허용여부,지명경쟁여부,실적경쟁여부,PQ심사여부,TP심사여부,공고설명여부,예비가격재작성방법명,실적신청서접수방법명,실적신청서접수일시,발주계획통합번호,낙찰하한율,등록일시,사전규격등록번호,정보화사업여부,낙찰방법코드,낙찰방법명,변경일시,연계기관명,수요기관담당자이메일주소,업종제한여부,방사청관리지역제한여부,방사청관리게재장소명,방사청관리계약종류명,방사청관리공사개요내용,방사청관리공사기간내용,방사청관리국채납기시작일자,방사청관리국채납기종료일자,방사청관리공사규모내용,방사청관리예비가격기초공개여부,방사청관리예비가격기초적용여부,방사청관리기초금액,방사청관리단가제도유형명,방사청관리등록심사면제여부,방사청관리복수업체연구대상여부,방사청관리본조납기시작일자,방사청관리본조납기종료일자,방사청관리사전심사대상여부,방사청관리사전심사마감일시,방사청관리사정상한율,방사청관리사정하한율,방사청관리표준산업분류코드목록,방사청관리생산능력제출마감일시,방사청관리공사위치명,방사청관리진행상태명,방사청관리집행유형명,방사청관리집행유형코드,방사청관리품목명,방사청관리품목코드,방사청관리항목번호,방사청관리협상형태명,방사청관리협상계획일자,방사청관리요구년도,방사청관리판단번호,방사청관리공사번호,변경공고사유,재입찰개찰일시,방사청관리기초금액,방사청관리등록심사면제여부,방사청관리사전심사대상여부,방사청관리사전심사마감일시,방사청관리사정상한율,방사청관리사정하한율,방사청관리공사위치명,방사청관리진행상태명,방사청관리협상계획일자,방사청관리협상형태명,방사청관리요구년도,방사청관리공사번호,공사현장지역명,지역의무공동도급여부,변경공고사유,재입찰개찰일시,건설산업법적용대상여부,상호시장진출허용여부,상호시장진출허용공사명</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰분류번호,입찰공고명,기초금액,기초금액공개일시,예비가격범위시작률,예비가격범위종료율,평가기준금액,난이도계수,기타경비기준율,일반관리비기준율,이윤기준율,노무비기준율,산업안전보건관리비,퇴직공제부금비,환경보전비,하도급대금지급보증수수료,국민건강보험료,국민연금보험료,비고1,비고2,노인장기요양보험료,가용금액,입력일시,안전관리비,입찰가격산식A여부,기초금액순공사비,품질관리비,품질관리비A적용대상여부</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰분류번호,입찰공고명,기초금액,기초금액공개일시,예비가격범위시작률,예비가격범위종료율,평가기준금액,난이도계수,기타경비기준율,일반관리비기준율,이윤기준율,노무비기준율,산업안전보건관리비,퇴직공제부금비,환경보전비,하도급대금지급보증수수료,국민건강보험료,국민연금보험료,비고1,비고2,노인장기요양보험료,가용금액,입력일시,안전관리비</t>
+  </si>
+  <si>
+    <t>업무구분명,변경데이터구분명,변경일시,입찰공고번호,입찰공고차수,입찰분류번호,재입찰번호,변경항목명,변경전값,변경후값,면허제한코드변경후목록</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,재공고여부,등록유형명,공고종류명,국제입찰여부,입찰공고일시,참조번호,입찰공고명,공고기관코드,공고기관명,수요기관코드,수요기관명,입찰방식명,계약체결방법명,공고기관담당자명,공고기관담당자전화번호,공고기관담당자이메일주소,집행관명,입찰참가자격등록마감일시,공동수급협정서접수방식,공동수급협정마감일시,공동수급업체지역제한여부,입찰개시일시,입찰마감일시,개찰일시,공고규격서URL1,공고규격서URL2,공고규격서URL3,공고규격서URL4,공고규격서URL5,공고규격서URL6,공고규격서URL7,공고규격서URL8,공고규격서URL9,공고규격서URL10,공고규격파일명1,공고규격파일명2,공고규격파일명3,공고규격파일명4,공고규격파일명5,공고규격파일명6,공고규격파일명7,공고규격파일명8,공고규격파일명9,공고규격파일명10,재입찰허용여부,PQ신청서접수방법명,PQ신청서접수일시,TP심사신청방법명,TP심사신청마감일시,공동도급의무지역명1,공동도급의무지역명2,공동도급의무지역명3,지역의무공동도급비율,내역입찰여부,입찰참가제한여부,예정가격결정방법명,총예가건수,추첨예가건수,배정예산금액,추정가격,개찰장소,설명회실시일시,설명회실시장소,입찰공고상세URL,입찰공고URL,입찰참가수수료납부여부,입찰참가수수료,입찰보증금납부여부,채권자명,조달청일반용역여부,용역구분명,물품분류제한여부,제조여부,구매대상물품목록,통합공고번호,공동수급방식코드,공동수급방식명,표준공고서URL,지사투찰허용여부,지명경쟁여부,실적경쟁여부,PQ심사여부,TP심사여부,공고설명여부,예비가격재작성방법명,실적신청서접수방법명,실적신청서접수일시,발주계획통합번호,낙찰하한율,등록일시,사전규격등록번호,정보화사업여부,낙찰방법코드,낙찰방법명,변경일시,연계기관명,수요기관담당자이메일주소,업종제한여부,방사청관리지역제한여부,방사청관리게재장소명,방사청관리계약종류명,방사청관리공사개요내용,방사청관리공사기간내용,방사청관리국채납기시작일자,방사청관리국채납기종료일자,방사청관리공사규모내용,방사청관리예비가격기초공개여부,방사청관리예비가격기초적용여부,방사청관리기초금액,방사청관리단가제도유형명,방사청관리등록심사면제여부,방사청관리복수업체연구대상여부,방사청관리본조납기시작일자,방사청관리본조납기종료일자,방사청관리사전심사대상여부,방사청관리사전심사마감일시,방사청관리사정상한율,방사청관리사정하한율,방사청관리표준산업분류코드목록,방사청관리생산능력제출마감일시,방사청관리공사위치명,방사청관리진행상태명,방사청관리집행유형명,방사청관리집행유형코드,방사청관리품목명,방사청관리품목코드,방사청관리항목번호,방사청관리협상형태명,방사청관리협상계획일자,방사청관리요구년도,방사청관리판단번호,방사청관리공사번호,변경공고사유,재입찰개찰일시</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,참조공고번호,참조공고차수,나라장터공고여부,입찰공고명,입찰공고상태명,입찰공고일자,입찰공고시각,업무구분명,국제입찰여부,공동계약여부,공동수급방식명,전자입찰여부,계약체결형태명,계약체결방법명,낙찰자결정방법명,공고기관명,공고기관코드,공고기관담당자부서명,공고기관담당자명,공고기관담당자전화번호,공고기관담당자이메일주소,수요기관명,수요기관코드,수요기관담당자부서명,수요기관담당자명,수요기관담당자전화번호,수요기관담당자이메일주소,설명회실시여부,설명회실시일자,설명회실시시각,설명회실시장소,입찰참가자격등록마감일자,입찰참가자격등록마감시각,공동수급협정마감일자,공동수급협정마감시각,입찰개시일자,입찰개시시각,입찰마감일자,입찰마감시각,개찰일자,개찰시각,개찰장소,배정예산금액(설계금액),추정가격,예정가격결정방법명,지역제한여부,참가가능지역명,업종제한여부,투찰가능업종명,입찰공고URL,데이터기준일자</t>
+  </si>
+  <si>
+    <t>입찰공고번호,입찰공고차수,입찰공고명,업무구분명,계약체결형태명,계약체결방법명,낙찰자결정방법명,공고기관명,공고기관코드,수요기관명,수요기관코드,낙찰하한율,추정가격,예정가격,기초금액,개찰일자,개찰시각,개찰결과구분명,개찰순위,투찰업체사업자등록번호,투찰업체명,투찰업체대표자명,투찰금액,투찰율,투찰일자,투찰시각,낙찰여부,부적격사유,최종낙찰금액,최종낙찰율,최종낙찰일자,최종낙찰업체명,최종낙찰업체대표자명,최종낙찰업체담당자명,최종낙찰업체사업자등록번호,최종낙찰업체주소,최종낙찰업체연락전화번호,데이터기준일자</t>
+  </si>
+  <si>
+    <t>계약번호,통합계약번호,계약차수,계약명,업무구분명,계약체결형태명,계약체결방법명,장기계속구분명,공동계약여부,계약체결일자,계약기간,계약금액,총계약금액,계약정보URL,입찰공고번호,입찰공고차수,입찰공고명,개찰일자,개찰시각,예정가격,수의계약사유,입찰공고URL,계약기관구분명,계약기관명,계약기관코드,계약기관담당부서명,계약기관담당자명,계약기관담당자전화번호,계약기관담당자이메일주소,수요기관구분명,수요기관명,수요기관코드,수요기관담당자부서명,수요기관담당자명,수요기관담당자전화번호,수요기관담당자이메일주소,대표업체명,국내업체여부,대표업체대표자명,대표업체담당자명,대표업체사업자등록번호,대표업체주소,대표업체연락전화번호,데이터기준일자</t>
   </si>
 </sst>
 </file>
@@ -3185,28 +3243,28 @@
       <selection pane="bottomLeft" activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.3984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="31.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.8984375" customWidth="1"/>
-    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.09765625" customWidth="1"/>
-    <col min="8" max="8" width="21.59765625" customWidth="1"/>
-    <col min="9" max="9" width="70.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="31.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.875" customWidth="1"/>
+    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.125" customWidth="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1"/>
+    <col min="9" max="9" width="70.375" style="11" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="35.59765625" style="28" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.09765625" customWidth="1"/>
-    <col min="14" max="16" width="19.59765625" customWidth="1"/>
-    <col min="17" max="17" width="38.59765625" customWidth="1"/>
-    <col min="18" max="18" width="20.59765625" style="11" customWidth="1"/>
-    <col min="19" max="20" width="20.59765625" customWidth="1"/>
-    <col min="21" max="21" width="24.59765625" customWidth="1"/>
-    <col min="22" max="23" width="20.59765625" customWidth="1"/>
-    <col min="24" max="24" width="23.8984375" customWidth="1"/>
+    <col min="12" max="12" width="35.625" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.125" customWidth="1"/>
+    <col min="14" max="16" width="19.625" customWidth="1"/>
+    <col min="17" max="17" width="38.625" customWidth="1"/>
+    <col min="18" max="18" width="20.625" style="11" customWidth="1"/>
+    <col min="19" max="20" width="20.625" customWidth="1"/>
+    <col min="21" max="21" width="24.625" customWidth="1"/>
+    <col min="22" max="23" width="20.625" customWidth="1"/>
+    <col min="24" max="24" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3280,7 +3338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="3" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3354,7 +3412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="3" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3426,7 +3484,7 @@
       </c>
       <c r="X3" s="2"/>
     </row>
-    <row r="4" spans="1:24" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="3" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3498,7 +3556,7 @@
       </c>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3570,7 +3628,7 @@
       </c>
       <c r="X5" s="2"/>
     </row>
-    <row r="6" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3642,7 +3700,7 @@
       </c>
       <c r="X6" s="2"/>
     </row>
-    <row r="7" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3714,7 +3772,7 @@
       </c>
       <c r="X7" s="2"/>
     </row>
-    <row r="8" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3786,7 +3844,7 @@
       </c>
       <c r="X8" s="2"/>
     </row>
-    <row r="9" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3858,7 +3916,7 @@
       </c>
       <c r="X9" s="2"/>
     </row>
-    <row r="10" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3930,7 +3988,7 @@
       </c>
       <c r="X10" s="2"/>
     </row>
-    <row r="11" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4002,7 +4060,7 @@
       </c>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4074,7 +4132,7 @@
       </c>
       <c r="X12" s="2"/>
     </row>
-    <row r="13" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4146,7 +4204,7 @@
       </c>
       <c r="X13" s="2"/>
     </row>
-    <row r="14" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4218,7 +4276,7 @@
       </c>
       <c r="X14" s="2"/>
     </row>
-    <row r="15" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4290,7 +4348,7 @@
       </c>
       <c r="X15" s="2"/>
     </row>
-    <row r="16" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4362,7 +4420,7 @@
       </c>
       <c r="X16" s="2"/>
     </row>
-    <row r="17" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4434,7 +4492,7 @@
       </c>
       <c r="X17" s="2"/>
     </row>
-    <row r="18" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4506,7 +4564,7 @@
       </c>
       <c r="X18" s="2"/>
     </row>
-    <row r="19" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4578,7 +4636,7 @@
       </c>
       <c r="X19" s="2"/>
     </row>
-    <row r="20" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4650,7 +4708,7 @@
       </c>
       <c r="X20" s="2"/>
     </row>
-    <row r="21" spans="1:24" ht="261" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:24" ht="247.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4722,7 +4780,7 @@
       </c>
       <c r="X21" s="2"/>
     </row>
-    <row r="22" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4794,7 +4852,7 @@
       </c>
       <c r="X22" s="2"/>
     </row>
-    <row r="23" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4866,7 +4924,7 @@
       </c>
       <c r="X23" s="2"/>
     </row>
-    <row r="24" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4938,7 +4996,7 @@
       </c>
       <c r="X24" s="2"/>
     </row>
-    <row r="25" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5010,7 +5068,7 @@
       </c>
       <c r="X25" s="2"/>
     </row>
-    <row r="26" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5082,7 +5140,7 @@
       </c>
       <c r="X26" s="2"/>
     </row>
-    <row r="27" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5154,7 +5212,7 @@
       </c>
       <c r="X27" s="2"/>
     </row>
-    <row r="28" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5226,7 +5284,7 @@
       </c>
       <c r="X28" s="2"/>
     </row>
-    <row r="29" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5298,7 +5356,7 @@
       </c>
       <c r="X29" s="2"/>
     </row>
-    <row r="30" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5370,7 +5428,7 @@
       </c>
       <c r="X30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5442,7 +5500,7 @@
       </c>
       <c r="X31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5514,7 +5572,7 @@
       </c>
       <c r="X32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5586,7 +5644,7 @@
       </c>
       <c r="X33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5658,7 +5716,7 @@
       </c>
       <c r="X34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5730,7 +5788,7 @@
       </c>
       <c r="X35" s="2"/>
     </row>
-    <row r="36" spans="1:24" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:24" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5802,7 +5860,7 @@
       </c>
       <c r="X36" s="2"/>
     </row>
-    <row r="37" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:24" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5874,7 +5932,7 @@
       </c>
       <c r="X37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="365.4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:24" ht="363" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5946,7 +6004,7 @@
       </c>
       <c r="X38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -6018,7 +6076,7 @@
       </c>
       <c r="X39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -6090,7 +6148,7 @@
       </c>
       <c r="X40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -6162,7 +6220,7 @@
       </c>
       <c r="X41" s="2"/>
     </row>
-    <row r="42" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6234,7 +6292,7 @@
       </c>
       <c r="X42" s="2"/>
     </row>
-    <row r="43" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6306,7 +6364,7 @@
       </c>
       <c r="X43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6378,7 +6436,7 @@
       </c>
       <c r="X44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -6450,7 +6508,7 @@
       </c>
       <c r="X45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:24" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6522,7 +6580,7 @@
       </c>
       <c r="X46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6594,7 +6652,7 @@
       </c>
       <c r="X47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="191.4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:24" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6666,7 +6724,7 @@
       </c>
       <c r="X48" s="2"/>
     </row>
-    <row r="49" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6738,7 +6796,7 @@
       </c>
       <c r="X49" s="2"/>
     </row>
-    <row r="50" spans="1:24" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:24" ht="99" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6810,7 +6868,7 @@
       </c>
       <c r="X50" s="2"/>
     </row>
-    <row r="51" spans="1:24" ht="208.8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:24" ht="198" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6882,7 +6940,7 @@
       </c>
       <c r="X51" s="2"/>
     </row>
-    <row r="52" spans="1:24" ht="330.6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:24" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6954,7 +7012,7 @@
       </c>
       <c r="X52" s="1"/>
     </row>
-    <row r="53" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>54</v>
       </c>
@@ -7026,7 +7084,7 @@
       </c>
       <c r="X53" s="2"/>
     </row>
-    <row r="54" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>55</v>
       </c>
@@ -7098,7 +7156,7 @@
       </c>
       <c r="X54" s="2"/>
     </row>
-    <row r="55" spans="1:24" ht="87" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:24" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>56</v>
       </c>
@@ -7170,7 +7228,7 @@
       </c>
       <c r="X55" s="2"/>
     </row>
-    <row r="56" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>57</v>
       </c>
@@ -7242,7 +7300,7 @@
       </c>
       <c r="X56" s="2"/>
     </row>
-    <row r="57" spans="1:24" ht="69.599999999999994" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:24" ht="66" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>58</v>
       </c>
@@ -7391,36 +7449,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
-    <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
-    <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="14" customWidth="1"/>
+    <col min="10" max="10" width="31.5" style="11" customWidth="1"/>
+    <col min="11" max="14" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.625" style="14" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="26" customWidth="1"/>
+    <col min="18" max="18" width="38.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="34.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.625" style="14" customWidth="1"/>
+    <col min="25" max="25" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7445,56 +7504,59 @@
       <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="K1" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="L1" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="M1" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="M1" s="19" t="s">
+      <c r="N1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="O1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="P1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="Q1" s="20" t="s">
         <v>306</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="R1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="S1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="T1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="V1" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="W1" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="X1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="X1" s="19" t="s">
+      <c r="Y1" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" s="47" customFormat="1" ht="297" x14ac:dyDescent="0.3">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -7519,54 +7581,57 @@
       <c r="H2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="45" t="s">
+        <v>641</v>
+      </c>
+      <c r="J2" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="K2" s="44" t="s">
         <v>430</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="L2" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="45" t="s">
         <v>608</v>
       </c>
-      <c r="M2" s="41" t="s">
+      <c r="N2" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="O2" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="O2" s="41" t="s">
+      <c r="P2" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P2" s="46" t="s">
+      <c r="Q2" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>543</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="S2" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="S2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="U2" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="V2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V2" s="41" t="s">
+      <c r="W2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W2" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="43"/>
+      <c r="X2" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="43"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" s="35" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -7591,54 +7656,57 @@
       <c r="H3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="37" t="s">
+        <v>642</v>
+      </c>
+      <c r="J3" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="M3" s="37" t="s">
         <v>609</v>
       </c>
-      <c r="M3" s="36" t="s">
+      <c r="N3" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="N3" s="16" t="s">
+      <c r="O3" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="P3" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="R3" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="R3" s="38" t="s">
+      <c r="S3" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="T3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="U3" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U3" s="16" t="s">
+      <c r="V3" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V3" s="16" t="s">
+      <c r="W3" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X3" s="34"/>
+      <c r="X3" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="34"/>
     </row>
-    <row r="4" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" s="47" customFormat="1" ht="297" x14ac:dyDescent="0.3">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -7663,54 +7731,57 @@
       <c r="H4" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="44" t="s">
+      <c r="I4" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="J4" s="50" t="s">
+      <c r="K4" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="K4" s="50" t="s">
+      <c r="L4" s="50" t="s">
         <v>442</v>
       </c>
-      <c r="L4" s="50" t="s">
+      <c r="M4" s="50" t="s">
         <v>610</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="N4" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="N4" s="41" t="s">
+      <c r="O4" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="P4" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="Q4" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="Q4" s="41" t="s">
+      <c r="R4" s="41" t="s">
         <v>544</v>
       </c>
-      <c r="R4" s="44" t="s">
+      <c r="S4" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="S4" s="50" t="s">
+      <c r="T4" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="41" t="s">
+      <c r="U4" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U4" s="41" t="s">
+      <c r="V4" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V4" s="41" t="s">
+      <c r="W4" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W4" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="43"/>
+      <c r="X4" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="43"/>
     </row>
-    <row r="5" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" s="47" customFormat="1" ht="297" x14ac:dyDescent="0.3">
       <c r="A5" s="41">
         <v>4</v>
       </c>
@@ -7735,54 +7806,57 @@
       <c r="H5" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="J5" s="44" t="s">
         <v>511</v>
       </c>
-      <c r="J5" s="50" t="s">
+      <c r="K5" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K5" s="50" t="s">
+      <c r="L5" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L5" s="50" t="s">
+      <c r="M5" s="50" t="s">
         <v>611</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="N5" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="N5" s="41" t="s">
+      <c r="O5" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O5" s="41" t="s">
+      <c r="P5" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P5" s="46" t="s">
+      <c r="Q5" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="R5" s="41" t="s">
         <v>545</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="S5" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="S5" s="50" t="s">
+      <c r="T5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="U5" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="V5" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V5" s="41" t="s">
+      <c r="W5" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W5" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X5" s="43"/>
+      <c r="X5" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="43"/>
     </row>
-    <row r="6" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="41">
         <v>5</v>
       </c>
@@ -7807,54 +7881,57 @@
       <c r="H6" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="K6" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="K6" s="50" t="s">
+      <c r="L6" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="L6" s="50" t="s">
+      <c r="M6" s="50" t="s">
         <v>612</v>
       </c>
-      <c r="M6" s="49" t="s">
+      <c r="N6" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="O6" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O6" s="41" t="s">
+      <c r="P6" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P6" s="46" t="s">
+      <c r="Q6" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="Q6" s="41" t="s">
+      <c r="R6" s="41" t="s">
         <v>542</v>
       </c>
-      <c r="R6" s="50" t="s">
+      <c r="S6" s="50" t="s">
         <v>446</v>
       </c>
-      <c r="S6" s="50" t="s">
+      <c r="T6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="41" t="s">
+      <c r="U6" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U6" s="41" t="s">
+      <c r="V6" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V6" s="41" t="s">
+      <c r="W6" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W6" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X6" s="43"/>
+      <c r="X6" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="43"/>
     </row>
-    <row r="7" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" s="47" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A7" s="41">
         <v>6</v>
       </c>
@@ -7879,54 +7956,57 @@
       <c r="H7" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="45" t="s">
+        <v>644</v>
+      </c>
+      <c r="J7" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="J7" s="44" t="s">
+      <c r="K7" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="L7" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="L7" s="45" t="s">
+      <c r="M7" s="45" t="s">
         <v>613</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="N7" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="O7" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="P7" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P7" s="46" t="s">
+      <c r="Q7" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="Q7" s="41" t="s">
+      <c r="R7" s="41" t="s">
         <v>551</v>
       </c>
-      <c r="R7" s="44" t="s">
+      <c r="S7" s="44" t="s">
         <v>437</v>
       </c>
-      <c r="S7" s="41" t="s">
+      <c r="T7" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="41" t="s">
+      <c r="U7" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U7" s="41" t="s">
+      <c r="V7" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V7" s="41" t="s">
+      <c r="W7" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W7" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="43"/>
+      <c r="X7" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="43"/>
     </row>
-    <row r="8" spans="1:24" s="35" customFormat="1" ht="87" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" s="35" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -7951,54 +8031,57 @@
       <c r="H8" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="37" t="s">
+        <v>645</v>
+      </c>
+      <c r="J8" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="J8" s="37" t="s">
+      <c r="K8" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="L8" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="L8" s="37" t="s">
+      <c r="M8" s="37" t="s">
         <v>614</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="N8" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="O8" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="P8" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="P8" s="25" t="s">
+      <c r="Q8" s="25" t="s">
         <v>465</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="R8" s="17" t="s">
         <v>466</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="S8" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="S8" s="37" t="s">
+      <c r="T8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="16" t="s">
+      <c r="U8" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U8" s="16" t="s">
+      <c r="V8" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V8" s="16" t="s">
+      <c r="W8" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X8" s="34"/>
+      <c r="X8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="34"/>
     </row>
-    <row r="9" spans="1:24" s="35" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" s="35" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -8023,54 +8106,57 @@
       <c r="H9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="J9" s="37" t="s">
+      <c r="K9" s="37" t="s">
         <v>439</v>
       </c>
-      <c r="K9" s="37" t="s">
+      <c r="L9" s="37" t="s">
         <v>438</v>
       </c>
-      <c r="L9" s="37" t="s">
+      <c r="M9" s="37" t="s">
         <v>615</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="N9" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="O9" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="P9" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="P9" s="25" t="s">
+      <c r="Q9" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="R9" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="S9" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="T9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="16" t="s">
+      <c r="U9" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U9" s="16" t="s">
+      <c r="V9" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V9" s="16" t="s">
+      <c r="W9" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X9" s="34"/>
+      <c r="X9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="34"/>
     </row>
-    <row r="10" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" s="35" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -8095,54 +8181,57 @@
       <c r="H10" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="J10" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="J10" s="37" t="s">
+      <c r="K10" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="K10" s="37" t="s">
+      <c r="L10" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="M10" s="37" t="s">
         <v>616</v>
       </c>
-      <c r="M10" s="36" t="s">
+      <c r="N10" s="36" t="s">
         <v>428</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="P10" s="25" t="s">
+      <c r="Q10" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="S10" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="16" t="s">
+      <c r="U10" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="V10" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="W10" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W10" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X10" s="34"/>
+      <c r="X10" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="34"/>
     </row>
-    <row r="11" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" s="47" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>10</v>
       </c>
@@ -8167,54 +8256,57 @@
       <c r="H11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="J11" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="J11" s="50" t="s">
+      <c r="K11" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="K11" s="50" t="s">
+      <c r="L11" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="M11" s="50" t="s">
         <v>617</v>
       </c>
-      <c r="M11" s="49" t="s">
+      <c r="N11" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="O11" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O11" s="41" t="s">
+      <c r="P11" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="Q11" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="Q11" s="41" t="s">
+      <c r="R11" s="41" t="s">
         <v>549</v>
       </c>
-      <c r="R11" s="50" t="s">
+      <c r="S11" s="50" t="s">
         <v>447</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="T11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="41" t="s">
+      <c r="U11" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U11" s="41" t="s">
+      <c r="V11" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V11" s="41" t="s">
+      <c r="W11" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W11" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X11" s="43"/>
+      <c r="X11" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="43"/>
     </row>
-    <row r="12" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>11</v>
       </c>
@@ -8239,54 +8331,57 @@
       <c r="H12" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="44" t="s">
+      <c r="I12" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="J12" s="44" t="s">
         <v>513</v>
       </c>
-      <c r="J12" s="50" t="s">
+      <c r="K12" s="50" t="s">
         <v>456</v>
       </c>
-      <c r="K12" s="50" t="s">
+      <c r="L12" s="50" t="s">
         <v>457</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="M12" s="50" t="s">
         <v>618</v>
       </c>
-      <c r="M12" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O12" s="41" t="s">
+      <c r="P12" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P12" s="46" t="s">
+      <c r="Q12" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="Q12" s="41" t="s">
+      <c r="R12" s="41" t="s">
         <v>548</v>
       </c>
-      <c r="R12" s="50" t="s">
+      <c r="S12" s="50" t="s">
         <v>458</v>
       </c>
-      <c r="S12" s="50" t="s">
+      <c r="T12" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="41" t="s">
+      <c r="U12" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U12" s="41" t="s">
+      <c r="V12" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="V12" s="41" t="s">
+      <c r="W12" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W12" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="43"/>
+      <c r="X12" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="43"/>
     </row>
-    <row r="13" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>12</v>
       </c>
@@ -8311,54 +8406,57 @@
       <c r="H13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="44" t="s">
+      <c r="I13" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="J13" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="J13" s="50" t="s">
+      <c r="K13" s="50" t="s">
         <v>453</v>
       </c>
-      <c r="K13" s="50" t="s">
+      <c r="L13" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L13" s="50" t="s">
+      <c r="M13" s="50" t="s">
         <v>619</v>
       </c>
-      <c r="M13" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="P13" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P13" s="46" t="s">
+      <c r="Q13" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="Q13" s="41" t="s">
+      <c r="R13" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="R13" s="50" t="s">
+      <c r="S13" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S13" s="50" t="s">
+      <c r="T13" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T13" s="41" t="s">
+      <c r="U13" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U13" s="41" t="s">
+      <c r="V13" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V13" s="41" t="s">
+      <c r="W13" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W13" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X13" s="43"/>
+      <c r="X13" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="43"/>
     </row>
-    <row r="14" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>13</v>
       </c>
@@ -8383,54 +8481,57 @@
       <c r="H14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I14" s="44" t="s">
+      <c r="I14" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="J14" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="J14" s="50" t="s">
+      <c r="K14" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K14" s="50" t="s">
+      <c r="L14" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L14" s="50" t="s">
+      <c r="M14" s="50" t="s">
         <v>620</v>
       </c>
-      <c r="M14" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O14" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="P14" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P14" s="46" t="s">
+      <c r="Q14" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="Q14" s="41" t="s">
+      <c r="R14" s="41" t="s">
         <v>493</v>
       </c>
-      <c r="R14" s="50" t="s">
+      <c r="S14" s="50" t="s">
         <v>531</v>
       </c>
-      <c r="S14" s="50" t="s">
+      <c r="T14" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="41" t="s">
+      <c r="U14" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U14" s="41" t="s">
+      <c r="V14" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V14" s="41" t="s">
+      <c r="W14" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W14" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X14" s="43"/>
+      <c r="X14" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="43"/>
     </row>
-    <row r="15" spans="1:24" s="47" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>14</v>
       </c>
@@ -8455,54 +8556,57 @@
       <c r="H15" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="44" t="s">
+      <c r="I15" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="J15" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="J15" s="50" t="s">
+      <c r="K15" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="L15" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L15" s="50" t="s">
+      <c r="M15" s="50" t="s">
         <v>621</v>
       </c>
-      <c r="M15" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O15" s="41" t="s">
+      <c r="P15" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P15" s="51" t="s">
+      <c r="Q15" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="Q15" s="41" t="s">
+      <c r="R15" s="41" t="s">
         <v>494</v>
       </c>
-      <c r="R15" s="50" t="s">
+      <c r="S15" s="50" t="s">
         <v>533</v>
       </c>
-      <c r="S15" s="50" t="s">
+      <c r="T15" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="U15" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U15" s="41" t="s">
+      <c r="V15" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V15" s="41" t="s">
+      <c r="W15" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W15" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X15" s="43"/>
+      <c r="X15" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="43"/>
     </row>
-    <row r="16" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>15</v>
       </c>
@@ -8527,54 +8631,57 @@
       <c r="H16" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="44" t="s">
+      <c r="I16" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="J16" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="J16" s="50" t="s">
+      <c r="K16" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="L16" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L16" s="50" t="s">
+      <c r="M16" s="50" t="s">
         <v>622</v>
       </c>
-      <c r="M16" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O16" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="P16" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P16" s="51" t="s">
+      <c r="Q16" s="51" t="s">
         <v>539</v>
       </c>
-      <c r="Q16" s="41" t="s">
+      <c r="R16" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="R16" s="50" t="s">
+      <c r="S16" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S16" s="50" t="s">
+      <c r="T16" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="U16" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U16" s="41" t="s">
+      <c r="V16" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V16" s="41" t="s">
+      <c r="W16" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W16" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X16" s="43"/>
+      <c r="X16" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="43"/>
     </row>
-    <row r="17" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>16</v>
       </c>
@@ -8599,54 +8706,57 @@
       <c r="H17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="J17" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="K17" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="L17" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L17" s="50" t="s">
+      <c r="M17" s="50" t="s">
         <v>623</v>
       </c>
-      <c r="M17" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O17" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="P17" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P17" s="46" t="s">
+      <c r="Q17" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="R17" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="R17" s="50" t="s">
+      <c r="S17" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S17" s="50" t="s">
+      <c r="T17" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="U17" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="V17" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="W17" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W17" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X17" s="43"/>
+      <c r="X17" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="43"/>
     </row>
-    <row r="18" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>17</v>
       </c>
@@ -8671,54 +8781,57 @@
       <c r="H18" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="44" t="s">
+      <c r="I18" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="J18" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="K18" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="L18" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L18" s="50" t="s">
+      <c r="M18" s="50" t="s">
         <v>624</v>
       </c>
-      <c r="M18" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="P18" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P18" s="46" t="s">
+      <c r="Q18" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="Q18" s="41" t="s">
+      <c r="R18" s="41" t="s">
         <v>515</v>
       </c>
-      <c r="R18" s="50" t="s">
+      <c r="S18" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S18" s="50" t="s">
+      <c r="T18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T18" s="41" t="s">
+      <c r="U18" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U18" s="41" t="s">
+      <c r="V18" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V18" s="41" t="s">
+      <c r="W18" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W18" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X18" s="43"/>
+      <c r="X18" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" s="43"/>
     </row>
-    <row r="19" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>18</v>
       </c>
@@ -8743,54 +8856,57 @@
       <c r="H19" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I19" s="44" t="s">
+      <c r="I19" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="J19" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="J19" s="50" t="s">
+      <c r="K19" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="L19" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L19" s="50" t="s">
+      <c r="M19" s="50" t="s">
         <v>625</v>
       </c>
-      <c r="M19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" s="41" t="s">
+      <c r="N19" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O19" s="41" t="s">
+      <c r="P19" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P19" s="46" t="s">
+      <c r="Q19" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="Q19" s="41" t="s">
+      <c r="R19" s="41" t="s">
         <v>516</v>
       </c>
-      <c r="R19" s="50" t="s">
+      <c r="S19" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="S19" s="50" t="s">
+      <c r="T19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T19" s="41" t="s">
+      <c r="U19" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U19" s="41" t="s">
+      <c r="V19" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V19" s="41" t="s">
+      <c r="W19" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W19" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X19" s="43"/>
+      <c r="X19" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y19" s="43"/>
     </row>
-    <row r="20" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>19</v>
       </c>
@@ -8815,54 +8931,57 @@
       <c r="H20" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I20" s="44" t="s">
+      <c r="I20" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="J20" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="J20" s="50" t="s">
+      <c r="K20" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="L20" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L20" s="50" t="s">
+      <c r="M20" s="50" t="s">
         <v>626</v>
       </c>
-      <c r="M20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="41" t="s">
+      <c r="N20" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O20" s="41" t="s">
+      <c r="P20" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P20" s="46" t="s">
+      <c r="Q20" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="Q20" s="41" t="s">
+      <c r="R20" s="41" t="s">
         <v>517</v>
       </c>
-      <c r="R20" s="50" t="s">
+      <c r="S20" s="50" t="s">
         <v>534</v>
       </c>
-      <c r="S20" s="50" t="s">
+      <c r="T20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T20" s="41" t="s">
+      <c r="U20" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U20" s="41" t="s">
+      <c r="V20" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V20" s="41" t="s">
+      <c r="W20" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W20" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X20" s="43"/>
+      <c r="X20" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="43"/>
     </row>
-    <row r="21" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>20</v>
       </c>
@@ -8887,54 +9006,57 @@
       <c r="H21" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="44" t="s">
+      <c r="I21" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="J21" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="J21" s="50" t="s">
+      <c r="K21" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K21" s="50" t="s">
+      <c r="L21" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L21" s="50" t="s">
+      <c r="M21" s="50" t="s">
         <v>627</v>
       </c>
-      <c r="M21" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="P21" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P21" s="46" t="s">
+      <c r="Q21" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="Q21" s="41" t="s">
+      <c r="R21" s="41" t="s">
         <v>518</v>
       </c>
-      <c r="R21" s="50" t="s">
+      <c r="S21" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S21" s="50" t="s">
+      <c r="T21" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T21" s="41" t="s">
+      <c r="U21" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U21" s="41" t="s">
+      <c r="V21" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V21" s="41" t="s">
+      <c r="W21" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W21" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X21" s="43"/>
+      <c r="X21" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="43"/>
     </row>
-    <row r="22" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>21</v>
       </c>
@@ -8959,54 +9081,57 @@
       <c r="H22" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="44" t="s">
+      <c r="I22" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="J22" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="J22" s="50" t="s">
+      <c r="K22" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K22" s="50" t="s">
+      <c r="L22" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L22" s="50" t="s">
+      <c r="M22" s="50" t="s">
         <v>628</v>
       </c>
-      <c r="M22" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" s="41" t="s">
+      <c r="N22" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O22" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O22" s="41" t="s">
+      <c r="P22" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P22" s="46" t="s">
+      <c r="Q22" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="Q22" s="41" t="s">
+      <c r="R22" s="41" t="s">
         <v>519</v>
       </c>
-      <c r="R22" s="50" t="s">
+      <c r="S22" s="50" t="s">
         <v>532</v>
       </c>
-      <c r="S22" s="50" t="s">
+      <c r="T22" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T22" s="41" t="s">
+      <c r="U22" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U22" s="41" t="s">
+      <c r="V22" s="41" t="s">
         <v>241</v>
       </c>
-      <c r="V22" s="41" t="s">
+      <c r="W22" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W22" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X22" s="43"/>
+      <c r="X22" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="43"/>
     </row>
-    <row r="23" spans="1:24" s="47" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:25" s="47" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A23" s="41">
         <v>22</v>
       </c>
@@ -9031,54 +9156,57 @@
       <c r="H23" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I23" s="44" t="s">
+      <c r="I23" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="J23" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="J23" s="44" t="s">
+      <c r="K23" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="K23" s="44" t="s">
+      <c r="L23" s="44" t="s">
         <v>420</v>
       </c>
-      <c r="L23" s="50" t="s">
+      <c r="M23" s="50" t="s">
         <v>629</v>
       </c>
-      <c r="M23" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O23" s="41" t="s">
+      <c r="P23" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="P23" s="52" t="s">
+      <c r="Q23" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="Q23" s="41" t="s">
+      <c r="R23" s="41" t="s">
         <v>520</v>
       </c>
-      <c r="R23" s="45" t="s">
+      <c r="S23" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="S23" s="50" t="s">
+      <c r="T23" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T23" s="41" t="s">
+      <c r="U23" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U23" s="41" t="s">
+      <c r="V23" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="V23" s="41" t="s">
+      <c r="W23" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W23" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X23" s="41"/>
+      <c r="X23" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="41"/>
     </row>
-    <row r="24" spans="1:24" s="47" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" s="47" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>23</v>
       </c>
@@ -9103,54 +9231,57 @@
       <c r="H24" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I24" s="44" t="s">
+      <c r="I24" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="J24" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="J24" s="44" t="s">
+      <c r="K24" s="44" t="s">
         <v>425</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="L24" s="44" t="s">
         <v>452</v>
       </c>
-      <c r="L24" s="50" t="s">
+      <c r="M24" s="50" t="s">
         <v>630</v>
       </c>
-      <c r="M24" s="49" t="s">
+      <c r="N24" s="49" t="s">
         <v>421</v>
       </c>
-      <c r="N24" s="41" t="s">
+      <c r="O24" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="P24" s="41" t="s">
         <v>421</v>
       </c>
-      <c r="P24" s="52" t="s">
+      <c r="Q24" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="Q24" s="41" t="s">
+      <c r="R24" s="41" t="s">
         <v>521</v>
       </c>
-      <c r="R24" s="45" t="s">
+      <c r="S24" s="45" t="s">
         <v>424</v>
       </c>
-      <c r="S24" s="50" t="s">
+      <c r="T24" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T24" s="41" t="s">
+      <c r="U24" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U24" s="41" t="s">
+      <c r="V24" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="V24" s="41" t="s">
+      <c r="W24" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W24" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X24" s="41"/>
+      <c r="X24" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="41"/>
     </row>
-    <row r="25" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" s="47" customFormat="1" ht="214.5" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>24</v>
       </c>
@@ -9175,54 +9306,57 @@
       <c r="H25" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I25" s="44" t="s">
+      <c r="I25" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="J25" s="44" t="s">
         <v>504</v>
       </c>
-      <c r="J25" s="50" t="s">
+      <c r="K25" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K25" s="50" t="s">
+      <c r="L25" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L25" s="50" t="s">
+      <c r="M25" s="50" t="s">
         <v>631</v>
       </c>
-      <c r="M25" s="49" t="s">
+      <c r="N25" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="N25" s="41" t="s">
+      <c r="O25" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="P25" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P25" s="46" t="s">
+      <c r="Q25" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="Q25" s="41" t="s">
+      <c r="R25" s="41" t="s">
         <v>522</v>
       </c>
-      <c r="R25" s="50" t="s">
+      <c r="S25" s="50" t="s">
         <v>454</v>
       </c>
-      <c r="S25" s="50" t="s">
+      <c r="T25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T25" s="41" t="s">
+      <c r="U25" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U25" s="41" t="s">
+      <c r="V25" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="V25" s="41" t="s">
+      <c r="W25" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W25" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X25" s="43"/>
+      <c r="X25" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="43"/>
     </row>
-    <row r="26" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" s="47" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>25</v>
       </c>
@@ -9247,54 +9381,57 @@
       <c r="H26" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="I26" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="J26" s="44" t="s">
         <v>505</v>
       </c>
-      <c r="J26" s="50" t="s">
+      <c r="K26" s="50" t="s">
         <v>425</v>
       </c>
-      <c r="K26" s="50" t="s">
+      <c r="L26" s="50" t="s">
         <v>420</v>
       </c>
-      <c r="L26" s="50" t="s">
+      <c r="M26" s="50" t="s">
         <v>632</v>
       </c>
-      <c r="M26" s="49" t="s">
+      <c r="N26" s="49" t="s">
         <v>428</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="O26" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O26" s="41" t="s">
+      <c r="P26" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="P26" s="46" t="s">
+      <c r="Q26" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="Q26" s="41" t="s">
+      <c r="R26" s="41" t="s">
         <v>523</v>
       </c>
-      <c r="R26" s="44" t="s">
+      <c r="S26" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="S26" s="50" t="s">
+      <c r="T26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="U26" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U26" s="41" t="s">
+      <c r="V26" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="V26" s="41" t="s">
+      <c r="W26" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W26" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X26" s="43"/>
+      <c r="X26" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="43"/>
     </row>
-    <row r="27" spans="1:24" s="47" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" s="47" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>26</v>
       </c>
@@ -9319,54 +9456,57 @@
       <c r="H27" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="44" t="s">
+      <c r="I27" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J27" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="J27" s="53" t="s">
+      <c r="K27" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="K27" s="53" t="s">
+      <c r="L27" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="L27" s="50" t="s">
+      <c r="M27" s="50" t="s">
         <v>633</v>
       </c>
-      <c r="M27" s="49" t="s">
+      <c r="N27" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="O27" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O27" s="41" t="s">
+      <c r="P27" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P27" s="46" t="s">
+      <c r="Q27" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="Q27" s="41" t="s">
+      <c r="R27" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="R27" s="44" t="s">
+      <c r="S27" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="S27" s="50" t="s">
+      <c r="T27" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T27" s="41" t="s">
+      <c r="U27" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U27" s="41" t="s">
+      <c r="V27" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="V27" s="41" t="s">
+      <c r="W27" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W27" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X27" s="43"/>
+      <c r="X27" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="43"/>
     </row>
-    <row r="28" spans="1:24" s="47" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" s="47" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>27</v>
       </c>
@@ -9391,54 +9531,57 @@
       <c r="H28" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="44" t="s">
+      <c r="I28" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J28" s="44" t="s">
         <v>506</v>
       </c>
-      <c r="J28" s="53" t="s">
+      <c r="K28" s="53" t="s">
         <v>425</v>
       </c>
-      <c r="K28" s="53" t="s">
+      <c r="L28" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="L28" s="50" t="s">
+      <c r="M28" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="M28" s="49" t="s">
+      <c r="N28" s="49" t="s">
         <v>426</v>
       </c>
-      <c r="N28" s="41" t="s">
+      <c r="O28" s="41" t="s">
         <v>434</v>
       </c>
-      <c r="O28" s="41" t="s">
+      <c r="P28" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="P28" s="46" t="s">
+      <c r="Q28" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="Q28" s="41" t="s">
+      <c r="R28" s="41" t="s">
         <v>525</v>
       </c>
-      <c r="R28" s="44" t="s">
+      <c r="S28" s="44" t="s">
         <v>454</v>
       </c>
-      <c r="S28" s="50" t="s">
+      <c r="T28" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="T28" s="41" t="s">
+      <c r="U28" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="U28" s="41" t="s">
+      <c r="V28" s="41" t="s">
         <v>243</v>
       </c>
-      <c r="V28" s="41" t="s">
+      <c r="W28" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="W28" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="X28" s="43"/>
+      <c r="X28" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="43"/>
     </row>
-    <row r="29" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <v>28</v>
       </c>
@@ -9463,54 +9606,57 @@
       <c r="H29" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I29" s="18" t="s">
+      <c r="I29" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="J29" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="J29" s="38" t="s">
+      <c r="K29" s="38" t="s">
         <v>430</v>
       </c>
-      <c r="K29" s="38" t="s">
+      <c r="L29" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="M29" s="37" t="s">
         <v>635</v>
       </c>
-      <c r="M29" s="36" t="s">
+      <c r="N29" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="O29" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="P29" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="P29" s="39" t="s">
+      <c r="Q29" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="Q29" s="16" t="s">
+      <c r="R29" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="R29" s="17" t="s">
+      <c r="S29" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="S29" s="37" t="s">
+      <c r="T29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T29" s="16" t="s">
+      <c r="U29" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U29" s="16" t="s">
+      <c r="V29" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="V29" s="16" t="s">
+      <c r="W29" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W29" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X29" s="16"/>
+      <c r="X29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y29" s="16"/>
     </row>
-    <row r="30" spans="1:24" s="35" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
         <v>29</v>
       </c>
@@ -9535,54 +9681,57 @@
       <c r="H30" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="37" t="s">
+        <v>655</v>
+      </c>
+      <c r="J30" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="K30" s="40" t="s">
         <v>430</v>
       </c>
-      <c r="K30" s="38" t="s">
+      <c r="L30" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="L30" s="37" t="s">
+      <c r="M30" s="37" t="s">
         <v>636</v>
       </c>
-      <c r="M30" s="36" t="s">
+      <c r="N30" s="36" t="s">
         <v>426</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="O30" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="P30" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="Q30" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="R30" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="R30" s="17" t="s">
+      <c r="S30" s="17" t="s">
         <v>433</v>
       </c>
-      <c r="S30" s="37" t="s">
+      <c r="T30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T30" s="16" t="s">
+      <c r="U30" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U30" s="16" t="s">
+      <c r="V30" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="V30" s="16" t="s">
+      <c r="W30" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W30" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X30" s="16"/>
+      <c r="X30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y30" s="16"/>
     </row>
-    <row r="31" spans="1:24" s="35" customFormat="1" ht="174" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" s="35" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>30</v>
       </c>
@@ -9607,54 +9756,57 @@
       <c r="H31" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="18" t="s">
+      <c r="I31" s="37" t="s">
+        <v>656</v>
+      </c>
+      <c r="J31" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="K31" s="8" t="s">
+      <c r="L31" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="L31" s="37" t="s">
+      <c r="M31" s="37" t="s">
         <v>637</v>
       </c>
-      <c r="M31" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="16" t="s">
+      <c r="N31" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O31" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O31" s="16" t="s">
+      <c r="P31" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="P31" s="25" t="s">
+      <c r="Q31" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="Q31" s="16" t="s">
+      <c r="R31" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="R31" s="8" t="s">
+      <c r="S31" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="S31" s="37" t="s">
+      <c r="T31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T31" s="16" t="s">
+      <c r="U31" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U31" s="16" t="s">
+      <c r="V31" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="V31" s="16" t="s">
+      <c r="W31" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W31" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X31" s="34"/>
+      <c r="X31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y31" s="34"/>
     </row>
-    <row r="32" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" s="35" customFormat="1" ht="264" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>31</v>
       </c>
@@ -9679,54 +9831,57 @@
       <c r="H32" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I32" s="18" t="s">
+      <c r="I32" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="J32" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="K32" s="8" t="s">
+      <c r="L32" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="L32" s="37" t="s">
+      <c r="M32" s="37" t="s">
         <v>638</v>
       </c>
-      <c r="M32" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="16" t="s">
+      <c r="N32" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O32" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O32" s="16" t="s">
+      <c r="P32" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="P32" s="25" t="s">
+      <c r="Q32" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="Q32" s="16" t="s">
+      <c r="R32" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="R32" s="8" t="s">
+      <c r="S32" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="S32" s="37" t="s">
+      <c r="T32" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T32" s="16" t="s">
+      <c r="U32" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U32" s="16" t="s">
+      <c r="V32" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="V32" s="16" t="s">
+      <c r="W32" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W32" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X32" s="34"/>
+      <c r="X32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y32" s="34"/>
     </row>
-    <row r="33" spans="1:24" s="35" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:25" s="35" customFormat="1" ht="313.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>32</v>
       </c>
@@ -9751,82 +9906,85 @@
       <c r="H33" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="37" t="s">
+        <v>658</v>
+      </c>
+      <c r="J33" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="K33" s="8" t="s">
+      <c r="L33" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="L33" s="37" t="s">
+      <c r="M33" s="37" t="s">
         <v>639</v>
       </c>
-      <c r="M33" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="16" t="s">
+      <c r="N33" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="O33" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="O33" s="16" t="s">
+      <c r="P33" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="P33" s="25" t="s">
+      <c r="Q33" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="Q33" s="16" t="s">
+      <c r="R33" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="R33" s="8" t="s">
+      <c r="S33" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="S33" s="37" t="s">
+      <c r="T33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="T33" s="16" t="s">
+      <c r="U33" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="U33" s="16" t="s">
+      <c r="V33" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="V33" s="16" t="s">
+      <c r="W33" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="W33" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="X33" s="34"/>
+      <c r="X33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y33" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X33" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:Y33" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="P13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="P9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="P8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="P7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="P6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="P5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="P4" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="P3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="P2" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="P30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="P29" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="P28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="P27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="P26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="P25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="P24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="P23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="P15" r:id="rId21" xr:uid="{25F8AEB9-D92E-4299-833A-FF93AEC7C1F8}"/>
-    <hyperlink ref="P16" r:id="rId22" xr:uid="{E03A8BE2-FE7C-435E-A029-2A020E0E4C55}"/>
-    <hyperlink ref="P17" r:id="rId23" xr:uid="{B1E513E8-4C6A-4F48-85C7-B4D145659151}"/>
-    <hyperlink ref="P18" r:id="rId24" xr:uid="{B70A9FB3-E357-425D-A455-89D51232F60E}"/>
-    <hyperlink ref="P14" r:id="rId25" xr:uid="{0A64C49A-4212-4032-9A93-40E279FBF622}"/>
+    <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Q11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="Q5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q4" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Q3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="Q30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="Q29" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="Q28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Q27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="Q26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="Q25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="Q24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="Q23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="Q15" r:id="rId21" xr:uid="{25F8AEB9-D92E-4299-833A-FF93AEC7C1F8}"/>
+    <hyperlink ref="Q16" r:id="rId22" xr:uid="{E03A8BE2-FE7C-435E-A029-2A020E0E4C55}"/>
+    <hyperlink ref="Q17" r:id="rId23" xr:uid="{B1E513E8-4C6A-4F48-85C7-B4D145659151}"/>
+    <hyperlink ref="Q18" r:id="rId24" xr:uid="{B70A9FB3-E357-425D-A455-89D51232F60E}"/>
+    <hyperlink ref="Q14" r:id="rId25" xr:uid="{0A64C49A-4212-4032-9A93-40E279FBF622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
@@ -9841,30 +9999,30 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.59765625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.8984375" style="11" customWidth="1"/>
-    <col min="10" max="13" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.59765625" style="14" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" style="26" customWidth="1"/>
+    <col min="9" max="9" width="75.875" style="11" customWidth="1"/>
+    <col min="10" max="13" width="11.875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.625" style="14" customWidth="1"/>
+    <col min="16" max="16" width="19.625" style="26" customWidth="1"/>
     <col min="17" max="17" width="38.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.3984375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="9.09765625" style="14" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" style="14" customWidth="1"/>
+    <col min="18" max="18" width="28.375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="9.125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.625" style="14" customWidth="1"/>
     <col min="21" max="21" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.59765625" style="14" customWidth="1"/>
-    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -9938,7 +10096,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="35" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:24" s="35" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10010,7 +10168,7 @@
       </c>
       <c r="X2" s="34"/>
     </row>
-    <row r="3" spans="1:24" s="35" customFormat="1" ht="104.4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:24" s="35" customFormat="1" ht="99" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -10078,7 +10236,7 @@
       </c>
       <c r="X3" s="34"/>
     </row>
-    <row r="4" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -10134,7 +10292,7 @@
       </c>
       <c r="X4" s="34"/>
     </row>
-    <row r="5" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:24" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>4</v>
       </c>

--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luthe\Desktop\python_automation-master\apiScrapy\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91B99B-4506-45D4-BAB2-F9459D8F99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="-10380" windowWidth="11595" windowHeight="7455"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -37,22 +38,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="809">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1555,10 +1546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../../output/통계청/기상관측일자료목록조회/getWthrDataList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getWthrDataList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1575,31 +1562,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stnId,stnNm,tm,avgTa,minTa,minTaHrmt,maxTa,maxTaHrmt,sumRnDur,mi10MaxRn,mi10MaxRnHrmt,hr1MaxRn,hr1MaxRnHrmt,sumRn,maxInsWs,maxInsWsWd,maxInsWsHrmt,maxWs,maxWsWd,maxWsHrmt,avgWs,hr24SumRws,maxWd,avgTd ,minRhm,minRhmHrmt,avgRhm,avgPv,avgPa,maxPs,maxPsHrmt,minPs,minPsHrmt,avgPs,ssDur,sumSsHr,hr1MaxIcsrHrmt,hr1MaxIcsr,sumGsr,ddMefs,ddMefsHrmt,ddMes,ddMesHrmt,sumDpthFhsc,avgTca,avgLmac,avgTs,minTg,avgCm5Te,avgCm10Te,avgCm20Te,avgCm30Te,avgM05Te,avgM10Te,avgM15Te,avgM30Te,avgM50Te,sumLrgEv,sumSmlEv,n99Rn,iscs,sumFogDur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://apis.data.go.kr/1611000/nsdi/eios/LadfrlService/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ladfrlList.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,pnu,numOfRows,pageNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey,pnu,numOfRows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>../../output/통계청/토지임야목록조회/ladfrlList.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;pnu=&amp;numOfRows=&amp;pageNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3020,11 +2983,116 @@
     <t>Excel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>stnId,stnNm,tm,avgTa,minTa,minTaHrmt,maxTa,maxTaHrmt,sumRnDur,mi10MaxRn,mi10MaxRnHrmt,hr1MaxRn,hr1MaxRnHrmt,sumRn,maxInsWs,maxInsWsWd,maxInsWsHrmt,maxWs,maxWsWd,maxWsHrmt,avgWs,hr24SumRws,maxWd,avgTd,minRhm,minRhmHrmt,avgRhm,avgPv,avgPa,maxPs,maxPsHrmt,minPs,minPsHrmt,avgPs,ssDur,sumSsHr,hr1MaxIcsrHrmt,hr1MaxIcsr,sumGsr,ddMefs,ddMefsHrmt,ddMes,ddMesHrmt,sumDpthFhsc,avgTca,avgLmac,avgTs,minTg,avgCm5Te,avgCm10Te,avgCm20Te,avgCm30Te,avgM05Te,avgM10Te,avgM15Te,avgM30Te,avgM50Te,sumLrgEv,sumSmlEv,n99Rn,iscs,sumFogDur</t>
+  </si>
+  <si>
+    <t>../../output/통계청/기상관측일자료목록조회.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일 1회</t>
+  </si>
+  <si>
+    <t>pnu,ldCode,ldCodeNm,mnnmSlno,regstrSeCode,regstrSeCodeNm,lndcgrCode,lndcgrCodeNm,lndpclAr,posesnSeCode,posesnSeCodeNm,cnrsPsnCo,ladFrtlSc,ladFrtlScNm,lastUpdtDt,numOfRows,pageNo,totalCount</t>
+  </si>
+  <si>
+    <t>serviceKey,numOfRows,pnu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey,numOfRows,pnu,pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/통계청/토지임야목록조회.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1611000/nsdi/eios/LadfrlService/ladfrlList.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;pnu=1121510100101260025&amp;numOfRows=999&amp;pageNo=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국토교통부(토지임야정보조회서비스)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnu,ldCode,ldCodeNm,regstrSeCode,regstrSeCodeNm,mnnmSlno,ladSn,stdrYear,stdrMt,lndcgrCode,lndcgrCodeNm,lndpclAr,prposArea1,prposAreaNm1,prposArea2,prposAreaNm2,ladUseSittn,ladUseSittnNm,tpgrphHgCode,tpgrphHgCodeNm,tpgrphFrmCode,tpgrphFrmCodeNm,roadSideCode,roadSideCodeNm,pblntfPclnd,lastUpdtDt</t>
+  </si>
+  <si>
+    <t>pnu,serviceKey,numOfRows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnu,stdrYear,format,ServiceKey,numOfRows,pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/통계청/토지특성속성조회.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 2회</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1611000/1nsdi/LandCharacteristicsService/attr/getLandCharacteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getLandCharacteristics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnu=1111016700100200000&amp;stdrYear=2017&amp;format=json&amp;serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;numOfRows=999&amp;pageNo=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토지특성정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pnu,ldCode,ldCodeNm,regstrSeCode,regstrSeCodeNm,mnnmSlno,stdLandSn,stdrYear,bsnsDstrcAr,lndcgrCode,lndcgrCodeNm,realLndcgrCode,realLndcgrCodeNm,lndpclAr,prposArea1,prposAreaNm1,prposArea2,prposAreaNm2,prposDstrc1,prposDstrcNm1,prposDstrc2,prposDstrcNm2,cnflcRt,ladUseSittn,ladUseSittnNm,tpgrphHgCode,tpgrphHgCodeNm,tpgrphFrmCode,tpgrphFrmCodeNm,roadSideCode,roadSideCodeNm,roadDstncCode,roadDstncCodeNm,pblntfPclnd,stdlandPosesnSeCode,stdlandPosesnSeCodeNm,posesnStle,posesnStleNm,lastUpdtDt</t>
+  </si>
+  <si>
+    <t>ldCode,serviceKey,numOfRows,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldCode,stdrYear,format,serviceKey,numOfRows,pageNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>../../output/통계청/표준지공시지가속성조회.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연 1회</t>
+  </si>
+  <si>
+    <t>http://apis.data.go.kr/1611000/nsdi/ReferLandPriceService/attr/getReferLandPriceAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getReferLandPriceAttr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldCode=1111017400&amp;stdrYear=2015&amp;format=json&amp;serviceKey=h2pHFUSHMnsx%2FwJfhd%2BfyC4L0X%2Bg16L0FhJvDcos8Px4Fqttih1HONUkKXQ5ITmYlq1vjIYT8%2FG%2BtwwMfA9m8Q%3D%3D&amp;numOfRows=10&amp;pageNo=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표준지공시지가정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3170,7 +3238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3330,11 +3398,20 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2 10 2" xfId="1"/>
-    <cellStyle name="표준 2 67" xfId="2"/>
+    <cellStyle name="표준 2 10 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 2 67" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="하이퍼링크" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3701,40 +3778,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.875" customWidth="1"/>
-    <col min="4" max="4" width="73.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="19.125" customWidth="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1"/>
-    <col min="9" max="9" width="70.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="6.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8984375" customWidth="1"/>
+    <col min="4" max="4" width="73.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="19.09765625" customWidth="1"/>
+    <col min="8" max="8" width="21.59765625" customWidth="1"/>
+    <col min="9" max="9" width="70.3984375" style="10" customWidth="1"/>
     <col min="10" max="11" width="23.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="35.625" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.125" customWidth="1"/>
-    <col min="14" max="16" width="19.625" customWidth="1"/>
-    <col min="17" max="17" width="38.625" customWidth="1"/>
-    <col min="18" max="18" width="20.625" style="10" customWidth="1"/>
-    <col min="19" max="20" width="20.625" customWidth="1"/>
-    <col min="21" max="21" width="24.625" customWidth="1"/>
-    <col min="22" max="23" width="20.625" customWidth="1"/>
-    <col min="24" max="24" width="23.875" customWidth="1"/>
+    <col min="12" max="12" width="35.59765625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.09765625" customWidth="1"/>
+    <col min="14" max="16" width="19.59765625" customWidth="1"/>
+    <col min="17" max="17" width="38.59765625" customWidth="1"/>
+    <col min="18" max="18" width="20.59765625" style="10" customWidth="1"/>
+    <col min="19" max="20" width="20.59765625" customWidth="1"/>
+    <col min="21" max="21" width="24.59765625" customWidth="1"/>
+    <col min="22" max="23" width="20.59765625" customWidth="1"/>
+    <col min="24" max="24" width="23.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -3763,10 +3840,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L1" s="19" t="s">
         <v>168</v>
@@ -3811,7 +3888,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="2" customFormat="1" ht="198" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="2" customFormat="1" ht="208.8" x14ac:dyDescent="0.4">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -3822,16 +3899,16 @@
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>26</v>
@@ -3840,7 +3917,7 @@
         <v>38</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K2" s="28" t="s">
         <v>165</v>
@@ -3849,7 +3926,7 @@
         <v>174</v>
       </c>
       <c r="M2" s="30" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>24</v>
@@ -3867,7 +3944,7 @@
         <v>25</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="T2" s="7" t="s">
         <v>20</v>
@@ -3876,7 +3953,7 @@
         <v>21</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>42</v>
@@ -3885,18 +3962,18 @@
         <v>24</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
-    <row r="3" spans="1:25" s="2" customFormat="1" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="2" customFormat="1" ht="348" x14ac:dyDescent="0.4">
       <c r="A3" s="21">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>27</v>
@@ -3911,13 +3988,13 @@
         <v>23</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K3" s="17" t="s">
         <v>171</v>
@@ -3926,10 +4003,10 @@
         <v>170</v>
       </c>
       <c r="M3" s="30" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O3" s="21" t="s">
         <v>24</v>
@@ -3959,11 +4036,11 @@
         <v>42</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:25" s="2" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="2" customFormat="1" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -3992,7 +4069,7 @@
         <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>172</v>
@@ -4001,16 +4078,16 @@
         <v>173</v>
       </c>
       <c r="M4" s="30" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="Q4" s="22" t="s">
         <v>141</v>
@@ -4031,14 +4108,14 @@
         <v>41</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X4" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="297" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -4049,7 +4126,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>118</v>
@@ -4058,7 +4135,7 @@
         <v>119</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
@@ -4067,22 +4144,22 @@
         <v>35</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="K5" s="17" t="s">
         <v>235</v>
       </c>
       <c r="L5" s="17" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="M5" s="30" t="s">
         <v>176</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P5" s="5" t="s">
         <v>24</v>
@@ -4094,7 +4171,7 @@
         <v>36</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="T5" s="7" t="s">
         <v>20</v>
@@ -4109,61 +4186,61 @@
         <v>42</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A6" s="21">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="K6" s="17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="M6" s="30" t="s">
         <v>177</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="R6" s="21" t="s">
         <v>39</v>
@@ -4181,31 +4258,31 @@
         <v>22</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A7" s="21">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>23</v>
@@ -4214,37 +4291,37 @@
         <v>26</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>236</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="M7" s="30" t="s">
         <v>178</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P7" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="R7" s="21" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="T7" s="7" t="s">
         <v>20</v>
@@ -4253,17 +4330,17 @@
         <v>21</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W7" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -4271,31 +4348,31 @@
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K8" s="17" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="L8" s="17" t="s">
         <v>237</v>
@@ -4304,22 +4381,22 @@
         <v>179</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O8" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P8" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="T8" s="7" t="s">
         <v>20</v>
@@ -4328,70 +4405,70 @@
         <v>21</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A9" s="21">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K9" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M9" s="30" t="s">
         <v>180</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P9" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q9" s="22" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>40</v>
@@ -4403,7 +4480,7 @@
         <v>21</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W9" s="5" t="s">
         <v>42</v>
@@ -4413,15 +4490,15 @@
       </c>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:25" ht="264" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A10" s="21">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>43</v>
@@ -4430,25 +4507,25 @@
         <v>118</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K10" s="17" t="s">
         <v>167</v>
       </c>
       <c r="L10" s="28" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M10" s="30" t="s">
         <v>181</v>
@@ -4457,19 +4534,19 @@
         <v>24</v>
       </c>
       <c r="O10" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P10" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q10" s="22" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="S10" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T10" s="7" t="s">
         <v>20</v>
@@ -4478,31 +4555,31 @@
         <v>21</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y10" s="1"/>
     </row>
-    <row r="11" spans="1:25" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A11" s="21">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>119</v>
@@ -4511,40 +4588,40 @@
         <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L11" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>182</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>143</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T11" s="7" t="s">
         <v>20</v>
@@ -4553,73 +4630,73 @@
         <v>21</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W11" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y11" s="1"/>
     </row>
-    <row r="12" spans="1:25" ht="264" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" ht="261" x14ac:dyDescent="0.4">
       <c r="A12" s="21">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L12" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M12" s="30" t="s">
         <v>183</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O12" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Q12" s="22" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T12" s="7" t="s">
         <v>20</v>
@@ -4628,17 +4705,17 @@
         <v>21</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y12" s="1"/>
     </row>
-    <row r="13" spans="1:25" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -4646,49 +4723,49 @@
         <v>29</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>44</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K13" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L13" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M13" s="30" t="s">
         <v>184</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O13" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q13" s="22" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="R13" s="21" t="s">
         <v>45</v>
@@ -4706,70 +4783,70 @@
         <v>41</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y13" s="1"/>
     </row>
-    <row r="14" spans="1:25" ht="297" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A14" s="21">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L14" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M14" s="30" t="s">
         <v>185</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O14" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="R14" s="21" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T14" s="7" t="s">
         <v>20</v>
@@ -4778,46 +4855,46 @@
         <v>21</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y14" s="1"/>
     </row>
-    <row r="15" spans="1:25" ht="264" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A15" s="21">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="K15" s="17" t="s">
         <v>238</v>
@@ -4829,22 +4906,22 @@
         <v>186</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P15" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="T15" s="7" t="s">
         <v>20</v>
@@ -4859,67 +4936,67 @@
         <v>42</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y15" s="1"/>
     </row>
-    <row r="16" spans="1:25" ht="297" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A16" s="21">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="K16" s="17" t="s">
         <v>238</v>
       </c>
       <c r="L16" s="17" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="M16" s="30" t="s">
         <v>187</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O16" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q16" s="22" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="R16" s="21" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>20</v>
@@ -4934,43 +5011,43 @@
         <v>42</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y16" s="1"/>
     </row>
-    <row r="17" spans="1:25" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A17" s="21">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L17" s="17" t="s">
         <v>239</v>
@@ -4979,10 +5056,10 @@
         <v>188</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>24</v>
@@ -4991,10 +5068,10 @@
         <v>144</v>
       </c>
       <c r="R17" s="21" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="T17" s="7" t="s">
         <v>20</v>
@@ -5003,73 +5080,73 @@
         <v>21</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y17" s="1"/>
     </row>
-    <row r="18" spans="1:25" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A18" s="21">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>49</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="K18" s="17" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L18" s="17" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="M18" s="30" t="s">
         <v>189</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="22" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="R18" s="21" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="T18" s="7" t="s">
         <v>20</v>
@@ -5078,17 +5155,17 @@
         <v>21</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="W18" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y18" s="1"/>
     </row>
-    <row r="19" spans="1:25" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A19" s="21">
         <v>18</v>
       </c>
@@ -5105,25 +5182,25 @@
         <v>118</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>23</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L19" s="17" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="M19" s="30" t="s">
         <v>190</v>
@@ -5132,19 +5209,19 @@
         <v>24</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q19" s="22" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="R19" s="21" t="s">
         <v>51</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="T19" s="7" t="s">
         <v>20</v>
@@ -5156,14 +5233,14 @@
         <v>41</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A20" s="21">
         <v>19</v>
       </c>
@@ -5174,16 +5251,16 @@
         <v>19</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G20" s="21" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H20" s="21" t="s">
         <v>26</v>
@@ -5192,10 +5269,10 @@
         <v>53</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="K20" s="17" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="L20" s="17" t="s">
         <v>240</v>
@@ -5213,10 +5290,10 @@
         <v>24</v>
       </c>
       <c r="Q20" s="22" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>33</v>
@@ -5231,14 +5308,14 @@
         <v>54</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Y20" s="1"/>
     </row>
-    <row r="21" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A21" s="21">
         <v>20</v>
       </c>
@@ -5252,22 +5329,22 @@
         <v>55</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>58</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="K21" s="17" t="s">
         <v>241</v>
@@ -5313,7 +5390,7 @@
       </c>
       <c r="Y21" s="1"/>
     </row>
-    <row r="22" spans="1:25" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A22" s="21">
         <v>21</v>
       </c>
@@ -5321,7 +5398,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>59</v>
@@ -5330,7 +5407,7 @@
         <v>118</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>23</v>
@@ -5342,13 +5419,13 @@
         <v>60</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="K22" s="17" t="s">
         <v>241</v>
       </c>
       <c r="L22" s="17" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="M22" s="30" t="s">
         <v>193</v>
@@ -5363,7 +5440,7 @@
         <v>24</v>
       </c>
       <c r="Q22" s="22" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="R22" s="5" t="s">
         <v>61</v>
@@ -5381,31 +5458,31 @@
         <v>54</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y22" s="1"/>
     </row>
-    <row r="23" spans="1:25" ht="346.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" ht="348" x14ac:dyDescent="0.4">
       <c r="A23" s="21">
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>23</v>
@@ -5414,13 +5491,13 @@
         <v>26</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>243</v>
@@ -5432,19 +5509,19 @@
         <v>24</v>
       </c>
       <c r="O23" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="22" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="R23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="T23" s="7" t="s">
         <v>20</v>
@@ -5463,7 +5540,7 @@
       </c>
       <c r="Y23" s="1"/>
     </row>
-    <row r="24" spans="1:25" ht="264" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A24" s="21">
         <v>23</v>
       </c>
@@ -5477,10 +5554,10 @@
         <v>64</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G24" s="21" t="s">
         <v>23</v>
@@ -5489,10 +5566,10 @@
         <v>26</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="K24" s="17" t="s">
         <v>241</v>
@@ -5504,19 +5581,19 @@
         <v>195</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O24" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q24" s="22" t="s">
         <v>146</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>62</v>
@@ -5528,7 +5605,7 @@
         <v>21</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="W24" s="5" t="s">
         <v>42</v>
@@ -5538,7 +5615,7 @@
       </c>
       <c r="Y24" s="1"/>
     </row>
-    <row r="25" spans="1:25" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A25" s="21">
         <v>24</v>
       </c>
@@ -5546,7 +5623,7 @@
         <v>52</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>65</v>
@@ -5555,7 +5632,7 @@
         <v>118</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>23</v>
@@ -5567,10 +5644,10 @@
         <v>66</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K25" s="17" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="L25" s="17" t="s">
         <v>244</v>
@@ -5588,10 +5665,10 @@
         <v>24</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>33</v>
@@ -5603,17 +5680,17 @@
         <v>21</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="W25" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="Y25" s="1"/>
     </row>
-    <row r="26" spans="1:25" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A26" s="21">
         <v>25</v>
       </c>
@@ -5624,13 +5701,13 @@
         <v>19</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>23</v>
@@ -5639,22 +5716,22 @@
         <v>26</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>165</v>
       </c>
       <c r="L26" s="17" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="M26" s="30" t="s">
         <v>197</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O26" s="21" t="s">
         <v>24</v>
@@ -5669,7 +5746,7 @@
         <v>67</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="T26" s="7" t="s">
         <v>20</v>
@@ -5688,7 +5765,7 @@
       </c>
       <c r="Y26" s="1"/>
     </row>
-    <row r="27" spans="1:25" ht="363" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" ht="365.4" x14ac:dyDescent="0.4">
       <c r="A27" s="21">
         <v>26</v>
       </c>
@@ -5705,22 +5782,22 @@
         <v>118</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="L27" s="17" t="s">
         <v>246</v>
@@ -5732,16 +5809,16 @@
         <v>24</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>70</v>
@@ -5756,25 +5833,25 @@
         <v>71</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y27" s="1"/>
     </row>
-    <row r="28" spans="1:25" ht="165" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" ht="174" x14ac:dyDescent="0.4">
       <c r="A28" s="21">
         <v>27</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C28" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>118</v>
@@ -5783,16 +5860,16 @@
         <v>119</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H28" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="K28" s="17" t="s">
         <v>245</v>
@@ -5813,10 +5890,10 @@
         <v>24</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>70</v>
@@ -5831,19 +5908,19 @@
         <v>71</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X28" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="1:25" ht="99" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" ht="87" x14ac:dyDescent="0.4">
       <c r="A29" s="21">
         <v>28</v>
       </c>
       <c r="B29" s="21" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>19</v>
@@ -5858,16 +5935,16 @@
         <v>119</v>
       </c>
       <c r="G29" s="21" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="K29" s="17" t="s">
         <v>245</v>
@@ -5879,10 +5956,10 @@
         <v>200</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P29" s="5" t="s">
         <v>24</v>
@@ -5894,7 +5971,7 @@
         <v>74</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="T29" s="7" t="s">
         <v>20</v>
@@ -5903,7 +5980,7 @@
         <v>21</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="W29" s="5" t="s">
         <v>42</v>
@@ -5913,7 +5990,7 @@
       </c>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="1:25" ht="264" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" ht="261" x14ac:dyDescent="0.4">
       <c r="A30" s="21">
         <v>29</v>
       </c>
@@ -5936,13 +6013,13 @@
         <v>23</v>
       </c>
       <c r="H30" s="21" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="K30" s="17" t="s">
         <v>245</v>
@@ -5954,7 +6031,7 @@
         <v>201</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="O30" s="21" t="s">
         <v>24</v>
@@ -5963,13 +6040,13 @@
         <v>24</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="R30" s="5" t="s">
         <v>77</v>
       </c>
       <c r="S30" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="T30" s="7" t="s">
         <v>20</v>
@@ -5981,14 +6058,14 @@
         <v>71</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A31" s="21">
         <v>30</v>
       </c>
@@ -5996,55 +6073,55 @@
         <v>68</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>78</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L31" s="17" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="M31" s="30" t="s">
         <v>202</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O31" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P31" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q31" s="22" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T31" s="7" t="s">
         <v>20</v>
@@ -6059,11 +6136,11 @@
         <v>42</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="1:25" ht="198" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A32" s="21">
         <v>31</v>
       </c>
@@ -6080,22 +6157,22 @@
         <v>118</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H32" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L32" s="17" t="s">
         <v>246</v>
@@ -6104,22 +6181,22 @@
         <v>203</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O32" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P32" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q32" s="22" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="R32" s="5" t="s">
         <v>80</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="T32" s="7" t="s">
         <v>20</v>
@@ -6128,70 +6205,70 @@
         <v>21</v>
       </c>
       <c r="V32" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="W32" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X32" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y32" s="1"/>
     </row>
-    <row r="33" spans="1:25" ht="379.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" ht="382.8" x14ac:dyDescent="0.4">
       <c r="A33" s="21">
         <v>32</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M33" s="30" t="s">
         <v>204</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O33" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P33" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q33" s="22" t="s">
         <v>149</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>70</v>
@@ -6206,19 +6283,19 @@
         <v>71</v>
       </c>
       <c r="W33" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X33" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y33" s="1"/>
     </row>
-    <row r="34" spans="1:25" ht="99" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" ht="104.4" x14ac:dyDescent="0.4">
       <c r="A34" s="21">
         <v>33</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>19</v>
@@ -6236,13 +6313,13 @@
         <v>23</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="K34" s="17" t="s">
         <v>245</v>
@@ -6254,22 +6331,22 @@
         <v>205</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O34" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P34" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="S34" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T34" s="7" t="s">
         <v>20</v>
@@ -6281,14 +6358,14 @@
         <v>71</v>
       </c>
       <c r="W34" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X34" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y34" s="1"/>
     </row>
-    <row r="35" spans="1:25" ht="165" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" ht="174" x14ac:dyDescent="0.4">
       <c r="A35" s="21">
         <v>34</v>
       </c>
@@ -6296,28 +6373,28 @@
         <v>68</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="K35" s="17" t="s">
         <v>245</v>
@@ -6329,7 +6406,7 @@
         <v>206</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O35" s="21" t="s">
         <v>24</v>
@@ -6341,10 +6418,10 @@
         <v>151</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="S35" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T35" s="7" t="s">
         <v>20</v>
@@ -6363,12 +6440,12 @@
       </c>
       <c r="Y35" s="1"/>
     </row>
-    <row r="36" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A36" s="21">
         <v>35</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>19</v>
@@ -6377,49 +6454,49 @@
         <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G36" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H36" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>82</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="L36" s="17" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="M36" s="30" t="s">
         <v>207</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O36" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q36" s="22" t="s">
         <v>152</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="S36" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T36" s="7" t="s">
         <v>20</v>
@@ -6428,17 +6505,17 @@
         <v>21</v>
       </c>
       <c r="V36" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="W36" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X36" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="Y36" s="1"/>
     </row>
-    <row r="37" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A37" s="21">
         <v>36</v>
       </c>
@@ -6446,13 +6523,13 @@
         <v>68</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>119</v>
@@ -6461,13 +6538,13 @@
         <v>23</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>245</v>
@@ -6482,10 +6559,10 @@
         <v>24</v>
       </c>
       <c r="O37" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P37" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="Q37" s="22" t="s">
         <v>153</v>
@@ -6494,7 +6571,7 @@
         <v>83</v>
       </c>
       <c r="S37" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T37" s="7" t="s">
         <v>20</v>
@@ -6503,22 +6580,22 @@
         <v>21</v>
       </c>
       <c r="V37" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="W37" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Y37" s="1"/>
     </row>
-    <row r="38" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A38" s="21">
         <v>37</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>19</v>
@@ -6527,25 +6604,25 @@
         <v>84</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H38" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>85</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L38" s="17" t="s">
         <v>247</v>
@@ -6554,7 +6631,7 @@
         <v>209</v>
       </c>
       <c r="N38" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O38" s="21" t="s">
         <v>24</v>
@@ -6563,13 +6640,13 @@
         <v>24</v>
       </c>
       <c r="Q38" s="23" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="S38" s="3" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="T38" s="7" t="s">
         <v>20</v>
@@ -6578,34 +6655,34 @@
         <v>21</v>
       </c>
       <c r="V38" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="W38" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y38" s="1"/>
     </row>
-    <row r="39" spans="1:25" ht="165" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" ht="174" x14ac:dyDescent="0.4">
       <c r="A39" s="21">
         <v>38</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>23</v>
@@ -6617,10 +6694,10 @@
         <v>86</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>247</v>
@@ -6629,22 +6706,22 @@
         <v>210</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O39" s="15" t="s">
         <v>24</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q39" s="24" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="S39" s="3" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="T39" s="7" t="s">
         <v>20</v>
@@ -6653,17 +6730,17 @@
         <v>21</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="W39" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y39" s="1"/>
     </row>
-    <row r="40" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A40" s="21">
         <v>39</v>
       </c>
@@ -6674,28 +6751,28 @@
         <v>19</v>
       </c>
       <c r="D40" s="21" t="s">
+        <v>685</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>688</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>689</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="K40" s="17" t="s">
         <v>692</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="F40" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="G40" s="21" t="s">
-        <v>695</v>
-      </c>
-      <c r="H40" s="21" t="s">
-        <v>696</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>697</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>698</v>
-      </c>
-      <c r="K40" s="17" t="s">
-        <v>699</v>
       </c>
       <c r="L40" s="17" t="s">
         <v>248</v>
@@ -6713,13 +6790,13 @@
         <v>24</v>
       </c>
       <c r="Q40" s="22" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="S40" s="3" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="T40" s="7" t="s">
         <v>20</v>
@@ -6731,19 +6808,19 @@
         <v>88</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="X40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y40" s="1"/>
     </row>
-    <row r="41" spans="1:25" ht="231" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A41" s="21">
         <v>40</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>19</v>
@@ -6752,25 +6829,25 @@
         <v>89</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H41" s="21" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="L41" s="17" t="s">
         <v>249</v>
@@ -6779,22 +6856,22 @@
         <v>212</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q41" s="22" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="S41" s="3" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="T41" s="7" t="s">
         <v>20</v>
@@ -6803,49 +6880,49 @@
         <v>21</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="W41" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="Y41" s="1"/>
     </row>
-    <row r="42" spans="1:25" ht="231" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A42" s="21">
         <v>41</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G42" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="L42" s="17" t="s">
         <v>250</v>
@@ -6854,22 +6931,22 @@
         <v>213</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O42" s="21" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="P42" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Q42" s="22" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="R42" s="5" t="s">
         <v>90</v>
       </c>
       <c r="S42" s="3" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="T42" s="7" t="s">
         <v>20</v>
@@ -6884,43 +6961,43 @@
         <v>42</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y42" s="1"/>
     </row>
-    <row r="43" spans="1:25" ht="66" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A43" s="21">
         <v>42</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="G43" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L43" s="17" t="s">
         <v>251</v>
@@ -6929,19 +7006,19 @@
         <v>214</v>
       </c>
       <c r="N43" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O43" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P43" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q43" s="22" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="S43" s="3" t="s">
         <v>33</v>
@@ -6956,14 +7033,14 @@
         <v>88</v>
       </c>
       <c r="W43" s="5" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="X43" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y43" s="1"/>
     </row>
-    <row r="44" spans="1:25" ht="99" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" ht="87" x14ac:dyDescent="0.4">
       <c r="A44" s="21">
         <v>43</v>
       </c>
@@ -6971,31 +7048,31 @@
         <v>87</v>
       </c>
       <c r="C44" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D44" s="21" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="H44" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="L44" s="17" t="s">
         <v>252</v>
@@ -7019,7 +7096,7 @@
         <v>92</v>
       </c>
       <c r="S44" s="3" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="T44" s="7" t="s">
         <v>20</v>
@@ -7028,31 +7105,31 @@
         <v>21</v>
       </c>
       <c r="V44" s="5" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="W44" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y44" s="1"/>
     </row>
-    <row r="45" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A45" s="21">
         <v>44</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="C45" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>119</v>
@@ -7067,10 +7144,10 @@
         <v>113</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>253</v>
@@ -7082,19 +7159,19 @@
         <v>24</v>
       </c>
       <c r="O45" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P45" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q45" s="22" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="R45" s="5" t="s">
         <v>93</v>
       </c>
       <c r="S45" s="3" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="T45" s="7" t="s">
         <v>20</v>
@@ -7109,22 +7186,22 @@
         <v>42</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Y45" s="1"/>
     </row>
-    <row r="46" spans="1:25" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A46" s="21">
         <v>45</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C46" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>118</v>
@@ -7139,10 +7216,10 @@
         <v>26</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="K46" s="17" t="s">
         <v>231</v>
@@ -7154,22 +7231,22 @@
         <v>217</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O46" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P46" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q46" s="22" t="s">
         <v>155</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="S46" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="T46" s="7" t="s">
         <v>97</v>
@@ -7178,17 +7255,17 @@
         <v>21</v>
       </c>
       <c r="V46" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W46" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Y46" s="1"/>
     </row>
-    <row r="47" spans="1:25" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A47" s="21">
         <v>46</v>
       </c>
@@ -7196,7 +7273,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D47" s="21" t="s">
         <v>96</v>
@@ -7211,13 +7288,13 @@
         <v>23</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>741</v>
+        <v>734</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>742</v>
+        <v>735</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>231</v>
@@ -7232,7 +7309,7 @@
         <v>24</v>
       </c>
       <c r="O47" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P47" s="5" t="s">
         <v>24</v>
@@ -7256,22 +7333,22 @@
         <v>100</v>
       </c>
       <c r="W47" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X47" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y47" s="1"/>
     </row>
-    <row r="48" spans="1:25" ht="132" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A48" s="21">
         <v>47</v>
       </c>
       <c r="B48" s="21" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C48" s="21" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D48" s="21" t="s">
         <v>99</v>
@@ -7286,16 +7363,16 @@
         <v>23</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>114</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>743</v>
+        <v>736</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L48" s="17" t="s">
         <v>254</v>
@@ -7304,41 +7381,41 @@
         <v>219</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O48" s="21" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="P48" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q48" s="22" t="s">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>745</v>
+        <v>738</v>
       </c>
       <c r="S48" s="3" t="s">
         <v>33</v>
       </c>
       <c r="T48" s="7" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="U48" s="7" t="s">
         <v>21</v>
       </c>
       <c r="V48" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W48" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:25" ht="330" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" ht="330.6" x14ac:dyDescent="0.4">
       <c r="A49" s="21">
         <v>48</v>
       </c>
@@ -7349,10 +7426,10 @@
         <v>19</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>119</v>
@@ -7361,13 +7438,13 @@
         <v>23</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="K49" s="17" t="s">
         <v>231</v>
@@ -7379,13 +7456,13 @@
         <v>220</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O49" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P49" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q49" s="22" t="s">
         <v>157</v>
@@ -7397,23 +7474,23 @@
         <v>95</v>
       </c>
       <c r="T49" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="U49" s="7" t="s">
         <v>21</v>
       </c>
       <c r="V49" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W49" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X49" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y49" s="1"/>
     </row>
-    <row r="50" spans="1:25" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A50" s="21">
         <v>49</v>
       </c>
@@ -7421,55 +7498,55 @@
         <v>94</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>118</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="H50" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="K50" s="17" t="s">
         <v>255</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>755</v>
+        <v>748</v>
       </c>
       <c r="M50" s="30" t="s">
         <v>221</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O50" s="21" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="P50" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q50" s="22" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="R50" s="5" t="s">
         <v>102</v>
       </c>
       <c r="S50" s="3" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="T50" s="7" t="s">
         <v>97</v>
@@ -7478,46 +7555,46 @@
         <v>21</v>
       </c>
       <c r="V50" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W50" s="5" t="s">
         <v>42</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="Y50" s="1"/>
     </row>
-    <row r="51" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A51" s="21">
         <v>50</v>
       </c>
       <c r="B51" s="21" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="D51" s="21" t="s">
         <v>103</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H51" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="K51" s="16" t="s">
         <v>230</v>
@@ -7529,70 +7606,70 @@
         <v>222</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O51" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P51" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q51" s="22" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="R51" s="5" t="s">
         <v>104</v>
       </c>
       <c r="S51" s="3" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="T51" s="7" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="U51" s="7" t="s">
         <v>21</v>
       </c>
       <c r="V51" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W51" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X51" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y51" s="1"/>
     </row>
-    <row r="52" spans="1:25" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A52" s="21">
         <v>51</v>
       </c>
       <c r="B52" s="21" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C52" s="21" t="s">
         <v>19</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>119</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I52" s="5" t="s">
         <v>115</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="K52" s="16" t="s">
         <v>230</v>
@@ -7604,13 +7681,13 @@
         <v>223</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="O52" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="Q52" s="22" t="s">
         <v>158</v>
@@ -7622,23 +7699,23 @@
         <v>95</v>
       </c>
       <c r="T52" s="7" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="U52" s="7" t="s">
         <v>21</v>
       </c>
       <c r="V52" s="5" t="s">
-        <v>740</v>
+        <v>733</v>
       </c>
       <c r="W52" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="X52" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y52" s="21"/>
     </row>
-    <row r="53" spans="1:25" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A53" s="21">
         <v>52</v>
       </c>
@@ -7649,7 +7726,7 @@
         <v>19</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>118</v>
@@ -7661,13 +7738,13 @@
         <v>23</v>
       </c>
       <c r="H53" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="K53" s="17" t="s">
         <v>165</v>
@@ -7676,7 +7753,7 @@
         <v>234</v>
       </c>
       <c r="M53" s="30" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="N53" s="4" t="s">
         <v>24</v>
@@ -7685,16 +7762,16 @@
         <v>24</v>
       </c>
       <c r="P53" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q53" s="22" t="s">
         <v>159</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="S53" s="3" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="T53" s="7" t="s">
         <v>97</v>
@@ -7709,11 +7786,11 @@
         <v>42</v>
       </c>
       <c r="X53" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Y53" s="1"/>
     </row>
-    <row r="54" spans="1:25" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" ht="278.39999999999998" x14ac:dyDescent="0.4">
       <c r="A54" s="21">
         <v>53</v>
       </c>
@@ -7724,10 +7801,10 @@
         <v>19</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>119</v>
@@ -7739,10 +7816,10 @@
         <v>26</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="K54" s="17" t="s">
         <v>233</v>
@@ -7751,10 +7828,10 @@
         <v>232</v>
       </c>
       <c r="M54" s="30" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O54" s="21" t="s">
         <v>24</v>
@@ -7788,12 +7865,12 @@
       </c>
       <c r="Y54" s="1"/>
     </row>
-    <row r="55" spans="1:25" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" ht="87" x14ac:dyDescent="0.4">
       <c r="A55" s="21">
         <v>54</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>19</v>
@@ -7808,31 +7885,31 @@
         <v>119</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H55" s="21" t="s">
         <v>26</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="K55" s="17" t="s">
         <v>165</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="M55" s="30" t="s">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O55" s="21" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="P55" s="5" t="s">
         <v>24</v>
@@ -7844,7 +7921,7 @@
         <v>109</v>
       </c>
       <c r="S55" s="3" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="T55" s="7" t="s">
         <v>97</v>
@@ -7863,7 +7940,7 @@
       </c>
       <c r="Y55" s="1"/>
     </row>
-    <row r="56" spans="1:25" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" ht="174" x14ac:dyDescent="0.4">
       <c r="A56" s="21">
         <v>55</v>
       </c>
@@ -7883,7 +7960,7 @@
         <v>119</v>
       </c>
       <c r="G56" s="21" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="H56" s="21" t="s">
         <v>26</v>
@@ -7892,7 +7969,7 @@
         <v>116</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>781</v>
+        <v>774</v>
       </c>
       <c r="K56" s="17" t="s">
         <v>228</v>
@@ -7913,13 +7990,13 @@
         <v>24</v>
       </c>
       <c r="Q56" s="22" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="S56" s="3" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="T56" s="7" t="s">
         <v>97</v>
@@ -7931,22 +8008,22 @@
         <v>100</v>
       </c>
       <c r="W56" s="5" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="X56" s="5" t="s">
         <v>24</v>
       </c>
       <c r="Y56" s="1"/>
     </row>
-    <row r="57" spans="1:25" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A57" s="21">
         <v>56</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="D57" s="21" t="s">
         <v>111</v>
@@ -7955,22 +8032,22 @@
         <v>118</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>23</v>
       </c>
       <c r="H57" s="21" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>117</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="K57" s="17" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="L57" s="17" t="s">
         <v>229</v>
@@ -7979,13 +8056,13 @@
         <v>225</v>
       </c>
       <c r="N57" s="4" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="O57" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P57" s="5" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q57" s="22" t="s">
         <v>162</v>
@@ -8003,10 +8080,10 @@
         <v>21</v>
       </c>
       <c r="V57" s="5" t="s">
-        <v>747</v>
+        <v>740</v>
       </c>
       <c r="W57" s="5" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="X57" s="5" t="s">
         <v>24</v>
@@ -8016,62 +8093,62 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q3" r:id="rId1"/>
-    <hyperlink ref="Q4" r:id="rId2"/>
-    <hyperlink ref="Q5" r:id="rId3"/>
-    <hyperlink ref="Q6" r:id="rId4"/>
-    <hyperlink ref="Q7" r:id="rId5"/>
-    <hyperlink ref="Q8" r:id="rId6"/>
-    <hyperlink ref="Q9" r:id="rId7"/>
-    <hyperlink ref="Q10" r:id="rId8"/>
-    <hyperlink ref="Q11" r:id="rId9"/>
-    <hyperlink ref="Q12" r:id="rId10"/>
-    <hyperlink ref="Q13" r:id="rId11"/>
-    <hyperlink ref="Q14" r:id="rId12"/>
-    <hyperlink ref="Q15" r:id="rId13"/>
-    <hyperlink ref="Q16" r:id="rId14"/>
-    <hyperlink ref="Q17" r:id="rId15"/>
-    <hyperlink ref="Q18" r:id="rId16"/>
-    <hyperlink ref="Q19" r:id="rId17"/>
-    <hyperlink ref="Q20" r:id="rId18"/>
-    <hyperlink ref="Q21" r:id="rId19"/>
-    <hyperlink ref="Q22" r:id="rId20"/>
-    <hyperlink ref="Q23" r:id="rId21"/>
-    <hyperlink ref="Q24" r:id="rId22"/>
-    <hyperlink ref="Q25" r:id="rId23"/>
-    <hyperlink ref="Q26" r:id="rId24"/>
-    <hyperlink ref="Q27" r:id="rId25"/>
-    <hyperlink ref="Q28" r:id="rId26"/>
-    <hyperlink ref="Q29" r:id="rId27"/>
-    <hyperlink ref="Q30" r:id="rId28"/>
-    <hyperlink ref="Q31" r:id="rId29"/>
-    <hyperlink ref="Q32" r:id="rId30"/>
-    <hyperlink ref="Q33" r:id="rId31"/>
-    <hyperlink ref="Q34" r:id="rId32"/>
-    <hyperlink ref="Q35" r:id="rId33"/>
-    <hyperlink ref="Q36" r:id="rId34"/>
-    <hyperlink ref="Q37" r:id="rId35"/>
-    <hyperlink ref="Q38" r:id="rId36"/>
-    <hyperlink ref="Q39" r:id="rId37"/>
-    <hyperlink ref="Q40" r:id="rId38"/>
-    <hyperlink ref="Q41" r:id="rId39"/>
-    <hyperlink ref="Q42" r:id="rId40"/>
-    <hyperlink ref="Q43" r:id="rId41"/>
-    <hyperlink ref="Q44" r:id="rId42"/>
-    <hyperlink ref="Q45" r:id="rId43"/>
-    <hyperlink ref="Q46" r:id="rId44"/>
-    <hyperlink ref="Q47" r:id="rId45"/>
-    <hyperlink ref="Q48" r:id="rId46"/>
-    <hyperlink ref="Q49" r:id="rId47"/>
-    <hyperlink ref="Q50" r:id="rId48"/>
-    <hyperlink ref="Q51" r:id="rId49"/>
-    <hyperlink ref="Q52" r:id="rId50"/>
-    <hyperlink ref="Q53" r:id="rId51"/>
-    <hyperlink ref="Q54" r:id="rId52"/>
-    <hyperlink ref="Q55" r:id="rId53"/>
-    <hyperlink ref="Q56" r:id="rId54"/>
-    <hyperlink ref="Q57" r:id="rId55"/>
-    <hyperlink ref="Q2" r:id="rId56"/>
+    <hyperlink ref="Q3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="Q5" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="Q7" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="Q8" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="Q9" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="Q10" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="Q11" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="Q12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="Q13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="Q14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="Q15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="Q16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="Q17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="Q18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="Q19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="Q20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="Q21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="Q22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="Q23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="Q24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="Q25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="Q26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="Q27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="Q28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="Q29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="Q30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="Q31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="Q32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="Q33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="Q34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="Q35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="Q36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="Q37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="Q38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="Q39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="Q40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="Q41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="Q42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="Q43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="Q44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="Q45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="Q46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="Q47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="Q48" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="Q49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="Q50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="Q51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="Q52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="Q53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="Q54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="Q55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="Q56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="Q57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="Q2" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="23" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId57"/>
@@ -8089,38 +8166,38 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31.5" style="13" customWidth="1"/>
     <col min="10" max="10" width="31.5" style="10" customWidth="1"/>
-    <col min="11" max="14" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="19.625" style="13" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="25" customWidth="1"/>
+    <col min="11" max="14" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.59765625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.59765625" style="25" customWidth="1"/>
     <col min="18" max="18" width="38.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="28.375" style="10" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.625" style="13" customWidth="1"/>
+    <col min="19" max="19" width="28.3984375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.59765625" style="13" customWidth="1"/>
     <col min="22" max="22" width="34.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="19.625" style="13" customWidth="1"/>
-    <col min="25" max="25" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.59765625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -8146,7 +8223,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>8</v>
@@ -8197,7 +8274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:25" s="46" customFormat="1" ht="297" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" s="46" customFormat="1" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A2" s="40">
         <v>1</v>
       </c>
@@ -8208,7 +8285,7 @@
         <v>19</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E2" s="40" t="s">
         <v>118</v>
@@ -8223,7 +8300,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="44" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J2" s="43" t="s">
         <v>348</v>
@@ -8235,7 +8312,7 @@
         <v>268</v>
       </c>
       <c r="M2" s="44" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="N2" s="40" t="s">
         <v>265</v>
@@ -8272,7 +8349,7 @@
       </c>
       <c r="Y2" s="42"/>
     </row>
-    <row r="3" spans="1:25" s="34" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8283,7 +8360,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>118</v>
@@ -8298,7 +8375,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>349</v>
@@ -8310,7 +8387,7 @@
         <v>275</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="N3" s="35" t="s">
         <v>265</v>
@@ -8347,7 +8424,7 @@
       </c>
       <c r="Y3" s="33"/>
     </row>
-    <row r="4" spans="1:25" s="46" customFormat="1" ht="297" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" s="46" customFormat="1" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A4" s="40">
         <v>3</v>
       </c>
@@ -8358,7 +8435,7 @@
         <v>19</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>118</v>
@@ -8373,7 +8450,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="49" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J4" s="43" t="s">
         <v>348</v>
@@ -8385,7 +8462,7 @@
         <v>279</v>
       </c>
       <c r="M4" s="49" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="N4" s="48" t="s">
         <v>265</v>
@@ -8422,7 +8499,7 @@
       </c>
       <c r="Y4" s="42"/>
     </row>
-    <row r="5" spans="1:25" s="46" customFormat="1" ht="297" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" s="46" customFormat="1" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A5" s="40">
         <v>4</v>
       </c>
@@ -8433,7 +8510,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="41" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E5" s="48" t="s">
         <v>118</v>
@@ -8448,7 +8525,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="49" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J5" s="43" t="s">
         <v>348</v>
@@ -8460,7 +8537,7 @@
         <v>257</v>
       </c>
       <c r="M5" s="49" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="N5" s="48" t="s">
         <v>265</v>
@@ -8497,7 +8574,7 @@
       </c>
       <c r="Y5" s="42"/>
     </row>
-    <row r="6" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A6" s="40">
         <v>5</v>
       </c>
@@ -8508,7 +8585,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E6" s="48" t="s">
         <v>118</v>
@@ -8523,7 +8600,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="49" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J6" s="43" t="s">
         <v>350</v>
@@ -8535,7 +8612,7 @@
         <v>273</v>
       </c>
       <c r="M6" s="49" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="N6" s="48" t="s">
         <v>265</v>
@@ -8572,7 +8649,7 @@
       </c>
       <c r="Y6" s="42"/>
     </row>
-    <row r="7" spans="1:25" s="46" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" s="46" customFormat="1" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A7" s="40">
         <v>6</v>
       </c>
@@ -8583,7 +8660,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E7" s="40" t="s">
         <v>118</v>
@@ -8598,7 +8675,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="44" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J7" s="43" t="s">
         <v>335</v>
@@ -8610,7 +8687,7 @@
         <v>257</v>
       </c>
       <c r="M7" s="44" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="N7" s="40" t="s">
         <v>265</v>
@@ -8647,7 +8724,7 @@
       </c>
       <c r="Y7" s="42"/>
     </row>
-    <row r="8" spans="1:25" s="34" customFormat="1" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" s="34" customFormat="1" ht="87" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8658,7 +8735,7 @@
         <v>19</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E8" s="35" t="s">
         <v>118</v>
@@ -8673,7 +8750,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>333</v>
@@ -8685,7 +8762,7 @@
         <v>275</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>265</v>
@@ -8722,7 +8799,7 @@
       </c>
       <c r="Y8" s="33"/>
     </row>
-    <row r="9" spans="1:25" s="34" customFormat="1" ht="115.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8733,7 +8810,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E9" s="35" t="s">
         <v>118</v>
@@ -8748,7 +8825,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>334</v>
@@ -8760,7 +8837,7 @@
         <v>275</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>265</v>
@@ -8797,7 +8874,7 @@
       </c>
       <c r="Y9" s="33"/>
     </row>
-    <row r="10" spans="1:25" s="34" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" s="34" customFormat="1" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8808,7 +8885,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>118</v>
@@ -8823,7 +8900,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>335</v>
@@ -8835,7 +8912,7 @@
         <v>279</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>265</v>
@@ -8872,7 +8949,7 @@
       </c>
       <c r="Y10" s="33"/>
     </row>
-    <row r="11" spans="1:25" s="46" customFormat="1" ht="280.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" s="46" customFormat="1" ht="295.8" x14ac:dyDescent="0.4">
       <c r="A11" s="40">
         <v>10</v>
       </c>
@@ -8883,7 +8960,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E11" s="48" t="s">
         <v>118</v>
@@ -8898,7 +8975,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="49" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="J11" s="43" t="s">
         <v>335</v>
@@ -8910,7 +8987,7 @@
         <v>273</v>
       </c>
       <c r="M11" s="49" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="N11" s="48" t="s">
         <v>265</v>
@@ -8947,7 +9024,7 @@
       </c>
       <c r="Y11" s="42"/>
     </row>
-    <row r="12" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A12" s="40">
         <v>11</v>
       </c>
@@ -8958,7 +9035,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E12" s="48" t="s">
         <v>118</v>
@@ -8973,7 +9050,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="49" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="J12" s="43" t="s">
         <v>350</v>
@@ -8985,7 +9062,7 @@
         <v>294</v>
       </c>
       <c r="M12" s="49" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="N12" s="48" t="s">
         <v>24</v>
@@ -9022,7 +9099,7 @@
       </c>
       <c r="Y12" s="42"/>
     </row>
-    <row r="13" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A13" s="40">
         <v>12</v>
       </c>
@@ -9033,7 +9110,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>118</v>
@@ -9048,7 +9125,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="49" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J13" s="43" t="s">
         <v>336</v>
@@ -9060,7 +9137,7 @@
         <v>257</v>
       </c>
       <c r="M13" s="49" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="N13" s="48" t="s">
         <v>24</v>
@@ -9097,7 +9174,7 @@
       </c>
       <c r="Y13" s="42"/>
     </row>
-    <row r="14" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A14" s="40">
         <v>13</v>
       </c>
@@ -9108,7 +9185,7 @@
         <v>19</v>
       </c>
       <c r="D14" s="41" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>118</v>
@@ -9123,7 +9200,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="49" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J14" s="43" t="s">
         <v>336</v>
@@ -9135,7 +9212,7 @@
         <v>257</v>
       </c>
       <c r="M14" s="49" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="N14" s="48" t="s">
         <v>24</v>
@@ -9172,7 +9249,7 @@
       </c>
       <c r="Y14" s="42"/>
     </row>
-    <row r="15" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" s="46" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A15" s="40">
         <v>14</v>
       </c>
@@ -9183,7 +9260,7 @@
         <v>19</v>
       </c>
       <c r="D15" s="41" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E15" s="48" t="s">
         <v>118</v>
@@ -9198,7 +9275,7 @@
         <v>26</v>
       </c>
       <c r="I15" s="49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J15" s="43" t="s">
         <v>337</v>
@@ -9210,7 +9287,7 @@
         <v>257</v>
       </c>
       <c r="M15" s="49" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="N15" s="48" t="s">
         <v>24</v>
@@ -9247,7 +9324,7 @@
       </c>
       <c r="Y15" s="42"/>
     </row>
-    <row r="16" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A16" s="40">
         <v>15</v>
       </c>
@@ -9258,7 +9335,7 @@
         <v>19</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>118</v>
@@ -9273,7 +9350,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J16" s="43" t="s">
         <v>337</v>
@@ -9285,7 +9362,7 @@
         <v>257</v>
       </c>
       <c r="M16" s="49" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="N16" s="48" t="s">
         <v>24</v>
@@ -9322,7 +9399,7 @@
       </c>
       <c r="Y16" s="42"/>
     </row>
-    <row r="17" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A17" s="40">
         <v>16</v>
       </c>
@@ -9333,7 +9410,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E17" s="48" t="s">
         <v>118</v>
@@ -9348,7 +9425,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="49" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J17" s="43" t="s">
         <v>338</v>
@@ -9360,7 +9437,7 @@
         <v>257</v>
       </c>
       <c r="M17" s="49" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N17" s="48" t="s">
         <v>24</v>
@@ -9397,7 +9474,7 @@
       </c>
       <c r="Y17" s="42"/>
     </row>
-    <row r="18" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A18" s="40">
         <v>17</v>
       </c>
@@ -9408,7 +9485,7 @@
         <v>19</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E18" s="48" t="s">
         <v>118</v>
@@ -9423,7 +9500,7 @@
         <v>26</v>
       </c>
       <c r="I18" s="49" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J18" s="43" t="s">
         <v>338</v>
@@ -9435,7 +9512,7 @@
         <v>257</v>
       </c>
       <c r="M18" s="49" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="N18" s="48" t="s">
         <v>24</v>
@@ -9472,7 +9549,7 @@
       </c>
       <c r="Y18" s="42"/>
     </row>
-    <row r="19" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A19" s="40">
         <v>18</v>
       </c>
@@ -9483,7 +9560,7 @@
         <v>19</v>
       </c>
       <c r="D19" s="41" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E19" s="48" t="s">
         <v>118</v>
@@ -9498,7 +9575,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="49" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J19" s="43" t="s">
         <v>336</v>
@@ -9510,7 +9587,7 @@
         <v>257</v>
       </c>
       <c r="M19" s="49" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="N19" s="48" t="s">
         <v>24</v>
@@ -9547,7 +9624,7 @@
       </c>
       <c r="Y19" s="42"/>
     </row>
-    <row r="20" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A20" s="40">
         <v>19</v>
       </c>
@@ -9558,7 +9635,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E20" s="48" t="s">
         <v>118</v>
@@ -9573,7 +9650,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="49" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="J20" s="43" t="s">
         <v>336</v>
@@ -9585,7 +9662,7 @@
         <v>257</v>
       </c>
       <c r="M20" s="49" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="N20" s="48" t="s">
         <v>24</v>
@@ -9622,7 +9699,7 @@
       </c>
       <c r="Y20" s="42"/>
     </row>
-    <row r="21" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A21" s="40">
         <v>20</v>
       </c>
@@ -9633,7 +9710,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="41" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>118</v>
@@ -9648,7 +9725,7 @@
         <v>26</v>
       </c>
       <c r="I21" s="49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J21" s="43" t="s">
         <v>337</v>
@@ -9660,7 +9737,7 @@
         <v>257</v>
       </c>
       <c r="M21" s="49" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="N21" s="48" t="s">
         <v>24</v>
@@ -9697,7 +9774,7 @@
       </c>
       <c r="Y21" s="42"/>
     </row>
-    <row r="22" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A22" s="40">
         <v>21</v>
       </c>
@@ -9708,7 +9785,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="41" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>118</v>
@@ -9723,7 +9800,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="49" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="J22" s="43" t="s">
         <v>337</v>
@@ -9735,7 +9812,7 @@
         <v>257</v>
       </c>
       <c r="M22" s="49" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="N22" s="48" t="s">
         <v>24</v>
@@ -9772,7 +9849,7 @@
       </c>
       <c r="Y22" s="42"/>
     </row>
-    <row r="23" spans="1:25" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" s="46" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A23" s="40">
         <v>22</v>
       </c>
@@ -9783,7 +9860,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="41" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>118</v>
@@ -9798,7 +9875,7 @@
         <v>26</v>
       </c>
       <c r="I23" s="49" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J23" s="43" t="s">
         <v>339</v>
@@ -9810,7 +9887,7 @@
         <v>257</v>
       </c>
       <c r="M23" s="49" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="N23" s="48" t="s">
         <v>24</v>
@@ -9847,7 +9924,7 @@
       </c>
       <c r="Y23" s="40"/>
     </row>
-    <row r="24" spans="1:25" s="46" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" s="46" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A24" s="40">
         <v>23</v>
       </c>
@@ -9858,7 +9935,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="41" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>118</v>
@@ -9873,7 +9950,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="49" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="J24" s="43" t="s">
         <v>340</v>
@@ -9885,7 +9962,7 @@
         <v>289</v>
       </c>
       <c r="M24" s="49" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="N24" s="48" t="s">
         <v>258</v>
@@ -9922,7 +9999,7 @@
       </c>
       <c r="Y24" s="40"/>
     </row>
-    <row r="25" spans="1:25" s="46" customFormat="1" ht="214.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" s="46" customFormat="1" ht="226.2" x14ac:dyDescent="0.4">
       <c r="A25" s="40">
         <v>24</v>
       </c>
@@ -9933,7 +10010,7 @@
         <v>19</v>
       </c>
       <c r="D25" s="41" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E25" s="48" t="s">
         <v>118</v>
@@ -9948,7 +10025,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="49" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="J25" s="43" t="s">
         <v>341</v>
@@ -9960,7 +10037,7 @@
         <v>257</v>
       </c>
       <c r="M25" s="49" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N25" s="48" t="s">
         <v>263</v>
@@ -9997,7 +10074,7 @@
       </c>
       <c r="Y25" s="42"/>
     </row>
-    <row r="26" spans="1:25" s="46" customFormat="1" ht="181.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" s="46" customFormat="1" ht="191.4" x14ac:dyDescent="0.4">
       <c r="A26" s="40">
         <v>25</v>
       </c>
@@ -10008,7 +10085,7 @@
         <v>19</v>
       </c>
       <c r="D26" s="41" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>118</v>
@@ -10023,7 +10100,7 @@
         <v>26</v>
       </c>
       <c r="I26" s="49" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J26" s="43" t="s">
         <v>342</v>
@@ -10035,7 +10112,7 @@
         <v>257</v>
       </c>
       <c r="M26" s="49" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="N26" s="48" t="s">
         <v>265</v>
@@ -10072,7 +10149,7 @@
       </c>
       <c r="Y26" s="42"/>
     </row>
-    <row r="27" spans="1:25" s="46" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" s="46" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A27" s="40">
         <v>26</v>
       </c>
@@ -10083,7 +10160,7 @@
         <v>19</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>118</v>
@@ -10098,7 +10175,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="49" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J27" s="43" t="s">
         <v>343</v>
@@ -10110,7 +10187,7 @@
         <v>292</v>
       </c>
       <c r="M27" s="49" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="N27" s="48" t="s">
         <v>263</v>
@@ -10147,7 +10224,7 @@
       </c>
       <c r="Y27" s="42"/>
     </row>
-    <row r="28" spans="1:25" s="46" customFormat="1" ht="132" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" s="46" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A28" s="40">
         <v>27</v>
       </c>
@@ -10158,7 +10235,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="41" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E28" s="48" t="s">
         <v>118</v>
@@ -10173,7 +10250,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="49" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="J28" s="43" t="s">
         <v>343</v>
@@ -10185,7 +10262,7 @@
         <v>257</v>
       </c>
       <c r="M28" s="49" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="N28" s="48" t="s">
         <v>263</v>
@@ -10222,7 +10299,7 @@
       </c>
       <c r="Y28" s="42"/>
     </row>
-    <row r="29" spans="1:25" s="34" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" s="34" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -10233,7 +10310,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="32" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E29" s="35" t="s">
         <v>118</v>
@@ -10248,7 +10325,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="J29" s="17" t="s">
         <v>339</v>
@@ -10260,7 +10337,7 @@
         <v>268</v>
       </c>
       <c r="M29" s="36" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="N29" s="35" t="s">
         <v>263</v>
@@ -10297,7 +10374,7 @@
       </c>
       <c r="Y29" s="15"/>
     </row>
-    <row r="30" spans="1:25" s="34" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" s="34" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -10308,7 +10385,7 @@
         <v>19</v>
       </c>
       <c r="D30" s="32" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E30" s="35" t="s">
         <v>118</v>
@@ -10323,7 +10400,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>344</v>
@@ -10335,7 +10412,7 @@
         <v>264</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="N30" s="35" t="s">
         <v>263</v>
@@ -10372,7 +10449,7 @@
       </c>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="1:25" s="34" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" s="34" customFormat="1" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -10383,7 +10460,7 @@
         <v>19</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E31" s="35" t="s">
         <v>118</v>
@@ -10398,7 +10475,7 @@
         <v>26</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="J31" s="17" t="s">
         <v>345</v>
@@ -10410,7 +10487,7 @@
         <v>324</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="N31" s="35" t="s">
         <v>24</v>
@@ -10447,7 +10524,7 @@
       </c>
       <c r="Y31" s="33"/>
     </row>
-    <row r="32" spans="1:25" s="34" customFormat="1" ht="264" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" s="34" customFormat="1" ht="261" x14ac:dyDescent="0.4">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -10458,7 +10535,7 @@
         <v>19</v>
       </c>
       <c r="D32" s="32" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>118</v>
@@ -10473,7 +10550,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>346</v>
@@ -10485,7 +10562,7 @@
         <v>326</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="N32" s="35" t="s">
         <v>24</v>
@@ -10522,7 +10599,7 @@
       </c>
       <c r="Y32" s="33"/>
     </row>
-    <row r="33" spans="1:25" s="34" customFormat="1" ht="313.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" s="34" customFormat="1" ht="330.6" x14ac:dyDescent="0.4">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -10533,7 +10610,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="32" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>118</v>
@@ -10548,7 +10625,7 @@
         <v>26</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J33" s="17" t="s">
         <v>347</v>
@@ -10560,7 +10637,7 @@
         <v>328</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N33" s="35" t="s">
         <v>24</v>
@@ -10598,34 +10675,34 @@
       <c r="Y33" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Y33"/>
+  <autoFilter ref="A1:Y33" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q12" r:id="rId1"/>
-    <hyperlink ref="Q13" r:id="rId2"/>
-    <hyperlink ref="Q11" r:id="rId3"/>
-    <hyperlink ref="Q10" r:id="rId4"/>
-    <hyperlink ref="Q9" r:id="rId5"/>
-    <hyperlink ref="Q8" r:id="rId6"/>
-    <hyperlink ref="Q7" r:id="rId7"/>
-    <hyperlink ref="Q6" r:id="rId8"/>
-    <hyperlink ref="Q5" r:id="rId9"/>
-    <hyperlink ref="Q4" r:id="rId10"/>
-    <hyperlink ref="Q3" r:id="rId11"/>
-    <hyperlink ref="Q2" r:id="rId12"/>
-    <hyperlink ref="Q30" r:id="rId13"/>
-    <hyperlink ref="Q29" r:id="rId14"/>
-    <hyperlink ref="Q28" r:id="rId15"/>
-    <hyperlink ref="Q27" r:id="rId16"/>
-    <hyperlink ref="Q26" r:id="rId17"/>
-    <hyperlink ref="Q25" r:id="rId18"/>
-    <hyperlink ref="Q24" r:id="rId19"/>
-    <hyperlink ref="Q23" r:id="rId20"/>
-    <hyperlink ref="Q15" r:id="rId21"/>
-    <hyperlink ref="Q16" r:id="rId22"/>
-    <hyperlink ref="Q17" r:id="rId23"/>
-    <hyperlink ref="Q18" r:id="rId24"/>
-    <hyperlink ref="Q14" r:id="rId25"/>
+    <hyperlink ref="Q12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Q11" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q10" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Q9" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q8" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="Q7" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="Q6" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="Q5" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="Q4" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="Q3" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="Q2" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="Q30" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="Q29" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
+    <hyperlink ref="Q28" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
+    <hyperlink ref="Q27" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
+    <hyperlink ref="Q26" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
+    <hyperlink ref="Q25" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
+    <hyperlink ref="Q24" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
+    <hyperlink ref="Q23" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
+    <hyperlink ref="Q15" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
+    <hyperlink ref="Q16" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
+    <hyperlink ref="Q17" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
+    <hyperlink ref="Q18" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
+    <hyperlink ref="Q14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
@@ -10633,37 +10710,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.59765625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.875" style="10" customWidth="1"/>
-    <col min="10" max="13" width="11.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="19.625" style="25" customWidth="1"/>
+    <col min="9" max="9" width="75.8984375" style="10" customWidth="1"/>
+    <col min="10" max="13" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="19.59765625" style="13" customWidth="1"/>
+    <col min="16" max="16" width="19.59765625" style="25" customWidth="1"/>
     <col min="17" max="17" width="38.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.375" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="28.3984375" style="10" customWidth="1"/>
+    <col min="19" max="19" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.59765625" style="13" customWidth="1"/>
     <col min="21" max="21" width="34.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.59765625" style="13" customWidth="1"/>
+    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10737,7 +10814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="34" customFormat="1" ht="148.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" s="34" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -10747,69 +10824,69 @@
       <c r="C2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="54" t="s">
+        <v>783</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q2" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="R2" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="U2" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="Q2" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="33"/>
+      <c r="W2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" s="34" customFormat="1" ht="99" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -10819,65 +10896,69 @@
       <c r="C3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="53" t="s">
         <v>396</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="36" t="s">
-        <v>410</v>
-      </c>
-      <c r="K3" s="36" t="s">
-        <v>409</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="M3" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="O3" s="15" t="s">
+      <c r="I3" s="55" t="s">
+        <v>784</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>783</v>
+      </c>
+      <c r="O3" s="21" t="s">
         <v>24</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="R3" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="S3" s="36" t="s">
+        <v>788</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="S3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15" t="s">
+      <c r="U3" s="21" t="s">
+        <v>790</v>
+      </c>
+      <c r="V3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="33"/>
+      <c r="W3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="34" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -10887,53 +10968,69 @@
       <c r="C4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="53" t="s">
         <v>397</v>
       </c>
-      <c r="E4" s="35" t="s">
+      <c r="E4" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="O4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36" t="s">
+      <c r="I4" s="55" t="s">
+        <v>791</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="54" t="s">
+        <v>795</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>796</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="S4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="15" t="s">
+      <c r="T4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="W4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="33"/>
+      <c r="U4" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="V4" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -10943,60 +11040,78 @@
       <c r="C5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="53" t="s">
         <v>398</v>
       </c>
-      <c r="E5" s="35" t="s">
+      <c r="E5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36" t="s">
+      <c r="I5" s="55" t="s">
+        <v>800</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>806</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="S5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="15" t="s">
+      <c r="T5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="W5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="33"/>
+      <c r="U5" s="21" t="s">
+        <v>808</v>
+      </c>
+      <c r="V5" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X5"/>
+  <autoFilter ref="A1:X5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
-    <hyperlink ref="P3" r:id="rId2"/>
+    <hyperlink ref="P2" r:id="rId1" xr:uid="{03D7ABE3-EDE4-4DCE-9768-9F094D5A948C}"/>
+    <hyperlink ref="P3" r:id="rId2" xr:uid="{56348A34-65AB-4D88-BF42-A9D9B6AB8827}"/>
+    <hyperlink ref="P4" r:id="rId3" xr:uid="{B55B52C6-EB51-40DE-A62F-695DC77BA579}"/>
+    <hyperlink ref="P5" r:id="rId4" xr:uid="{36F42D60-37A0-4E30-89D9-A27485BCD8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/apiScrapy/input/datalake_meta22.xlsx
+++ b/apiScrapy/input/datalake_meta22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\GitHub\python_automation\apiScrapy\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB91B99B-4506-45D4-BAB2-F9459D8F99EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CB889-546D-4A43-99D0-EDBFB98C889B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. 건설사업정보시스템" sheetId="9" r:id="rId1"/>
@@ -24,7 +24,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2. 조달청-조달정보개방포털'!$A$1:$Y$33</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 통계청'!$A$1:$X$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. 통계청'!$A$1:$Y$5</definedName>
     <definedName name="Term">#REF!</definedName>
     <definedName name="title">#REF!</definedName>
     <definedName name="공휴일">OFFSET([1]사업캘린더!$L$3,,,COUNTA([1]사업캘린더!$L:$L)-1)</definedName>
@@ -33,17 +33,27 @@
     <definedName name="프로젝트명">'[2]1.표지 '!$C$3</definedName>
     <definedName name="프로젝트약자">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="813">
   <si>
     <t>순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3086,6 +3096,22 @@
   </si>
   <si>
     <t>표준지공시지가정보서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점번호,지점명,시간,평균기온,최저기온,최저기온시각,최고기온,최고기온시각,강수계속시간,10분최다강수량,10분최다강수량시각,1시간최다강수량,1시간최다강수량시각,일강수량,최대순간풍속,최대순간풍속풍향,최대순간풍속시각,최대풍속,최대풍속풍향,최대풍속시각,평균풍속,풍정합,최다풍향,평균이슬점온도,최소상대습도,평균상대습도시각,평균상대습도,평균증기압,평균현지기압,최고해면기압,최고해면기압시각,최저해면기압,최저해면기압시각,평균해면기압,가조시간,합계일조시간,1시간최다일사시각,1시간최다일사량,합계일사량,일최심신적설,일최심신적설시각,일최심적설,일최심적설시각,합계3시간신적설,평균전운량,평균중하층운량,평균지면온도,최저초상온도,평균5cm지중온도,평균10cm지중온도,평균20cm지중온도,평균30cm지중온도,0.5m지중온도,1.0m지중온도,1.5m지중온도,3.0m지중온도,5.0m지중온도,합계대형증발량,합계소형증발량,9-9강수,일기현상,안개계속시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호,법정동코드,법정동명,지번,대장구분코드,대장구분명,지목코드,지목명,면적,소유구분코드,소유구분명,소유(공유)인수,축척구분코드,축척구분명,데이터기준일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호,법정동코드,법정동명,대장구분코드,대장구분명,지번,토지일련번호,기준년도,기준월,지목코드,지목명,토지면적,용도지역코드1,용도지역명1,용도지역코드2,용도지역명2,토지이용상황코드,토지이용상황명,지형높이코드,지형높이,지형형상코드,지형형상,도로접면코드,도로접면,공시지가,데이터기준일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유번호,법정동코드,법정동명,특수지구분코드,특수지구분명,지번,표준지일련번호,기준년도,사업지구면적,지목코드,지목,실제지목코드,실제지목,토지면적,용도지역코드1,용도지역명1,용도지역코드2,용도지역명2,용도지구코드1,용도지구명1,용도지구코드2,용도지구명2,저촉율,토지이용상황코드,토지이용상황,지형높이코드,지형높이,지형형상코드,지형형상,도로측면코드,도로측면,도로거리코드,도로거리,공시지가,표준지소유구분코드,표준지소유구분명,소유형태코드,소유형태명,데이터기준일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8170,7 +8196,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10711,10 +10737,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -10727,20 +10753,20 @@
     <col min="6" max="6" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="75.8984375" style="10" customWidth="1"/>
-    <col min="10" max="13" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="19.59765625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="19.59765625" style="25" customWidth="1"/>
-    <col min="17" max="17" width="38.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.3984375" style="10" customWidth="1"/>
-    <col min="19" max="19" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.59765625" style="13" customWidth="1"/>
-    <col min="21" max="21" width="34.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.59765625" style="13" customWidth="1"/>
-    <col min="24" max="24" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="75.8984375" style="10" customWidth="1"/>
+    <col min="11" max="14" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="19.59765625" style="13" customWidth="1"/>
+    <col min="17" max="17" width="19.59765625" style="25" customWidth="1"/>
+    <col min="18" max="18" width="38.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.3984375" style="10" customWidth="1"/>
+    <col min="20" max="20" width="9.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.59765625" style="13" customWidth="1"/>
+    <col min="22" max="22" width="34.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="19.59765625" style="13" customWidth="1"/>
+    <col min="25" max="25" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -10766,55 +10792,58 @@
         <v>7</v>
       </c>
       <c r="I1" s="19" t="s">
+        <v>470</v>
+      </c>
+      <c r="J1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="O1" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="P1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="Q1" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="R1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="S1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="34" customFormat="1" ht="156.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" s="34" customFormat="1" ht="174" x14ac:dyDescent="0.4">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -10840,53 +10869,56 @@
         <v>26</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>781</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="M2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="54" t="s">
         <v>783</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="24" t="s">
         <v>403</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="R2" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="T2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="U2" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="V2" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="V2" s="21" t="s">
+      <c r="W2" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="1"/>
+      <c r="X2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="1"/>
     </row>
-    <row r="3" spans="1:24" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:25" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -10912,53 +10944,56 @@
         <v>26</v>
       </c>
       <c r="I3" s="55" t="s">
+        <v>810</v>
+      </c>
+      <c r="J3" s="55" t="s">
         <v>784</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>786</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="M3" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="54" t="s">
         <v>783</v>
       </c>
-      <c r="O3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="R3" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="U3" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="V3" s="21" t="s">
         <v>790</v>
       </c>
-      <c r="V3" s="21" t="s">
+      <c r="W3" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X3" s="1"/>
+      <c r="X3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1"/>
     </row>
-    <row r="4" spans="1:24" s="34" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:25" s="34" customFormat="1" ht="139.19999999999999" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -10984,53 +11019,56 @@
         <v>26</v>
       </c>
       <c r="I4" s="55" t="s">
+        <v>811</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>791</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>793</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="M4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="54" t="s">
+      <c r="N4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="54" t="s">
         <v>795</v>
       </c>
-      <c r="O4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="R4" s="21" t="s">
         <v>797</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="S4" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="U4" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="V4" s="21" t="s">
         <v>799</v>
       </c>
-      <c r="V4" s="21" t="s">
+      <c r="W4" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="W4" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X4" s="1"/>
+      <c r="X4" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y4" s="1"/>
     </row>
-    <row r="5" spans="1:24" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:25" s="34" customFormat="1" ht="121.8" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -11056,60 +11094,63 @@
         <v>26</v>
       </c>
       <c r="I5" s="55" t="s">
+        <v>812</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>800</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="M5" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="M5" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="54" t="s">
         <v>804</v>
       </c>
-      <c r="O5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="24" t="s">
         <v>805</v>
       </c>
-      <c r="Q5" s="21" t="s">
+      <c r="R5" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="S5" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="T5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="U5" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="V5" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="V5" s="21" t="s">
+      <c r="W5" s="21" t="s">
         <v>520</v>
       </c>
-      <c r="W5" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" s="1"/>
+      <c r="X5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:Y5" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" xr:uid="{03D7ABE3-EDE4-4DCE-9768-9F094D5A948C}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{56348A34-65AB-4D88-BF42-A9D9B6AB8827}"/>
-    <hyperlink ref="P4" r:id="rId3" xr:uid="{B55B52C6-EB51-40DE-A62F-695DC77BA579}"/>
-    <hyperlink ref="P5" r:id="rId4" xr:uid="{36F42D60-37A0-4E30-89D9-A27485BCD8B1}"/>
+    <hyperlink ref="Q2" r:id="rId1" xr:uid="{03D7ABE3-EDE4-4DCE-9768-9F094D5A948C}"/>
+    <hyperlink ref="Q3" r:id="rId2" xr:uid="{56348A34-65AB-4D88-BF42-A9D9B6AB8827}"/>
+    <hyperlink ref="Q4" r:id="rId3" xr:uid="{B55B52C6-EB51-40DE-A62F-695DC77BA579}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{36F42D60-37A0-4E30-89D9-A27485BCD8B1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
